--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="293">
   <si>
     <t>Doi</t>
   </si>
@@ -1120,6 +1120,19 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,    Jing%Wang%NULL%3,    Wenbin%Li%NULL%1,    Zhaoxian%Zhou%NULL%1,    Siying%Liu%NULL%1,    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Understanding the particle size distribution in the air and patterns of environmental contamination of SARS-CoV-2 is essential for infection prevention policies.
+ Here we screen surface and air samples from hospital rooms of COVID-19 patients for SARS-CoV-2 RNA.
+ Environmental sampling is conducted in three airborne infection isolation rooms (AIIRs) in the ICU and 27 AIIRs in the general ward.
+ 245 surface samples are collected.
+ 56.7% of rooms have at least one environmental surface contaminated.
+ High touch surface contamination is shown in ten (66.7%) out of 15 patients in the first week of illness, and three (20%) beyond the first week of illness (p = 0.01, χ2 test).
+ Air sampling is performed in three of the 27 AIIRs in the general ward, and detects SARS-CoV-2 PCR-positive particles of sizes &amp;gt;4 µm and 1–4 µm in two rooms, despite these rooms having 12 air changes per hour.
+ This warrants further study of the airborne transmission potential of SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,     Kristen Kelli%Coleman%NULL%2,     Kristen Kelli%Coleman%NULL%0,     Yian Kim%Tan%NULL%2,     Yian Kim%Tan%NULL%0,     Sean Wei Xiang%Ong%NULL%1,     Marcus%Gum%NULL%2,     Marcus%Gum%NULL%0,     Sok Kiang%Lau%NULL%1,     Xiao Fang%Lim%NULL%1,     Ai Sim%Lim%NULL%1,     Stephanie%Sutjipto%NULL%1,     Pei Hua%Lee%NULL%1,     Than The%Son%NULL%1,     Barnaby Edward%Young%NULL%1,     Donald K.%Milton%NULL%1,     Gregory C.%Gray%NULL%2,     Gregory C.%Gray%NULL%0,     Stephan%Schuster%NULL%2,     Stephan%Schuster%NULL%0,     Timothy%Barkham%NULL%1,     Partha Pratim%De%NULL%2,     Partha Pratim%De%NULL%0,     Shawn%Vasoo%NULL%1,     Monica%Chan%NULL%1,     Brenda Sze Peng%Ang%NULL%1,     Boon Huan%Tan%NULL%1,     Yee-Sin%Leo%NULL%1,     Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,     Michelle Su Yen%Wong%NULL%2,     Michelle Su Yen%Wong%NULL%0,     Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,     David Chien%Lye%NULL%2,     David Chien%Lye%NULL%0,     Poh Lian%Lim%NULL%1,     Cheng Chuan%Lee%NULL%1,     Li Min%Ling%NULL%1,     Lawrence%Lee%NULL%1,     Tau Hong%Lee%NULL%1,     Chen Seong%Wong%NULL%1,     Sapna%Sadarangani%NULL%1,     Ray Junhao%Lin%NULL%1,     Deborah Hee Ling%Ng%NULL%1,     Mucheli%Sadasiv%NULL%1,     Tsin Wen%Yeo%NULL%1,     Chiaw Yee%Choy%NULL%1,     Glorijoy Shi En%Tan%NULL%1,     Frederico%Dimatatac%NULL%1,     Isais Florante%Santos%NULL%1,     Chi Jong%Go%NULL%1,     Yu Kit%Chan%NULL%1,     Jun Yang%Tay%NULL%1,     Jackie Yu-Ling%Tan%NULL%1,     Nihar%Pandit%NULL%1,     Benjamin Choon Heng%Ho%NULL%1,     Shehara%Mendis%NULL%1,     Yuan Yi Constance%Chen%NULL%1,     Mohammad Yazid%Abdad%NULL%1,     Daniela%Moses%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1758,10 +1771,10 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="291">
   <si>
     <t>Doi</t>
   </si>
@@ -1120,19 +1120,6 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,    Jing%Wang%NULL%3,    Wenbin%Li%NULL%1,    Zhaoxian%Zhou%NULL%1,    Siying%Liu%NULL%1,    Zhihui%Rong%rongzhihui53@163.com%1]</t>
-  </si>
-  <si>
-    <t>Understanding the particle size distribution in the air and patterns of environmental contamination of SARS-CoV-2 is essential for infection prevention policies.
- Here we screen surface and air samples from hospital rooms of COVID-19 patients for SARS-CoV-2 RNA.
- Environmental sampling is conducted in three airborne infection isolation rooms (AIIRs) in the ICU and 27 AIIRs in the general ward.
- 245 surface samples are collected.
- 56.7% of rooms have at least one environmental surface contaminated.
- High touch surface contamination is shown in ten (66.7%) out of 15 patients in the first week of illness, and three (20%) beyond the first week of illness (p = 0.01, χ2 test).
- Air sampling is performed in three of the 27 AIIRs in the general ward, and detects SARS-CoV-2 PCR-positive particles of sizes &amp;gt;4 µm and 1–4 µm in two rooms, despite these rooms having 12 air changes per hour.
- This warrants further study of the airborne transmission potential of SARS-CoV-2.</t>
-  </si>
-  <si>
-    <t>[Po Ying%Chia%NULL%1,     Kristen Kelli%Coleman%NULL%2,     Kristen Kelli%Coleman%NULL%0,     Yian Kim%Tan%NULL%2,     Yian Kim%Tan%NULL%0,     Sean Wei Xiang%Ong%NULL%1,     Marcus%Gum%NULL%2,     Marcus%Gum%NULL%0,     Sok Kiang%Lau%NULL%1,     Xiao Fang%Lim%NULL%1,     Ai Sim%Lim%NULL%1,     Stephanie%Sutjipto%NULL%1,     Pei Hua%Lee%NULL%1,     Than The%Son%NULL%1,     Barnaby Edward%Young%NULL%1,     Donald K.%Milton%NULL%1,     Gregory C.%Gray%NULL%2,     Gregory C.%Gray%NULL%0,     Stephan%Schuster%NULL%2,     Stephan%Schuster%NULL%0,     Timothy%Barkham%NULL%1,     Partha Pratim%De%NULL%2,     Partha Pratim%De%NULL%0,     Shawn%Vasoo%NULL%1,     Monica%Chan%NULL%1,     Brenda Sze Peng%Ang%NULL%1,     Boon Huan%Tan%NULL%1,     Yee-Sin%Leo%NULL%1,     Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,     Michelle Su Yen%Wong%NULL%2,     Michelle Su Yen%Wong%NULL%0,     Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,     David Chien%Lye%NULL%2,     David Chien%Lye%NULL%0,     Poh Lian%Lim%NULL%1,     Cheng Chuan%Lee%NULL%1,     Li Min%Ling%NULL%1,     Lawrence%Lee%NULL%1,     Tau Hong%Lee%NULL%1,     Chen Seong%Wong%NULL%1,     Sapna%Sadarangani%NULL%1,     Ray Junhao%Lin%NULL%1,     Deborah Hee Ling%Ng%NULL%1,     Mucheli%Sadasiv%NULL%1,     Tsin Wen%Yeo%NULL%1,     Chiaw Yee%Choy%NULL%1,     Glorijoy Shi En%Tan%NULL%1,     Frederico%Dimatatac%NULL%1,     Isais Florante%Santos%NULL%1,     Chi Jong%Go%NULL%1,     Yu Kit%Chan%NULL%1,     Jun Yang%Tay%NULL%1,     Jackie Yu-Ling%Tan%NULL%1,     Nihar%Pandit%NULL%1,     Benjamin Choon Heng%Ho%NULL%1,     Shehara%Mendis%NULL%1,     Yuan Yi Constance%Chen%NULL%1,     Mohammad Yazid%Abdad%NULL%1,     Daniela%Moses%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1771,10 +1758,10 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="330">
   <si>
     <t>Doi</t>
   </si>
@@ -1120,6 +1120,123 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,    Jing%Wang%NULL%3,    Wenbin%Li%NULL%1,    Zhaoxian%Zhou%NULL%1,    Siying%Liu%NULL%1,    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,     Tania%Paredes%NULL%2,     Tania%Paredes%NULL%0,     David%Caceres%NULL%1,     Camille M.%Webb%NULL%1,     Luis M.%Valdez%NULL%1,     Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,     Claire M.%Midgley%NULL%1,     Alissa%Dratch%NULL%1,     Marty%Fenstersheib%NULL%1,     Thomas%Haupt%NULL%1,     Michelle%Holshue%NULL%1,     Isaac%Ghinai%NULL%1,     M. Claire%Jarashow%NULL%1,     Jennifer%Lo%NULL%1,     Tristan D.%McPherson%NULL%1,     Sara%Rudman%NULL%1,     Sarah%Scott%NULL%1,     Aron J.%Hall%NULL%1,     Alicia M.%Fry%NULL%1,     Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,     Wenjie%Sun%NULL%1,     Jianping%Huang%NULL%1,     Michelle%Gamber%NULL%1,     Jing%Wu%NULL%2,     Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,     Shuofeng%Yuan%NULL%0,     Kin-Hang%Kok%NULL%0,     Kelvin Kai-Wang%To%NULL%0,     Hin%Chu%NULL%0,     Jin%Yang%NULL%0,     Fanfan%Xing%NULL%0,     Jieling%Liu%NULL%0,     Cyril Chik-Yan%Yip%NULL%0,     Rosana Wing-Shan%Poon%NULL%0,     Hoi-Wah%Tsoi%NULL%0,     Simon Kam-Fai%Lo%NULL%0,     Kwok-Hung%Chan%NULL%0,     Vincent Kwok-Man%Poon%NULL%0,     Wan-Mui%Chan%NULL%0,     Jonathan Daniel%Ip%NULL%0,     Jian-Piao%Cai%NULL%0,     Vincent Chi-Chung%Cheng%NULL%0,     Honglin%Chen%NULL%0,     Christopher Kim-Ming%Hui%NULL%0,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,     Juanjuan%Guo%NULL%1,     Chen%Wang%NULL%2,     Fan%Luo%NULL%1,     Xuechen%Yu%NULL%1,     Wei%Zhang%NULL%1,     Jiafu%Li%NULL%1,     Dongchi%Zhao%NULL%1,     Dan%Xu%NULL%3,     Qing%Gong%NULL%1,     Jing%Liao%NULL%1,     Huixia%Yang%yanghuixia@bjmu.edu.cn%1,     Wei%Hou%houwei@whu.edu.cn%1,     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,     Hua%Peng%NULL%1,     Lin%Wang%NULL%3,     Yin%Zhao%NULL%1,     Lingkong%Zeng%NULL%1,     Hui%Gao%NULL%1,     Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,     Shu-Wan%Jian%NULL%1,     Ding-Ping%Liu%NULL%1,     Ta-Chou%Ng%NULL%1,     Wan-Ting%Huang%NULL%1,     Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,     Shuk-Ching%Wong%NULL%1,     Jonathan H. K.%Chen%NULL%1,     Cyril C. Y.%Yip%NULL%1,     Vivien W. M.%Chuang%NULL%1,     Owen T. Y.%Tsang%NULL%1,     Siddharth%Sridhar%NULL%1,     Jasper F. W.%Chan%NULL%1,     Pak-Leung%Ho%NULL%1,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,     Kristen Kelli%Coleman%NULL%2,     Kristen Kelli%Coleman%NULL%0,     Yian Kim%Tan%NULL%2,     Yian Kim%Tan%NULL%0,     Sean Wei Xiang%Ong%NULL%1,     Marcus%Gum%NULL%2,     Marcus%Gum%NULL%0,     Sok Kiang%Lau%NULL%1,     Xiao Fang%Lim%NULL%1,     Ai Sim%Lim%NULL%1,     Stephanie%Sutjipto%NULL%1,     Pei Hua%Lee%NULL%1,     Than The%Son%NULL%1,     Barnaby Edward%Young%NULL%1,     Donald K.%Milton%NULL%1,     Gregory C.%Gray%NULL%2,     Gregory C.%Gray%NULL%0,     Stephan%Schuster%NULL%2,     Stephan%Schuster%NULL%0,     Timothy%Barkham%NULL%1,     Partha Pratim%De%NULL%2,     Partha Pratim%De%NULL%0,     Shawn%Vasoo%NULL%1,     Monica%Chan%NULL%1,     Brenda Sze Peng%Ang%NULL%1,     Boon Huan%Tan%NULL%1,     Yee-Sin%Leo%NULL%1,     Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,     Michelle Su Yen%Wong%NULL%2,     Michelle Su Yen%Wong%NULL%0,     Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,     David Chien%Lye%NULL%2,     David Chien%Lye%NULL%0,     Poh Lian%Lim%NULL%1,     Cheng Chuan%Lee%NULL%1,     Li Min%Ling%NULL%1,     Lawrence%Lee%NULL%1,     Tau Hong%Lee%NULL%1,     Chen Seong%Wong%NULL%1,     Sapna%Sadarangani%NULL%1,     Ray Junhao%Lin%NULL%1,     Deborah Hee Ling%Ng%NULL%1,     Mucheli%Sadasiv%NULL%1,     Tsin Wen%Yeo%NULL%1,     Chiaw Yee%Choy%NULL%1,     Glorijoy Shi En%Tan%NULL%1,     Frederico%Dimatatac%NULL%1,     Isais Florante%Santos%NULL%1,     Chi Jong%Go%NULL%1,     Yu Kit%Chan%NULL%1,     Jun Yang%Tay%NULL%1,     Jackie Yu-Ling%Tan%NULL%1,     Nihar%Pandit%NULL%1,     Benjamin Choon Heng%Ho%NULL%1,     Shehara%Mendis%NULL%1,     Yuan Yi Constance%Chen%NULL%1,     Mohammad Yazid%Abdad%NULL%1,     Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,     Julie T S%Chu%NULL%1,     Mahen R A%Perera%NULL%1,     Kenrie P Y%Hui%NULL%1,     Hui-Ling%Yen%NULL%1,     Michael C W%Chan%NULL%1,     Malik%Peiris%NULL%0,     Leo L M%Poon%llmpoon@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,     Daniele%Lapa%NULL%2,     Fabrizio%Carletti%NULL%2,     Eleonora%Lalle%NULL%2,     Licia%Bordi%NULL%2,     Patrizia%Marsella%NULL%2,     Emanuele%Nicastri%NULL%0,     Nazario%Bevilacqua%NULL%2,     Maria Letizia%Giancola%NULL%2,     Angela%Corpolongo%NULL%2,     Giuseppe%Ippolito%NULL%2,     Maria Rosaria%Capobianchi%NULL%2,     Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,     Daniele%Lapa%NULL%0,     Fabrizio%Carletti%NULL%0,     Eleonora%Lalle%NULL%0,     Licia%Bordi%NULL%0,     Patrizia%Marsella%NULL%0,     Emanuele%Nicastri%NULL%0,     Nazario%Bevilacqua%NULL%0,     Maria Letizia%Giancola%NULL%0,     Angela%Corpolongo%NULL%0,     Giuseppe%Ippolito%NULL%0,     Maria Rosaria%Capobianchi%NULL%0,     Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,      Z.% Chen%null%1,      T.% Wang%null%2,      J.% Dai%null%1,      J.% Zhang%null%1,      T.% Ding%null%1,      J.% Jiang%null%1,      J.% Liu%null%1,      C.% Zhang%null%1,      W.% Shan%null%1,      S.% Wang%null%1,      Y.% Rong%null%1,      J.% Chang%null%1,      X.% Miao%null%1,      X.% Ma%null%1,      S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%2,      Tsung-Hao%Liu%null%1,      Thomas%Yau%null%1,      Chiun%Hsu%null%1,  Yawen%Dong%null%0,  Tsung-Hao%Liu%null%1,  Thomas%Yau%null%1,  Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,     Yan%Pan%woshipanyan@126.com%1,     Qingcui%Wu%NULL%1,     Shan%Liu%NULL%1,     Xu%Song%NULL%1,     Zhongguo%Xie%NULL%1,     Yang%Liu%NULL%1,     Liang%Zhao%NULL%1,     Zhonghong%Wang%NULL%1,     Yifei%Zhang%NULL%1,     Zuchuang%Wu%NULL%1,     Lei%Guan%NULL%1,     Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,     Sadegh%Niazi%NULL%1,     Kaveh%Sadeghi%NULL%1,     Kazem%Naddafi%NULL%1,     Jila%Yavarian%NULL%1,     Mansour%Shamsipour%NULL%1,     Nazanin Zahra Shafiei%Jandaghi%NULL%1,     Khosro%Sadeghniiat%NULL%1,     Ramin%Nabizadeh%NULL%1,     Masud%Yunesian%NULL%1,     Fatemeh%Momeniha%NULL%1,     Adel%Mokamel%NULL%1,     Mohammad Sadegh%Hassanvand%NULL%1,     Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,     Moon-Woo%Seong%NULL%1,     Eun Young%Heo%NULL%1,     Ji Hong%Park%NULL%1,     Namhee%Kim%NULL%1,     Sue%Shin%NULL%1,     Sung Im%Cho%NULL%1,     Sung Sup%Park%NULL%1,     Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,     Matthew J.%Stuckey%NULL%1,     Tara%Scheuer%NULL%1,     Kerui%Xu%NULL%1,     Kiran M.%Perkins%NULL%1,     Heather%Resseger%NULL%1,     Shelley%Magill%NULL%1,     Jennifer R.%Verani%NULL%1,     Seema%Jain%NULL%1,     Meileen%Acosta%NULL%1,     Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,     Xiuwen%Zhang%NULL%2,     Xinyue%Zhang%NULL%2,     Zhijian%Wei%NULL%2,     Lingli%Zhang%NULL%2,     Jingjing%Xu%NULL%2,     Peipei%Liang%NULL%2,     Yuanhong%Xu%xyhong1964@163.com%0,     Chengyuan%Zhang%2396476405@qq.com%2,     Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,     Xiuwen%Zhang%NULL%0,     Xinyue%Zhang%NULL%0,     Zhijian%Wei%NULL%0,     Lingli%Zhang%NULL%0,     Jingjing%Xu%NULL%0,     Peipei%Liang%NULL%0,     Yuanhong%Xu%xyhong1964@163.com%0,     Chengyuan%Zhang%2396476405@qq.com%0,     Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,     Juan%Xia%NULL%1,     Yuxin%Chen%NULL%1,     Chun%Shan%NULL%1,     Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,     Rachael%Overcash%NULL%1,     Neggin%Mokhtari%NULL%1,     Haleema%Saeed%NULL%1,     Stacey%Gold%NULL%1,     Tamika%Auguste%NULL%1,     Muhammad-Usman%Mirza%NULL%1,     Maria-Elena%Ruiz%NULL%1,     Joeffrey J.%Chahine%NULL%2,     Joeffrey J.%Chahine%NULL%0,     Masashi%Waga%NULL%2,     Masashi%Waga%NULL%0,     Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,     Mei%Luo%NULL%1,     Zhen%Zou%NULL%1,     Xu%Wang%875777340@qq.com%1,     Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,     Jingfu%Qiu%jfqiu@126.com%2,     Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,     Xiao-Li%Zhang%NULL%1,     Xiang-Na%Zhao%NULL%1,     Cun-Bao%Li%NULL%1,     Jie%Lei%NULL%2,     Zeng-Qiang%Kou%NULL%1,     Wen-Kui%Sun%NULL%1,     Yang%Hang%NULL%1,     Feng%Gao%NULL%1,     Sheng-Xiang%Ji%NULL%1,     Can-Fang%Lin%NULL%1,     Bo%Pang%NULL%1,     Ming-Xiao%Yao%NULL%1,     Benjamin D%Anderson%NULL%1,     Guo-Lin%Wang%NULL%1,     Lin%Yao%NULL%1,     Li-Jun%Duan%NULL%1,     Dian-Ming%Kang%dmkang66@163.com%1,     Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,     Lam V%Nguyen%NULL%1,     Dien M%Tran%NULL%1,     Hai T%Do%NULL%1,     Huong T%Tran%NULL%1,     Yen T%Le%NULL%1,     Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,     Jihyang%Lee%NULL%4,     Jihyang%Lee%NULL%0,     Eunju%Kim%NULL%4,     Eunju%Kim%NULL%0,     Kyeongyoon%Woo%NULL%4,     Kyeongyoon%Woo%NULL%0,     Hak Youle%Park%NULL%4,     Hak Youle%Park%NULL%0,     Jihyun%An%NULL%4,     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,     Jihyang%Lee%NULL%0,     Jihyang%Lee%NULL%0,     Eunju%Kim%NULL%0,     Eunju%Kim%NULL%0,     Kyeongyoon%Woo%NULL%0,     Kyeongyoon%Woo%NULL%0,     Hak Youle%Park%NULL%0,     Hak Youle%Park%NULL%0,     Jihyun%An%NULL%0,     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,     Fang%Ji%NULL%1,     Liang%Wang%NULL%1,     Liping%Wang%NULL%1,     Jungui%Hao%NULL%1,     Mingjia%Dai%NULL%1,     Yan%Liu%NULL%0,     Xiucheng%Pan%NULL%1,     Juanjuan%Fu%NULL%1,     Li%Li%NULL%0,     Guangde%Yang%NULL%1,     Jianye%Yang%NULL%1,     Xuebing%Yan%NULL%1,     Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,     Meiling%Jin%NULL%1,     Pengtao%Bao%NULL%1,     Weiguo%Zhao%NULL%1,     Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,     Lefei%Han%NULL%2,     Min%Peng%2658706528@qq.com%2,     Yuxia%Lv%NULL%2,     Yin%Ouyang%NULL%2,     Kui%Liu%NULL%0,     Linli%Yue%NULL%2,     Qiannan%Li%NULL%2,     Guoqiang%Sun%NULL%2,     Lin%Chen%NULL%2,     Lin%Yang%l.yang@polyu.edu.hk%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,     Bo%Zhang%NULL%2,     Jianhua%Lu%NULL%1,     Shihua%Liu%NULL%1,     Zhiqiang%Chang%NULL%1,     Peng%Cao%NULL%1,     Xinhua%Liu%NULL%1,     Peng%Zhang%NULL%2,     Yan%Ling%NULL%1,     Kaixiong%Tao%NULL%1,     Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,     Yingying%Hu%NULL%2,     Yingying%Hu%NULL%0,     Yuanyuan%Yu%NULL%1,     Xiaodong%Zhang%NULL%1,     Bin%Li%NULL%1,     Jianguo%Wu%NULL%1,     Junyu%Li%NULL%1,     Yingping%Wu%NULL%1,     Xiaoping%Xia%NULL%2,     Xiaoping%Xia%NULL%0,     Huina%Tang%NULL%1,     Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,      H.% Qian%null%1,      J.% Hang%null%1,      X.% Chen%null%1,      L.% Hong%null%1,      P.% Liang%null%1,      J.% Li%null%1,      S.% Xiao%null%1,      J.% Wei%null%1,      L.% Liu%null%2,      M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Jing%Wang%NULL%3,     Wenbin%Li%NULL%1,     Zhaoxian%Zhou%NULL%1,     Siying%Liu%NULL%1,     Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1512,6 +1629,9 @@
       <c r="H1" t="s">
         <v>49</v>
       </c>
+      <c r="I1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1527,7 +1647,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1537,6 +1657,9 @@
       </c>
       <c r="H2" t="s">
         <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3">
@@ -1553,7 +1676,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -1563,6 +1686,9 @@
       </c>
       <c r="H3" t="s">
         <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -1579,7 +1705,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1589,6 +1715,9 @@
       </c>
       <c r="H4" t="s">
         <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5">
@@ -1605,7 +1734,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -1615,6 +1744,9 @@
       </c>
       <c r="H5" t="s">
         <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -1631,7 +1763,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1641,6 +1773,9 @@
       </c>
       <c r="H6" t="s">
         <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7">
@@ -1668,6 +1803,9 @@
       <c r="H7" t="s">
         <v>60</v>
       </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1683,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1693,6 +1831,9 @@
       </c>
       <c r="H8" t="s">
         <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -1709,7 +1850,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -1719,6 +1860,9 @@
       </c>
       <c r="H9" t="s">
         <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10">
@@ -1735,7 +1879,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1745,6 +1889,9 @@
       </c>
       <c r="H10" t="s">
         <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -1761,7 +1908,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1771,6 +1918,9 @@
       </c>
       <c r="H11" t="s">
         <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12">
@@ -1787,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1797,6 +1947,9 @@
       </c>
       <c r="H12" t="s">
         <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13">
@@ -1813,7 +1966,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -1823,6 +1976,9 @@
       </c>
       <c r="H13" t="s">
         <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="14">
@@ -1839,7 +1995,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -1849,6 +2005,9 @@
       </c>
       <c r="H14" t="s">
         <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -1865,16 +2024,19 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
         <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16">
@@ -1902,6 +2064,9 @@
       <c r="H16" t="s">
         <v>60</v>
       </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
@@ -1917,7 +2082,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1927,6 +2092,9 @@
       </c>
       <c r="H17" t="s">
         <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +2111,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -1953,6 +2121,9 @@
       </c>
       <c r="H18" t="s">
         <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1969,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -1979,6 +2150,9 @@
       </c>
       <c r="H19" t="s">
         <v>118</v>
+      </c>
+      <c r="I19" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20">
@@ -2006,6 +2180,9 @@
       <c r="H20" t="s">
         <v>60</v>
       </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
@@ -2021,7 +2198,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2031,6 +2208,9 @@
       </c>
       <c r="H21" t="s">
         <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="22">
@@ -2047,7 +2227,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -2057,6 +2237,9 @@
       </c>
       <c r="H22" t="s">
         <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="23">
@@ -2073,7 +2256,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -2083,6 +2266,9 @@
       </c>
       <c r="H23" t="s">
         <v>104</v>
+      </c>
+      <c r="I23" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="24">
@@ -2099,7 +2285,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -2109,6 +2295,9 @@
       </c>
       <c r="H24" t="s">
         <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="25">
@@ -2125,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -2135,6 +2324,9 @@
       </c>
       <c r="H25" t="s">
         <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="26">
@@ -2151,7 +2343,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2161,6 +2353,9 @@
       </c>
       <c r="H26" t="s">
         <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="27">
@@ -2177,7 +2372,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -2187,6 +2382,9 @@
       </c>
       <c r="H27" t="s">
         <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="28">
@@ -2203,7 +2401,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -2213,6 +2411,9 @@
       </c>
       <c r="H28" t="s">
         <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="29">
@@ -2240,6 +2441,9 @@
       <c r="H29" t="s">
         <v>149</v>
       </c>
+      <c r="I29" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
@@ -2255,7 +2459,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -2265,6 +2469,9 @@
       </c>
       <c r="H30" t="s">
         <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="31">
@@ -2281,7 +2488,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -2291,6 +2498,9 @@
       </c>
       <c r="H31" t="s">
         <v>157</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -2307,7 +2517,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -2317,6 +2527,9 @@
       </c>
       <c r="H32" t="s">
         <v>157</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33">
@@ -2333,7 +2546,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -2343,6 +2556,9 @@
       </c>
       <c r="H33" t="s">
         <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -2359,7 +2575,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -2369,6 +2585,9 @@
       </c>
       <c r="H34" t="s">
         <v>167</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="35">
@@ -2385,7 +2604,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -2395,6 +2614,9 @@
       </c>
       <c r="H35" t="s">
         <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="36">
@@ -2411,7 +2633,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -2421,6 +2643,9 @@
       </c>
       <c r="H36" t="s">
         <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="37">
@@ -2437,7 +2662,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -2447,6 +2672,9 @@
       </c>
       <c r="H37" t="s">
         <v>180</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="38">
@@ -2463,16 +2691,19 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
         <v>184</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="39">
@@ -2489,7 +2720,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
@@ -2499,6 +2730,9 @@
       </c>
       <c r="H39" t="s">
         <v>189</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="40">

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="432">
   <si>
     <t>Doi</t>
   </si>
@@ -1237,6 +1237,312 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,     Jing%Wang%NULL%3,     Wenbin%Li%NULL%1,     Zhaoxian%Zhou%NULL%1,     Siying%Liu%NULL%1,     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,      Tania%Paredes%NULL%2,      Tania%Paredes%NULL%0,      David%Caceres%NULL%1,      Camille M.%Webb%NULL%1,      Luis M.%Valdez%NULL%1,      Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,      Claire M.%Midgley%NULL%1,      Alissa%Dratch%NULL%1,      Marty%Fenstersheib%NULL%1,      Thomas%Haupt%NULL%1,      Michelle%Holshue%NULL%1,      Isaac%Ghinai%NULL%1,      M. Claire%Jarashow%NULL%1,      Jennifer%Lo%NULL%1,      Tristan D.%McPherson%NULL%1,      Sara%Rudman%NULL%1,      Sarah%Scott%NULL%1,      Aron J.%Hall%NULL%1,      Alicia M.%Fry%NULL%1,      Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,      Wenjie%Sun%NULL%1,      Jianping%Huang%NULL%1,      Michelle%Gamber%NULL%1,      Jing%Wu%NULL%2,      Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,      Shuofeng%Yuan%NULL%0,      Kin-Hang%Kok%NULL%0,      Kelvin Kai-Wang%To%NULL%0,      Hin%Chu%NULL%0,      Jin%Yang%NULL%0,      Fanfan%Xing%NULL%0,      Jieling%Liu%NULL%0,      Cyril Chik-Yan%Yip%NULL%0,      Rosana Wing-Shan%Poon%NULL%0,      Hoi-Wah%Tsoi%NULL%0,      Simon Kam-Fai%Lo%NULL%0,      Kwok-Hung%Chan%NULL%0,      Vincent Kwok-Man%Poon%NULL%0,      Wan-Mui%Chan%NULL%0,      Jonathan Daniel%Ip%NULL%0,      Jian-Piao%Cai%NULL%0,      Vincent Chi-Chung%Cheng%NULL%0,      Honglin%Chen%NULL%0,      Christopher Kim-Ming%Hui%NULL%0,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,      Juanjuan%Guo%NULL%1,      Chen%Wang%NULL%2,      Fan%Luo%NULL%1,      Xuechen%Yu%NULL%1,      Wei%Zhang%NULL%1,      Jiafu%Li%NULL%1,      Dongchi%Zhao%NULL%1,      Dan%Xu%NULL%3,      Qing%Gong%NULL%1,      Jing%Liao%NULL%1,      Huixia%Yang%yanghuixia@bjmu.edu.cn%1,      Wei%Hou%houwei@whu.edu.cn%1,      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,      Hua%Peng%NULL%1,      Lin%Wang%NULL%3,      Yin%Zhao%NULL%1,      Lingkong%Zeng%NULL%1,      Hui%Gao%NULL%1,      Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,      Shu-Wan%Jian%NULL%1,      Ding-Ping%Liu%NULL%1,      Ta-Chou%Ng%NULL%1,      Wan-Ting%Huang%NULL%1,      Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,      Shuk-Ching%Wong%NULL%1,      Jonathan H. K.%Chen%NULL%1,      Cyril C. Y.%Yip%NULL%1,      Vivien W. M.%Chuang%NULL%1,      Owen T. Y.%Tsang%NULL%1,      Siddharth%Sridhar%NULL%1,      Jasper F. W.%Chan%NULL%1,      Pak-Leung%Ho%NULL%1,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,      Kristen Kelli%Coleman%NULL%2,      Kristen Kelli%Coleman%NULL%0,      Yian Kim%Tan%NULL%2,      Yian Kim%Tan%NULL%0,      Sean Wei Xiang%Ong%NULL%1,      Marcus%Gum%NULL%2,      Marcus%Gum%NULL%0,      Sok Kiang%Lau%NULL%1,      Xiao Fang%Lim%NULL%1,      Ai Sim%Lim%NULL%1,      Stephanie%Sutjipto%NULL%1,      Pei Hua%Lee%NULL%1,      Than The%Son%NULL%1,      Barnaby Edward%Young%NULL%1,      Donald K.%Milton%NULL%1,      Gregory C.%Gray%NULL%2,      Gregory C.%Gray%NULL%0,      Stephan%Schuster%NULL%2,      Stephan%Schuster%NULL%0,      Timothy%Barkham%NULL%1,      Partha Pratim%De%NULL%2,      Partha Pratim%De%NULL%0,      Shawn%Vasoo%NULL%1,      Monica%Chan%NULL%1,      Brenda Sze Peng%Ang%NULL%1,      Boon Huan%Tan%NULL%1,      Yee-Sin%Leo%NULL%1,      Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,      Michelle Su Yen%Wong%NULL%2,      Michelle Su Yen%Wong%NULL%0,      Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,      David Chien%Lye%NULL%2,      David Chien%Lye%NULL%0,      Poh Lian%Lim%NULL%1,      Cheng Chuan%Lee%NULL%1,      Li Min%Ling%NULL%1,      Lawrence%Lee%NULL%1,      Tau Hong%Lee%NULL%1,      Chen Seong%Wong%NULL%1,      Sapna%Sadarangani%NULL%1,      Ray Junhao%Lin%NULL%1,      Deborah Hee Ling%Ng%NULL%1,      Mucheli%Sadasiv%NULL%1,      Tsin Wen%Yeo%NULL%1,      Chiaw Yee%Choy%NULL%1,      Glorijoy Shi En%Tan%NULL%1,      Frederico%Dimatatac%NULL%1,      Isais Florante%Santos%NULL%1,      Chi Jong%Go%NULL%1,      Yu Kit%Chan%NULL%1,      Jun Yang%Tay%NULL%1,      Jackie Yu-Ling%Tan%NULL%1,      Nihar%Pandit%NULL%1,      Benjamin Choon Heng%Ho%NULL%1,      Shehara%Mendis%NULL%1,      Yuan Yi Constance%Chen%NULL%1,      Mohammad Yazid%Abdad%NULL%1,      Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,      Julie T S%Chu%NULL%1,      Mahen R A%Perera%NULL%1,      Kenrie P Y%Hui%NULL%1,      Hui-Ling%Yen%NULL%1,      Michael C W%Chan%NULL%1,      Malik%Peiris%NULL%0,      Leo L M%Poon%llmpoon@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,      Daniele%Lapa%NULL%2,      Fabrizio%Carletti%NULL%2,      Eleonora%Lalle%NULL%2,      Licia%Bordi%NULL%2,      Patrizia%Marsella%NULL%2,      Emanuele%Nicastri%NULL%0,      Nazario%Bevilacqua%NULL%2,      Maria Letizia%Giancola%NULL%2,      Angela%Corpolongo%NULL%2,      Giuseppe%Ippolito%NULL%2,      Maria Rosaria%Capobianchi%NULL%2,      Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,      Daniele%Lapa%NULL%0,      Fabrizio%Carletti%NULL%0,      Eleonora%Lalle%NULL%0,      Licia%Bordi%NULL%0,      Patrizia%Marsella%NULL%0,      Emanuele%Nicastri%NULL%0,      Nazario%Bevilacqua%NULL%0,      Maria Letizia%Giancola%NULL%0,      Angela%Corpolongo%NULL%0,      Giuseppe%Ippolito%NULL%0,      Maria Rosaria%Capobianchi%NULL%0,      Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,       Z.% Chen%null%1,       T.% Wang%null%2,       J.% Dai%null%1,       J.% Zhang%null%1,       T.% Ding%null%1,       J.% Jiang%null%1,       J.% Liu%null%1,       C.% Zhang%null%1,       W.% Shan%null%1,       S.% Wang%null%1,       Y.% Rong%null%1,       J.% Chang%null%1,       X.% Miao%null%1,       X.% Ma%null%1,       S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,       Tsung-Hao%Liu%null%1,       Thomas%Yau%null%1,       Chiun%Hsu%null%1,   Yawen%Dong%null%1,   Tsung-Hao%Liu%null%1,   Thomas%Yau%null%1,   Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,      Yan%Pan%woshipanyan@126.com%1,      Qingcui%Wu%NULL%1,      Shan%Liu%NULL%1,      Xu%Song%NULL%1,      Zhongguo%Xie%NULL%1,      Yang%Liu%NULL%1,      Liang%Zhao%NULL%1,      Zhonghong%Wang%NULL%1,      Yifei%Zhang%NULL%1,      Zuchuang%Wu%NULL%1,      Lei%Guan%NULL%1,      Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,      Sadegh%Niazi%NULL%1,      Kaveh%Sadeghi%NULL%1,      Kazem%Naddafi%NULL%1,      Jila%Yavarian%NULL%1,      Mansour%Shamsipour%NULL%1,      Nazanin Zahra Shafiei%Jandaghi%NULL%1,      Khosro%Sadeghniiat%NULL%1,      Ramin%Nabizadeh%NULL%1,      Masud%Yunesian%NULL%1,      Fatemeh%Momeniha%NULL%1,      Adel%Mokamel%NULL%1,      Mohammad Sadegh%Hassanvand%NULL%1,      Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,      Moon-Woo%Seong%NULL%1,      Eun Young%Heo%NULL%1,      Ji Hong%Park%NULL%1,      Namhee%Kim%NULL%1,      Sue%Shin%NULL%1,      Sung Im%Cho%NULL%1,      Sung Sup%Park%NULL%1,      Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,      Matthew J.%Stuckey%NULL%1,      Tara%Scheuer%NULL%1,      Kerui%Xu%NULL%1,      Kiran M.%Perkins%NULL%1,      Heather%Resseger%NULL%1,      Shelley%Magill%NULL%1,      Jennifer R.%Verani%NULL%1,      Seema%Jain%NULL%1,      Meileen%Acosta%NULL%1,      Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,      Xiuwen%Zhang%NULL%2,      Xinyue%Zhang%NULL%2,      Zhijian%Wei%NULL%2,      Lingli%Zhang%NULL%2,      Jingjing%Xu%NULL%2,      Peipei%Liang%NULL%2,      Yuanhong%Xu%xyhong1964@163.com%0,      Chengyuan%Zhang%2396476405@qq.com%2,      Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,      Xiuwen%Zhang%NULL%0,      Xinyue%Zhang%NULL%0,      Zhijian%Wei%NULL%0,      Lingli%Zhang%NULL%0,      Jingjing%Xu%NULL%0,      Peipei%Liang%NULL%0,      Yuanhong%Xu%xyhong1964@163.com%0,      Chengyuan%Zhang%2396476405@qq.com%0,      Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,      Juan%Xia%NULL%1,      Yuxin%Chen%NULL%1,      Chun%Shan%NULL%1,      Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,      Rachael%Overcash%NULL%1,      Neggin%Mokhtari%NULL%1,      Haleema%Saeed%NULL%1,      Stacey%Gold%NULL%1,      Tamika%Auguste%NULL%1,      Muhammad-Usman%Mirza%NULL%1,      Maria-Elena%Ruiz%NULL%1,      Joeffrey J.%Chahine%NULL%2,      Joeffrey J.%Chahine%NULL%0,      Masashi%Waga%NULL%2,      Masashi%Waga%NULL%0,      Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,      Mei%Luo%NULL%1,      Zhen%Zou%NULL%1,      Xu%Wang%875777340@qq.com%1,      Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,      Jingfu%Qiu%jfqiu@126.com%2,      Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,      Xiao-Li%Zhang%NULL%1,      Xiang-Na%Zhao%NULL%1,      Cun-Bao%Li%NULL%1,      Jie%Lei%NULL%2,      Zeng-Qiang%Kou%NULL%1,      Wen-Kui%Sun%NULL%1,      Yang%Hang%NULL%1,      Feng%Gao%NULL%1,      Sheng-Xiang%Ji%NULL%1,      Can-Fang%Lin%NULL%1,      Bo%Pang%NULL%1,      Ming-Xiao%Yao%NULL%1,      Benjamin D%Anderson%NULL%1,      Guo-Lin%Wang%NULL%1,      Lin%Yao%NULL%1,      Li-Jun%Duan%NULL%1,      Dian-Ming%Kang%dmkang66@163.com%1,      Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,      Lam V%Nguyen%NULL%1,      Dien M%Tran%NULL%1,      Hai T%Do%NULL%1,      Huong T%Tran%NULL%1,      Yen T%Le%NULL%1,      Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,      Jihyang%Lee%NULL%4,      Jihyang%Lee%NULL%0,      Eunju%Kim%NULL%4,      Eunju%Kim%NULL%0,      Kyeongyoon%Woo%NULL%4,      Kyeongyoon%Woo%NULL%0,      Hak Youle%Park%NULL%4,      Hak Youle%Park%NULL%0,      Jihyun%An%NULL%4,      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,      Jihyang%Lee%NULL%0,      Jihyang%Lee%NULL%0,      Eunju%Kim%NULL%0,      Eunju%Kim%NULL%0,      Kyeongyoon%Woo%NULL%0,      Kyeongyoon%Woo%NULL%0,      Hak Youle%Park%NULL%0,      Hak Youle%Park%NULL%0,      Jihyun%An%NULL%0,      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,      Fang%Ji%NULL%1,      Liang%Wang%NULL%1,      Liping%Wang%NULL%1,      Jungui%Hao%NULL%1,      Mingjia%Dai%NULL%1,      Yan%Liu%NULL%0,      Xiucheng%Pan%NULL%1,      Juanjuan%Fu%NULL%1,      Li%Li%NULL%0,      Guangde%Yang%NULL%1,      Jianye%Yang%NULL%1,      Xuebing%Yan%NULL%1,      Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,      Meiling%Jin%NULL%1,      Pengtao%Bao%NULL%1,      Weiguo%Zhao%NULL%1,      Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,      Lefei%Han%NULL%2,      Min%Peng%2658706528@qq.com%2,      Yuxia%Lv%NULL%2,      Yin%Ouyang%NULL%2,      Kui%Liu%NULL%0,      Linli%Yue%NULL%2,      Qiannan%Li%NULL%2,      Guoqiang%Sun%NULL%2,      Lin%Chen%NULL%2,      Lin%Yang%l.yang@polyu.edu.hk%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,      Bo%Zhang%NULL%2,      Jianhua%Lu%NULL%1,      Shihua%Liu%NULL%1,      Zhiqiang%Chang%NULL%1,      Peng%Cao%NULL%1,      Xinhua%Liu%NULL%1,      Peng%Zhang%NULL%2,      Yan%Ling%NULL%1,      Kaixiong%Tao%NULL%1,      Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,      Yingying%Hu%NULL%2,      Yingying%Hu%NULL%0,      Yuanyuan%Yu%NULL%1,      Xiaodong%Zhang%NULL%1,      Bin%Li%NULL%1,      Jianguo%Wu%NULL%1,      Junyu%Li%NULL%1,      Yingping%Wu%NULL%1,      Xiaoping%Xia%NULL%2,      Xiaoping%Xia%NULL%0,      Huina%Tang%NULL%1,      Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,       H.% Qian%null%1,       J.% Hang%null%1,       X.% Chen%null%1,       L.% Hong%null%1,       P.% Liang%null%1,       J.% Li%null%1,       S.% Xiao%null%1,       J.% Wei%null%1,       L.% Liu%null%2,       M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Jing%Wang%NULL%3,      Wenbin%Li%NULL%1,      Zhaoxian%Zhou%NULL%1,      Siying%Liu%NULL%1,      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,       Tania%Paredes%NULL%2,       Tania%Paredes%NULL%0,       David%Caceres%NULL%1,       Camille M.%Webb%NULL%1,       Luis M.%Valdez%NULL%1,       Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,       Claire M.%Midgley%NULL%1,       Alissa%Dratch%NULL%1,       Marty%Fenstersheib%NULL%1,       Thomas%Haupt%NULL%1,       Michelle%Holshue%NULL%1,       Isaac%Ghinai%NULL%1,       M. Claire%Jarashow%NULL%1,       Jennifer%Lo%NULL%1,       Tristan D.%McPherson%NULL%1,       Sara%Rudman%NULL%1,       Sarah%Scott%NULL%1,       Aron J.%Hall%NULL%1,       Alicia M.%Fry%NULL%1,       Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,       Wenjie%Sun%NULL%1,       Jianping%Huang%NULL%1,       Michelle%Gamber%NULL%1,       Jing%Wu%NULL%2,       Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,       Shuofeng%Yuan%NULL%0,       Kin-Hang%Kok%NULL%0,       Kelvin Kai-Wang%To%NULL%0,       Hin%Chu%NULL%0,       Jin%Yang%NULL%0,       Fanfan%Xing%NULL%0,       Jieling%Liu%NULL%0,       Cyril Chik-Yan%Yip%NULL%0,       Rosana Wing-Shan%Poon%NULL%0,       Hoi-Wah%Tsoi%NULL%0,       Simon Kam-Fai%Lo%NULL%0,       Kwok-Hung%Chan%NULL%0,       Vincent Kwok-Man%Poon%NULL%0,       Wan-Mui%Chan%NULL%0,       Jonathan Daniel%Ip%NULL%0,       Jian-Piao%Cai%NULL%0,       Vincent Chi-Chung%Cheng%NULL%0,       Honglin%Chen%NULL%0,       Christopher Kim-Ming%Hui%NULL%0,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,       Juanjuan%Guo%NULL%1,       Chen%Wang%NULL%2,       Fan%Luo%NULL%1,       Xuechen%Yu%NULL%1,       Wei%Zhang%NULL%1,       Jiafu%Li%NULL%1,       Dongchi%Zhao%NULL%1,       Dan%Xu%NULL%3,       Qing%Gong%NULL%1,       Jing%Liao%NULL%1,       Huixia%Yang%yanghuixia@bjmu.edu.cn%1,       Wei%Hou%houwei@whu.edu.cn%1,       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,       Hua%Peng%NULL%1,       Lin%Wang%NULL%3,       Yin%Zhao%NULL%1,       Lingkong%Zeng%NULL%1,       Hui%Gao%NULL%1,       Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,       Shu-Wan%Jian%NULL%1,       Ding-Ping%Liu%NULL%1,       Ta-Chou%Ng%NULL%1,       Wan-Ting%Huang%NULL%1,       Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,       Shuk-Ching%Wong%NULL%1,       Jonathan H. K.%Chen%NULL%1,       Cyril C. Y.%Yip%NULL%1,       Vivien W. M.%Chuang%NULL%1,       Owen T. Y.%Tsang%NULL%1,       Siddharth%Sridhar%NULL%1,       Jasper F. W.%Chan%NULL%1,       Pak-Leung%Ho%NULL%1,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,       Kristen Kelli%Coleman%NULL%2,       Kristen Kelli%Coleman%NULL%0,       Yian Kim%Tan%NULL%2,       Yian Kim%Tan%NULL%0,       Sean Wei Xiang%Ong%NULL%1,       Marcus%Gum%NULL%2,       Marcus%Gum%NULL%0,       Sok Kiang%Lau%NULL%1,       Xiao Fang%Lim%NULL%1,       Ai Sim%Lim%NULL%1,       Stephanie%Sutjipto%NULL%1,       Pei Hua%Lee%NULL%1,       Than The%Son%NULL%1,       Barnaby Edward%Young%NULL%1,       Donald K.%Milton%NULL%1,       Gregory C.%Gray%NULL%2,       Gregory C.%Gray%NULL%0,       Stephan%Schuster%NULL%2,       Stephan%Schuster%NULL%0,       Timothy%Barkham%NULL%1,       Partha Pratim%De%NULL%2,       Partha Pratim%De%NULL%0,       Shawn%Vasoo%NULL%1,       Monica%Chan%NULL%1,       Brenda Sze Peng%Ang%NULL%1,       Boon Huan%Tan%NULL%1,       Yee-Sin%Leo%NULL%1,       Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,       Michelle Su Yen%Wong%NULL%2,       Michelle Su Yen%Wong%NULL%0,       Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,       David Chien%Lye%NULL%2,       David Chien%Lye%NULL%0,       Poh Lian%Lim%NULL%1,       Cheng Chuan%Lee%NULL%1,       Li Min%Ling%NULL%1,       Lawrence%Lee%NULL%1,       Tau Hong%Lee%NULL%1,       Chen Seong%Wong%NULL%1,       Sapna%Sadarangani%NULL%1,       Ray Junhao%Lin%NULL%1,       Deborah Hee Ling%Ng%NULL%1,       Mucheli%Sadasiv%NULL%1,       Tsin Wen%Yeo%NULL%1,       Chiaw Yee%Choy%NULL%1,       Glorijoy Shi En%Tan%NULL%1,       Frederico%Dimatatac%NULL%1,       Isais Florante%Santos%NULL%1,       Chi Jong%Go%NULL%1,       Yu Kit%Chan%NULL%1,       Jun Yang%Tay%NULL%1,       Jackie Yu-Ling%Tan%NULL%1,       Nihar%Pandit%NULL%1,       Benjamin Choon Heng%Ho%NULL%1,       Shehara%Mendis%NULL%1,       Yuan Yi Constance%Chen%NULL%1,       Mohammad Yazid%Abdad%NULL%1,       Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,       Julie T S%Chu%NULL%1,       Mahen R A%Perera%NULL%1,       Kenrie P Y%Hui%NULL%1,       Hui-Ling%Yen%NULL%1,       Michael C W%Chan%NULL%1,       Malik%Peiris%NULL%0,       Leo L M%Poon%llmpoon@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,       Daniele%Lapa%NULL%2,       Fabrizio%Carletti%NULL%2,       Eleonora%Lalle%NULL%2,       Licia%Bordi%NULL%2,       Patrizia%Marsella%NULL%2,       Emanuele%Nicastri%NULL%0,       Nazario%Bevilacqua%NULL%2,       Maria Letizia%Giancola%NULL%2,       Angela%Corpolongo%NULL%2,       Giuseppe%Ippolito%NULL%2,       Maria Rosaria%Capobianchi%NULL%2,       Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,       Daniele%Lapa%NULL%0,       Fabrizio%Carletti%NULL%0,       Eleonora%Lalle%NULL%0,       Licia%Bordi%NULL%0,       Patrizia%Marsella%NULL%0,       Emanuele%Nicastri%NULL%0,       Nazario%Bevilacqua%NULL%0,       Maria Letizia%Giancola%NULL%0,       Angela%Corpolongo%NULL%0,       Giuseppe%Ippolito%NULL%0,       Maria Rosaria%Capobianchi%NULL%0,       Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,        Z.% Chen%null%1,        T.% Wang%null%2,        J.% Dai%null%1,        J.% Zhang%null%1,        T.% Ding%null%1,        J.% Jiang%null%1,        J.% Liu%null%1,        C.% Zhang%null%1,        W.% Shan%null%1,        S.% Wang%null%1,        Y.% Rong%null%1,        J.% Chang%null%1,        X.% Miao%null%1,        X.% Ma%null%1,        S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,        Tsung-Hao%Liu%null%1,        Thomas%Yau%null%1,        Chiun%Hsu%null%1,    Yawen%Dong%null%1,    Tsung-Hao%Liu%null%1,    Thomas%Yau%null%1,    Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,       Yan%Pan%woshipanyan@126.com%1,       Qingcui%Wu%NULL%1,       Shan%Liu%NULL%1,       Xu%Song%NULL%1,       Zhongguo%Xie%NULL%1,       Yang%Liu%NULL%1,       Liang%Zhao%NULL%1,       Zhonghong%Wang%NULL%1,       Yifei%Zhang%NULL%1,       Zuchuang%Wu%NULL%1,       Lei%Guan%NULL%1,       Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,       Sadegh%Niazi%NULL%1,       Kaveh%Sadeghi%NULL%1,       Kazem%Naddafi%NULL%1,       Jila%Yavarian%NULL%1,       Mansour%Shamsipour%NULL%1,       Nazanin Zahra Shafiei%Jandaghi%NULL%1,       Khosro%Sadeghniiat%NULL%1,       Ramin%Nabizadeh%NULL%1,       Masud%Yunesian%NULL%1,       Fatemeh%Momeniha%NULL%1,       Adel%Mokamel%NULL%1,       Mohammad Sadegh%Hassanvand%NULL%1,       Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,       Moon-Woo%Seong%NULL%1,       Eun Young%Heo%NULL%1,       Ji Hong%Park%NULL%1,       Namhee%Kim%NULL%1,       Sue%Shin%NULL%1,       Sung Im%Cho%NULL%1,       Sung Sup%Park%NULL%1,       Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,       Matthew J.%Stuckey%NULL%1,       Tara%Scheuer%NULL%1,       Kerui%Xu%NULL%1,       Kiran M.%Perkins%NULL%1,       Heather%Resseger%NULL%1,       Shelley%Magill%NULL%1,       Jennifer R.%Verani%NULL%1,       Seema%Jain%NULL%1,       Meileen%Acosta%NULL%1,       Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,       Xiuwen%Zhang%NULL%2,       Xinyue%Zhang%NULL%2,       Zhijian%Wei%NULL%2,       Lingli%Zhang%NULL%2,       Jingjing%Xu%NULL%2,       Peipei%Liang%NULL%2,       Yuanhong%Xu%xyhong1964@163.com%0,       Chengyuan%Zhang%2396476405@qq.com%2,       Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,       Xiuwen%Zhang%NULL%0,       Xinyue%Zhang%NULL%0,       Zhijian%Wei%NULL%0,       Lingli%Zhang%NULL%0,       Jingjing%Xu%NULL%0,       Peipei%Liang%NULL%0,       Yuanhong%Xu%xyhong1964@163.com%0,       Chengyuan%Zhang%2396476405@qq.com%0,       Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,       Juan%Xia%NULL%1,       Yuxin%Chen%NULL%1,       Chun%Shan%NULL%1,       Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,       Rachael%Overcash%NULL%1,       Neggin%Mokhtari%NULL%1,       Haleema%Saeed%NULL%1,       Stacey%Gold%NULL%1,       Tamika%Auguste%NULL%1,       Muhammad-Usman%Mirza%NULL%1,       Maria-Elena%Ruiz%NULL%1,       Joeffrey J.%Chahine%NULL%2,       Joeffrey J.%Chahine%NULL%0,       Masashi%Waga%NULL%2,       Masashi%Waga%NULL%0,       Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,       Mei%Luo%NULL%1,       Zhen%Zou%NULL%1,       Xu%Wang%875777340@qq.com%1,       Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,       Jingfu%Qiu%jfqiu@126.com%2,       Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,       Xiao-Li%Zhang%NULL%1,       Xiang-Na%Zhao%NULL%1,       Cun-Bao%Li%NULL%1,       Jie%Lei%NULL%2,       Zeng-Qiang%Kou%NULL%1,       Wen-Kui%Sun%NULL%1,       Yang%Hang%NULL%1,       Feng%Gao%NULL%1,       Sheng-Xiang%Ji%NULL%1,       Can-Fang%Lin%NULL%1,       Bo%Pang%NULL%1,       Ming-Xiao%Yao%NULL%1,       Benjamin D%Anderson%NULL%1,       Guo-Lin%Wang%NULL%1,       Lin%Yao%NULL%1,       Li-Jun%Duan%NULL%1,       Dian-Ming%Kang%dmkang66@163.com%1,       Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,       Lam V%Nguyen%NULL%1,       Dien M%Tran%NULL%1,       Hai T%Do%NULL%1,       Huong T%Tran%NULL%1,       Yen T%Le%NULL%1,       Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,       Jihyang%Lee%NULL%4,       Jihyang%Lee%NULL%0,       Eunju%Kim%NULL%4,       Eunju%Kim%NULL%0,       Kyeongyoon%Woo%NULL%4,       Kyeongyoon%Woo%NULL%0,       Hak Youle%Park%NULL%4,       Hak Youle%Park%NULL%0,       Jihyun%An%NULL%4,       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,       Jihyang%Lee%NULL%0,       Jihyang%Lee%NULL%0,       Eunju%Kim%NULL%0,       Eunju%Kim%NULL%0,       Kyeongyoon%Woo%NULL%0,       Kyeongyoon%Woo%NULL%0,       Hak Youle%Park%NULL%0,       Hak Youle%Park%NULL%0,       Jihyun%An%NULL%0,       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,       Fang%Ji%NULL%1,       Liang%Wang%NULL%1,       Liping%Wang%NULL%1,       Jungui%Hao%NULL%1,       Mingjia%Dai%NULL%1,       Yan%Liu%NULL%0,       Xiucheng%Pan%NULL%1,       Juanjuan%Fu%NULL%1,       Li%Li%NULL%0,       Guangde%Yang%NULL%1,       Jianye%Yang%NULL%1,       Xuebing%Yan%NULL%1,       Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,       Meiling%Jin%NULL%1,       Pengtao%Bao%NULL%1,       Weiguo%Zhao%NULL%1,       Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,       Lefei%Han%NULL%2,       Min%Peng%2658706528@qq.com%2,       Yuxia%Lv%NULL%2,       Yin%Ouyang%NULL%2,       Kui%Liu%NULL%0,       Linli%Yue%NULL%2,       Qiannan%Li%NULL%2,       Guoqiang%Sun%NULL%2,       Lin%Chen%NULL%2,       Lin%Yang%l.yang@polyu.edu.hk%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,       Bo%Zhang%NULL%2,       Jianhua%Lu%NULL%1,       Shihua%Liu%NULL%1,       Zhiqiang%Chang%NULL%1,       Peng%Cao%NULL%1,       Xinhua%Liu%NULL%1,       Peng%Zhang%NULL%2,       Yan%Ling%NULL%1,       Kaixiong%Tao%NULL%1,       Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,       Yingying%Hu%NULL%2,       Yingying%Hu%NULL%0,       Yuanyuan%Yu%NULL%1,       Xiaodong%Zhang%NULL%1,       Bin%Li%NULL%1,       Jianguo%Wu%NULL%1,       Junyu%Li%NULL%1,       Yingping%Wu%NULL%1,       Xiaoping%Xia%NULL%2,       Xiaoping%Xia%NULL%0,       Huina%Tang%NULL%1,       Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,        H.% Qian%null%1,        J.% Hang%null%1,        X.% Chen%null%1,        L.% Hong%null%1,        P.% Liang%null%1,        J.% Li%null%1,        S.% Xiao%null%1,        J.% Wei%null%1,        L.% Liu%null%2,        M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Jing%Wang%NULL%3,       Wenbin%Li%NULL%1,       Zhaoxian%Zhou%NULL%1,       Siying%Liu%NULL%1,       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,        Tania%Paredes%NULL%2,        Tania%Paredes%NULL%0,        David%Caceres%NULL%1,        Camille M.%Webb%NULL%1,        Luis M.%Valdez%NULL%1,        Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,        Claire M.%Midgley%NULL%1,        Alissa%Dratch%NULL%1,        Marty%Fenstersheib%NULL%1,        Thomas%Haupt%NULL%1,        Michelle%Holshue%NULL%1,        Isaac%Ghinai%NULL%1,        M. Claire%Jarashow%NULL%1,        Jennifer%Lo%NULL%1,        Tristan D.%McPherson%NULL%1,        Sara%Rudman%NULL%1,        Sarah%Scott%NULL%1,        Aron J.%Hall%NULL%1,        Alicia M.%Fry%NULL%1,        Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,        Wenjie%Sun%NULL%1,        Jianping%Huang%NULL%1,        Michelle%Gamber%NULL%1,        Jing%Wu%NULL%2,        Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,        Shuofeng%Yuan%NULL%0,        Kin-Hang%Kok%NULL%0,        Kelvin Kai-Wang%To%NULL%0,        Hin%Chu%NULL%0,        Jin%Yang%NULL%0,        Fanfan%Xing%NULL%0,        Jieling%Liu%NULL%0,        Cyril Chik-Yan%Yip%NULL%0,        Rosana Wing-Shan%Poon%NULL%0,        Hoi-Wah%Tsoi%NULL%0,        Simon Kam-Fai%Lo%NULL%0,        Kwok-Hung%Chan%NULL%0,        Vincent Kwok-Man%Poon%NULL%0,        Wan-Mui%Chan%NULL%0,        Jonathan Daniel%Ip%NULL%0,        Jian-Piao%Cai%NULL%0,        Vincent Chi-Chung%Cheng%NULL%0,        Honglin%Chen%NULL%0,        Christopher Kim-Ming%Hui%NULL%0,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,        Juanjuan%Guo%NULL%1,        Chen%Wang%NULL%2,        Fan%Luo%NULL%1,        Xuechen%Yu%NULL%1,        Wei%Zhang%NULL%1,        Jiafu%Li%NULL%1,        Dongchi%Zhao%NULL%1,        Dan%Xu%NULL%3,        Qing%Gong%NULL%1,        Jing%Liao%NULL%1,        Huixia%Yang%yanghuixia@bjmu.edu.cn%1,        Wei%Hou%houwei@whu.edu.cn%1,        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,        Hua%Peng%NULL%1,        Lin%Wang%NULL%3,        Yin%Zhao%NULL%1,        Lingkong%Zeng%NULL%1,        Hui%Gao%NULL%1,        Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,        Shu-Wan%Jian%NULL%1,        Ding-Ping%Liu%NULL%1,        Ta-Chou%Ng%NULL%1,        Wan-Ting%Huang%NULL%1,        Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,        Shuk-Ching%Wong%NULL%1,        Jonathan H. K.%Chen%NULL%1,        Cyril C. Y.%Yip%NULL%1,        Vivien W. M.%Chuang%NULL%1,        Owen T. Y.%Tsang%NULL%1,        Siddharth%Sridhar%NULL%1,        Jasper F. W.%Chan%NULL%1,        Pak-Leung%Ho%NULL%1,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,        Kristen Kelli%Coleman%NULL%2,        Kristen Kelli%Coleman%NULL%0,        Yian Kim%Tan%NULL%2,        Yian Kim%Tan%NULL%0,        Sean Wei Xiang%Ong%NULL%1,        Marcus%Gum%NULL%2,        Marcus%Gum%NULL%0,        Sok Kiang%Lau%NULL%1,        Xiao Fang%Lim%NULL%1,        Ai Sim%Lim%NULL%1,        Stephanie%Sutjipto%NULL%1,        Pei Hua%Lee%NULL%1,        Than The%Son%NULL%1,        Barnaby Edward%Young%NULL%1,        Donald K.%Milton%NULL%1,        Gregory C.%Gray%NULL%2,        Gregory C.%Gray%NULL%0,        Stephan%Schuster%NULL%2,        Stephan%Schuster%NULL%0,        Timothy%Barkham%NULL%1,        Partha Pratim%De%NULL%2,        Partha Pratim%De%NULL%0,        Shawn%Vasoo%NULL%1,        Monica%Chan%NULL%1,        Brenda Sze Peng%Ang%NULL%1,        Boon Huan%Tan%NULL%1,        Yee-Sin%Leo%NULL%1,        Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,        Michelle Su Yen%Wong%NULL%2,        Michelle Su Yen%Wong%NULL%0,        Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,        David Chien%Lye%NULL%2,        David Chien%Lye%NULL%0,        Poh Lian%Lim%NULL%1,        Cheng Chuan%Lee%NULL%1,        Li Min%Ling%NULL%1,        Lawrence%Lee%NULL%1,        Tau Hong%Lee%NULL%1,        Chen Seong%Wong%NULL%1,        Sapna%Sadarangani%NULL%1,        Ray Junhao%Lin%NULL%1,        Deborah Hee Ling%Ng%NULL%1,        Mucheli%Sadasiv%NULL%1,        Tsin Wen%Yeo%NULL%1,        Chiaw Yee%Choy%NULL%1,        Glorijoy Shi En%Tan%NULL%1,        Frederico%Dimatatac%NULL%1,        Isais Florante%Santos%NULL%1,        Chi Jong%Go%NULL%1,        Yu Kit%Chan%NULL%1,        Jun Yang%Tay%NULL%1,        Jackie Yu-Ling%Tan%NULL%1,        Nihar%Pandit%NULL%1,        Benjamin Choon Heng%Ho%NULL%1,        Shehara%Mendis%NULL%1,        Yuan Yi Constance%Chen%NULL%1,        Mohammad Yazid%Abdad%NULL%1,        Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,        Julie T S%Chu%NULL%1,        Mahen R A%Perera%NULL%1,        Kenrie P Y%Hui%NULL%1,        Hui-Ling%Yen%NULL%1,        Michael C W%Chan%NULL%1,        Malik%Peiris%NULL%0,        Leo L M%Poon%llmpoon@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,        Daniele%Lapa%NULL%2,        Fabrizio%Carletti%NULL%2,        Eleonora%Lalle%NULL%2,        Licia%Bordi%NULL%2,        Patrizia%Marsella%NULL%2,        Emanuele%Nicastri%NULL%0,        Nazario%Bevilacqua%NULL%2,        Maria Letizia%Giancola%NULL%2,        Angela%Corpolongo%NULL%2,        Giuseppe%Ippolito%NULL%2,        Maria Rosaria%Capobianchi%NULL%2,        Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,        Daniele%Lapa%NULL%0,        Fabrizio%Carletti%NULL%0,        Eleonora%Lalle%NULL%0,        Licia%Bordi%NULL%0,        Patrizia%Marsella%NULL%0,        Emanuele%Nicastri%NULL%0,        Nazario%Bevilacqua%NULL%0,        Maria Letizia%Giancola%NULL%0,        Angela%Corpolongo%NULL%0,        Giuseppe%Ippolito%NULL%0,        Maria Rosaria%Capobianchi%NULL%0,        Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,         Z.% Chen%null%1,         T.% Wang%null%2,         J.% Dai%null%1,         J.% Zhang%null%1,         T.% Ding%null%1,         J.% Jiang%null%1,         J.% Liu%null%1,         C.% Zhang%null%1,         W.% Shan%null%1,         S.% Wang%null%1,         Y.% Rong%null%1,         J.% Chang%null%1,         X.% Miao%null%1,         X.% Ma%null%1,         S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,         Tsung-Hao%Liu%null%1,         Thomas%Yau%null%1,         Chiun%Hsu%null%1,     Yawen%Dong%null%1,     Tsung-Hao%Liu%null%1,     Thomas%Yau%null%1,     Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,        Yan%Pan%woshipanyan@126.com%1,        Qingcui%Wu%NULL%1,        Shan%Liu%NULL%1,        Xu%Song%NULL%1,        Zhongguo%Xie%NULL%1,        Yang%Liu%NULL%1,        Liang%Zhao%NULL%1,        Zhonghong%Wang%NULL%1,        Yifei%Zhang%NULL%1,        Zuchuang%Wu%NULL%1,        Lei%Guan%NULL%1,        Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,        Sadegh%Niazi%NULL%1,        Kaveh%Sadeghi%NULL%1,        Kazem%Naddafi%NULL%1,        Jila%Yavarian%NULL%1,        Mansour%Shamsipour%NULL%1,        Nazanin Zahra Shafiei%Jandaghi%NULL%1,        Khosro%Sadeghniiat%NULL%1,        Ramin%Nabizadeh%NULL%1,        Masud%Yunesian%NULL%1,        Fatemeh%Momeniha%NULL%1,        Adel%Mokamel%NULL%1,        Mohammad Sadegh%Hassanvand%NULL%1,        Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,        Moon-Woo%Seong%NULL%1,        Eun Young%Heo%NULL%1,        Ji Hong%Park%NULL%1,        Namhee%Kim%NULL%1,        Sue%Shin%NULL%1,        Sung Im%Cho%NULL%1,        Sung Sup%Park%NULL%1,        Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,        Matthew J.%Stuckey%NULL%1,        Tara%Scheuer%NULL%1,        Kerui%Xu%NULL%1,        Kiran M.%Perkins%NULL%1,        Heather%Resseger%NULL%1,        Shelley%Magill%NULL%1,        Jennifer R.%Verani%NULL%1,        Seema%Jain%NULL%1,        Meileen%Acosta%NULL%1,        Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,        Xiuwen%Zhang%NULL%2,        Xinyue%Zhang%NULL%2,        Zhijian%Wei%NULL%2,        Lingli%Zhang%NULL%2,        Jingjing%Xu%NULL%2,        Peipei%Liang%NULL%2,        Yuanhong%Xu%xyhong1964@163.com%0,        Chengyuan%Zhang%2396476405@qq.com%2,        Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,        Xiuwen%Zhang%NULL%0,        Xinyue%Zhang%NULL%0,        Zhijian%Wei%NULL%0,        Lingli%Zhang%NULL%0,        Jingjing%Xu%NULL%0,        Peipei%Liang%NULL%0,        Yuanhong%Xu%xyhong1964@163.com%0,        Chengyuan%Zhang%2396476405@qq.com%0,        Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,        Juan%Xia%NULL%1,        Yuxin%Chen%NULL%1,        Chun%Shan%NULL%1,        Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,        Rachael%Overcash%NULL%1,        Neggin%Mokhtari%NULL%1,        Haleema%Saeed%NULL%1,        Stacey%Gold%NULL%1,        Tamika%Auguste%NULL%1,        Muhammad-Usman%Mirza%NULL%1,        Maria-Elena%Ruiz%NULL%1,        Joeffrey J.%Chahine%NULL%2,        Joeffrey J.%Chahine%NULL%0,        Masashi%Waga%NULL%2,        Masashi%Waga%NULL%0,        Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,        Mei%Luo%NULL%1,        Zhen%Zou%NULL%1,        Xu%Wang%875777340@qq.com%1,        Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,        Jingfu%Qiu%jfqiu@126.com%2,        Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,        Xiao-Li%Zhang%NULL%1,        Xiang-Na%Zhao%NULL%1,        Cun-Bao%Li%NULL%1,        Jie%Lei%NULL%2,        Zeng-Qiang%Kou%NULL%1,        Wen-Kui%Sun%NULL%1,        Yang%Hang%NULL%1,        Feng%Gao%NULL%1,        Sheng-Xiang%Ji%NULL%1,        Can-Fang%Lin%NULL%1,        Bo%Pang%NULL%1,        Ming-Xiao%Yao%NULL%1,        Benjamin D%Anderson%NULL%1,        Guo-Lin%Wang%NULL%1,        Lin%Yao%NULL%1,        Li-Jun%Duan%NULL%1,        Dian-Ming%Kang%dmkang66@163.com%1,        Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,        Lam V%Nguyen%NULL%1,        Dien M%Tran%NULL%1,        Hai T%Do%NULL%1,        Huong T%Tran%NULL%1,        Yen T%Le%NULL%1,        Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,        Jihyang%Lee%NULL%4,        Jihyang%Lee%NULL%0,        Eunju%Kim%NULL%4,        Eunju%Kim%NULL%0,        Kyeongyoon%Woo%NULL%4,        Kyeongyoon%Woo%NULL%0,        Hak Youle%Park%NULL%4,        Hak Youle%Park%NULL%0,        Jihyun%An%NULL%4,        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,        Jihyang%Lee%NULL%0,        Jihyang%Lee%NULL%0,        Eunju%Kim%NULL%0,        Eunju%Kim%NULL%0,        Kyeongyoon%Woo%NULL%0,        Kyeongyoon%Woo%NULL%0,        Hak Youle%Park%NULL%0,        Hak Youle%Park%NULL%0,        Jihyun%An%NULL%0,        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,        Fang%Ji%NULL%1,        Liang%Wang%NULL%1,        Liping%Wang%NULL%1,        Jungui%Hao%NULL%1,        Mingjia%Dai%NULL%1,        Yan%Liu%NULL%0,        Xiucheng%Pan%NULL%1,        Juanjuan%Fu%NULL%1,        Li%Li%NULL%0,        Guangde%Yang%NULL%1,        Jianye%Yang%NULL%1,        Xuebing%Yan%NULL%1,        Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,        Meiling%Jin%NULL%1,        Pengtao%Bao%NULL%1,        Weiguo%Zhao%NULL%1,        Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,        Lefei%Han%NULL%2,        Min%Peng%2658706528@qq.com%2,        Yuxia%Lv%NULL%2,        Yin%Ouyang%NULL%2,        Kui%Liu%NULL%0,        Linli%Yue%NULL%2,        Qiannan%Li%NULL%2,        Guoqiang%Sun%NULL%2,        Lin%Chen%NULL%2,        Lin%Yang%l.yang@polyu.edu.hk%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,        Bo%Zhang%NULL%2,        Jianhua%Lu%NULL%1,        Shihua%Liu%NULL%1,        Zhiqiang%Chang%NULL%1,        Peng%Cao%NULL%1,        Xinhua%Liu%NULL%1,        Peng%Zhang%NULL%2,        Yan%Ling%NULL%1,        Kaixiong%Tao%NULL%1,        Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,        Yingying%Hu%NULL%2,        Yingying%Hu%NULL%0,        Yuanyuan%Yu%NULL%1,        Xiaodong%Zhang%NULL%1,        Bin%Li%NULL%1,        Jianguo%Wu%NULL%1,        Junyu%Li%NULL%1,        Yingping%Wu%NULL%1,        Xiaoping%Xia%NULL%2,        Xiaoping%Xia%NULL%0,        Huina%Tang%NULL%1,        Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,         H.% Qian%null%1,         J.% Hang%null%1,         X.% Chen%null%1,         L.% Hong%null%1,         P.% Liang%null%1,         J.% Li%null%1,         S.% Xiao%null%1,         J.% Wei%null%1,         L.% Liu%null%2,         M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Jing%Wang%NULL%3,        Wenbin%Li%NULL%1,        Zhaoxian%Zhou%NULL%1,        Siying%Liu%NULL%1,        Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1953,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1676,7 +1982,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -1705,7 +2011,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1734,7 +2040,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -1763,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1821,7 +2127,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>403</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1850,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -1879,7 +2185,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1908,7 +2214,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -1937,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1966,7 +2272,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -1995,7 +2301,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2024,7 +2330,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -2082,7 +2388,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2111,7 +2417,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -2140,7 +2446,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2198,7 +2504,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2227,7 +2533,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -2256,7 +2562,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -2285,7 +2591,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -2314,7 +2620,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -2343,7 +2649,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2372,7 +2678,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -2401,7 +2707,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -2459,7 +2765,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -2488,7 +2794,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -2517,7 +2823,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -2546,7 +2852,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -2575,7 +2881,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -2604,7 +2910,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -2633,7 +2939,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -2662,7 +2968,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -2691,7 +2997,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -2720,7 +3026,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="507">
   <si>
     <t>Doi</t>
   </si>
@@ -1543,6 +1543,231 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,        Jing%Wang%NULL%3,        Wenbin%Li%NULL%1,        Zhaoxian%Zhou%NULL%1,        Siying%Liu%NULL%1,        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,         Tania%Paredes%NULL%0,         Tania%Paredes%NULL%0,         David%Caceres%NULL%0,         Camille M.%Webb%NULL%0,         Luis M.%Valdez%NULL%0,         Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,         Claire M.%Midgley%NULL%1,         Alissa%Dratch%NULL%1,         Marty%Fenstersheib%NULL%1,         Thomas%Haupt%NULL%1,         Michelle%Holshue%NULL%1,         Isaac%Ghinai%NULL%1,         M. Claire%Jarashow%NULL%1,         Jennifer%Lo%NULL%1,         Tristan D.%McPherson%NULL%1,         Sara%Rudman%NULL%1,         Sarah%Scott%NULL%1,         Aron J.%Hall%NULL%1,         Alicia M.%Fry%NULL%1,         Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,         Wenjie%Sun%NULL%1,         Jianping%Huang%NULL%1,         Michelle%Gamber%NULL%1,         Jing%Wu%NULL%2,         Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,         Shuofeng%Yuan%NULL%0,         Kin-Hang%Kok%NULL%0,         Kelvin Kai-Wang%To%NULL%0,         Hin%Chu%NULL%0,         Jin%Yang%NULL%0,         Fanfan%Xing%NULL%0,         Jieling%Liu%NULL%0,         Cyril Chik-Yan%Yip%NULL%0,         Rosana Wing-Shan%Poon%NULL%0,         Hoi-Wah%Tsoi%NULL%0,         Simon Kam-Fai%Lo%NULL%0,         Kwok-Hung%Chan%NULL%0,         Vincent Kwok-Man%Poon%NULL%0,         Wan-Mui%Chan%NULL%0,         Jonathan Daniel%Ip%NULL%0,         Jian-Piao%Cai%NULL%0,         Vincent Chi-Chung%Cheng%NULL%0,         Honglin%Chen%NULL%0,         Christopher Kim-Ming%Hui%NULL%0,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,         Juanjuan%Guo%NULL%0,         Chen%Wang%NULL%0,         Fan%Luo%NULL%1,         Xuechen%Yu%NULL%0,         Wei%Zhang%NULL%0,         Jiafu%Li%NULL%0,         Dongchi%Zhao%NULL%1,         Dan%Xu%NULL%3,         Qing%Gong%NULL%1,         Jing%Liao%NULL%1,         Huixia%Yang%yanghuixia@bjmu.edu.cn%0,         Wei%Hou%houwei@whu.edu.cn%0,         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>"The presence of SARS\u2010CoV\u20102 RNA in the feces of COVID\u201019 patients"</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1, Liangjun%Chen%xref no email%0, Qiaoling%Deng%xref no email%0, Guqin%Zhang%xref no email%0, Kaisong%Wu%xref no email%1, Lan%Ni%xref no email%1, Yibin%Yang%xref no email%1, Bing%Liu%xref no email%1, Wei%Wang%xref no email%0, Chaojie%Wei%xref no email%1, Jiong%Yang%xref no email%1, Guangming%Ye%xref no email%0, Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,         Hua%Peng%NULL%1,         Lin%Wang%NULL%3,         Yin%Zhao%NULL%1,         Lingkong%Zeng%NULL%1,         Hui%Gao%NULL%1,         Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,         Shu-Wan%Jian%NULL%1,         Ding-Ping%Liu%NULL%1,         Ta-Chou%Ng%NULL%1,         Wan-Ting%Huang%NULL%1,         Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%2,         Shuk-Ching%Wong%NULL%1,         Jonathan H. K.%Chen%NULL%1,         Cyril C. Y.%Yip%NULL%1,         Vivien W. M.%Chuang%NULL%1,         Owen T. Y.%Tsang%NULL%1,         Siddharth%Sridhar%NULL%1,         Jasper F. W.%Chan%NULL%1,         Pak-Leung%Ho%NULL%1,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,         Kristen Kelli%Coleman%NULL%2,         Kristen Kelli%Coleman%NULL%0,         Yian Kim%Tan%NULL%2,         Yian Kim%Tan%NULL%0,         Sean Wei Xiang%Ong%NULL%1,         Marcus%Gum%NULL%2,         Marcus%Gum%NULL%0,         Sok Kiang%Lau%NULL%1,         Xiao Fang%Lim%NULL%1,         Ai Sim%Lim%NULL%1,         Stephanie%Sutjipto%NULL%1,         Pei Hua%Lee%NULL%1,         Than The%Son%NULL%1,         Barnaby Edward%Young%NULL%1,         Donald K.%Milton%NULL%1,         Gregory C.%Gray%NULL%2,         Gregory C.%Gray%NULL%0,         Stephan%Schuster%NULL%2,         Stephan%Schuster%NULL%0,         Timothy%Barkham%NULL%1,         Partha Pratim%De%NULL%2,         Partha Pratim%De%NULL%0,         Shawn%Vasoo%NULL%1,         Monica%Chan%NULL%1,         Brenda Sze Peng%Ang%NULL%1,         Boon Huan%Tan%NULL%1,         Yee-Sin%Leo%NULL%1,         Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,         Michelle Su Yen%Wong%NULL%2,         Michelle Su Yen%Wong%NULL%0,         Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,         David Chien%Lye%NULL%2,         David Chien%Lye%NULL%0,         Poh Lian%Lim%NULL%1,         Cheng Chuan%Lee%NULL%1,         Li Min%Ling%NULL%1,         Lawrence%Lee%NULL%1,         Tau Hong%Lee%NULL%1,         Chen Seong%Wong%NULL%1,         Sapna%Sadarangani%NULL%1,         Ray Junhao%Lin%NULL%1,         Deborah Hee Ling%Ng%NULL%1,         Mucheli%Sadasiv%NULL%1,         Tsin Wen%Yeo%NULL%1,         Chiaw Yee%Choy%NULL%1,         Glorijoy Shi En%Tan%NULL%1,         Frederico%Dimatatac%NULL%1,         Isais Florante%Santos%NULL%1,         Chi Jong%Go%NULL%1,         Yu Kit%Chan%NULL%1,         Jun Yang%Tay%NULL%1,         Jackie Yu-Ling%Tan%NULL%1,         Nihar%Pandit%NULL%1,         Benjamin Choon Heng%Ho%NULL%1,         Shehara%Mendis%NULL%1,         Yuan Yi Constance%Chen%NULL%1,         Mohammad Yazid%Abdad%NULL%1,         Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,         Julie T S%Chu%NULL%1,         Mahen R A%Perera%NULL%1,         Kenrie P Y%Hui%NULL%1,         Hui-Ling%Yen%NULL%1,         Michael C W%Chan%NULL%1,         Malik%Peiris%NULL%1,         Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,         Daniele%Lapa%NULL%2,         Fabrizio%Carletti%NULL%2,         Eleonora%Lalle%NULL%2,         Licia%Bordi%NULL%2,         Patrizia%Marsella%NULL%2,         Emanuele%Nicastri%NULL%0,         Nazario%Bevilacqua%NULL%2,         Maria Letizia%Giancola%NULL%2,         Angela%Corpolongo%NULL%2,         Giuseppe%Ippolito%NULL%2,         Maria Rosaria%Capobianchi%NULL%2,         Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,         Daniele%Lapa%NULL%0,         Fabrizio%Carletti%NULL%0,         Eleonora%Lalle%NULL%0,         Licia%Bordi%NULL%0,         Patrizia%Marsella%NULL%0,         Emanuele%Nicastri%NULL%0,         Nazario%Bevilacqua%NULL%0,         Maria Letizia%Giancola%NULL%0,         Angela%Corpolongo%NULL%0,         Giuseppe%Ippolito%NULL%0,         Maria Rosaria%Capobianchi%NULL%0,         Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,          Z.% Chen%null%1,          T.% Wang%null%2,          J.% Dai%null%1,          J.% Zhang%null%1,          T.% Ding%null%1,          J.% Jiang%null%1,          J.% Liu%null%1,          C.% Zhang%null%1,          W.% Shan%null%1,          S.% Wang%null%1,          Y.% Rong%null%1,          J.% Chang%null%1,          X.% Miao%null%1,          X.% Ma%null%1,          S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>"Possible Vertical Transmission of SARS-CoV-2 From an Infected Mother to Her Newborn"</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0, Jinhua%Tian%xref no email%0, Songming%He%xref no email%0, Chuchao%Zhu%xref no email%0, Jian%Wang%xref no email%0, Chen%Liu%xref no email%0, Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,          Tsung-Hao%Liu%null%1,          Thomas%Yau%null%1,          Chiun%Hsu%null%1,      Yawen%Dong%null%1,      Tsung-Hao%Liu%null%1,      Thomas%Yau%null%1,      Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,         Yan%Pan%woshipanyan@126.com%1,         Qingcui%Wu%NULL%1,         Shan%Liu%NULL%1,         Xu%Song%NULL%1,         Zhongguo%Xie%NULL%1,         Yang%Liu%NULL%1,         Liang%Zhao%NULL%1,         Zhonghong%Wang%NULL%1,         Yifei%Zhang%NULL%1,         Zuchuang%Wu%NULL%1,         Lei%Guan%NULL%1,         Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,         Sadegh%Niazi%NULL%1,         Kaveh%Sadeghi%NULL%1,         Kazem%Naddafi%NULL%1,         Jila%Yavarian%NULL%1,         Mansour%Shamsipour%NULL%1,         Nazanin Zahra Shafiei%Jandaghi%NULL%1,         Khosro%Sadeghniiat%NULL%1,         Ramin%Nabizadeh%NULL%1,         Masud%Yunesian%NULL%1,         Fatemeh%Momeniha%NULL%1,         Adel%Mokamel%NULL%1,         Mohammad Sadegh%Hassanvand%NULL%1,         Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,         Moon-Woo%Seong%NULL%1,         Eun Young%Heo%NULL%1,         Ji Hong%Park%NULL%1,         Namhee%Kim%NULL%1,         Sue%Shin%NULL%1,         Sung Im%Cho%NULL%1,         Sung Sup%Park%NULL%1,         Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,         Matthew J.%Stuckey%NULL%1,         Tara%Scheuer%NULL%1,         Kerui%Xu%NULL%1,         Kiran M.%Perkins%NULL%1,         Heather%Resseger%NULL%1,         Shelley%Magill%NULL%1,         Jennifer R.%Verani%NULL%1,         Seema%Jain%NULL%1,         Meileen%Acosta%NULL%1,         Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%3,         Xiuwen%Zhang%NULL%2,         Xinyue%Zhang%NULL%2,         Zhijian%Wei%NULL%2,         Lingli%Zhang%NULL%2,         Jingjing%Xu%NULL%2,         Peipei%Liang%NULL%2,         Yuanhong%Xu%xyhong1964@163.com%0,         Chengyuan%Zhang%2396476405@qq.com%2,         Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,         Xiuwen%Zhang%NULL%0,         Xinyue%Zhang%NULL%0,         Zhijian%Wei%NULL%0,         Lingli%Zhang%NULL%0,         Jingjing%Xu%NULL%0,         Peipei%Liang%NULL%0,         Yuanhong%Xu%xyhong1964@163.com%0,         Chengyuan%Zhang%2396476405@qq.com%0,         Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,         Juan%Xia%NULL%1,         Yuxin%Chen%NULL%1,         Chun%Shan%NULL%1,         Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,         Rachael%Overcash%NULL%0,         Neggin%Mokhtari%NULL%0,         Haleema%Saeed%NULL%0,         Stacey%Gold%NULL%0,         Tamika%Auguste%NULL%0,         Muhammad-Usman%Mirza%NULL%0,         Maria-Elena%Ruiz%NULL%0,         Joeffrey J.%Chahine%NULL%0,         Joeffrey J.%Chahine%NULL%0,         Masashi%Waga%NULL%0,         Masashi%Waga%NULL%0,         Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,         Mei%Luo%NULL%1,         Zhen%Zou%NULL%1,         Xu%Wang%875777340@qq.com%1,         Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,         Jingfu%Qiu%jfqiu@126.com%2,         Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,         Xiao-Li%Zhang%NULL%1,         Xiang-Na%Zhao%NULL%1,         Cun-Bao%Li%NULL%1,         Jie%Lei%NULL%0,         Zeng-Qiang%Kou%NULL%1,         Wen-Kui%Sun%NULL%1,         Yang%Hang%NULL%1,         Feng%Gao%NULL%1,         Sheng-Xiang%Ji%NULL%1,         Can-Fang%Lin%NULL%1,         Bo%Pang%NULL%1,         Ming-Xiao%Yao%NULL%1,         Benjamin D%Anderson%NULL%1,         Guo-Lin%Wang%NULL%1,         Lin%Yao%NULL%1,         Li-Jun%Duan%NULL%1,         Dian-Ming%Kang%dmkang66@163.com%1,         Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,         Lam V%Nguyen%NULL%1,         Dien M%Tran%NULL%1,         Hai T%Do%NULL%1,         Huong T%Tran%NULL%1,         Yen T%Le%NULL%1,         Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,         Jihyang%Lee%NULL%0,         Jihyang%Lee%NULL%0,         Eunju%Kim%NULL%0,         Eunju%Kim%NULL%0,         Kyeongyoon%Woo%NULL%0,         Kyeongyoon%Woo%NULL%0,         Hak Youle%Park%NULL%0,         Hak Youle%Park%NULL%0,         Jihyun%An%NULL%0,         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,         Fang%Ji%NULL%1,         Liang%Wang%NULL%1,         Liping%Wang%NULL%1,         Jungui%Hao%NULL%1,         Mingjia%Dai%NULL%1,         Yan%Liu%NULL%0,         Xiucheng%Pan%NULL%1,         Juanjuan%Fu%NULL%1,         Li%Li%NULL%0,         Guangde%Yang%NULL%1,         Jianye%Yang%NULL%1,         Xuebing%Yan%NULL%1,         Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,         Meiling%Jin%NULL%1,         Pengtao%Bao%NULL%1,         Weiguo%Zhao%NULL%1,         Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,         Lefei%Han%NULL%2,         Min%Peng%2658706528@qq.com%2,         Yuxia%Lv%NULL%2,         Yin%Ouyang%NULL%2,         Kui%Liu%NULL%0,         Linli%Yue%NULL%2,         Qiannan%Li%NULL%2,         Guoqiang%Sun%NULL%2,         Lin%Chen%NULL%2,         Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,         Bo%Zhang%NULL%2,         Jianhua%Lu%NULL%1,         Shihua%Liu%NULL%1,         Zhiqiang%Chang%NULL%1,         Peng%Cao%NULL%1,         Xinhua%Liu%NULL%1,         Peng%Zhang%NULL%2,         Yan%Ling%NULL%1,         Kaixiong%Tao%NULL%1,         Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,         Yingying%Hu%NULL%2,         Yingying%Hu%NULL%0,         Yuanyuan%Yu%NULL%1,         Xiaodong%Zhang%NULL%1,         Bin%Li%NULL%1,         Jianguo%Wu%NULL%1,         Junyu%Li%NULL%1,         Yingping%Wu%NULL%1,         Xiaoping%Xia%NULL%2,         Xiaoping%Xia%NULL%0,         Huina%Tang%NULL%1,         Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,          H.% Qian%null%1,          J.% Hang%null%1,          X.% Chen%null%1,          L.% Hong%null%1,          P.% Liang%null%1,          J.% Li%null%1,          S.% Xiao%null%1,          J.% Wei%null%1,          L.% Liu%null%2,          M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Jing%Wang%NULL%3,         Wenbin%Li%NULL%1,         Zhaoxian%Zhou%NULL%1,         Siying%Liu%NULL%1,         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,          Tania%Paredes%NULL%0,          Tania%Paredes%NULL%0,          David%Caceres%NULL%0,          Camille M.%Webb%NULL%0,          Luis M.%Valdez%NULL%0,          Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,          Claire M.%Midgley%NULL%1,          Alissa%Dratch%NULL%1,          Marty%Fenstersheib%NULL%1,          Thomas%Haupt%NULL%1,          Michelle%Holshue%NULL%1,          Isaac%Ghinai%NULL%1,          M. Claire%Jarashow%NULL%1,          Jennifer%Lo%NULL%1,          Tristan D.%McPherson%NULL%1,          Sara%Rudman%NULL%1,          Sarah%Scott%NULL%1,          Aron J.%Hall%NULL%1,          Alicia M.%Fry%NULL%1,          Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,          Wenjie%Sun%NULL%1,          Jianping%Huang%NULL%1,          Michelle%Gamber%NULL%1,          Jing%Wu%NULL%2,          Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,          Shuofeng%Yuan%NULL%0,          Kin-Hang%Kok%NULL%0,          Kelvin Kai-Wang%To%NULL%0,          Hin%Chu%NULL%0,          Jin%Yang%NULL%0,          Fanfan%Xing%NULL%0,          Jieling%Liu%NULL%0,          Cyril Chik-Yan%Yip%NULL%0,          Rosana Wing-Shan%Poon%NULL%0,          Hoi-Wah%Tsoi%NULL%0,          Simon Kam-Fai%Lo%NULL%0,          Kwok-Hung%Chan%NULL%0,          Vincent Kwok-Man%Poon%NULL%0,          Wan-Mui%Chan%NULL%0,          Jonathan Daniel%Ip%NULL%0,          Jian-Piao%Cai%NULL%0,          Vincent Chi-Chung%Cheng%NULL%0,          Honglin%Chen%NULL%0,          Christopher Kim-Ming%Hui%NULL%0,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,          Juanjuan%Guo%NULL%0,          Chen%Wang%NULL%0,          Fan%Luo%NULL%1,          Xuechen%Yu%NULL%0,          Wei%Zhang%NULL%0,          Jiafu%Li%NULL%0,          Dongchi%Zhao%NULL%1,          Dan%Xu%NULL%3,          Qing%Gong%NULL%1,          Jing%Liao%NULL%1,          Huixia%Yang%yanghuixia@bjmu.edu.cn%0,          Wei%Hou%houwei@whu.edu.cn%0,          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,  Liangjun%Chen%xref no email%1,  Qiaoling%Deng%xref no email%0,  Guqin%Zhang%xref no email%1,  Kaisong%Wu%xref no email%1,  Lan%Ni%xref no email%1,  Yibin%Yang%xref no email%1,  Bing%Liu%xref no email%1,  Wei%Wang%xref no email%0,  Chaojie%Wei%xref no email%1,  Jiong%Yang%xref no email%1,  Guangming%Ye%xref no email%1,  Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,          Hua%Peng%NULL%1,          Lin%Wang%NULL%3,          Yin%Zhao%NULL%1,          Lingkong%Zeng%NULL%1,          Hui%Gao%NULL%1,          Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,          Shu-Wan%Jian%NULL%1,          Ding-Ping%Liu%NULL%1,          Ta-Chou%Ng%NULL%1,          Wan-Ting%Huang%NULL%1,          Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,          Shuk-Ching%Wong%NULL%1,          Jonathan H. K.%Chen%NULL%1,          Cyril C. Y.%Yip%NULL%1,          Vivien W. M.%Chuang%NULL%1,          Owen T. Y.%Tsang%NULL%1,          Siddharth%Sridhar%NULL%1,          Jasper F. W.%Chan%NULL%1,          Pak-Leung%Ho%NULL%1,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,          Kristen Kelli%Coleman%NULL%2,          Kristen Kelli%Coleman%NULL%0,          Yian Kim%Tan%NULL%2,          Yian Kim%Tan%NULL%0,          Sean Wei Xiang%Ong%NULL%1,          Marcus%Gum%NULL%2,          Marcus%Gum%NULL%0,          Sok Kiang%Lau%NULL%1,          Xiao Fang%Lim%NULL%1,          Ai Sim%Lim%NULL%1,          Stephanie%Sutjipto%NULL%1,          Pei Hua%Lee%NULL%1,          Than The%Son%NULL%1,          Barnaby Edward%Young%NULL%1,          Donald K.%Milton%NULL%1,          Gregory C.%Gray%NULL%2,          Gregory C.%Gray%NULL%0,          Stephan%Schuster%NULL%2,          Stephan%Schuster%NULL%0,          Timothy%Barkham%NULL%1,          Partha Pratim%De%NULL%2,          Partha Pratim%De%NULL%0,          Shawn%Vasoo%NULL%1,          Monica%Chan%NULL%1,          Brenda Sze Peng%Ang%NULL%1,          Boon Huan%Tan%NULL%1,          Yee-Sin%Leo%NULL%1,          Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,          Michelle Su Yen%Wong%NULL%2,          Michelle Su Yen%Wong%NULL%0,          Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,          David Chien%Lye%NULL%2,          David Chien%Lye%NULL%0,          Poh Lian%Lim%NULL%1,          Cheng Chuan%Lee%NULL%1,          Li Min%Ling%NULL%1,          Lawrence%Lee%NULL%1,          Tau Hong%Lee%NULL%1,          Chen Seong%Wong%NULL%1,          Sapna%Sadarangani%NULL%1,          Ray Junhao%Lin%NULL%1,          Deborah Hee Ling%Ng%NULL%1,          Mucheli%Sadasiv%NULL%1,          Tsin Wen%Yeo%NULL%1,          Chiaw Yee%Choy%NULL%1,          Glorijoy Shi En%Tan%NULL%1,          Frederico%Dimatatac%NULL%1,          Isais Florante%Santos%NULL%1,          Chi Jong%Go%NULL%1,          Yu Kit%Chan%NULL%1,          Jun Yang%Tay%NULL%1,          Jackie Yu-Ling%Tan%NULL%1,          Nihar%Pandit%NULL%1,          Benjamin Choon Heng%Ho%NULL%1,          Shehara%Mendis%NULL%1,          Yuan Yi Constance%Chen%NULL%1,          Mohammad Yazid%Abdad%NULL%1,          Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,          Julie T S%Chu%NULL%1,          Mahen R A%Perera%NULL%1,          Kenrie P Y%Hui%NULL%1,          Hui-Ling%Yen%NULL%1,          Michael C W%Chan%NULL%1,          Malik%Peiris%NULL%1,          Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,          Daniele%Lapa%NULL%2,          Fabrizio%Carletti%NULL%2,          Eleonora%Lalle%NULL%2,          Licia%Bordi%NULL%2,          Patrizia%Marsella%NULL%2,          Emanuele%Nicastri%NULL%0,          Nazario%Bevilacqua%NULL%2,          Maria Letizia%Giancola%NULL%2,          Angela%Corpolongo%NULL%2,          Giuseppe%Ippolito%NULL%2,          Maria Rosaria%Capobianchi%NULL%2,          Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,          Daniele%Lapa%NULL%0,          Fabrizio%Carletti%NULL%0,          Eleonora%Lalle%NULL%0,          Licia%Bordi%NULL%0,          Patrizia%Marsella%NULL%0,          Emanuele%Nicastri%NULL%0,          Nazario%Bevilacqua%NULL%0,          Maria Letizia%Giancola%NULL%0,          Angela%Corpolongo%NULL%0,          Giuseppe%Ippolito%NULL%0,          Maria Rosaria%Capobianchi%NULL%0,          Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,           Z.% Chen%null%1,           T.% Wang%null%2,           J.% Dai%null%1,           J.% Zhang%null%1,           T.% Ding%null%1,           J.% Jiang%null%1,           J.% Liu%null%1,           C.% Zhang%null%1,           W.% Shan%null%1,           S.% Wang%null%1,           Y.% Rong%null%1,           J.% Chang%null%1,           X.% Miao%null%1,           X.% Ma%null%1,           S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,  Jinhua%Tian%xref no email%0,  Songming%He%xref no email%0,  Chuchao%Zhu%xref no email%0,  Jian%Wang%xref no email%0,  Chen%Liu%xref no email%0,  Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,           Tsung-Hao%Liu%null%1,           Thomas%Yau%null%1,           Chiun%Hsu%null%1,       Yawen%Dong%null%1,       Tsung-Hao%Liu%null%1,       Thomas%Yau%null%1,       Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,          Yan%Pan%woshipanyan@126.com%1,          Qingcui%Wu%NULL%1,          Shan%Liu%NULL%1,          Xu%Song%NULL%1,          Zhongguo%Xie%NULL%1,          Yang%Liu%NULL%1,          Liang%Zhao%NULL%1,          Zhonghong%Wang%NULL%1,          Yifei%Zhang%NULL%1,          Zuchuang%Wu%NULL%1,          Lei%Guan%NULL%1,          Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,          Sadegh%Niazi%NULL%1,          Kaveh%Sadeghi%NULL%1,          Kazem%Naddafi%NULL%1,          Jila%Yavarian%NULL%1,          Mansour%Shamsipour%NULL%1,          Nazanin Zahra Shafiei%Jandaghi%NULL%1,          Khosro%Sadeghniiat%NULL%1,          Ramin%Nabizadeh%NULL%1,          Masud%Yunesian%NULL%1,          Fatemeh%Momeniha%NULL%1,          Adel%Mokamel%NULL%1,          Mohammad Sadegh%Hassanvand%NULL%1,          Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,          Moon-Woo%Seong%NULL%1,          Eun Young%Heo%NULL%1,          Ji Hong%Park%NULL%1,          Namhee%Kim%NULL%1,          Sue%Shin%NULL%1,          Sung Im%Cho%NULL%1,          Sung Sup%Park%NULL%1,          Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,          Matthew J.%Stuckey%NULL%1,          Tara%Scheuer%NULL%1,          Kerui%Xu%NULL%1,          Kiran M.%Perkins%NULL%1,          Heather%Resseger%NULL%1,          Shelley%Magill%NULL%1,          Jennifer R.%Verani%NULL%1,          Seema%Jain%NULL%1,          Meileen%Acosta%NULL%1,          Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,          Xiuwen%Zhang%NULL%2,          Xinyue%Zhang%NULL%2,          Zhijian%Wei%NULL%2,          Lingli%Zhang%NULL%2,          Jingjing%Xu%NULL%2,          Peipei%Liang%NULL%2,          Yuanhong%Xu%xyhong1964@163.com%0,          Chengyuan%Zhang%2396476405@qq.com%2,          Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,          Xiuwen%Zhang%NULL%0,          Xinyue%Zhang%NULL%0,          Zhijian%Wei%NULL%0,          Lingli%Zhang%NULL%0,          Jingjing%Xu%NULL%0,          Peipei%Liang%NULL%0,          Yuanhong%Xu%xyhong1964@163.com%0,          Chengyuan%Zhang%2396476405@qq.com%0,          Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,          Juan%Xia%NULL%1,          Yuxin%Chen%NULL%1,          Chun%Shan%NULL%1,          Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,          Rachael%Overcash%NULL%0,          Neggin%Mokhtari%NULL%0,          Haleema%Saeed%NULL%0,          Stacey%Gold%NULL%0,          Tamika%Auguste%NULL%0,          Muhammad-Usman%Mirza%NULL%0,          Maria-Elena%Ruiz%NULL%0,          Joeffrey J.%Chahine%NULL%0,          Joeffrey J.%Chahine%NULL%0,          Masashi%Waga%NULL%0,          Masashi%Waga%NULL%0,          Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,          Mei%Luo%NULL%1,          Zhen%Zou%NULL%1,          Xu%Wang%875777340@qq.com%1,          Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,          Jingfu%Qiu%jfqiu@126.com%2,          Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,          Xiao-Li%Zhang%NULL%1,          Xiang-Na%Zhao%NULL%1,          Cun-Bao%Li%NULL%1,          Jie%Lei%NULL%0,          Zeng-Qiang%Kou%NULL%1,          Wen-Kui%Sun%NULL%1,          Yang%Hang%NULL%1,          Feng%Gao%NULL%1,          Sheng-Xiang%Ji%NULL%1,          Can-Fang%Lin%NULL%1,          Bo%Pang%NULL%1,          Ming-Xiao%Yao%NULL%1,          Benjamin D%Anderson%NULL%1,          Guo-Lin%Wang%NULL%1,          Lin%Yao%NULL%1,          Li-Jun%Duan%NULL%1,          Dian-Ming%Kang%dmkang66@163.com%1,          Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,          Lam V%Nguyen%NULL%1,          Dien M%Tran%NULL%1,          Hai T%Do%NULL%1,          Huong T%Tran%NULL%1,          Yen T%Le%NULL%1,          Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,          Jihyang%Lee%NULL%0,          Jihyang%Lee%NULL%0,          Eunju%Kim%NULL%0,          Eunju%Kim%NULL%0,          Kyeongyoon%Woo%NULL%0,          Kyeongyoon%Woo%NULL%0,          Hak Youle%Park%NULL%0,          Hak Youle%Park%NULL%0,          Jihyun%An%NULL%0,          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,          Fang%Ji%NULL%1,          Liang%Wang%NULL%1,          Liping%Wang%NULL%1,          Jungui%Hao%NULL%1,          Mingjia%Dai%NULL%1,          Yan%Liu%NULL%0,          Xiucheng%Pan%NULL%1,          Juanjuan%Fu%NULL%1,          Li%Li%NULL%0,          Guangde%Yang%NULL%1,          Jianye%Yang%NULL%1,          Xuebing%Yan%NULL%1,          Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,          Meiling%Jin%NULL%1,          Pengtao%Bao%NULL%1,          Weiguo%Zhao%NULL%1,          Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,          Lefei%Han%NULL%2,          Min%Peng%2658706528@qq.com%2,          Yuxia%Lv%NULL%2,          Yin%Ouyang%NULL%2,          Kui%Liu%NULL%0,          Linli%Yue%NULL%2,          Qiannan%Li%NULL%2,          Guoqiang%Sun%NULL%2,          Lin%Chen%NULL%2,          Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,          Bo%Zhang%NULL%2,          Jianhua%Lu%NULL%1,          Shihua%Liu%NULL%1,          Zhiqiang%Chang%NULL%1,          Peng%Cao%NULL%1,          Xinhua%Liu%NULL%1,          Peng%Zhang%NULL%2,          Yan%Ling%NULL%1,          Kaixiong%Tao%NULL%1,          Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,          Yingying%Hu%NULL%2,          Yingying%Hu%NULL%0,          Yuanyuan%Yu%NULL%1,          Xiaodong%Zhang%NULL%1,          Bin%Li%NULL%1,          Jianguo%Wu%NULL%1,          Junyu%Li%NULL%1,          Yingping%Wu%NULL%1,          Xiaoping%Xia%NULL%2,          Xiaoping%Xia%NULL%0,          Huina%Tang%NULL%1,          Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,           H.% Qian%null%1,           J.% Hang%null%1,           X.% Chen%null%1,           L.% Hong%null%1,           P.% Liang%null%1,           J.% Li%null%1,           S.% Xiao%null%1,           J.% Wei%null%1,           L.% Liu%null%2,           M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Jing%Wang%NULL%3,          Wenbin%Li%NULL%1,          Zhaoxian%Zhou%NULL%1,          Siying%Liu%NULL%1,          Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1982,7 +2207,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2011,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2040,7 +2265,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2069,7 +2294,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2092,22 +2317,22 @@
         <v>43924.0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>477</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>439</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
@@ -2127,7 +2352,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2156,7 +2381,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2185,7 +2410,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2214,7 +2439,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2243,7 +2468,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2272,7 +2497,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2301,7 +2526,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2330,7 +2555,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -2353,22 +2578,22 @@
         <v>43963.0</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>486</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>439</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>451</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
@@ -2388,7 +2613,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2417,7 +2642,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -2446,7 +2671,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2504,7 +2729,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2533,7 +2758,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -2562,7 +2787,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -2591,7 +2816,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -2620,7 +2845,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -2649,7 +2874,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2678,7 +2903,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -2707,7 +2932,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -2765,7 +2990,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -2794,7 +3019,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -2823,7 +3048,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -2852,7 +3077,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -2881,7 +3106,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -2910,7 +3135,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -2939,7 +3164,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -2968,7 +3193,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -2997,7 +3222,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3026,7 +3251,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="578">
   <si>
     <t>Doi</t>
   </si>
@@ -1768,6 +1768,224 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,          Jing%Wang%NULL%3,          Wenbin%Li%NULL%1,          Zhaoxian%Zhou%NULL%1,          Siying%Liu%NULL%1,          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,           Tania%Paredes%NULL%0,           Tania%Paredes%NULL%0,           David%Caceres%NULL%0,           Camille M.%Webb%NULL%0,           Luis M.%Valdez%NULL%0,           Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,           Claire M.%Midgley%NULL%1,           Alissa%Dratch%NULL%1,           Marty%Fenstersheib%NULL%1,           Thomas%Haupt%NULL%1,           Michelle%Holshue%NULL%1,           Isaac%Ghinai%NULL%1,           M. Claire%Jarashow%NULL%1,           Jennifer%Lo%NULL%1,           Tristan D.%McPherson%NULL%1,           Sara%Rudman%NULL%1,           Sarah%Scott%NULL%1,           Aron J.%Hall%NULL%1,           Alicia M.%Fry%NULL%1,           Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,           Wenjie%Sun%NULL%1,           Jianping%Huang%NULL%1,           Michelle%Gamber%NULL%1,           Jing%Wu%NULL%2,           Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,           Shuofeng%Yuan%NULL%0,           Kin-Hang%Kok%NULL%0,           Kelvin Kai-Wang%To%NULL%0,           Hin%Chu%NULL%0,           Jin%Yang%NULL%0,           Fanfan%Xing%NULL%0,           Jieling%Liu%NULL%0,           Cyril Chik-Yan%Yip%NULL%0,           Rosana Wing-Shan%Poon%NULL%0,           Hoi-Wah%Tsoi%NULL%0,           Simon Kam-Fai%Lo%NULL%0,           Kwok-Hung%Chan%NULL%0,           Vincent Kwok-Man%Poon%NULL%0,           Wan-Mui%Chan%NULL%0,           Jonathan Daniel%Ip%NULL%0,           Jian-Piao%Cai%NULL%0,           Vincent Chi-Chung%Cheng%NULL%0,           Honglin%Chen%NULL%0,           Christopher Kim-Ming%Hui%NULL%0,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,           Juanjuan%Guo%NULL%0,           Chen%Wang%NULL%0,           Fan%Luo%NULL%1,           Xuechen%Yu%NULL%0,           Wei%Zhang%NULL%0,           Jiafu%Li%NULL%0,           Dongchi%Zhao%NULL%1,           Dan%Xu%NULL%3,           Qing%Gong%NULL%1,           Jing%Liao%NULL%1,           Huixia%Yang%yanghuixia@bjmu.edu.cn%0,           Wei%Hou%houwei@whu.edu.cn%0,           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,   Liangjun%Chen%xref no email%1,   Qiaoling%Deng%xref no email%0,   Guqin%Zhang%xref no email%1,   Kaisong%Wu%xref no email%1,   Lan%Ni%xref no email%1,   Yibin%Yang%xref no email%1,   Bing%Liu%xref no email%1,   Wei%Wang%xref no email%0,   Chaojie%Wei%xref no email%1,   Jiong%Yang%xref no email%1,   Guangming%Ye%xref no email%1,   Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,           Hua%Peng%NULL%1,           Lin%Wang%NULL%3,           Yin%Zhao%NULL%1,           Lingkong%Zeng%NULL%1,           Hui%Gao%NULL%1,           Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,           Shu-Wan%Jian%NULL%1,           Ding-Ping%Liu%NULL%1,           Ta-Chou%Ng%NULL%1,           Wan-Ting%Huang%NULL%1,           Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,           Shuk-Ching%Wong%NULL%1,           Jonathan H. K.%Chen%NULL%1,           Cyril C. Y.%Yip%NULL%1,           Vivien W. M.%Chuang%NULL%1,           Owen T. Y.%Tsang%NULL%1,           Siddharth%Sridhar%NULL%1,           Jasper F. W.%Chan%NULL%1,           Pak-Leung%Ho%NULL%1,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,           Kristen Kelli%Coleman%NULL%2,           Kristen Kelli%Coleman%NULL%0,           Yian Kim%Tan%NULL%2,           Yian Kim%Tan%NULL%0,           Sean Wei Xiang%Ong%NULL%1,           Marcus%Gum%NULL%2,           Marcus%Gum%NULL%0,           Sok Kiang%Lau%NULL%1,           Xiao Fang%Lim%NULL%1,           Ai Sim%Lim%NULL%1,           Stephanie%Sutjipto%NULL%1,           Pei Hua%Lee%NULL%1,           Than The%Son%NULL%1,           Barnaby Edward%Young%NULL%1,           Donald K.%Milton%NULL%1,           Gregory C.%Gray%NULL%2,           Gregory C.%Gray%NULL%0,           Stephan%Schuster%NULL%2,           Stephan%Schuster%NULL%0,           Timothy%Barkham%NULL%1,           Partha Pratim%De%NULL%2,           Partha Pratim%De%NULL%0,           Shawn%Vasoo%NULL%1,           Monica%Chan%NULL%1,           Brenda Sze Peng%Ang%NULL%1,           Boon Huan%Tan%NULL%1,           Yee-Sin%Leo%NULL%1,           Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,           Michelle Su Yen%Wong%NULL%2,           Michelle Su Yen%Wong%NULL%0,           Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,           David Chien%Lye%NULL%2,           David Chien%Lye%NULL%0,           Poh Lian%Lim%NULL%1,           Cheng Chuan%Lee%NULL%1,           Li Min%Ling%NULL%1,           Lawrence%Lee%NULL%1,           Tau Hong%Lee%NULL%1,           Chen Seong%Wong%NULL%1,           Sapna%Sadarangani%NULL%1,           Ray Junhao%Lin%NULL%1,           Deborah Hee Ling%Ng%NULL%1,           Mucheli%Sadasiv%NULL%1,           Tsin Wen%Yeo%NULL%1,           Chiaw Yee%Choy%NULL%1,           Glorijoy Shi En%Tan%NULL%1,           Frederico%Dimatatac%NULL%1,           Isais Florante%Santos%NULL%1,           Chi Jong%Go%NULL%1,           Yu Kit%Chan%NULL%1,           Jun Yang%Tay%NULL%1,           Jackie Yu-Ling%Tan%NULL%1,           Nihar%Pandit%NULL%1,           Benjamin Choon Heng%Ho%NULL%1,           Shehara%Mendis%NULL%1,           Yuan Yi Constance%Chen%NULL%1,           Mohammad Yazid%Abdad%NULL%1,           Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,           Julie T S%Chu%NULL%1,           Mahen R A%Perera%NULL%1,           Kenrie P Y%Hui%NULL%1,           Hui-Ling%Yen%NULL%1,           Michael C W%Chan%NULL%1,           Malik%Peiris%NULL%1,           Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,           Daniele%Lapa%NULL%2,           Fabrizio%Carletti%NULL%2,           Eleonora%Lalle%NULL%2,           Licia%Bordi%NULL%2,           Patrizia%Marsella%NULL%2,           Emanuele%Nicastri%NULL%0,           Nazario%Bevilacqua%NULL%2,           Maria Letizia%Giancola%NULL%2,           Angela%Corpolongo%NULL%2,           Giuseppe%Ippolito%NULL%2,           Maria Rosaria%Capobianchi%NULL%2,           Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,           Daniele%Lapa%NULL%0,           Fabrizio%Carletti%NULL%0,           Eleonora%Lalle%NULL%0,           Licia%Bordi%NULL%0,           Patrizia%Marsella%NULL%0,           Emanuele%Nicastri%NULL%0,           Nazario%Bevilacqua%NULL%0,           Maria Letizia%Giancola%NULL%0,           Angela%Corpolongo%NULL%0,           Giuseppe%Ippolito%NULL%0,           Maria Rosaria%Capobianchi%NULL%0,           Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,            Z.% Chen%null%1,            T.% Wang%null%2,            J.% Dai%null%1,            J.% Zhang%null%1,            T.% Ding%null%1,            J.% Jiang%null%1,            J.% Liu%null%1,            C.% Zhang%null%1,            W.% Shan%null%1,            S.% Wang%null%1,            Y.% Rong%null%1,            J.% Chang%null%1,            X.% Miao%null%1,            X.% Ma%null%1,            S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,   Jinhua%Tian%xref no email%0,   Songming%He%xref no email%0,   Chuchao%Zhu%xref no email%0,   Jian%Wang%xref no email%0,   Chen%Liu%xref no email%0,   Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,            Tsung-Hao%Liu%null%1,            Thomas%Yau%null%1,            Chiun%Hsu%null%1,        Yawen%Dong%null%1,        Tsung-Hao%Liu%null%1,        Thomas%Yau%null%1,        Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,           Yan%Pan%woshipanyan@126.com%1,           Qingcui%Wu%NULL%1,           Shan%Liu%NULL%1,           Xu%Song%NULL%1,           Zhongguo%Xie%NULL%1,           Yang%Liu%NULL%1,           Liang%Zhao%NULL%1,           Zhonghong%Wang%NULL%1,           Yifei%Zhang%NULL%1,           Zuchuang%Wu%NULL%1,           Lei%Guan%NULL%1,           Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,           Sadegh%Niazi%NULL%1,           Kaveh%Sadeghi%NULL%1,           Kazem%Naddafi%NULL%1,           Jila%Yavarian%NULL%1,           Mansour%Shamsipour%NULL%1,           Nazanin Zahra Shafiei%Jandaghi%NULL%1,           Khosro%Sadeghniiat%NULL%1,           Ramin%Nabizadeh%NULL%1,           Masud%Yunesian%NULL%1,           Fatemeh%Momeniha%NULL%1,           Adel%Mokamel%NULL%1,           Mohammad Sadegh%Hassanvand%NULL%1,           Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,           Moon-Woo%Seong%NULL%1,           Eun Young%Heo%NULL%1,           Ji Hong%Park%NULL%1,           Namhee%Kim%NULL%1,           Sue%Shin%NULL%1,           Sung Im%Cho%NULL%1,           Sung Sup%Park%NULL%1,           Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,           Matthew J.%Stuckey%NULL%1,           Tara%Scheuer%NULL%1,           Kerui%Xu%NULL%1,           Kiran M.%Perkins%NULL%1,           Heather%Resseger%NULL%1,           Shelley%Magill%NULL%1,           Jennifer R.%Verani%NULL%1,           Seema%Jain%NULL%1,           Meileen%Acosta%NULL%1,           Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,           Xiuwen%Zhang%NULL%2,           Xinyue%Zhang%NULL%2,           Zhijian%Wei%NULL%2,           Lingli%Zhang%NULL%2,           Jingjing%Xu%NULL%2,           Peipei%Liang%NULL%2,           Yuanhong%Xu%xyhong1964@163.com%0,           Chengyuan%Zhang%2396476405@qq.com%2,           Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,           Xiuwen%Zhang%NULL%0,           Xinyue%Zhang%NULL%0,           Zhijian%Wei%NULL%0,           Lingli%Zhang%NULL%0,           Jingjing%Xu%NULL%0,           Peipei%Liang%NULL%0,           Yuanhong%Xu%xyhong1964@163.com%0,           Chengyuan%Zhang%2396476405@qq.com%0,           Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,           Juan%Xia%NULL%1,           Yuxin%Chen%NULL%1,           Chun%Shan%NULL%1,           Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,           Rachael%Overcash%NULL%0,           Neggin%Mokhtari%NULL%0,           Haleema%Saeed%NULL%0,           Stacey%Gold%NULL%0,           Tamika%Auguste%NULL%0,           Muhammad-Usman%Mirza%NULL%0,           Maria-Elena%Ruiz%NULL%0,           Joeffrey J.%Chahine%NULL%0,           Joeffrey J.%Chahine%NULL%0,           Masashi%Waga%NULL%0,           Masashi%Waga%NULL%0,           Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,           Mei%Luo%NULL%1,           Zhen%Zou%NULL%1,           Xu%Wang%875777340@qq.com%1,           Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,           Jingfu%Qiu%jfqiu@126.com%2,           Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,           Xiao-Li%Zhang%NULL%1,           Xiang-Na%Zhao%NULL%1,           Cun-Bao%Li%NULL%1,           Jie%Lei%NULL%0,           Zeng-Qiang%Kou%NULL%1,           Wen-Kui%Sun%NULL%1,           Yang%Hang%NULL%1,           Feng%Gao%NULL%1,           Sheng-Xiang%Ji%NULL%1,           Can-Fang%Lin%NULL%1,           Bo%Pang%NULL%1,           Ming-Xiao%Yao%NULL%1,           Benjamin D%Anderson%NULL%1,           Guo-Lin%Wang%NULL%1,           Lin%Yao%NULL%1,           Li-Jun%Duan%NULL%1,           Dian-Ming%Kang%dmkang66@163.com%1,           Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,           Lam V%Nguyen%NULL%1,           Dien M%Tran%NULL%1,           Hai T%Do%NULL%1,           Huong T%Tran%NULL%1,           Yen T%Le%NULL%1,           Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,           Jihyang%Lee%NULL%0,           Jihyang%Lee%NULL%0,           Eunju%Kim%NULL%0,           Eunju%Kim%NULL%0,           Kyeongyoon%Woo%NULL%0,           Kyeongyoon%Woo%NULL%0,           Hak Youle%Park%NULL%0,           Hak Youle%Park%NULL%0,           Jihyun%An%NULL%0,           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,           Fang%Ji%NULL%1,           Liang%Wang%NULL%1,           Liping%Wang%NULL%1,           Jungui%Hao%NULL%1,           Mingjia%Dai%NULL%1,           Yan%Liu%NULL%0,           Xiucheng%Pan%NULL%1,           Juanjuan%Fu%NULL%1,           Li%Li%NULL%0,           Guangde%Yang%NULL%1,           Jianye%Yang%NULL%1,           Xuebing%Yan%NULL%1,           Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,           Meiling%Jin%NULL%1,           Pengtao%Bao%NULL%1,           Weiguo%Zhao%NULL%1,           Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,           Lefei%Han%NULL%2,           Min%Peng%2658706528@qq.com%2,           Yuxia%Lv%NULL%2,           Yin%Ouyang%NULL%2,           Kui%Liu%NULL%0,           Linli%Yue%NULL%2,           Qiannan%Li%NULL%2,           Guoqiang%Sun%NULL%2,           Lin%Chen%NULL%2,           Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,           Bo%Zhang%NULL%2,           Jianhua%Lu%NULL%1,           Shihua%Liu%NULL%1,           Zhiqiang%Chang%NULL%1,           Peng%Cao%NULL%1,           Xinhua%Liu%NULL%1,           Peng%Zhang%NULL%2,           Yan%Ling%NULL%1,           Kaixiong%Tao%NULL%1,           Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,           Yingying%Hu%NULL%2,           Yingying%Hu%NULL%0,           Yuanyuan%Yu%NULL%1,           Xiaodong%Zhang%NULL%1,           Bin%Li%NULL%1,           Jianguo%Wu%NULL%1,           Junyu%Li%NULL%1,           Yingping%Wu%NULL%1,           Xiaoping%Xia%NULL%2,           Xiaoping%Xia%NULL%0,           Huina%Tang%NULL%1,           Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,            H.% Qian%null%1,            J.% Hang%null%1,            X.% Chen%null%1,            L.% Hong%null%1,            P.% Liang%null%1,            J.% Li%null%1,            S.% Xiao%null%1,            J.% Wei%null%1,            L.% Liu%null%2,            M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Jing%Wang%NULL%3,           Wenbin%Li%NULL%1,           Zhaoxian%Zhou%NULL%1,           Siying%Liu%NULL%1,           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,            Tania%Paredes%NULL%0,            Tania%Paredes%NULL%0,            David%Caceres%NULL%0,            Camille M.%Webb%NULL%0,            Luis M.%Valdez%NULL%0,            Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,            Claire M.%Midgley%NULL%1,            Alissa%Dratch%NULL%1,            Marty%Fenstersheib%NULL%1,            Thomas%Haupt%NULL%1,            Michelle%Holshue%NULL%1,            Isaac%Ghinai%NULL%1,            M. Claire%Jarashow%NULL%1,            Jennifer%Lo%NULL%1,            Tristan D.%McPherson%NULL%1,            Sara%Rudman%NULL%1,            Sarah%Scott%NULL%1,            Aron J.%Hall%NULL%1,            Alicia M.%Fry%NULL%1,            Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,            Wenjie%Sun%NULL%1,            Jianping%Huang%NULL%1,            Michelle%Gamber%NULL%1,            Jing%Wu%NULL%2,            Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,            Shuofeng%Yuan%NULL%0,            Kin-Hang%Kok%NULL%0,            Kelvin Kai-Wang%To%NULL%0,            Hin%Chu%NULL%0,            Jin%Yang%NULL%0,            Fanfan%Xing%NULL%0,            Jieling%Liu%NULL%0,            Cyril Chik-Yan%Yip%NULL%0,            Rosana Wing-Shan%Poon%NULL%0,            Hoi-Wah%Tsoi%NULL%0,            Simon Kam-Fai%Lo%NULL%0,            Kwok-Hung%Chan%NULL%0,            Vincent Kwok-Man%Poon%NULL%0,            Wan-Mui%Chan%NULL%0,            Jonathan Daniel%Ip%NULL%0,            Jian-Piao%Cai%NULL%0,            Vincent Chi-Chung%Cheng%NULL%0,            Honglin%Chen%NULL%0,            Christopher Kim-Ming%Hui%NULL%0,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,            Juanjuan%Guo%NULL%0,            Chen%Wang%NULL%0,            Fan%Luo%NULL%1,            Xuechen%Yu%NULL%0,            Wei%Zhang%NULL%0,            Jiafu%Li%NULL%0,            Dongchi%Zhao%NULL%1,            Dan%Xu%NULL%3,            Qing%Gong%NULL%1,            Jing%Liao%NULL%1,            Huixia%Yang%yanghuixia@bjmu.edu.cn%0,            Wei%Hou%houwei@whu.edu.cn%0,            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,    Liangjun%Chen%xref no email%1,    Qiaoling%Deng%xref no email%0,    Guqin%Zhang%xref no email%1,    Kaisong%Wu%xref no email%1,    Lan%Ni%xref no email%1,    Yibin%Yang%xref no email%1,    Bing%Liu%xref no email%1,    Wei%Wang%xref no email%0,    Chaojie%Wei%xref no email%1,    Jiong%Yang%xref no email%1,    Guangming%Ye%xref no email%1,    Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,            Hua%Peng%NULL%1,            Lin%Wang%NULL%3,            Yin%Zhao%NULL%1,            Lingkong%Zeng%NULL%1,            Hui%Gao%NULL%1,            Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,            Shu-Wan%Jian%NULL%1,            Ding-Ping%Liu%NULL%1,            Ta-Chou%Ng%NULL%1,            Wan-Ting%Huang%NULL%1,            Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,            Shuk-Ching%Wong%NULL%1,            Jonathan H. K.%Chen%NULL%1,            Cyril C. Y.%Yip%NULL%1,            Vivien W. M.%Chuang%NULL%1,            Owen T. Y.%Tsang%NULL%1,            Siddharth%Sridhar%NULL%1,            Jasper F. W.%Chan%NULL%1,            Pak-Leung%Ho%NULL%1,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,            Kristen Kelli%Coleman%NULL%2,            Kristen Kelli%Coleman%NULL%0,            Yian Kim%Tan%NULL%2,            Yian Kim%Tan%NULL%0,            Sean Wei Xiang%Ong%NULL%1,            Marcus%Gum%NULL%2,            Marcus%Gum%NULL%0,            Sok Kiang%Lau%NULL%1,            Xiao Fang%Lim%NULL%1,            Ai Sim%Lim%NULL%1,            Stephanie%Sutjipto%NULL%1,            Pei Hua%Lee%NULL%1,            Than The%Son%NULL%1,            Barnaby Edward%Young%NULL%1,            Donald K.%Milton%NULL%1,            Gregory C.%Gray%NULL%2,            Gregory C.%Gray%NULL%0,            Stephan%Schuster%NULL%2,            Stephan%Schuster%NULL%0,            Timothy%Barkham%NULL%1,            Partha Pratim%De%NULL%2,            Partha Pratim%De%NULL%0,            Shawn%Vasoo%NULL%1,            Monica%Chan%NULL%1,            Brenda Sze Peng%Ang%NULL%1,            Boon Huan%Tan%NULL%1,            Yee-Sin%Leo%NULL%1,            Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,            Michelle Su Yen%Wong%NULL%2,            Michelle Su Yen%Wong%NULL%0,            Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,            David Chien%Lye%NULL%2,            David Chien%Lye%NULL%0,            Poh Lian%Lim%NULL%1,            Cheng Chuan%Lee%NULL%1,            Li Min%Ling%NULL%1,            Lawrence%Lee%NULL%1,            Tau Hong%Lee%NULL%1,            Chen Seong%Wong%NULL%1,            Sapna%Sadarangani%NULL%1,            Ray Junhao%Lin%NULL%1,            Deborah Hee Ling%Ng%NULL%1,            Mucheli%Sadasiv%NULL%1,            Tsin Wen%Yeo%NULL%1,            Chiaw Yee%Choy%NULL%1,            Glorijoy Shi En%Tan%NULL%1,            Frederico%Dimatatac%NULL%1,            Isais Florante%Santos%NULL%1,            Chi Jong%Go%NULL%1,            Yu Kit%Chan%NULL%1,            Jun Yang%Tay%NULL%1,            Jackie Yu-Ling%Tan%NULL%1,            Nihar%Pandit%NULL%1,            Benjamin Choon Heng%Ho%NULL%1,            Shehara%Mendis%NULL%1,            Yuan Yi Constance%Chen%NULL%1,            Mohammad Yazid%Abdad%NULL%1,            Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,            Julie T S%Chu%NULL%1,            Mahen R A%Perera%NULL%1,            Kenrie P Y%Hui%NULL%1,            Hui-Ling%Yen%NULL%1,            Michael C W%Chan%NULL%1,            Malik%Peiris%NULL%1,            Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,            Daniele%Lapa%NULL%2,            Fabrizio%Carletti%NULL%2,            Eleonora%Lalle%NULL%2,            Licia%Bordi%NULL%2,            Patrizia%Marsella%NULL%2,            Emanuele%Nicastri%NULL%0,            Nazario%Bevilacqua%NULL%2,            Maria Letizia%Giancola%NULL%2,            Angela%Corpolongo%NULL%2,            Giuseppe%Ippolito%NULL%2,            Maria Rosaria%Capobianchi%NULL%2,            Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,            Daniele%Lapa%NULL%0,            Fabrizio%Carletti%NULL%0,            Eleonora%Lalle%NULL%0,            Licia%Bordi%NULL%0,            Patrizia%Marsella%NULL%0,            Emanuele%Nicastri%NULL%0,            Nazario%Bevilacqua%NULL%0,            Maria Letizia%Giancola%NULL%0,            Angela%Corpolongo%NULL%0,            Giuseppe%Ippolito%NULL%0,            Maria Rosaria%Capobianchi%NULL%0,            Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,             Z.% Chen%null%1,             T.% Wang%null%2,             J.% Dai%null%1,             J.% Zhang%null%1,             T.% Ding%null%1,             J.% Jiang%null%1,             J.% Liu%null%1,             C.% Zhang%null%1,             W.% Shan%null%1,             S.% Wang%null%1,             Y.% Rong%null%1,             J.% Chang%null%1,             X.% Miao%null%1,             X.% Ma%null%1,             S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,    Jinhua%Tian%xref no email%0,    Songming%He%xref no email%0,    Chuchao%Zhu%xref no email%0,    Jian%Wang%xref no email%0,    Chen%Liu%xref no email%0,    Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Systemic therapy for hepatocellular carcinoma (HCC) used to be limited to patients with advanced diseases and multi-kinase inhibitors targeting tumor angiogenesis the major approach of developing new treatment options.
+ In the past 3 years, new data from trials of both molecular targeted therapy and immune checkpoint inhibitors (ICI) provided many new options of first- and second-line treatment for advanced HCC.
+ Most notably, combination of ICI targeting the program cell death-1 (PD-1) pathway with other novel agents or conventional anti-cancer therapy may further improve treatment efficacy in different clinical settings.
+ In this paper updated data of clinical trials of systemic therapy in the first- and second-line settings for advanced HCC were reviewed and the following issues were discussed: (1) lessons of trial design learned from positive and negative trials; (2) the balance between efficacy and safety in clinical practice; and (3) impact on future multi-disciplinary management of HCC.
+</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%0,  Tsung-Hao%Liu%null%1,  Thomas%Yau%null%1,  Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,            Yan%Pan%woshipanyan@126.com%1,            Qingcui%Wu%NULL%1,            Shan%Liu%NULL%1,            Xu%Song%NULL%1,            Zhongguo%Xie%NULL%1,            Yang%Liu%NULL%1,            Liang%Zhao%NULL%1,            Zhonghong%Wang%NULL%1,            Yifei%Zhang%NULL%1,            Zuchuang%Wu%NULL%1,            Lei%Guan%NULL%1,            Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,            Sadegh%Niazi%NULL%1,            Kaveh%Sadeghi%NULL%1,            Kazem%Naddafi%NULL%1,            Jila%Yavarian%NULL%1,            Mansour%Shamsipour%NULL%1,            Nazanin Zahra Shafiei%Jandaghi%NULL%1,            Khosro%Sadeghniiat%NULL%1,            Ramin%Nabizadeh%NULL%1,            Masud%Yunesian%NULL%1,            Fatemeh%Momeniha%NULL%1,            Adel%Mokamel%NULL%1,            Mohammad Sadegh%Hassanvand%NULL%1,            Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,            Moon-Woo%Seong%NULL%1,            Eun Young%Heo%NULL%1,            Ji Hong%Park%NULL%1,            Namhee%Kim%NULL%1,            Sue%Shin%NULL%1,            Sung Im%Cho%NULL%1,            Sung Sup%Park%NULL%1,            Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,            Matthew J.%Stuckey%NULL%1,            Tara%Scheuer%NULL%1,            Kerui%Xu%NULL%1,            Kiran M.%Perkins%NULL%1,            Heather%Resseger%NULL%1,            Shelley%Magill%NULL%1,            Jennifer R.%Verani%NULL%1,            Seema%Jain%NULL%1,            Meileen%Acosta%NULL%1,            Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,            Xiuwen%Zhang%NULL%2,            Xinyue%Zhang%NULL%2,            Zhijian%Wei%NULL%2,            Lingli%Zhang%NULL%2,            Jingjing%Xu%NULL%2,            Peipei%Liang%NULL%2,            Yuanhong%Xu%xyhong1964@163.com%0,            Chengyuan%Zhang%2396476405@qq.com%2,            Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,            Xiuwen%Zhang%NULL%0,            Xinyue%Zhang%NULL%0,            Zhijian%Wei%NULL%0,            Lingli%Zhang%NULL%0,            Jingjing%Xu%NULL%0,            Peipei%Liang%NULL%0,            Yuanhong%Xu%xyhong1964@163.com%0,            Chengyuan%Zhang%2396476405@qq.com%0,            Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,            Juan%Xia%NULL%1,            Yuxin%Chen%NULL%1,            Chun%Shan%NULL%1,            Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,            Rachael%Overcash%NULL%0,            Neggin%Mokhtari%NULL%0,            Haleema%Saeed%NULL%0,            Stacey%Gold%NULL%0,            Tamika%Auguste%NULL%0,            Muhammad-Usman%Mirza%NULL%0,            Maria-Elena%Ruiz%NULL%0,            Joeffrey J.%Chahine%NULL%0,            Joeffrey J.%Chahine%NULL%0,            Masashi%Waga%NULL%0,            Masashi%Waga%NULL%0,            Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,            Mei%Luo%NULL%1,            Zhen%Zou%NULL%1,            Xu%Wang%875777340@qq.com%1,            Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,            Jingfu%Qiu%jfqiu@126.com%2,            Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,            Xiao-Li%Zhang%NULL%1,            Xiang-Na%Zhao%NULL%1,            Cun-Bao%Li%NULL%1,            Jie%Lei%NULL%2,            Zeng-Qiang%Kou%NULL%1,            Wen-Kui%Sun%NULL%1,            Yang%Hang%NULL%1,            Feng%Gao%NULL%1,            Sheng-Xiang%Ji%NULL%1,            Can-Fang%Lin%NULL%1,            Bo%Pang%NULL%1,            Ming-Xiao%Yao%NULL%1,            Benjamin D%Anderson%NULL%1,            Guo-Lin%Wang%NULL%1,            Lin%Yao%NULL%1,            Li-Jun%Duan%NULL%1,            Dian-Ming%Kang%dmkang66@163.com%1,            Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,            Lam V%Nguyen%NULL%1,            Dien M%Tran%NULL%1,            Hai T%Do%NULL%1,            Huong T%Tran%NULL%1,            Yen T%Le%NULL%1,            Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,            Jihyang%Lee%NULL%0,            Jihyang%Lee%NULL%0,            Eunju%Kim%NULL%0,            Eunju%Kim%NULL%0,            Kyeongyoon%Woo%NULL%0,            Kyeongyoon%Woo%NULL%0,            Hak Youle%Park%NULL%0,            Hak Youle%Park%NULL%0,            Jihyun%An%NULL%0,            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,            Fang%Ji%NULL%1,            Liang%Wang%NULL%1,            Liping%Wang%NULL%1,            Jungui%Hao%NULL%1,            Mingjia%Dai%NULL%1,            Yan%Liu%NULL%0,            Xiucheng%Pan%NULL%1,            Juanjuan%Fu%NULL%1,            Li%Li%NULL%0,            Guangde%Yang%NULL%1,            Jianye%Yang%NULL%1,            Xuebing%Yan%NULL%1,            Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,            Meiling%Jin%NULL%1,            Pengtao%Bao%NULL%1,            Weiguo%Zhao%NULL%1,            Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,            Lefei%Han%NULL%2,            Min%Peng%2658706528@qq.com%2,            Yuxia%Lv%NULL%2,            Yin%Ouyang%NULL%2,            Kui%Liu%NULL%0,            Linli%Yue%NULL%2,            Qiannan%Li%NULL%2,            Guoqiang%Sun%NULL%2,            Lin%Chen%NULL%2,            Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,            Bo%Zhang%NULL%2,            Jianhua%Lu%NULL%1,            Shihua%Liu%NULL%1,            Zhiqiang%Chang%NULL%1,            Peng%Cao%NULL%1,            Xinhua%Liu%NULL%1,            Peng%Zhang%NULL%2,            Yan%Ling%NULL%1,            Kaixiong%Tao%NULL%1,            Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,            Yingying%Hu%NULL%2,            Yingying%Hu%NULL%0,            Yuanyuan%Yu%NULL%1,            Xiaodong%Zhang%NULL%1,            Bin%Li%NULL%1,            Jianguo%Wu%NULL%1,            Junyu%Li%NULL%1,            Yingping%Wu%NULL%1,            Xiaoping%Xia%NULL%2,            Xiaoping%Xia%NULL%0,            Huina%Tang%NULL%1,            Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,             H.% Qian%null%1,             J.% Hang%null%1,             X.% Chen%null%1,             L.% Hong%null%1,             P.% Liang%null%1,             J.% Li%null%1,             S.% Xiao%null%1,             J.% Wei%null%1,             L.% Liu%null%2,             M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Jing%Wang%NULL%3,            Wenbin%Li%NULL%1,            Zhaoxian%Zhou%NULL%1,            Siying%Liu%NULL%1,            Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2207,7 +2425,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2236,7 +2454,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2265,7 +2483,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2294,7 +2512,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2323,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2352,7 +2570,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2381,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2410,7 +2628,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2439,7 +2657,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2468,7 +2686,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2497,7 +2715,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2526,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2555,7 +2773,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -2584,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2610,10 +2828,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2642,7 +2860,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -2671,7 +2889,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2729,7 +2947,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2758,7 +2976,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -2787,7 +3005,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -2816,7 +3034,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -2845,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -2874,7 +3092,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2903,7 +3121,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -2932,7 +3150,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -2990,7 +3208,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3019,7 +3237,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3048,7 +3266,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3077,7 +3295,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3106,7 +3324,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3135,7 +3353,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3164,7 +3382,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -3193,7 +3411,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -3222,7 +3440,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3251,7 +3469,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="647">
   <si>
     <t>Doi</t>
   </si>
@@ -1986,6 +1986,220 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,            Jing%Wang%NULL%3,            Wenbin%Li%NULL%1,            Zhaoxian%Zhou%NULL%1,            Siying%Liu%NULL%1,            Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,             Tania%Paredes%NULL%0,             Tania%Paredes%NULL%0,             David%Caceres%NULL%0,             Camille M.%Webb%NULL%0,             Luis M.%Valdez%NULL%0,             Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,             Claire M.%Midgley%NULL%1,             Alissa%Dratch%NULL%1,             Marty%Fenstersheib%NULL%1,             Thomas%Haupt%NULL%1,             Michelle%Holshue%NULL%1,             Isaac%Ghinai%NULL%1,             M. Claire%Jarashow%NULL%1,             Jennifer%Lo%NULL%1,             Tristan D.%McPherson%NULL%1,             Sara%Rudman%NULL%1,             Sarah%Scott%NULL%1,             Aron J.%Hall%NULL%1,             Alicia M.%Fry%NULL%1,             Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,             Wenjie%Sun%NULL%1,             Jianping%Huang%NULL%1,             Michelle%Gamber%NULL%1,             Jing%Wu%NULL%2,             Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,             Shuofeng%Yuan%NULL%0,             Kin-Hang%Kok%NULL%0,             Kelvin Kai-Wang%To%NULL%0,             Hin%Chu%NULL%0,             Jin%Yang%NULL%0,             Fanfan%Xing%NULL%0,             Jieling%Liu%NULL%0,             Cyril Chik-Yan%Yip%NULL%0,             Rosana Wing-Shan%Poon%NULL%0,             Hoi-Wah%Tsoi%NULL%0,             Simon Kam-Fai%Lo%NULL%0,             Kwok-Hung%Chan%NULL%0,             Vincent Kwok-Man%Poon%NULL%0,             Wan-Mui%Chan%NULL%0,             Jonathan Daniel%Ip%NULL%0,             Jian-Piao%Cai%NULL%0,             Vincent Chi-Chung%Cheng%NULL%0,             Honglin%Chen%NULL%0,             Christopher Kim-Ming%Hui%NULL%0,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,             Juanjuan%Guo%NULL%0,             Chen%Wang%NULL%0,             Fan%Luo%NULL%1,             Xuechen%Yu%NULL%0,             Wei%Zhang%NULL%0,             Jiafu%Li%NULL%0,             Dongchi%Zhao%NULL%1,             Dan%Xu%NULL%3,             Qing%Gong%NULL%1,             Jing%Liao%NULL%1,             Huixia%Yang%yanghuixia@bjmu.edu.cn%0,             Wei%Hou%houwei@whu.edu.cn%0,             Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,     Liangjun%Chen%xref no email%1,     Qiaoling%Deng%xref no email%0,     Guqin%Zhang%xref no email%1,     Kaisong%Wu%xref no email%1,     Lan%Ni%xref no email%1,     Yibin%Yang%xref no email%1,     Bing%Liu%xref no email%1,     Wei%Wang%xref no email%0,     Chaojie%Wei%xref no email%1,     Jiong%Yang%xref no email%1,     Guangming%Ye%xref no email%1,     Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,             Hua%Peng%NULL%1,             Lin%Wang%NULL%3,             Yin%Zhao%NULL%1,             Lingkong%Zeng%NULL%1,             Hui%Gao%NULL%1,             Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,             Shu-Wan%Jian%NULL%1,             Ding-Ping%Liu%NULL%1,             Ta-Chou%Ng%NULL%1,             Wan-Ting%Huang%NULL%1,             Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,             Shuk-Ching%Wong%NULL%1,             Jonathan H. K.%Chen%NULL%1,             Cyril C. Y.%Yip%NULL%1,             Vivien W. M.%Chuang%NULL%1,             Owen T. Y.%Tsang%NULL%1,             Siddharth%Sridhar%NULL%1,             Jasper F. W.%Chan%NULL%1,             Pak-Leung%Ho%NULL%1,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Understanding the particle size distribution in the air and patterns of environmental contamination of SARS-CoV-2 is essential for infection prevention policies.
+ Here we screen surface and air samples from hospital rooms of COVID-19 patients for SARS-CoV-2 RNA.
+ Environmental sampling is conducted in three airborne infection isolation rooms (AIIRs) in the ICU and 27 AIIRs in the general ward.
+ 245 surface samples are collected.
+ 56.7% of rooms have at least one environmental surface contaminated.
+ High touch surface contamination is shown in ten (66.7%) out of 15 patients in the first week of illness, and three (20%) beyond the first week of illness (p = 0.01, χ2 test).
+ Air sampling is performed in three of the 27 AIIRs in the general ward, and detects SARS-CoV-2 PCR-positive particles of sizes &amp;gt;4 µm and 1–4 µm in two rooms, despite these rooms having 12 air changes per hour.
+ This warrants further study of the airborne transmission potential of SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,             Kristen Kelli%Coleman%NULL%2,             Kristen Kelli%Coleman%NULL%0,             Yian Kim%Tan%NULL%2,             Yian Kim%Tan%NULL%0,             Sean Wei Xiang%Ong%NULL%1,             Marcus%Gum%NULL%2,             Marcus%Gum%NULL%0,             Sok Kiang%Lau%NULL%1,             Xiao Fang%Lim%NULL%1,             Ai Sim%Lim%NULL%1,             Stephanie%Sutjipto%NULL%1,             Pei Hua%Lee%NULL%1,             Than The%Son%NULL%1,             Barnaby Edward%Young%NULL%1,             Donald K.%Milton%NULL%1,             Gregory C.%Gray%NULL%2,             Gregory C.%Gray%NULL%0,             Stephan%Schuster%NULL%2,             Stephan%Schuster%NULL%0,             Timothy%Barkham%NULL%1,             Partha Pratim%De%NULL%2,             Partha Pratim%De%NULL%0,             Shawn%Vasoo%NULL%1,             Monica%Chan%NULL%1,             Brenda Sze Peng%Ang%NULL%1,             Boon Huan%Tan%NULL%1,             Yee-Sin%Leo%NULL%1,             Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,             Michelle Su Yen%Wong%NULL%2,             Michelle Su Yen%Wong%NULL%0,             Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,             David Chien%Lye%NULL%2,             David Chien%Lye%NULL%0,             Poh Lian%Lim%NULL%1,             Cheng Chuan%Lee%NULL%1,             Li Min%Ling%NULL%1,             Lawrence%Lee%NULL%1,             Tau Hong%Lee%NULL%1,             Chen Seong%Wong%NULL%1,             Sapna%Sadarangani%NULL%1,             Ray Junhao%Lin%NULL%1,             Deborah Hee Ling%Ng%NULL%1,             Mucheli%Sadasiv%NULL%1,             Tsin Wen%Yeo%NULL%1,             Chiaw Yee%Choy%NULL%1,             Glorijoy Shi En%Tan%NULL%1,             Frederico%Dimatatac%NULL%1,             Isais Florante%Santos%NULL%1,             Chi Jong%Go%NULL%1,             Yu Kit%Chan%NULL%1,             Jun Yang%Tay%NULL%1,             Jackie Yu-Ling%Tan%NULL%1,             Nihar%Pandit%NULL%1,             Benjamin Choon Heng%Ho%NULL%1,             Shehara%Mendis%NULL%1,             Yuan Yi Constance%Chen%NULL%1,             Mohammad Yazid%Abdad%NULL%1,             Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,             Julie T S%Chu%NULL%1,             Mahen R A%Perera%NULL%1,             Kenrie P Y%Hui%NULL%1,             Hui-Ling%Yen%NULL%1,             Michael C W%Chan%NULL%1,             Malik%Peiris%NULL%1,             Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,             Daniele%Lapa%NULL%2,             Fabrizio%Carletti%NULL%2,             Eleonora%Lalle%NULL%2,             Licia%Bordi%NULL%2,             Patrizia%Marsella%NULL%2,             Emanuele%Nicastri%NULL%0,             Nazario%Bevilacqua%NULL%2,             Maria Letizia%Giancola%NULL%2,             Angela%Corpolongo%NULL%2,             Giuseppe%Ippolito%NULL%2,             Maria Rosaria%Capobianchi%NULL%2,             Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,             Daniele%Lapa%NULL%0,             Fabrizio%Carletti%NULL%0,             Eleonora%Lalle%NULL%0,             Licia%Bordi%NULL%0,             Patrizia%Marsella%NULL%0,             Emanuele%Nicastri%NULL%0,             Nazario%Bevilacqua%NULL%0,             Maria Letizia%Giancola%NULL%0,             Angela%Corpolongo%NULL%0,             Giuseppe%Ippolito%NULL%0,             Maria Rosaria%Capobianchi%NULL%0,             Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,              Z.% Chen%null%1,              T.% Wang%null%2,              J.% Dai%null%1,              J.% Zhang%null%1,              T.% Ding%null%1,              J.% Jiang%null%1,              J.% Liu%null%1,              C.% Zhang%null%1,              W.% Shan%null%1,              S.% Wang%null%1,              Y.% Rong%null%1,              J.% Chang%null%1,              X.% Miao%null%1,              X.% Ma%null%1,              S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,     Jinhua%Tian%xref no email%0,     Songming%He%xref no email%0,     Chuchao%Zhu%xref no email%0,     Jian%Wang%xref no email%0,     Chen%Liu%xref no email%0,     Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,             Yan%Pan%woshipanyan@126.com%1,             Qingcui%Wu%NULL%1,             Shan%Liu%NULL%1,             Xu%Song%NULL%1,             Zhongguo%Xie%NULL%1,             Yang%Liu%NULL%1,             Liang%Zhao%NULL%1,             Zhonghong%Wang%NULL%1,             Yifei%Zhang%NULL%1,             Zuchuang%Wu%NULL%1,             Lei%Guan%NULL%1,             Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,             Sadegh%Niazi%NULL%1,             Kaveh%Sadeghi%NULL%1,             Kazem%Naddafi%NULL%1,             Jila%Yavarian%NULL%1,             Mansour%Shamsipour%NULL%1,             Nazanin Zahra Shafiei%Jandaghi%NULL%1,             Khosro%Sadeghniiat%NULL%1,             Ramin%Nabizadeh%NULL%1,             Masud%Yunesian%NULL%1,             Fatemeh%Momeniha%NULL%1,             Adel%Mokamel%NULL%1,             Mohammad Sadegh%Hassanvand%NULL%1,             Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,             Moon-Woo%Seong%NULL%1,             Eun Young%Heo%NULL%1,             Ji Hong%Park%NULL%1,             Namhee%Kim%NULL%1,             Sue%Shin%NULL%1,             Sung Im%Cho%NULL%1,             Sung Sup%Park%NULL%1,             Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,             Matthew J.%Stuckey%NULL%1,             Tara%Scheuer%NULL%1,             Kerui%Xu%NULL%1,             Kiran M.%Perkins%NULL%1,             Heather%Resseger%NULL%1,             Shelley%Magill%NULL%1,             Jennifer R.%Verani%NULL%1,             Seema%Jain%NULL%1,             Meileen%Acosta%NULL%1,             Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,             Xiuwen%Zhang%NULL%2,             Xinyue%Zhang%NULL%2,             Zhijian%Wei%NULL%2,             Lingli%Zhang%NULL%2,             Jingjing%Xu%NULL%2,             Peipei%Liang%NULL%2,             Yuanhong%Xu%xyhong1964@163.com%0,             Chengyuan%Zhang%2396476405@qq.com%2,             Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,             Xiuwen%Zhang%NULL%0,             Xinyue%Zhang%NULL%0,             Zhijian%Wei%NULL%0,             Lingli%Zhang%NULL%0,             Jingjing%Xu%NULL%0,             Peipei%Liang%NULL%0,             Yuanhong%Xu%xyhong1964@163.com%0,             Chengyuan%Zhang%2396476405@qq.com%0,             Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,             Juan%Xia%NULL%1,             Yuxin%Chen%NULL%1,             Chun%Shan%NULL%1,             Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,             Rachael%Overcash%NULL%0,             Neggin%Mokhtari%NULL%0,             Haleema%Saeed%NULL%0,             Stacey%Gold%NULL%0,             Tamika%Auguste%NULL%0,             Muhammad-Usman%Mirza%NULL%0,             Maria-Elena%Ruiz%NULL%0,             Joeffrey J.%Chahine%NULL%0,             Joeffrey J.%Chahine%NULL%0,             Masashi%Waga%NULL%0,             Masashi%Waga%NULL%0,             Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,             Mei%Luo%NULL%1,             Zhen%Zou%NULL%1,             Xu%Wang%875777340@qq.com%1,             Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,             Jingfu%Qiu%jfqiu@126.com%2,             Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,             Xiao-Li%Zhang%NULL%1,             Xiang-Na%Zhao%NULL%1,             Cun-Bao%Li%NULL%1,             Jie%Lei%NULL%2,             Zeng-Qiang%Kou%NULL%1,             Wen-Kui%Sun%NULL%1,             Yang%Hang%NULL%1,             Feng%Gao%NULL%1,             Sheng-Xiang%Ji%NULL%1,             Can-Fang%Lin%NULL%1,             Bo%Pang%NULL%1,             Ming-Xiao%Yao%NULL%1,             Benjamin D%Anderson%NULL%1,             Guo-Lin%Wang%NULL%1,             Lin%Yao%NULL%1,             Li-Jun%Duan%NULL%1,             Dian-Ming%Kang%dmkang66@163.com%1,             Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,             Lam V%Nguyen%NULL%1,             Dien M%Tran%NULL%1,             Hai T%Do%NULL%1,             Huong T%Tran%NULL%1,             Yen T%Le%NULL%1,             Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,             Jihyang%Lee%NULL%0,             Jihyang%Lee%NULL%0,             Eunju%Kim%NULL%0,             Eunju%Kim%NULL%0,             Kyeongyoon%Woo%NULL%0,             Kyeongyoon%Woo%NULL%0,             Hak Youle%Park%NULL%0,             Hak Youle%Park%NULL%0,             Jihyun%An%NULL%0,             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,             Fang%Ji%NULL%1,             Liang%Wang%NULL%1,             Liping%Wang%NULL%1,             Jungui%Hao%NULL%1,             Mingjia%Dai%NULL%1,             Yan%Liu%NULL%0,             Xiucheng%Pan%NULL%1,             Juanjuan%Fu%NULL%1,             Li%Li%NULL%0,             Guangde%Yang%NULL%1,             Jianye%Yang%NULL%1,             Xuebing%Yan%NULL%1,             Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,             Meiling%Jin%NULL%1,             Pengtao%Bao%NULL%1,             Weiguo%Zhao%NULL%1,             Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,             Lefei%Han%NULL%2,             Min%Peng%2658706528@qq.com%2,             Yuxia%Lv%NULL%2,             Yin%Ouyang%NULL%2,             Kui%Liu%NULL%0,             Linli%Yue%NULL%2,             Qiannan%Li%NULL%2,             Guoqiang%Sun%NULL%2,             Lin%Chen%NULL%2,             Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,             Bo%Zhang%NULL%2,             Jianhua%Lu%NULL%1,             Shihua%Liu%NULL%1,             Zhiqiang%Chang%NULL%1,             Peng%Cao%NULL%1,             Xinhua%Liu%NULL%1,             Peng%Zhang%NULL%2,             Yan%Ling%NULL%1,             Kaixiong%Tao%NULL%1,             Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,             Yingying%Hu%NULL%2,             Yingying%Hu%NULL%0,             Yuanyuan%Yu%NULL%1,             Xiaodong%Zhang%NULL%1,             Bin%Li%NULL%1,             Jianguo%Wu%NULL%1,             Junyu%Li%NULL%1,             Yingping%Wu%NULL%1,             Xiaoping%Xia%NULL%2,             Xiaoping%Xia%NULL%0,             Huina%Tang%NULL%1,             Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,              H.% Qian%null%1,              J.% Hang%null%1,              X.% Chen%null%1,              L.% Hong%null%1,              P.% Liang%null%1,              J.% Li%null%1,              S.% Xiao%null%1,              J.% Wei%null%1,              L.% Liu%null%2,              M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Jing%Wang%NULL%3,             Wenbin%Li%NULL%1,             Zhaoxian%Zhou%NULL%1,             Siying%Liu%NULL%1,             Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,              Tania%Paredes%NULL%0,              Tania%Paredes%NULL%0,              David%Caceres%NULL%0,              Camille M.%Webb%NULL%0,              Luis M.%Valdez%NULL%0,              Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,              Claire M.%Midgley%NULL%1,              Alissa%Dratch%NULL%1,              Marty%Fenstersheib%NULL%1,              Thomas%Haupt%NULL%1,              Michelle%Holshue%NULL%1,              Isaac%Ghinai%NULL%1,              M. Claire%Jarashow%NULL%1,              Jennifer%Lo%NULL%1,              Tristan D.%McPherson%NULL%1,              Sara%Rudman%NULL%1,              Sarah%Scott%NULL%1,              Aron J.%Hall%NULL%1,              Alicia M.%Fry%NULL%1,              Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,              Wenjie%Sun%NULL%1,              Jianping%Huang%NULL%1,              Michelle%Gamber%NULL%1,              Jing%Wu%NULL%2,              Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,              Shuofeng%Yuan%NULL%0,              Kin-Hang%Kok%NULL%0,              Kelvin Kai-Wang%To%NULL%0,              Hin%Chu%NULL%0,              Jin%Yang%NULL%0,              Fanfan%Xing%NULL%0,              Jieling%Liu%NULL%0,              Cyril Chik-Yan%Yip%NULL%0,              Rosana Wing-Shan%Poon%NULL%0,              Hoi-Wah%Tsoi%NULL%0,              Simon Kam-Fai%Lo%NULL%0,              Kwok-Hung%Chan%NULL%0,              Vincent Kwok-Man%Poon%NULL%0,              Wan-Mui%Chan%NULL%0,              Jonathan Daniel%Ip%NULL%0,              Jian-Piao%Cai%NULL%0,              Vincent Chi-Chung%Cheng%NULL%0,              Honglin%Chen%NULL%0,              Christopher Kim-Ming%Hui%NULL%0,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,              Juanjuan%Guo%NULL%0,              Chen%Wang%NULL%0,              Fan%Luo%NULL%1,              Xuechen%Yu%NULL%0,              Wei%Zhang%NULL%0,              Jiafu%Li%NULL%0,              Dongchi%Zhao%NULL%1,              Dan%Xu%NULL%3,              Qing%Gong%NULL%1,              Jing%Liao%NULL%1,              Huixia%Yang%yanghuixia@bjmu.edu.cn%0,              Wei%Hou%houwei@whu.edu.cn%0,              Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,      Liangjun%Chen%xref no email%1,      Qiaoling%Deng%xref no email%0,      Guqin%Zhang%xref no email%1,      Kaisong%Wu%xref no email%1,      Lan%Ni%xref no email%1,      Yibin%Yang%xref no email%1,      Bing%Liu%xref no email%1,      Wei%Wang%xref no email%0,      Chaojie%Wei%xref no email%1,      Jiong%Yang%xref no email%1,      Guangming%Ye%xref no email%1,      Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,              Hua%Peng%NULL%1,              Lin%Wang%NULL%3,              Yin%Zhao%NULL%1,              Lingkong%Zeng%NULL%1,              Hui%Gao%NULL%1,              Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,              Shu-Wan%Jian%NULL%1,              Ding-Ping%Liu%NULL%1,              Ta-Chou%Ng%NULL%1,              Wan-Ting%Huang%NULL%1,              Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,              Shuk-Ching%Wong%NULL%1,              Jonathan H. K.%Chen%NULL%1,              Cyril C. Y.%Yip%NULL%1,              Vivien W. M.%Chuang%NULL%1,              Owen T. Y.%Tsang%NULL%1,              Siddharth%Sridhar%NULL%1,              Jasper F. W.%Chan%NULL%1,              Pak-Leung%Ho%NULL%1,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,              Kristen Kelli%Coleman%NULL%2,              Kristen Kelli%Coleman%NULL%0,              Yian Kim%Tan%NULL%2,              Yian Kim%Tan%NULL%0,              Sean Wei Xiang%Ong%NULL%1,              Marcus%Gum%NULL%2,              Marcus%Gum%NULL%0,              Sok Kiang%Lau%NULL%1,              Xiao Fang%Lim%NULL%1,              Ai Sim%Lim%NULL%1,              Stephanie%Sutjipto%NULL%1,              Pei Hua%Lee%NULL%1,              Than The%Son%NULL%1,              Barnaby Edward%Young%NULL%1,              Donald K.%Milton%NULL%1,              Gregory C.%Gray%NULL%2,              Gregory C.%Gray%NULL%0,              Stephan%Schuster%NULL%2,              Stephan%Schuster%NULL%0,              Timothy%Barkham%NULL%1,              Partha Pratim%De%NULL%2,              Partha Pratim%De%NULL%0,              Shawn%Vasoo%NULL%1,              Monica%Chan%NULL%1,              Brenda Sze Peng%Ang%NULL%1,              Boon Huan%Tan%NULL%1,              Yee-Sin%Leo%NULL%1,              Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,              Michelle Su Yen%Wong%NULL%2,              Michelle Su Yen%Wong%NULL%0,              Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,              David Chien%Lye%NULL%2,              David Chien%Lye%NULL%0,              Poh Lian%Lim%NULL%1,              Cheng Chuan%Lee%NULL%1,              Li Min%Ling%NULL%1,              Lawrence%Lee%NULL%1,              Tau Hong%Lee%NULL%1,              Chen Seong%Wong%NULL%1,              Sapna%Sadarangani%NULL%1,              Ray Junhao%Lin%NULL%1,              Deborah Hee Ling%Ng%NULL%1,              Mucheli%Sadasiv%NULL%1,              Tsin Wen%Yeo%NULL%1,              Chiaw Yee%Choy%NULL%1,              Glorijoy Shi En%Tan%NULL%1,              Frederico%Dimatatac%NULL%1,              Isais Florante%Santos%NULL%1,              Chi Jong%Go%NULL%1,              Yu Kit%Chan%NULL%1,              Jun Yang%Tay%NULL%1,              Jackie Yu-Ling%Tan%NULL%1,              Nihar%Pandit%NULL%1,              Benjamin Choon Heng%Ho%NULL%1,              Shehara%Mendis%NULL%1,              Yuan Yi Constance%Chen%NULL%1,              Mohammad Yazid%Abdad%NULL%1,              Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,              Julie T S%Chu%NULL%1,              Mahen R A%Perera%NULL%1,              Kenrie P Y%Hui%NULL%1,              Hui-Ling%Yen%NULL%1,              Michael C W%Chan%NULL%1,              Malik%Peiris%NULL%1,              Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,              Daniele%Lapa%NULL%2,              Fabrizio%Carletti%NULL%2,              Eleonora%Lalle%NULL%2,              Licia%Bordi%NULL%2,              Patrizia%Marsella%NULL%2,              Emanuele%Nicastri%NULL%0,              Nazario%Bevilacqua%NULL%2,              Maria Letizia%Giancola%NULL%2,              Angela%Corpolongo%NULL%2,              Giuseppe%Ippolito%NULL%2,              Maria Rosaria%Capobianchi%NULL%2,              Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,              Daniele%Lapa%NULL%0,              Fabrizio%Carletti%NULL%0,              Eleonora%Lalle%NULL%0,              Licia%Bordi%NULL%0,              Patrizia%Marsella%NULL%0,              Emanuele%Nicastri%NULL%0,              Nazario%Bevilacqua%NULL%0,              Maria Letizia%Giancola%NULL%0,              Angela%Corpolongo%NULL%0,              Giuseppe%Ippolito%NULL%0,              Maria Rosaria%Capobianchi%NULL%0,              Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,               Z.% Chen%null%1,               T.% Wang%null%2,               J.% Dai%null%1,               J.% Zhang%null%1,               T.% Ding%null%1,               J.% Jiang%null%1,               J.% Liu%null%1,               C.% Zhang%null%1,               W.% Shan%null%1,               S.% Wang%null%1,               Y.% Rong%null%1,               J.% Chang%null%1,               X.% Miao%null%1,               X.% Ma%null%1,               S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,      Jinhua%Tian%xref no email%0,      Songming%He%xref no email%0,      Chuchao%Zhu%xref no email%0,      Jian%Wang%xref no email%0,      Chen%Liu%xref no email%0,      Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,              Yan%Pan%woshipanyan@126.com%1,              Qingcui%Wu%NULL%1,              Shan%Liu%NULL%1,              Xu%Song%NULL%1,              Zhongguo%Xie%NULL%1,              Yang%Liu%NULL%1,              Liang%Zhao%NULL%1,              Zhonghong%Wang%NULL%1,              Yifei%Zhang%NULL%1,              Zuchuang%Wu%NULL%1,              Lei%Guan%NULL%1,              Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,              Sadegh%Niazi%NULL%1,              Kaveh%Sadeghi%NULL%1,              Kazem%Naddafi%NULL%1,              Jila%Yavarian%NULL%1,              Mansour%Shamsipour%NULL%1,              Nazanin Zahra Shafiei%Jandaghi%NULL%1,              Khosro%Sadeghniiat%NULL%1,              Ramin%Nabizadeh%NULL%1,              Masud%Yunesian%NULL%1,              Fatemeh%Momeniha%NULL%1,              Adel%Mokamel%NULL%1,              Mohammad Sadegh%Hassanvand%NULL%1,              Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,              Moon-Woo%Seong%NULL%1,              Eun Young%Heo%NULL%1,              Ji Hong%Park%NULL%1,              Namhee%Kim%NULL%1,              Sue%Shin%NULL%1,              Sung Im%Cho%NULL%1,              Sung Sup%Park%NULL%1,              Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,              Matthew J.%Stuckey%NULL%1,              Tara%Scheuer%NULL%1,              Kerui%Xu%NULL%1,              Kiran M.%Perkins%NULL%1,              Heather%Resseger%NULL%1,              Shelley%Magill%NULL%1,              Jennifer R.%Verani%NULL%1,              Seema%Jain%NULL%1,              Meileen%Acosta%NULL%1,              Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,              Xiuwen%Zhang%NULL%2,              Xinyue%Zhang%NULL%2,              Zhijian%Wei%NULL%2,              Lingli%Zhang%NULL%2,              Jingjing%Xu%NULL%2,              Peipei%Liang%NULL%2,              Yuanhong%Xu%xyhong1964@163.com%0,              Chengyuan%Zhang%2396476405@qq.com%2,              Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,              Xiuwen%Zhang%NULL%0,              Xinyue%Zhang%NULL%0,              Zhijian%Wei%NULL%0,              Lingli%Zhang%NULL%0,              Jingjing%Xu%NULL%0,              Peipei%Liang%NULL%0,              Yuanhong%Xu%xyhong1964@163.com%0,              Chengyuan%Zhang%2396476405@qq.com%0,              Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,              Juan%Xia%NULL%1,              Yuxin%Chen%NULL%1,              Chun%Shan%NULL%1,              Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,              Rachael%Overcash%NULL%0,              Neggin%Mokhtari%NULL%0,              Haleema%Saeed%NULL%0,              Stacey%Gold%NULL%0,              Tamika%Auguste%NULL%0,              Muhammad-Usman%Mirza%NULL%0,              Maria-Elena%Ruiz%NULL%0,              Joeffrey J.%Chahine%NULL%0,              Joeffrey J.%Chahine%NULL%0,              Masashi%Waga%NULL%0,              Masashi%Waga%NULL%0,              Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,              Mei%Luo%NULL%1,              Zhen%Zou%NULL%1,              Xu%Wang%875777340@qq.com%1,              Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,              Jingfu%Qiu%jfqiu@126.com%2,              Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,              Xiao-Li%Zhang%NULL%1,              Xiang-Na%Zhao%NULL%1,              Cun-Bao%Li%NULL%1,              Jie%Lei%NULL%2,              Zeng-Qiang%Kou%NULL%1,              Wen-Kui%Sun%NULL%1,              Yang%Hang%NULL%1,              Feng%Gao%NULL%1,              Sheng-Xiang%Ji%NULL%1,              Can-Fang%Lin%NULL%1,              Bo%Pang%NULL%1,              Ming-Xiao%Yao%NULL%1,              Benjamin D%Anderson%NULL%1,              Guo-Lin%Wang%NULL%1,              Lin%Yao%NULL%1,              Li-Jun%Duan%NULL%1,              Dian-Ming%Kang%dmkang66@163.com%1,              Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,              Lam V%Nguyen%NULL%1,              Dien M%Tran%NULL%1,              Hai T%Do%NULL%1,              Huong T%Tran%NULL%1,              Yen T%Le%NULL%1,              Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,              Jihyang%Lee%NULL%0,              Jihyang%Lee%NULL%0,              Eunju%Kim%NULL%0,              Eunju%Kim%NULL%0,              Kyeongyoon%Woo%NULL%0,              Kyeongyoon%Woo%NULL%0,              Hak Youle%Park%NULL%0,              Hak Youle%Park%NULL%0,              Jihyun%An%NULL%0,              Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,              Fang%Ji%NULL%1,              Liang%Wang%NULL%1,              Liping%Wang%NULL%1,              Jungui%Hao%NULL%1,              Mingjia%Dai%NULL%1,              Yan%Liu%NULL%0,              Xiucheng%Pan%NULL%1,              Juanjuan%Fu%NULL%1,              Li%Li%NULL%0,              Guangde%Yang%NULL%1,              Jianye%Yang%NULL%1,              Xuebing%Yan%NULL%1,              Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,              Meiling%Jin%NULL%1,              Pengtao%Bao%NULL%1,              Weiguo%Zhao%NULL%1,              Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,              Lefei%Han%NULL%2,              Min%Peng%2658706528@qq.com%2,              Yuxia%Lv%NULL%2,              Yin%Ouyang%NULL%2,              Kui%Liu%NULL%0,              Linli%Yue%NULL%2,              Qiannan%Li%NULL%2,              Guoqiang%Sun%NULL%2,              Lin%Chen%NULL%2,              Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,              Bo%Zhang%NULL%2,              Jianhua%Lu%NULL%1,              Shihua%Liu%NULL%1,              Zhiqiang%Chang%NULL%1,              Peng%Cao%NULL%1,              Xinhua%Liu%NULL%1,              Peng%Zhang%NULL%2,              Yan%Ling%NULL%1,              Kaixiong%Tao%NULL%1,              Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,              Yingying%Hu%NULL%2,              Yingying%Hu%NULL%0,              Yuanyuan%Yu%NULL%1,              Xiaodong%Zhang%NULL%1,              Bin%Li%NULL%1,              Jianguo%Wu%NULL%1,              Junyu%Li%NULL%1,              Yingping%Wu%NULL%1,              Xiaoping%Xia%NULL%2,              Xiaoping%Xia%NULL%0,              Huina%Tang%NULL%1,              Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,               H.% Qian%null%1,               J.% Hang%null%1,               X.% Chen%null%1,               L.% Hong%null%1,               P.% Liang%null%1,               J.% Li%null%1,               S.% Xiao%null%1,               J.% Wei%null%1,               L.% Liu%null%2,               M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%3,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2610,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2425,7 +2639,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2454,7 +2668,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2483,7 +2697,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2512,7 +2726,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2541,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2570,7 +2784,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2599,7 +2813,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2628,7 +2842,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2654,10 +2868,10 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2686,7 +2900,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2715,7 +2929,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2744,7 +2958,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2773,7 +2987,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -2802,7 +3016,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2831,7 +3045,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>558</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2860,7 +3074,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -2889,7 +3103,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2947,7 +3161,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2976,7 +3190,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3005,7 +3219,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3034,7 +3248,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3063,7 +3277,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3092,7 +3306,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3121,7 +3335,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3150,7 +3364,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3208,7 +3422,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3237,7 +3451,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3266,7 +3480,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3295,7 +3509,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3324,7 +3538,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3353,7 +3567,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3382,7 +3596,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -3411,7 +3625,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -3440,7 +3654,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3469,7 +3683,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="682">
   <si>
     <t>Doi</t>
   </si>
@@ -2200,6 +2200,111 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,              Jing%Wang%NULL%3,              Wenbin%Li%NULL%1,              Zhaoxian%Zhou%NULL%1,              Siying%Liu%NULL%1,              Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,               Tania%Paredes%NULL%0,               Tania%Paredes%NULL%0,               David%Caceres%NULL%0,               Camille M.%Webb%NULL%0,               Luis M.%Valdez%NULL%0,               Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,               Claire M.%Midgley%NULL%1,               Alissa%Dratch%NULL%1,               Marty%Fenstersheib%NULL%1,               Thomas%Haupt%NULL%1,               Michelle%Holshue%NULL%1,               Isaac%Ghinai%NULL%1,               M. Claire%Jarashow%NULL%1,               Jennifer%Lo%NULL%1,               Tristan D.%McPherson%NULL%1,               Sara%Rudman%NULL%1,               Sarah%Scott%NULL%1,               Aron J.%Hall%NULL%1,               Alicia M.%Fry%NULL%1,               Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,               Wenjie%Sun%NULL%1,               Jianping%Huang%NULL%1,               Michelle%Gamber%NULL%1,               Jing%Wu%NULL%2,               Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,               Shuofeng%Yuan%NULL%0,               Kin-Hang%Kok%NULL%0,               Kelvin Kai-Wang%To%NULL%0,               Hin%Chu%NULL%0,               Jin%Yang%NULL%0,               Fanfan%Xing%NULL%0,               Jieling%Liu%NULL%0,               Cyril Chik-Yan%Yip%NULL%0,               Rosana Wing-Shan%Poon%NULL%0,               Hoi-Wah%Tsoi%NULL%0,               Simon Kam-Fai%Lo%NULL%0,               Kwok-Hung%Chan%NULL%0,               Vincent Kwok-Man%Poon%NULL%0,               Wan-Mui%Chan%NULL%0,               Jonathan Daniel%Ip%NULL%0,               Jian-Piao%Cai%NULL%0,               Vincent Chi-Chung%Cheng%NULL%0,               Honglin%Chen%NULL%0,               Christopher Kim-Ming%Hui%NULL%0,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,               Juanjuan%Guo%NULL%0,               Chen%Wang%NULL%0,               Fan%Luo%NULL%1,               Xuechen%Yu%NULL%0,               Wei%Zhang%NULL%0,               Jiafu%Li%NULL%0,               Dongchi%Zhao%NULL%1,               Dan%Xu%NULL%3,               Qing%Gong%NULL%1,               Jing%Liao%NULL%1,               Huixia%Yang%yanghuixia@bjmu.edu.cn%0,               Wei%Hou%houwei@whu.edu.cn%0,               Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,       Liangjun%Chen%xref no email%1,       Qiaoling%Deng%xref no email%0,       Guqin%Zhang%xref no email%1,       Kaisong%Wu%xref no email%1,       Lan%Ni%xref no email%1,       Yibin%Yang%xref no email%1,       Bing%Liu%xref no email%1,       Wei%Wang%xref no email%0,       Chaojie%Wei%xref no email%1,       Jiong%Yang%xref no email%1,       Guangming%Ye%xref no email%1,       Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,               Hua%Peng%NULL%1,               Lin%Wang%NULL%3,               Yin%Zhao%NULL%1,               Lingkong%Zeng%NULL%1,               Hui%Gao%NULL%1,               Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,               Shu-Wan%Jian%NULL%1,               Ding-Ping%Liu%NULL%1,               Ta-Chou%Ng%NULL%1,               Wan-Ting%Huang%NULL%1,               Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,               Shuk-Ching%Wong%NULL%1,               Jonathan H. K.%Chen%NULL%1,               Cyril C. Y.%Yip%NULL%1,               Vivien W. M.%Chuang%NULL%1,               Owen T. Y.%Tsang%NULL%1,               Siddharth%Sridhar%NULL%1,               Jasper F. W.%Chan%NULL%1,               Pak-Leung%Ho%NULL%1,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,               Kristen Kelli%Coleman%NULL%2,               Kristen Kelli%Coleman%NULL%0,               Yian Kim%Tan%NULL%2,               Yian Kim%Tan%NULL%0,               Sean Wei Xiang%Ong%NULL%1,               Marcus%Gum%NULL%2,               Marcus%Gum%NULL%0,               Sok Kiang%Lau%NULL%1,               Xiao Fang%Lim%NULL%1,               Ai Sim%Lim%NULL%1,               Stephanie%Sutjipto%NULL%1,               Pei Hua%Lee%NULL%1,               Than The%Son%NULL%1,               Barnaby Edward%Young%NULL%1,               Donald K.%Milton%NULL%1,               Gregory C.%Gray%NULL%2,               Gregory C.%Gray%NULL%0,               Stephan%Schuster%NULL%2,               Stephan%Schuster%NULL%0,               Timothy%Barkham%NULL%1,               Partha Pratim%De%NULL%2,               Partha Pratim%De%NULL%0,               Shawn%Vasoo%NULL%1,               Monica%Chan%NULL%1,               Brenda Sze Peng%Ang%NULL%1,               Boon Huan%Tan%NULL%1,               Yee-Sin%Leo%NULL%1,               Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,               Michelle Su Yen%Wong%NULL%2,               Michelle Su Yen%Wong%NULL%0,               Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,               David Chien%Lye%NULL%2,               David Chien%Lye%NULL%0,               Poh Lian%Lim%NULL%1,               Cheng Chuan%Lee%NULL%1,               Li Min%Ling%NULL%1,               Lawrence%Lee%NULL%1,               Tau Hong%Lee%NULL%1,               Chen Seong%Wong%NULL%1,               Sapna%Sadarangani%NULL%1,               Ray Junhao%Lin%NULL%1,               Deborah Hee Ling%Ng%NULL%1,               Mucheli%Sadasiv%NULL%1,               Tsin Wen%Yeo%NULL%1,               Chiaw Yee%Choy%NULL%1,               Glorijoy Shi En%Tan%NULL%1,               Frederico%Dimatatac%NULL%1,               Isais Florante%Santos%NULL%1,               Chi Jong%Go%NULL%1,               Yu Kit%Chan%NULL%1,               Jun Yang%Tay%NULL%1,               Jackie Yu-Ling%Tan%NULL%1,               Nihar%Pandit%NULL%1,               Benjamin Choon Heng%Ho%NULL%1,               Shehara%Mendis%NULL%1,               Yuan Yi Constance%Chen%NULL%1,               Mohammad Yazid%Abdad%NULL%1,               Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,               Julie T S%Chu%NULL%1,               Mahen R A%Perera%NULL%1,               Kenrie P Y%Hui%NULL%1,               Hui-Ling%Yen%NULL%1,               Michael C W%Chan%NULL%1,               Malik%Peiris%NULL%1,               Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,               Daniele%Lapa%NULL%2,               Fabrizio%Carletti%NULL%2,               Eleonora%Lalle%NULL%2,               Licia%Bordi%NULL%2,               Patrizia%Marsella%NULL%2,               Emanuele%Nicastri%NULL%0,               Nazario%Bevilacqua%NULL%2,               Maria Letizia%Giancola%NULL%2,               Angela%Corpolongo%NULL%2,               Giuseppe%Ippolito%NULL%2,               Maria Rosaria%Capobianchi%NULL%2,               Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,               Daniele%Lapa%NULL%0,               Fabrizio%Carletti%NULL%0,               Eleonora%Lalle%NULL%0,               Licia%Bordi%NULL%0,               Patrizia%Marsella%NULL%0,               Emanuele%Nicastri%NULL%0,               Nazario%Bevilacqua%NULL%0,               Maria Letizia%Giancola%NULL%0,               Angela%Corpolongo%NULL%0,               Giuseppe%Ippolito%NULL%0,               Maria Rosaria%Capobianchi%NULL%0,               Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                Z.% Chen%null%1,                T.% Wang%null%2,                J.% Dai%null%1,                J.% Zhang%null%1,                T.% Ding%null%1,                J.% Jiang%null%1,                J.% Liu%null%1,                C.% Zhang%null%1,                W.% Shan%null%1,                S.% Wang%null%1,                Y.% Rong%null%1,                J.% Chang%null%1,                X.% Miao%null%1,                X.% Ma%null%1,                S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,       Jinhua%Tian%xref no email%0,       Songming%He%xref no email%0,       Chuchao%Zhu%xref no email%0,       Jian%Wang%xref no email%0,       Chen%Liu%xref no email%0,       Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,               Yan%Pan%woshipanyan@126.com%1,               Qingcui%Wu%NULL%1,               Shan%Liu%NULL%1,               Xu%Song%NULL%1,               Zhongguo%Xie%NULL%1,               Yang%Liu%NULL%1,               Liang%Zhao%NULL%1,               Zhonghong%Wang%NULL%1,               Yifei%Zhang%NULL%1,               Zuchuang%Wu%NULL%1,               Lei%Guan%NULL%1,               Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,               Sadegh%Niazi%NULL%1,               Kaveh%Sadeghi%NULL%1,               Kazem%Naddafi%NULL%1,               Jila%Yavarian%NULL%1,               Mansour%Shamsipour%NULL%1,               Nazanin Zahra Shafiei%Jandaghi%NULL%1,               Khosro%Sadeghniiat%NULL%1,               Ramin%Nabizadeh%NULL%1,               Masud%Yunesian%NULL%1,               Fatemeh%Momeniha%NULL%1,               Adel%Mokamel%NULL%1,               Mohammad Sadegh%Hassanvand%NULL%1,               Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,               Moon-Woo%Seong%NULL%1,               Eun Young%Heo%NULL%1,               Ji Hong%Park%NULL%1,               Namhee%Kim%NULL%1,               Sue%Shin%NULL%1,               Sung Im%Cho%NULL%1,               Sung Sup%Park%NULL%1,               Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,               Matthew J.%Stuckey%NULL%1,               Tara%Scheuer%NULL%1,               Kerui%Xu%NULL%1,               Kiran M.%Perkins%NULL%1,               Heather%Resseger%NULL%1,               Shelley%Magill%NULL%1,               Jennifer R.%Verani%NULL%1,               Seema%Jain%NULL%1,               Meileen%Acosta%NULL%1,               Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,               Xiuwen%Zhang%NULL%2,               Xinyue%Zhang%NULL%2,               Zhijian%Wei%NULL%2,               Lingli%Zhang%NULL%2,               Jingjing%Xu%NULL%2,               Peipei%Liang%NULL%2,               Yuanhong%Xu%xyhong1964@163.com%0,               Chengyuan%Zhang%2396476405@qq.com%2,               Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,               Xiuwen%Zhang%NULL%0,               Xinyue%Zhang%NULL%0,               Zhijian%Wei%NULL%0,               Lingli%Zhang%NULL%0,               Jingjing%Xu%NULL%0,               Peipei%Liang%NULL%0,               Yuanhong%Xu%xyhong1964@163.com%0,               Chengyuan%Zhang%2396476405@qq.com%0,               Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,               Juan%Xia%NULL%1,               Yuxin%Chen%NULL%1,               Chun%Shan%NULL%1,               Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,               Rachael%Overcash%NULL%0,               Neggin%Mokhtari%NULL%0,               Haleema%Saeed%NULL%0,               Stacey%Gold%NULL%0,               Tamika%Auguste%NULL%0,               Muhammad-Usman%Mirza%NULL%0,               Maria-Elena%Ruiz%NULL%0,               Joeffrey J.%Chahine%NULL%0,               Joeffrey J.%Chahine%NULL%0,               Masashi%Waga%NULL%0,               Masashi%Waga%NULL%0,               Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,               Mei%Luo%NULL%1,               Zhen%Zou%NULL%1,               Xu%Wang%875777340@qq.com%1,               Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,               Jingfu%Qiu%jfqiu@126.com%2,               Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,               Xiao-Li%Zhang%NULL%1,               Xiang-Na%Zhao%NULL%1,               Cun-Bao%Li%NULL%1,               Jie%Lei%NULL%2,               Zeng-Qiang%Kou%NULL%1,               Wen-Kui%Sun%NULL%1,               Yang%Hang%NULL%1,               Feng%Gao%NULL%1,               Sheng-Xiang%Ji%NULL%1,               Can-Fang%Lin%NULL%1,               Bo%Pang%NULL%1,               Ming-Xiao%Yao%NULL%1,               Benjamin D%Anderson%NULL%1,               Guo-Lin%Wang%NULL%1,               Lin%Yao%NULL%1,               Li-Jun%Duan%NULL%1,               Dian-Ming%Kang%dmkang66@163.com%1,               Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,               Lam V%Nguyen%NULL%1,               Dien M%Tran%NULL%1,               Hai T%Do%NULL%1,               Huong T%Tran%NULL%1,               Yen T%Le%NULL%1,               Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,               Jihyang%Lee%NULL%0,               Jihyang%Lee%NULL%0,               Eunju%Kim%NULL%0,               Eunju%Kim%NULL%0,               Kyeongyoon%Woo%NULL%0,               Kyeongyoon%Woo%NULL%0,               Hak Youle%Park%NULL%0,               Hak Youle%Park%NULL%0,               Jihyun%An%NULL%0,               Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,               Fang%Ji%NULL%1,               Liang%Wang%NULL%1,               Liping%Wang%NULL%1,               Jungui%Hao%NULL%1,               Mingjia%Dai%NULL%1,               Yan%Liu%NULL%0,               Xiucheng%Pan%NULL%1,               Juanjuan%Fu%NULL%1,               Li%Li%NULL%0,               Guangde%Yang%NULL%1,               Jianye%Yang%NULL%1,               Xuebing%Yan%NULL%1,               Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,               Meiling%Jin%NULL%1,               Pengtao%Bao%NULL%1,               Weiguo%Zhao%NULL%1,               Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,               Lefei%Han%NULL%2,               Min%Peng%2658706528@qq.com%2,               Yuxia%Lv%NULL%2,               Yin%Ouyang%NULL%2,               Kui%Liu%NULL%0,               Linli%Yue%NULL%2,               Qiannan%Li%NULL%2,               Guoqiang%Sun%NULL%2,               Lin%Chen%NULL%2,               Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,               Bo%Zhang%NULL%2,               Jianhua%Lu%NULL%1,               Shihua%Liu%NULL%1,               Zhiqiang%Chang%NULL%1,               Peng%Cao%NULL%1,               Xinhua%Liu%NULL%1,               Peng%Zhang%NULL%2,               Yan%Ling%NULL%1,               Kaixiong%Tao%NULL%1,               Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,               Yingying%Hu%NULL%2,               Yingying%Hu%NULL%0,               Yuanyuan%Yu%NULL%1,               Xiaodong%Zhang%NULL%1,               Bin%Li%NULL%1,               Jianguo%Wu%NULL%1,               Junyu%Li%NULL%1,               Yingping%Wu%NULL%1,               Xiaoping%Xia%NULL%2,               Xiaoping%Xia%NULL%0,               Huina%Tang%NULL%1,               Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                H.% Qian%null%1,                J.% Hang%null%1,                X.% Chen%null%1,                L.% Hong%null%1,                P.% Liang%null%1,                J.% Li%null%1,                S.% Xiao%null%1,                J.% Wei%null%1,                L.% Liu%null%2,                M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Jing%Wang%NULL%3,               Wenbin%Li%NULL%1,               Zhaoxian%Zhou%NULL%1,               Siying%Liu%NULL%1,               Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2715,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2639,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2668,7 +2773,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2697,7 +2802,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2726,7 +2831,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2755,7 +2860,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2784,7 +2889,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2813,7 +2918,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2842,7 +2947,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2871,7 +2976,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2900,7 +3005,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2929,7 +3034,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2958,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -2987,13 +3092,13 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>661</v>
       </c>
       <c r="H15" t="s">
         <v>104</v>
@@ -3016,7 +3121,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3045,7 +3150,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3074,7 +3179,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3103,7 +3208,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3161,7 +3266,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>630</v>
+        <v>665</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3190,7 +3295,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3219,7 +3324,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3248,7 +3353,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3277,7 +3382,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3306,7 +3411,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3335,7 +3440,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3364,7 +3469,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3422,7 +3527,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3451,7 +3556,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3480,7 +3585,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3509,7 +3614,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3538,7 +3643,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3567,7 +3672,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3596,7 +3701,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -3625,7 +3730,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -3654,13 +3759,13 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>661</v>
       </c>
       <c r="H38" t="s">
         <v>184</v>
@@ -3683,7 +3788,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="717">
   <si>
     <t>Doi</t>
   </si>
@@ -2305,6 +2305,111 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,               Jing%Wang%NULL%3,               Wenbin%Li%NULL%1,               Zhaoxian%Zhou%NULL%1,               Siying%Liu%NULL%1,               Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                Tania%Paredes%NULL%0,                Tania%Paredes%NULL%0,                David%Caceres%NULL%0,                Camille M.%Webb%NULL%0,                Luis M.%Valdez%NULL%0,                Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                Claire M.%Midgley%NULL%1,                Alissa%Dratch%NULL%1,                Marty%Fenstersheib%NULL%1,                Thomas%Haupt%NULL%1,                Michelle%Holshue%NULL%1,                Isaac%Ghinai%NULL%1,                M. Claire%Jarashow%NULL%1,                Jennifer%Lo%NULL%1,                Tristan D.%McPherson%NULL%1,                Sara%Rudman%NULL%1,                Sarah%Scott%NULL%1,                Aron J.%Hall%NULL%1,                Alicia M.%Fry%NULL%1,                Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                Wenjie%Sun%NULL%1,                Jianping%Huang%NULL%1,                Michelle%Gamber%NULL%1,                Jing%Wu%NULL%2,                Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                Shuofeng%Yuan%NULL%0,                Kin-Hang%Kok%NULL%0,                Kelvin Kai-Wang%To%NULL%0,                Hin%Chu%NULL%0,                Jin%Yang%NULL%0,                Fanfan%Xing%NULL%0,                Jieling%Liu%NULL%0,                Cyril Chik-Yan%Yip%NULL%0,                Rosana Wing-Shan%Poon%NULL%0,                Hoi-Wah%Tsoi%NULL%0,                Simon Kam-Fai%Lo%NULL%0,                Kwok-Hung%Chan%NULL%0,                Vincent Kwok-Man%Poon%NULL%0,                Wan-Mui%Chan%NULL%0,                Jonathan Daniel%Ip%NULL%0,                Jian-Piao%Cai%NULL%0,                Vincent Chi-Chung%Cheng%NULL%0,                Honglin%Chen%NULL%0,                Christopher Kim-Ming%Hui%NULL%0,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                Juanjuan%Guo%NULL%0,                Chen%Wang%NULL%0,                Fan%Luo%NULL%1,                Xuechen%Yu%NULL%0,                Wei%Zhang%NULL%0,                Jiafu%Li%NULL%0,                Dongchi%Zhao%NULL%1,                Dan%Xu%NULL%3,                Qing%Gong%NULL%1,                Jing%Liao%NULL%1,                Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                Wei%Hou%houwei@whu.edu.cn%0,                Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,        Liangjun%Chen%xref no email%1,        Qiaoling%Deng%xref no email%0,        Guqin%Zhang%xref no email%1,        Kaisong%Wu%xref no email%1,        Lan%Ni%xref no email%1,        Yibin%Yang%xref no email%1,        Bing%Liu%xref no email%1,        Wei%Wang%xref no email%0,        Chaojie%Wei%xref no email%1,        Jiong%Yang%xref no email%1,        Guangming%Ye%xref no email%1,        Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                Hua%Peng%NULL%1,                Lin%Wang%NULL%3,                Yin%Zhao%NULL%1,                Lingkong%Zeng%NULL%1,                Hui%Gao%NULL%1,                Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                Shu-Wan%Jian%NULL%1,                Ding-Ping%Liu%NULL%1,                Ta-Chou%Ng%NULL%1,                Wan-Ting%Huang%NULL%1,                Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                Shuk-Ching%Wong%NULL%1,                Jonathan H. K.%Chen%NULL%1,                Cyril C. Y.%Yip%NULL%1,                Vivien W. M.%Chuang%NULL%1,                Owen T. Y.%Tsang%NULL%1,                Siddharth%Sridhar%NULL%1,                Jasper F. W.%Chan%NULL%1,                Pak-Leung%Ho%NULL%1,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                Kristen Kelli%Coleman%NULL%2,                Kristen Kelli%Coleman%NULL%0,                Yian Kim%Tan%NULL%2,                Yian Kim%Tan%NULL%0,                Sean Wei Xiang%Ong%NULL%1,                Marcus%Gum%NULL%2,                Marcus%Gum%NULL%0,                Sok Kiang%Lau%NULL%1,                Xiao Fang%Lim%NULL%1,                Ai Sim%Lim%NULL%1,                Stephanie%Sutjipto%NULL%1,                Pei Hua%Lee%NULL%1,                Than The%Son%NULL%1,                Barnaby Edward%Young%NULL%1,                Donald K.%Milton%NULL%1,                Gregory C.%Gray%NULL%2,                Gregory C.%Gray%NULL%0,                Stephan%Schuster%NULL%2,                Stephan%Schuster%NULL%0,                Timothy%Barkham%NULL%1,                Partha Pratim%De%NULL%2,                Partha Pratim%De%NULL%0,                Shawn%Vasoo%NULL%1,                Monica%Chan%NULL%1,                Brenda Sze Peng%Ang%NULL%1,                Boon Huan%Tan%NULL%1,                Yee-Sin%Leo%NULL%1,                Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                Michelle Su Yen%Wong%NULL%2,                Michelle Su Yen%Wong%NULL%0,                Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                David Chien%Lye%NULL%2,                David Chien%Lye%NULL%0,                Poh Lian%Lim%NULL%1,                Cheng Chuan%Lee%NULL%1,                Li Min%Ling%NULL%1,                Lawrence%Lee%NULL%1,                Tau Hong%Lee%NULL%1,                Chen Seong%Wong%NULL%1,                Sapna%Sadarangani%NULL%1,                Ray Junhao%Lin%NULL%1,                Deborah Hee Ling%Ng%NULL%1,                Mucheli%Sadasiv%NULL%1,                Tsin Wen%Yeo%NULL%1,                Chiaw Yee%Choy%NULL%1,                Glorijoy Shi En%Tan%NULL%1,                Frederico%Dimatatac%NULL%1,                Isais Florante%Santos%NULL%1,                Chi Jong%Go%NULL%1,                Yu Kit%Chan%NULL%1,                Jun Yang%Tay%NULL%1,                Jackie Yu-Ling%Tan%NULL%1,                Nihar%Pandit%NULL%1,                Benjamin Choon Heng%Ho%NULL%1,                Shehara%Mendis%NULL%1,                Yuan Yi Constance%Chen%NULL%1,                Mohammad Yazid%Abdad%NULL%1,                Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                Julie T S%Chu%NULL%1,                Mahen R A%Perera%NULL%1,                Kenrie P Y%Hui%NULL%1,                Hui-Ling%Yen%NULL%1,                Michael C W%Chan%NULL%1,                Malik%Peiris%NULL%1,                Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                Daniele%Lapa%NULL%2,                Fabrizio%Carletti%NULL%2,                Eleonora%Lalle%NULL%2,                Licia%Bordi%NULL%2,                Patrizia%Marsella%NULL%2,                Emanuele%Nicastri%NULL%0,                Nazario%Bevilacqua%NULL%2,                Maria Letizia%Giancola%NULL%2,                Angela%Corpolongo%NULL%2,                Giuseppe%Ippolito%NULL%2,                Maria Rosaria%Capobianchi%NULL%2,                Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                Daniele%Lapa%NULL%0,                Fabrizio%Carletti%NULL%0,                Eleonora%Lalle%NULL%0,                Licia%Bordi%NULL%0,                Patrizia%Marsella%NULL%0,                Emanuele%Nicastri%NULL%0,                Nazario%Bevilacqua%NULL%0,                Maria Letizia%Giancola%NULL%0,                Angela%Corpolongo%NULL%0,                Giuseppe%Ippolito%NULL%0,                Maria Rosaria%Capobianchi%NULL%0,                Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                 Z.% Chen%null%1,                 T.% Wang%null%2,                 J.% Dai%null%1,                 J.% Zhang%null%1,                 T.% Ding%null%1,                 J.% Jiang%null%1,                 J.% Liu%null%1,                 C.% Zhang%null%1,                 W.% Shan%null%1,                 S.% Wang%null%1,                 Y.% Rong%null%1,                 J.% Chang%null%1,                 X.% Miao%null%1,                 X.% Ma%null%1,                 S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,        Jinhua%Tian%xref no email%0,        Songming%He%xref no email%0,        Chuchao%Zhu%xref no email%0,        Jian%Wang%xref no email%0,        Chen%Liu%xref no email%0,        Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,      Tsung-Hao%Liu%null%1,      Thomas%Yau%null%1,      Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                Yan%Pan%woshipanyan@126.com%1,                Qingcui%Wu%NULL%1,                Shan%Liu%NULL%1,                Xu%Song%NULL%1,                Zhongguo%Xie%NULL%1,                Yang%Liu%NULL%1,                Liang%Zhao%NULL%1,                Zhonghong%Wang%NULL%1,                Yifei%Zhang%NULL%1,                Zuchuang%Wu%NULL%1,                Lei%Guan%NULL%1,                Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                Sadegh%Niazi%NULL%1,                Kaveh%Sadeghi%NULL%1,                Kazem%Naddafi%NULL%1,                Jila%Yavarian%NULL%1,                Mansour%Shamsipour%NULL%1,                Nazanin Zahra Shafiei%Jandaghi%NULL%1,                Khosro%Sadeghniiat%NULL%1,                Ramin%Nabizadeh%NULL%1,                Masud%Yunesian%NULL%1,                Fatemeh%Momeniha%NULL%1,                Adel%Mokamel%NULL%1,                Mohammad Sadegh%Hassanvand%NULL%1,                Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                Moon-Woo%Seong%NULL%1,                Eun Young%Heo%NULL%1,                Ji Hong%Park%NULL%1,                Namhee%Kim%NULL%1,                Sue%Shin%NULL%1,                Sung Im%Cho%NULL%1,                Sung Sup%Park%NULL%1,                Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                Matthew J.%Stuckey%NULL%1,                Tara%Scheuer%NULL%1,                Kerui%Xu%NULL%1,                Kiran M.%Perkins%NULL%1,                Heather%Resseger%NULL%1,                Shelley%Magill%NULL%1,                Jennifer R.%Verani%NULL%1,                Seema%Jain%NULL%1,                Meileen%Acosta%NULL%1,                Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                Xiuwen%Zhang%NULL%2,                Xinyue%Zhang%NULL%2,                Zhijian%Wei%NULL%2,                Lingli%Zhang%NULL%2,                Jingjing%Xu%NULL%2,                Peipei%Liang%NULL%2,                Yuanhong%Xu%xyhong1964@163.com%0,                Chengyuan%Zhang%2396476405@qq.com%2,                Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                Xiuwen%Zhang%NULL%0,                Xinyue%Zhang%NULL%0,                Zhijian%Wei%NULL%0,                Lingli%Zhang%NULL%0,                Jingjing%Xu%NULL%0,                Peipei%Liang%NULL%0,                Yuanhong%Xu%xyhong1964@163.com%0,                Chengyuan%Zhang%2396476405@qq.com%0,                Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                Juan%Xia%NULL%1,                Yuxin%Chen%NULL%1,                Chun%Shan%NULL%1,                Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                Rachael%Overcash%NULL%0,                Neggin%Mokhtari%NULL%0,                Haleema%Saeed%NULL%0,                Stacey%Gold%NULL%0,                Tamika%Auguste%NULL%0,                Muhammad-Usman%Mirza%NULL%0,                Maria-Elena%Ruiz%NULL%0,                Joeffrey J.%Chahine%NULL%0,                Joeffrey J.%Chahine%NULL%0,                Masashi%Waga%NULL%0,                Masashi%Waga%NULL%0,                Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                Mei%Luo%NULL%1,                Zhen%Zou%NULL%1,                Xu%Wang%875777340@qq.com%1,                Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                Jingfu%Qiu%jfqiu@126.com%2,                Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                Xiao-Li%Zhang%NULL%1,                Xiang-Na%Zhao%NULL%1,                Cun-Bao%Li%NULL%1,                Jie%Lei%NULL%2,                Zeng-Qiang%Kou%NULL%1,                Wen-Kui%Sun%NULL%1,                Yang%Hang%NULL%1,                Feng%Gao%NULL%1,                Sheng-Xiang%Ji%NULL%1,                Can-Fang%Lin%NULL%1,                Bo%Pang%NULL%1,                Ming-Xiao%Yao%NULL%1,                Benjamin D%Anderson%NULL%1,                Guo-Lin%Wang%NULL%1,                Lin%Yao%NULL%1,                Li-Jun%Duan%NULL%1,                Dian-Ming%Kang%dmkang66@163.com%1,                Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                Lam V%Nguyen%NULL%1,                Dien M%Tran%NULL%1,                Hai T%Do%NULL%1,                Huong T%Tran%NULL%1,                Yen T%Le%NULL%1,                Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                Jihyang%Lee%NULL%0,                Jihyang%Lee%NULL%0,                Eunju%Kim%NULL%0,                Eunju%Kim%NULL%0,                Kyeongyoon%Woo%NULL%0,                Kyeongyoon%Woo%NULL%0,                Hak Youle%Park%NULL%0,                Hak Youle%Park%NULL%0,                Jihyun%An%NULL%0,                Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                Fang%Ji%NULL%1,                Liang%Wang%NULL%1,                Liping%Wang%NULL%1,                Jungui%Hao%NULL%1,                Mingjia%Dai%NULL%1,                Yan%Liu%NULL%0,                Xiucheng%Pan%NULL%1,                Juanjuan%Fu%NULL%1,                Li%Li%NULL%0,                Guangde%Yang%NULL%1,                Jianye%Yang%NULL%1,                Xuebing%Yan%NULL%1,                Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                Meiling%Jin%NULL%1,                Pengtao%Bao%NULL%1,                Weiguo%Zhao%NULL%1,                Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                Lefei%Han%NULL%2,                Min%Peng%2658706528@qq.com%2,                Yuxia%Lv%NULL%2,                Yin%Ouyang%NULL%2,                Kui%Liu%NULL%0,                Linli%Yue%NULL%2,                Qiannan%Li%NULL%2,                Guoqiang%Sun%NULL%2,                Lin%Chen%NULL%2,                Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                Bo%Zhang%NULL%2,                Jianhua%Lu%NULL%1,                Shihua%Liu%NULL%1,                Zhiqiang%Chang%NULL%1,                Peng%Cao%NULL%1,                Xinhua%Liu%NULL%1,                Peng%Zhang%NULL%2,                Yan%Ling%NULL%1,                Kaixiong%Tao%NULL%1,                Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                Yingying%Hu%NULL%2,                Yingying%Hu%NULL%0,                Yuanyuan%Yu%NULL%1,                Xiaodong%Zhang%NULL%1,                Bin%Li%NULL%1,                Jianguo%Wu%NULL%1,                Junyu%Li%NULL%1,                Yingping%Wu%NULL%1,                Xiaoping%Xia%NULL%2,                Xiaoping%Xia%NULL%0,                Huina%Tang%NULL%1,                Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                 H.% Qian%null%1,                 J.% Hang%null%1,                 X.% Chen%null%1,                 L.% Hong%null%1,                 P.% Liang%null%1,                 J.% Li%null%1,                 S.% Xiao%null%1,                 J.% Wei%null%1,                 L.% Liu%null%2,                 M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Jing%Wang%NULL%3,                Wenbin%Li%NULL%1,                Zhaoxian%Zhou%NULL%1,                Siying%Liu%NULL%1,                Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2820,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2744,7 +2849,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2773,7 +2878,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2802,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2831,7 +2936,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2860,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2889,7 +2994,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -2918,7 +3023,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2947,7 +3052,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2976,7 +3081,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3005,7 +3110,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3034,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3063,7 +3168,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3092,7 +3197,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3121,7 +3226,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3150,7 +3255,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>697</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3179,7 +3284,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3208,7 +3313,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3266,7 +3371,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3295,7 +3400,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3324,7 +3429,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3353,7 +3458,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3382,7 +3487,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3411,7 +3516,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3440,7 +3545,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3469,7 +3574,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3527,7 +3632,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3556,7 +3661,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3585,7 +3690,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3614,7 +3719,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3643,7 +3748,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3672,7 +3777,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3701,7 +3806,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -3730,7 +3835,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -3759,7 +3864,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -3788,7 +3893,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="787">
   <si>
     <t>Doi</t>
   </si>
@@ -2410,6 +2410,216 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                Jing%Wang%NULL%3,                Wenbin%Li%NULL%1,                Zhaoxian%Zhou%NULL%1,                Siying%Liu%NULL%1,                Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                 Tania%Paredes%NULL%0,                 Tania%Paredes%NULL%0,                 David%Caceres%NULL%0,                 Camille M.%Webb%NULL%0,                 Luis M.%Valdez%NULL%0,                 Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                 Claire M.%Midgley%NULL%1,                 Alissa%Dratch%NULL%1,                 Marty%Fenstersheib%NULL%1,                 Thomas%Haupt%NULL%1,                 Michelle%Holshue%NULL%1,                 Isaac%Ghinai%NULL%1,                 M. Claire%Jarashow%NULL%1,                 Jennifer%Lo%NULL%1,                 Tristan D.%McPherson%NULL%1,                 Sara%Rudman%NULL%1,                 Sarah%Scott%NULL%1,                 Aron J.%Hall%NULL%1,                 Alicia M.%Fry%NULL%1,                 Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                 Wenjie%Sun%NULL%1,                 Jianping%Huang%NULL%1,                 Michelle%Gamber%NULL%1,                 Jing%Wu%NULL%2,                 Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                 Shuofeng%Yuan%NULL%0,                 Kin-Hang%Kok%NULL%0,                 Kelvin Kai-Wang%To%NULL%0,                 Hin%Chu%NULL%0,                 Jin%Yang%NULL%0,                 Fanfan%Xing%NULL%0,                 Jieling%Liu%NULL%0,                 Cyril Chik-Yan%Yip%NULL%0,                 Rosana Wing-Shan%Poon%NULL%0,                 Hoi-Wah%Tsoi%NULL%0,                 Simon Kam-Fai%Lo%NULL%0,                 Kwok-Hung%Chan%NULL%0,                 Vincent Kwok-Man%Poon%NULL%0,                 Wan-Mui%Chan%NULL%0,                 Jonathan Daniel%Ip%NULL%0,                 Jian-Piao%Cai%NULL%0,                 Vincent Chi-Chung%Cheng%NULL%0,                 Honglin%Chen%NULL%0,                 Christopher Kim-Ming%Hui%NULL%0,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                 Juanjuan%Guo%NULL%0,                 Chen%Wang%NULL%0,                 Fan%Luo%NULL%1,                 Xuechen%Yu%NULL%0,                 Wei%Zhang%NULL%0,                 Jiafu%Li%NULL%0,                 Dongchi%Zhao%NULL%1,                 Dan%Xu%NULL%3,                 Qing%Gong%NULL%1,                 Jing%Liao%NULL%1,                 Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                 Wei%Hou%houwei@whu.edu.cn%0,                 Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,         Liangjun%Chen%xref no email%1,         Qiaoling%Deng%xref no email%0,         Guqin%Zhang%xref no email%1,         Kaisong%Wu%xref no email%1,         Lan%Ni%xref no email%1,         Yibin%Yang%xref no email%1,         Bing%Liu%xref no email%1,         Wei%Wang%xref no email%0,         Chaojie%Wei%xref no email%1,         Jiong%Yang%xref no email%1,         Guangming%Ye%xref no email%1,         Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                 Hua%Peng%NULL%1,                 Lin%Wang%NULL%3,                 Yin%Zhao%NULL%1,                 Lingkong%Zeng%NULL%1,                 Hui%Gao%NULL%1,                 Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                 Shu-Wan%Jian%NULL%1,                 Ding-Ping%Liu%NULL%1,                 Ta-Chou%Ng%NULL%1,                 Wan-Ting%Huang%NULL%1,                 Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                 Shuk-Ching%Wong%NULL%1,                 Jonathan H. K.%Chen%NULL%1,                 Cyril C. Y.%Yip%NULL%1,                 Vivien W. M.%Chuang%NULL%1,                 Owen T. Y.%Tsang%NULL%1,                 Siddharth%Sridhar%NULL%1,                 Jasper F. W.%Chan%NULL%1,                 Pak-Leung%Ho%NULL%1,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                 Kristen Kelli%Coleman%NULL%2,                 Kristen Kelli%Coleman%NULL%0,                 Yian Kim%Tan%NULL%2,                 Yian Kim%Tan%NULL%0,                 Sean Wei Xiang%Ong%NULL%1,                 Marcus%Gum%NULL%2,                 Marcus%Gum%NULL%0,                 Sok Kiang%Lau%NULL%1,                 Xiao Fang%Lim%NULL%1,                 Ai Sim%Lim%NULL%1,                 Stephanie%Sutjipto%NULL%1,                 Pei Hua%Lee%NULL%1,                 Than The%Son%NULL%1,                 Barnaby Edward%Young%NULL%1,                 Donald K.%Milton%NULL%1,                 Gregory C.%Gray%NULL%2,                 Gregory C.%Gray%NULL%0,                 Stephan%Schuster%NULL%2,                 Stephan%Schuster%NULL%0,                 Timothy%Barkham%NULL%1,                 Partha Pratim%De%NULL%2,                 Partha Pratim%De%NULL%0,                 Shawn%Vasoo%NULL%1,                 Monica%Chan%NULL%1,                 Brenda Sze Peng%Ang%NULL%1,                 Boon Huan%Tan%NULL%1,                 Yee-Sin%Leo%NULL%1,                 Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                 Michelle Su Yen%Wong%NULL%2,                 Michelle Su Yen%Wong%NULL%0,                 Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                 David Chien%Lye%NULL%2,                 David Chien%Lye%NULL%0,                 Poh Lian%Lim%NULL%1,                 Cheng Chuan%Lee%NULL%1,                 Li Min%Ling%NULL%1,                 Lawrence%Lee%NULL%1,                 Tau Hong%Lee%NULL%1,                 Chen Seong%Wong%NULL%1,                 Sapna%Sadarangani%NULL%1,                 Ray Junhao%Lin%NULL%1,                 Deborah Hee Ling%Ng%NULL%1,                 Mucheli%Sadasiv%NULL%1,                 Tsin Wen%Yeo%NULL%1,                 Chiaw Yee%Choy%NULL%1,                 Glorijoy Shi En%Tan%NULL%1,                 Frederico%Dimatatac%NULL%1,                 Isais Florante%Santos%NULL%1,                 Chi Jong%Go%NULL%1,                 Yu Kit%Chan%NULL%1,                 Jun Yang%Tay%NULL%1,                 Jackie Yu-Ling%Tan%NULL%1,                 Nihar%Pandit%NULL%1,                 Benjamin Choon Heng%Ho%NULL%1,                 Shehara%Mendis%NULL%1,                 Yuan Yi Constance%Chen%NULL%1,                 Mohammad Yazid%Abdad%NULL%1,                 Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                 Julie T S%Chu%NULL%1,                 Mahen R A%Perera%NULL%1,                 Kenrie P Y%Hui%NULL%1,                 Hui-Ling%Yen%NULL%1,                 Michael C W%Chan%NULL%1,                 Malik%Peiris%NULL%1,                 Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                 Daniele%Lapa%NULL%2,                 Fabrizio%Carletti%NULL%2,                 Eleonora%Lalle%NULL%2,                 Licia%Bordi%NULL%2,                 Patrizia%Marsella%NULL%2,                 Emanuele%Nicastri%NULL%2,                 Nazario%Bevilacqua%NULL%2,                 Maria Letizia%Giancola%NULL%2,                 Angela%Corpolongo%NULL%2,                 Giuseppe%Ippolito%NULL%2,                 Maria Rosaria%Capobianchi%NULL%2,                 Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                 Daniele%Lapa%NULL%0,                 Fabrizio%Carletti%NULL%0,                 Eleonora%Lalle%NULL%0,                 Licia%Bordi%NULL%0,                 Patrizia%Marsella%NULL%0,                 Emanuele%Nicastri%NULL%0,                 Nazario%Bevilacqua%NULL%0,                 Maria Letizia%Giancola%NULL%0,                 Angela%Corpolongo%NULL%0,                 Giuseppe%Ippolito%NULL%0,                 Maria Rosaria%Capobianchi%NULL%0,                 Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                  Z.% Chen%null%1,                  T.% Wang%null%2,                  J.% Dai%null%1,                  J.% Zhang%null%1,                  T.% Ding%null%1,                  J.% Jiang%null%1,                  J.% Liu%null%1,                  C.% Zhang%null%1,                  W.% Shan%null%1,                  S.% Wang%null%1,                  Y.% Rong%null%1,                  J.% Chang%null%1,                  X.% Miao%null%1,                  X.% Ma%null%1,                  S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,         Jinhua%Tian%xref no email%0,         Songming%He%xref no email%0,         Chuchao%Zhu%xref no email%0,         Jian%Wang%xref no email%0,         Chen%Liu%xref no email%0,         Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,       Tsung-Hao%Liu%null%1,       Thomas%Yau%null%1,       Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                 Yan%Pan%woshipanyan@126.com%1,                 Qingcui%Wu%NULL%1,                 Shan%Liu%NULL%1,                 Xu%Song%NULL%1,                 Zhongguo%Xie%NULL%1,                 Yang%Liu%NULL%1,                 Liang%Zhao%NULL%1,                 Zhonghong%Wang%NULL%1,                 Yifei%Zhang%NULL%1,                 Zuchuang%Wu%NULL%1,                 Lei%Guan%NULL%1,                 Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                 Sadegh%Niazi%NULL%1,                 Kaveh%Sadeghi%NULL%1,                 Kazem%Naddafi%NULL%1,                 Jila%Yavarian%NULL%1,                 Mansour%Shamsipour%NULL%1,                 Nazanin Zahra Shafiei%Jandaghi%NULL%1,                 Khosro%Sadeghniiat%NULL%1,                 Ramin%Nabizadeh%NULL%1,                 Masud%Yunesian%NULL%1,                 Fatemeh%Momeniha%NULL%1,                 Adel%Mokamel%NULL%1,                 Mohammad Sadegh%Hassanvand%NULL%1,                 Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                 Moon-Woo%Seong%NULL%1,                 Eun Young%Heo%NULL%1,                 Ji Hong%Park%NULL%1,                 Namhee%Kim%NULL%1,                 Sue%Shin%NULL%1,                 Sung Im%Cho%NULL%1,                 Sung Sup%Park%NULL%1,                 Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                 Matthew J.%Stuckey%NULL%1,                 Tara%Scheuer%NULL%1,                 Kerui%Xu%NULL%1,                 Kiran M.%Perkins%NULL%1,                 Heather%Resseger%NULL%1,                 Shelley%Magill%NULL%1,                 Jennifer R.%Verani%NULL%1,                 Seema%Jain%NULL%1,                 Meileen%Acosta%NULL%1,                 Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                 Xiuwen%Zhang%NULL%2,                 Xinyue%Zhang%NULL%2,                 Zhijian%Wei%NULL%2,                 Lingli%Zhang%NULL%2,                 Jingjing%Xu%NULL%2,                 Peipei%Liang%NULL%2,                 Yuanhong%Xu%xyhong1964@163.com%0,                 Chengyuan%Zhang%2396476405@qq.com%2,                 Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                 Xiuwen%Zhang%NULL%0,                 Xinyue%Zhang%NULL%0,                 Zhijian%Wei%NULL%0,                 Lingli%Zhang%NULL%0,                 Jingjing%Xu%NULL%0,                 Peipei%Liang%NULL%0,                 Yuanhong%Xu%xyhong1964@163.com%0,                 Chengyuan%Zhang%2396476405@qq.com%0,                 Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                 Juan%Xia%NULL%1,                 Yuxin%Chen%NULL%1,                 Chun%Shan%NULL%1,                 Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                 Rachael%Overcash%NULL%0,                 Neggin%Mokhtari%NULL%0,                 Haleema%Saeed%NULL%0,                 Stacey%Gold%NULL%0,                 Tamika%Auguste%NULL%0,                 Muhammad-Usman%Mirza%NULL%0,                 Maria-Elena%Ruiz%NULL%0,                 Joeffrey J.%Chahine%NULL%0,                 Joeffrey J.%Chahine%NULL%0,                 Masashi%Waga%NULL%0,                 Masashi%Waga%NULL%0,                 Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                 Mei%Luo%NULL%1,                 Zhen%Zou%NULL%1,                 Xu%Wang%875777340@qq.com%1,                 Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                 Jingfu%Qiu%jfqiu@126.com%2,                 Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                 Xiao-Li%Zhang%NULL%1,                 Xiang-Na%Zhao%NULL%1,                 Cun-Bao%Li%NULL%1,                 Jie%Lei%NULL%2,                 Zeng-Qiang%Kou%NULL%1,                 Wen-Kui%Sun%NULL%1,                 Yang%Hang%NULL%1,                 Feng%Gao%NULL%1,                 Sheng-Xiang%Ji%NULL%1,                 Can-Fang%Lin%NULL%1,                 Bo%Pang%NULL%1,                 Ming-Xiao%Yao%NULL%1,                 Benjamin D%Anderson%NULL%1,                 Guo-Lin%Wang%NULL%1,                 Lin%Yao%NULL%1,                 Li-Jun%Duan%NULL%1,                 Dian-Ming%Kang%dmkang66@163.com%1,                 Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                 Lam V%Nguyen%NULL%1,                 Dien M%Tran%NULL%1,                 Hai T%Do%NULL%1,                 Huong T%Tran%NULL%1,                 Yen T%Le%NULL%1,                 Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                 Jihyang%Lee%NULL%0,                 Jihyang%Lee%NULL%0,                 Eunju%Kim%NULL%0,                 Eunju%Kim%NULL%0,                 Kyeongyoon%Woo%NULL%0,                 Kyeongyoon%Woo%NULL%0,                 Hak Youle%Park%NULL%0,                 Hak Youle%Park%NULL%0,                 Jihyun%An%NULL%0,                 Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                 Fang%Ji%NULL%1,                 Liang%Wang%NULL%1,                 Liping%Wang%NULL%1,                 Jungui%Hao%NULL%1,                 Mingjia%Dai%NULL%1,                 Yan%Liu%NULL%0,                 Xiucheng%Pan%NULL%1,                 Juanjuan%Fu%NULL%1,                 Li%Li%NULL%0,                 Guangde%Yang%NULL%1,                 Jianye%Yang%NULL%1,                 Xuebing%Yan%NULL%1,                 Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                 Meiling%Jin%NULL%1,                 Pengtao%Bao%NULL%1,                 Weiguo%Zhao%NULL%1,                 Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                 Lefei%Han%NULL%2,                 Min%Peng%2658706528@qq.com%2,                 Yuxia%Lv%NULL%2,                 Yin%Ouyang%NULL%2,                 Kui%Liu%NULL%0,                 Linli%Yue%NULL%2,                 Qiannan%Li%NULL%2,                 Guoqiang%Sun%NULL%2,                 Lin%Chen%NULL%2,                 Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                 Bo%Zhang%NULL%2,                 Jianhua%Lu%NULL%1,                 Shihua%Liu%NULL%1,                 Zhiqiang%Chang%NULL%1,                 Peng%Cao%NULL%1,                 Xinhua%Liu%NULL%1,                 Peng%Zhang%NULL%2,                 Yan%Ling%NULL%1,                 Kaixiong%Tao%NULL%1,                 Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                 Yingying%Hu%NULL%2,                 Yingying%Hu%NULL%0,                 Yuanyuan%Yu%NULL%1,                 Xiaodong%Zhang%NULL%1,                 Bin%Li%NULL%1,                 Jianguo%Wu%NULL%1,                 Junyu%Li%NULL%1,                 Yingping%Wu%NULL%1,                 Xiaoping%Xia%NULL%2,                 Xiaoping%Xia%NULL%0,                 Huina%Tang%NULL%1,                 Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                  H.% Qian%null%1,                  J.% Hang%null%1,                  X.% Chen%null%1,                  L.% Hong%null%1,                  P.% Liang%null%1,                  J.% Li%null%1,                  S.% Xiao%null%1,                  J.% Wei%null%1,                  L.% Liu%null%2,                  M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Jing%Wang%NULL%3,                 Wenbin%Li%NULL%1,                 Zhaoxian%Zhou%NULL%1,                 Siying%Liu%NULL%1,                 Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                  Tania%Paredes%NULL%0,                  Tania%Paredes%NULL%0,                  David%Caceres%NULL%0,                  Camille M.%Webb%NULL%0,                  Luis M.%Valdez%NULL%0,                  Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                  Claire M.%Midgley%NULL%1,                  Alissa%Dratch%NULL%1,                  Marty%Fenstersheib%NULL%1,                  Thomas%Haupt%NULL%1,                  Michelle%Holshue%NULL%1,                  Isaac%Ghinai%NULL%1,                  M. Claire%Jarashow%NULL%1,                  Jennifer%Lo%NULL%1,                  Tristan D.%McPherson%NULL%1,                  Sara%Rudman%NULL%1,                  Sarah%Scott%NULL%1,                  Aron J.%Hall%NULL%1,                  Alicia M.%Fry%NULL%1,                  Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                  Wenjie%Sun%NULL%1,                  Jianping%Huang%NULL%1,                  Michelle%Gamber%NULL%1,                  Jing%Wu%NULL%2,                  Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                  Shuofeng%Yuan%NULL%0,                  Kin-Hang%Kok%NULL%0,                  Kelvin Kai-Wang%To%NULL%0,                  Hin%Chu%NULL%0,                  Jin%Yang%NULL%0,                  Fanfan%Xing%NULL%0,                  Jieling%Liu%NULL%0,                  Cyril Chik-Yan%Yip%NULL%0,                  Rosana Wing-Shan%Poon%NULL%0,                  Hoi-Wah%Tsoi%NULL%0,                  Simon Kam-Fai%Lo%NULL%0,                  Kwok-Hung%Chan%NULL%0,                  Vincent Kwok-Man%Poon%NULL%0,                  Wan-Mui%Chan%NULL%0,                  Jonathan Daniel%Ip%NULL%0,                  Jian-Piao%Cai%NULL%0,                  Vincent Chi-Chung%Cheng%NULL%0,                  Honglin%Chen%NULL%0,                  Christopher Kim-Ming%Hui%NULL%0,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                  Juanjuan%Guo%NULL%0,                  Chen%Wang%NULL%0,                  Fan%Luo%NULL%1,                  Xuechen%Yu%NULL%0,                  Wei%Zhang%NULL%0,                  Jiafu%Li%NULL%0,                  Dongchi%Zhao%NULL%1,                  Dan%Xu%NULL%3,                  Qing%Gong%NULL%1,                  Jing%Liao%NULL%1,                  Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                  Wei%Hou%houwei@whu.edu.cn%0,                  Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,          Liangjun%Chen%xref no email%1,          Qiaoling%Deng%xref no email%0,          Guqin%Zhang%xref no email%1,          Kaisong%Wu%xref no email%1,          Lan%Ni%xref no email%1,          Yibin%Yang%xref no email%1,          Bing%Liu%xref no email%1,          Wei%Wang%xref no email%0,          Chaojie%Wei%xref no email%1,          Jiong%Yang%xref no email%1,          Guangming%Ye%xref no email%1,          Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                  Hua%Peng%NULL%1,                  Lin%Wang%NULL%3,                  Yin%Zhao%NULL%1,                  Lingkong%Zeng%NULL%1,                  Hui%Gao%NULL%1,                  Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                  Shu-Wan%Jian%NULL%1,                  Ding-Ping%Liu%NULL%1,                  Ta-Chou%Ng%NULL%1,                  Wan-Ting%Huang%NULL%1,                  Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                  Shuk-Ching%Wong%NULL%1,                  Jonathan H. K.%Chen%NULL%1,                  Cyril C. Y.%Yip%NULL%1,                  Vivien W. M.%Chuang%NULL%1,                  Owen T. Y.%Tsang%NULL%1,                  Siddharth%Sridhar%NULL%1,                  Jasper F. W.%Chan%NULL%1,                  Pak-Leung%Ho%NULL%1,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                  Kristen Kelli%Coleman%NULL%2,                  Kristen Kelli%Coleman%NULL%0,                  Yian Kim%Tan%NULL%2,                  Yian Kim%Tan%NULL%0,                  Sean Wei Xiang%Ong%NULL%1,                  Marcus%Gum%NULL%2,                  Marcus%Gum%NULL%0,                  Sok Kiang%Lau%NULL%1,                  Xiao Fang%Lim%NULL%1,                  Ai Sim%Lim%NULL%1,                  Stephanie%Sutjipto%NULL%1,                  Pei Hua%Lee%NULL%1,                  Than The%Son%NULL%1,                  Barnaby Edward%Young%NULL%1,                  Donald K.%Milton%NULL%1,                  Gregory C.%Gray%NULL%2,                  Gregory C.%Gray%NULL%0,                  Stephan%Schuster%NULL%2,                  Stephan%Schuster%NULL%0,                  Timothy%Barkham%NULL%1,                  Partha Pratim%De%NULL%2,                  Partha Pratim%De%NULL%0,                  Shawn%Vasoo%NULL%1,                  Monica%Chan%NULL%1,                  Brenda Sze Peng%Ang%NULL%1,                  Boon Huan%Tan%NULL%1,                  Yee-Sin%Leo%NULL%1,                  Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                  Michelle Su Yen%Wong%NULL%2,                  Michelle Su Yen%Wong%NULL%0,                  Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                  David Chien%Lye%NULL%2,                  David Chien%Lye%NULL%0,                  Poh Lian%Lim%NULL%1,                  Cheng Chuan%Lee%NULL%1,                  Li Min%Ling%NULL%1,                  Lawrence%Lee%NULL%1,                  Tau Hong%Lee%NULL%1,                  Chen Seong%Wong%NULL%1,                  Sapna%Sadarangani%NULL%1,                  Ray Junhao%Lin%NULL%1,                  Deborah Hee Ling%Ng%NULL%1,                  Mucheli%Sadasiv%NULL%1,                  Tsin Wen%Yeo%NULL%1,                  Chiaw Yee%Choy%NULL%1,                  Glorijoy Shi En%Tan%NULL%1,                  Frederico%Dimatatac%NULL%1,                  Isais Florante%Santos%NULL%1,                  Chi Jong%Go%NULL%1,                  Yu Kit%Chan%NULL%1,                  Jun Yang%Tay%NULL%1,                  Jackie Yu-Ling%Tan%NULL%1,                  Nihar%Pandit%NULL%1,                  Benjamin Choon Heng%Ho%NULL%1,                  Shehara%Mendis%NULL%1,                  Yuan Yi Constance%Chen%NULL%1,                  Mohammad Yazid%Abdad%NULL%1,                  Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                  Julie T S%Chu%NULL%1,                  Mahen R A%Perera%NULL%1,                  Kenrie P Y%Hui%NULL%1,                  Hui-Ling%Yen%NULL%1,                  Michael C W%Chan%NULL%1,                  Malik%Peiris%NULL%1,                  Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                  Daniele%Lapa%NULL%2,                  Fabrizio%Carletti%NULL%2,                  Eleonora%Lalle%NULL%2,                  Licia%Bordi%NULL%2,                  Patrizia%Marsella%NULL%2,                  Emanuele%Nicastri%NULL%2,                  Nazario%Bevilacqua%NULL%2,                  Maria Letizia%Giancola%NULL%2,                  Angela%Corpolongo%NULL%2,                  Giuseppe%Ippolito%NULL%2,                  Maria Rosaria%Capobianchi%NULL%2,                  Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                  Daniele%Lapa%NULL%0,                  Fabrizio%Carletti%NULL%0,                  Eleonora%Lalle%NULL%0,                  Licia%Bordi%NULL%0,                  Patrizia%Marsella%NULL%0,                  Emanuele%Nicastri%NULL%0,                  Nazario%Bevilacqua%NULL%0,                  Maria Letizia%Giancola%NULL%0,                  Angela%Corpolongo%NULL%0,                  Giuseppe%Ippolito%NULL%0,                  Maria Rosaria%Capobianchi%NULL%0,                  Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                   Z.% Chen%null%1,                   T.% Wang%null%2,                   J.% Dai%null%1,                   J.% Zhang%null%1,                   T.% Ding%null%1,                   J.% Jiang%null%1,                   J.% Liu%null%1,                   C.% Zhang%null%1,                   W.% Shan%null%1,                   S.% Wang%null%1,                   Y.% Rong%null%1,                   J.% Chang%null%1,                   X.% Miao%null%1,                   X.% Ma%null%1,                   S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,          Jinhua%Tian%xref no email%0,          Songming%He%xref no email%0,          Chuchao%Zhu%xref no email%0,          Jian%Wang%xref no email%0,          Chen%Liu%xref no email%0,          Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,        Tsung-Hao%Liu%null%1,        Thomas%Yau%null%1,        Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                  Yan%Pan%woshipanyan@126.com%1,                  Qingcui%Wu%NULL%1,                  Shan%Liu%NULL%1,                  Xu%Song%NULL%1,                  Zhongguo%Xie%NULL%1,                  Yang%Liu%NULL%1,                  Liang%Zhao%NULL%1,                  Zhonghong%Wang%NULL%1,                  Yifei%Zhang%NULL%1,                  Zuchuang%Wu%NULL%1,                  Lei%Guan%NULL%1,                  Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                  Sadegh%Niazi%NULL%1,                  Kaveh%Sadeghi%NULL%1,                  Kazem%Naddafi%NULL%1,                  Jila%Yavarian%NULL%1,                  Mansour%Shamsipour%NULL%1,                  Nazanin Zahra Shafiei%Jandaghi%NULL%1,                  Khosro%Sadeghniiat%NULL%1,                  Ramin%Nabizadeh%NULL%1,                  Masud%Yunesian%NULL%1,                  Fatemeh%Momeniha%NULL%1,                  Adel%Mokamel%NULL%1,                  Mohammad Sadegh%Hassanvand%NULL%1,                  Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                  Moon-Woo%Seong%NULL%1,                  Eun Young%Heo%NULL%1,                  Ji Hong%Park%NULL%1,                  Namhee%Kim%NULL%1,                  Sue%Shin%NULL%1,                  Sung Im%Cho%NULL%1,                  Sung Sup%Park%NULL%1,                  Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                  Matthew J.%Stuckey%NULL%1,                  Tara%Scheuer%NULL%1,                  Kerui%Xu%NULL%1,                  Kiran M.%Perkins%NULL%1,                  Heather%Resseger%NULL%1,                  Shelley%Magill%NULL%1,                  Jennifer R.%Verani%NULL%1,                  Seema%Jain%NULL%1,                  Meileen%Acosta%NULL%1,                  Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                  Xiuwen%Zhang%NULL%2,                  Xinyue%Zhang%NULL%2,                  Zhijian%Wei%NULL%2,                  Lingli%Zhang%NULL%2,                  Jingjing%Xu%NULL%2,                  Peipei%Liang%NULL%2,                  Yuanhong%Xu%xyhong1964@163.com%0,                  Chengyuan%Zhang%2396476405@qq.com%2,                  Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                  Xiuwen%Zhang%NULL%0,                  Xinyue%Zhang%NULL%0,                  Zhijian%Wei%NULL%0,                  Lingli%Zhang%NULL%0,                  Jingjing%Xu%NULL%0,                  Peipei%Liang%NULL%0,                  Yuanhong%Xu%xyhong1964@163.com%0,                  Chengyuan%Zhang%2396476405@qq.com%0,                  Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                  Juan%Xia%NULL%1,                  Yuxin%Chen%NULL%1,                  Chun%Shan%NULL%1,                  Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                  Rachael%Overcash%NULL%0,                  Neggin%Mokhtari%NULL%0,                  Haleema%Saeed%NULL%0,                  Stacey%Gold%NULL%0,                  Tamika%Auguste%NULL%0,                  Muhammad-Usman%Mirza%NULL%0,                  Maria-Elena%Ruiz%NULL%0,                  Joeffrey J.%Chahine%NULL%0,                  Joeffrey J.%Chahine%NULL%0,                  Masashi%Waga%NULL%0,                  Masashi%Waga%NULL%0,                  Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                  Mei%Luo%NULL%1,                  Zhen%Zou%NULL%1,                  Xu%Wang%875777340@qq.com%1,                  Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                  Jingfu%Qiu%jfqiu@126.com%2,                  Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                  Xiao-Li%Zhang%NULL%1,                  Xiang-Na%Zhao%NULL%1,                  Cun-Bao%Li%NULL%1,                  Jie%Lei%NULL%2,                  Zeng-Qiang%Kou%NULL%1,                  Wen-Kui%Sun%NULL%1,                  Yang%Hang%NULL%1,                  Feng%Gao%NULL%1,                  Sheng-Xiang%Ji%NULL%1,                  Can-Fang%Lin%NULL%1,                  Bo%Pang%NULL%1,                  Ming-Xiao%Yao%NULL%1,                  Benjamin D%Anderson%NULL%1,                  Guo-Lin%Wang%NULL%1,                  Lin%Yao%NULL%1,                  Li-Jun%Duan%NULL%1,                  Dian-Ming%Kang%dmkang66@163.com%1,                  Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                  Lam V%Nguyen%NULL%1,                  Dien M%Tran%NULL%1,                  Hai T%Do%NULL%1,                  Huong T%Tran%NULL%1,                  Yen T%Le%NULL%1,                  Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                  Jihyang%Lee%NULL%0,                  Jihyang%Lee%NULL%0,                  Eunju%Kim%NULL%0,                  Eunju%Kim%NULL%0,                  Kyeongyoon%Woo%NULL%0,                  Kyeongyoon%Woo%NULL%0,                  Hak Youle%Park%NULL%0,                  Hak Youle%Park%NULL%0,                  Jihyun%An%NULL%0,                  Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                  Fang%Ji%NULL%1,                  Liang%Wang%NULL%1,                  Liping%Wang%NULL%1,                  Jungui%Hao%NULL%1,                  Mingjia%Dai%NULL%1,                  Yan%Liu%NULL%0,                  Xiucheng%Pan%NULL%1,                  Juanjuan%Fu%NULL%1,                  Li%Li%NULL%0,                  Guangde%Yang%NULL%1,                  Jianye%Yang%NULL%1,                  Xuebing%Yan%NULL%1,                  Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                  Meiling%Jin%NULL%1,                  Pengtao%Bao%NULL%1,                  Weiguo%Zhao%NULL%1,                  Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                  Lefei%Han%NULL%2,                  Min%Peng%2658706528@qq.com%2,                  Yuxia%Lv%NULL%2,                  Yin%Ouyang%NULL%2,                  Kui%Liu%NULL%0,                  Linli%Yue%NULL%2,                  Qiannan%Li%NULL%2,                  Guoqiang%Sun%NULL%2,                  Lin%Chen%NULL%2,                  Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                  Bo%Zhang%NULL%2,                  Jianhua%Lu%NULL%1,                  Shihua%Liu%NULL%1,                  Zhiqiang%Chang%NULL%1,                  Peng%Cao%NULL%1,                  Xinhua%Liu%NULL%1,                  Peng%Zhang%NULL%2,                  Yan%Ling%NULL%1,                  Kaixiong%Tao%NULL%1,                  Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                  Yingying%Hu%NULL%2,                  Yingying%Hu%NULL%0,                  Yuanyuan%Yu%NULL%1,                  Xiaodong%Zhang%NULL%1,                  Bin%Li%NULL%1,                  Jianguo%Wu%NULL%1,                  Junyu%Li%NULL%1,                  Yingping%Wu%NULL%1,                  Xiaoping%Xia%NULL%2,                  Xiaoping%Xia%NULL%0,                  Huina%Tang%NULL%1,                  Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                   H.% Qian%null%1,                   J.% Hang%null%1,                   X.% Chen%null%1,                   L.% Hong%null%1,                   P.% Liang%null%1,                   J.% Li%null%1,                   S.% Xiao%null%1,                   J.% Wei%null%1,                   L.% Liu%null%2,                   M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%3,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +3030,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2849,7 +3059,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2878,7 +3088,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2907,7 +3117,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2936,7 +3146,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -2965,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2994,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3023,7 +3233,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3052,7 +3262,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3081,7 +3291,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3110,7 +3320,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3139,7 +3349,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3168,7 +3378,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3197,7 +3407,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3226,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3255,7 +3465,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3284,7 +3494,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3313,7 +3523,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3371,7 +3581,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3400,7 +3610,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3429,7 +3639,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3458,7 +3668,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3487,7 +3697,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3516,7 +3726,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3545,7 +3755,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3574,7 +3784,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3632,7 +3842,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3661,7 +3871,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3690,7 +3900,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3719,7 +3929,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3748,7 +3958,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3777,7 +3987,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3806,7 +4016,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -3835,7 +4045,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -3864,7 +4074,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -3893,7 +4103,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="822">
   <si>
     <t>Doi</t>
   </si>
@@ -2620,6 +2620,111 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                  Jing%Wang%NULL%3,                  Wenbin%Li%NULL%1,                  Zhaoxian%Zhou%NULL%1,                  Siying%Liu%NULL%1,                  Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                   Tania%Paredes%NULL%0,                   Tania%Paredes%NULL%0,                   David%Caceres%NULL%0,                   Camille M.%Webb%NULL%0,                   Luis M.%Valdez%NULL%0,                   Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                   Claire M.%Midgley%NULL%1,                   Alissa%Dratch%NULL%1,                   Marty%Fenstersheib%NULL%1,                   Thomas%Haupt%NULL%1,                   Michelle%Holshue%NULL%1,                   Isaac%Ghinai%NULL%1,                   M. Claire%Jarashow%NULL%1,                   Jennifer%Lo%NULL%1,                   Tristan D.%McPherson%NULL%1,                   Sara%Rudman%NULL%1,                   Sarah%Scott%NULL%1,                   Aron J.%Hall%NULL%1,                   Alicia M.%Fry%NULL%1,                   Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                   Wenjie%Sun%NULL%1,                   Jianping%Huang%NULL%1,                   Michelle%Gamber%NULL%1,                   Jing%Wu%NULL%2,                   Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                   Shuofeng%Yuan%NULL%0,                   Kin-Hang%Kok%NULL%0,                   Kelvin Kai-Wang%To%NULL%0,                   Hin%Chu%NULL%0,                   Jin%Yang%NULL%0,                   Fanfan%Xing%NULL%0,                   Jieling%Liu%NULL%0,                   Cyril Chik-Yan%Yip%NULL%0,                   Rosana Wing-Shan%Poon%NULL%0,                   Hoi-Wah%Tsoi%NULL%0,                   Simon Kam-Fai%Lo%NULL%0,                   Kwok-Hung%Chan%NULL%0,                   Vincent Kwok-Man%Poon%NULL%0,                   Wan-Mui%Chan%NULL%0,                   Jonathan Daniel%Ip%NULL%0,                   Jian-Piao%Cai%NULL%0,                   Vincent Chi-Chung%Cheng%NULL%0,                   Honglin%Chen%NULL%0,                   Christopher Kim-Ming%Hui%NULL%0,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                   Juanjuan%Guo%NULL%0,                   Chen%Wang%NULL%0,                   Fan%Luo%NULL%1,                   Xuechen%Yu%NULL%0,                   Wei%Zhang%NULL%0,                   Jiafu%Li%NULL%0,                   Dongchi%Zhao%NULL%1,                   Dan%Xu%NULL%3,                   Qing%Gong%NULL%1,                   Jing%Liao%NULL%1,                   Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                   Wei%Hou%houwei@whu.edu.cn%0,                   Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,           Liangjun%Chen%xref no email%1,           Qiaoling%Deng%xref no email%0,           Guqin%Zhang%xref no email%1,           Kaisong%Wu%xref no email%1,           Lan%Ni%xref no email%1,           Yibin%Yang%xref no email%1,           Bing%Liu%xref no email%1,           Wei%Wang%xref no email%0,           Chaojie%Wei%xref no email%1,           Jiong%Yang%xref no email%1,           Guangming%Ye%xref no email%1,           Zhenshun%Cheng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                   Hua%Peng%NULL%1,                   Lin%Wang%NULL%3,                   Yin%Zhao%NULL%1,                   Lingkong%Zeng%NULL%1,                   Hui%Gao%NULL%1,                   Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                   Shu-Wan%Jian%NULL%1,                   Ding-Ping%Liu%NULL%1,                   Ta-Chou%Ng%NULL%1,                   Wan-Ting%Huang%NULL%1,                   Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                   Shuk-Ching%Wong%NULL%1,                   Jonathan H. K.%Chen%NULL%1,                   Cyril C. Y.%Yip%NULL%1,                   Vivien W. M.%Chuang%NULL%1,                   Owen T. Y.%Tsang%NULL%1,                   Siddharth%Sridhar%NULL%1,                   Jasper F. W.%Chan%NULL%1,                   Pak-Leung%Ho%NULL%1,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                   Kristen Kelli%Coleman%NULL%2,                   Kristen Kelli%Coleman%NULL%0,                   Yian Kim%Tan%NULL%2,                   Yian Kim%Tan%NULL%0,                   Sean Wei Xiang%Ong%NULL%1,                   Marcus%Gum%NULL%2,                   Marcus%Gum%NULL%0,                   Sok Kiang%Lau%NULL%1,                   Xiao Fang%Lim%NULL%1,                   Ai Sim%Lim%NULL%1,                   Stephanie%Sutjipto%NULL%1,                   Pei Hua%Lee%NULL%1,                   Than The%Son%NULL%1,                   Barnaby Edward%Young%NULL%1,                   Donald K.%Milton%NULL%1,                   Gregory C.%Gray%NULL%2,                   Gregory C.%Gray%NULL%0,                   Stephan%Schuster%NULL%2,                   Stephan%Schuster%NULL%0,                   Timothy%Barkham%NULL%1,                   Partha Pratim%De%NULL%2,                   Partha Pratim%De%NULL%0,                   Shawn%Vasoo%NULL%1,                   Monica%Chan%NULL%1,                   Brenda Sze Peng%Ang%NULL%1,                   Boon Huan%Tan%NULL%1,                   Yee-Sin%Leo%NULL%1,                   Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                   Michelle Su Yen%Wong%NULL%2,                   Michelle Su Yen%Wong%NULL%0,                   Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                   David Chien%Lye%NULL%2,                   David Chien%Lye%NULL%0,                   Poh Lian%Lim%NULL%1,                   Cheng Chuan%Lee%NULL%1,                   Li Min%Ling%NULL%1,                   Lawrence%Lee%NULL%1,                   Tau Hong%Lee%NULL%1,                   Chen Seong%Wong%NULL%1,                   Sapna%Sadarangani%NULL%1,                   Ray Junhao%Lin%NULL%1,                   Deborah Hee Ling%Ng%NULL%1,                   Mucheli%Sadasiv%NULL%1,                   Tsin Wen%Yeo%NULL%1,                   Chiaw Yee%Choy%NULL%1,                   Glorijoy Shi En%Tan%NULL%1,                   Frederico%Dimatatac%NULL%1,                   Isais Florante%Santos%NULL%1,                   Chi Jong%Go%NULL%1,                   Yu Kit%Chan%NULL%1,                   Jun Yang%Tay%NULL%1,                   Jackie Yu-Ling%Tan%NULL%1,                   Nihar%Pandit%NULL%1,                   Benjamin Choon Heng%Ho%NULL%1,                   Shehara%Mendis%NULL%1,                   Yuan Yi Constance%Chen%NULL%1,                   Mohammad Yazid%Abdad%NULL%1,                   Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                   Julie T S%Chu%NULL%1,                   Mahen R A%Perera%NULL%1,                   Kenrie P Y%Hui%NULL%1,                   Hui-Ling%Yen%NULL%1,                   Michael C W%Chan%NULL%1,                   Malik%Peiris%NULL%1,                   Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                   Daniele%Lapa%NULL%2,                   Fabrizio%Carletti%NULL%2,                   Eleonora%Lalle%NULL%2,                   Licia%Bordi%NULL%2,                   Patrizia%Marsella%NULL%2,                   Emanuele%Nicastri%NULL%2,                   Nazario%Bevilacqua%NULL%2,                   Maria Letizia%Giancola%NULL%2,                   Angela%Corpolongo%NULL%2,                   Giuseppe%Ippolito%NULL%2,                   Maria Rosaria%Capobianchi%NULL%2,                   Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                   Daniele%Lapa%NULL%0,                   Fabrizio%Carletti%NULL%0,                   Eleonora%Lalle%NULL%0,                   Licia%Bordi%NULL%0,                   Patrizia%Marsella%NULL%0,                   Emanuele%Nicastri%NULL%0,                   Nazario%Bevilacqua%NULL%0,                   Maria Letizia%Giancola%NULL%0,                   Angela%Corpolongo%NULL%0,                   Giuseppe%Ippolito%NULL%0,                   Maria Rosaria%Capobianchi%NULL%0,                   Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                    Z.% Chen%null%1,                    T.% Wang%null%2,                    J.% Dai%null%1,                    J.% Zhang%null%1,                    T.% Ding%null%1,                    J.% Jiang%null%1,                    J.% Liu%null%1,                    C.% Zhang%null%1,                    W.% Shan%null%1,                    S.% Wang%null%1,                    Y.% Rong%null%1,                    J.% Chang%null%1,                    X.% Miao%null%1,                    X.% Ma%null%1,                    S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,           Jinhua%Tian%xref no email%0,           Songming%He%xref no email%0,           Chuchao%Zhu%xref no email%0,           Jian%Wang%xref no email%0,           Chen%Liu%xref no email%0,           Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,         Tsung-Hao%Liu%null%1,         Thomas%Yau%null%1,         Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                   Yan%Pan%woshipanyan@126.com%1,                   Qingcui%Wu%NULL%1,                   Shan%Liu%NULL%1,                   Xu%Song%NULL%1,                   Zhongguo%Xie%NULL%1,                   Yang%Liu%NULL%1,                   Liang%Zhao%NULL%1,                   Zhonghong%Wang%NULL%1,                   Yifei%Zhang%NULL%1,                   Zuchuang%Wu%NULL%1,                   Lei%Guan%NULL%1,                   Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                   Sadegh%Niazi%NULL%1,                   Kaveh%Sadeghi%NULL%1,                   Kazem%Naddafi%NULL%1,                   Jila%Yavarian%NULL%1,                   Mansour%Shamsipour%NULL%1,                   Nazanin Zahra Shafiei%Jandaghi%NULL%1,                   Khosro%Sadeghniiat%NULL%1,                   Ramin%Nabizadeh%NULL%1,                   Masud%Yunesian%NULL%1,                   Fatemeh%Momeniha%NULL%1,                   Adel%Mokamel%NULL%1,                   Mohammad Sadegh%Hassanvand%NULL%1,                   Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                   Moon-Woo%Seong%NULL%1,                   Eun Young%Heo%NULL%1,                   Ji Hong%Park%NULL%1,                   Namhee%Kim%NULL%1,                   Sue%Shin%NULL%1,                   Sung Im%Cho%NULL%1,                   Sung Sup%Park%NULL%1,                   Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                   Matthew J.%Stuckey%NULL%1,                   Tara%Scheuer%NULL%1,                   Kerui%Xu%NULL%1,                   Kiran M.%Perkins%NULL%1,                   Heather%Resseger%NULL%1,                   Shelley%Magill%NULL%1,                   Jennifer R.%Verani%NULL%1,                   Seema%Jain%NULL%1,                   Meileen%Acosta%NULL%1,                   Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                   Xiuwen%Zhang%NULL%2,                   Xinyue%Zhang%NULL%2,                   Zhijian%Wei%NULL%2,                   Lingli%Zhang%NULL%2,                   Jingjing%Xu%NULL%2,                   Peipei%Liang%NULL%2,                   Yuanhong%Xu%xyhong1964@163.com%0,                   Chengyuan%Zhang%2396476405@qq.com%2,                   Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                   Xiuwen%Zhang%NULL%0,                   Xinyue%Zhang%NULL%0,                   Zhijian%Wei%NULL%0,                   Lingli%Zhang%NULL%0,                   Jingjing%Xu%NULL%0,                   Peipei%Liang%NULL%0,                   Yuanhong%Xu%xyhong1964@163.com%0,                   Chengyuan%Zhang%2396476405@qq.com%0,                   Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                   Juan%Xia%NULL%1,                   Yuxin%Chen%NULL%1,                   Chun%Shan%NULL%1,                   Chao%Wu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                   Rachael%Overcash%NULL%0,                   Neggin%Mokhtari%NULL%0,                   Haleema%Saeed%NULL%0,                   Stacey%Gold%NULL%0,                   Tamika%Auguste%NULL%0,                   Muhammad-Usman%Mirza%NULL%0,                   Maria-Elena%Ruiz%NULL%0,                   Joeffrey J.%Chahine%NULL%0,                   Joeffrey J.%Chahine%NULL%0,                   Masashi%Waga%NULL%0,                   Masashi%Waga%NULL%0,                   Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                   Mei%Luo%NULL%1,                   Zhen%Zou%NULL%1,                   Xu%Wang%875777340@qq.com%1,                   Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                   Jingfu%Qiu%jfqiu@126.com%2,                   Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                   Xiao-Li%Zhang%NULL%1,                   Xiang-Na%Zhao%NULL%1,                   Cun-Bao%Li%NULL%1,                   Jie%Lei%NULL%2,                   Zeng-Qiang%Kou%NULL%1,                   Wen-Kui%Sun%NULL%1,                   Yang%Hang%NULL%1,                   Feng%Gao%NULL%1,                   Sheng-Xiang%Ji%NULL%1,                   Can-Fang%Lin%NULL%1,                   Bo%Pang%NULL%1,                   Ming-Xiao%Yao%NULL%1,                   Benjamin D%Anderson%NULL%1,                   Guo-Lin%Wang%NULL%1,                   Lin%Yao%NULL%1,                   Li-Jun%Duan%NULL%1,                   Dian-Ming%Kang%dmkang66@163.com%1,                   Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                   Lam V%Nguyen%NULL%1,                   Dien M%Tran%NULL%1,                   Hai T%Do%NULL%1,                   Huong T%Tran%NULL%1,                   Yen T%Le%NULL%1,                   Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                   Jihyang%Lee%NULL%0,                   Jihyang%Lee%NULL%0,                   Eunju%Kim%NULL%0,                   Eunju%Kim%NULL%0,                   Kyeongyoon%Woo%NULL%0,                   Kyeongyoon%Woo%NULL%0,                   Hak Youle%Park%NULL%0,                   Hak Youle%Park%NULL%0,                   Jihyun%An%NULL%0,                   Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                   Fang%Ji%NULL%1,                   Liang%Wang%NULL%1,                   Liping%Wang%NULL%1,                   Jungui%Hao%NULL%1,                   Mingjia%Dai%NULL%1,                   Yan%Liu%NULL%0,                   Xiucheng%Pan%NULL%1,                   Juanjuan%Fu%NULL%1,                   Li%Li%NULL%0,                   Guangde%Yang%NULL%1,                   Jianye%Yang%NULL%1,                   Xuebing%Yan%NULL%1,                   Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                   Meiling%Jin%NULL%1,                   Pengtao%Bao%NULL%1,                   Weiguo%Zhao%NULL%1,                   Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                   Lefei%Han%NULL%2,                   Min%Peng%2658706528@qq.com%2,                   Yuxia%Lv%NULL%2,                   Yin%Ouyang%NULL%2,                   Kui%Liu%NULL%0,                   Linli%Yue%NULL%2,                   Qiannan%Li%NULL%2,                   Guoqiang%Sun%NULL%2,                   Lin%Chen%NULL%2,                   Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                   Bo%Zhang%NULL%2,                   Jianhua%Lu%NULL%1,                   Shihua%Liu%NULL%1,                   Zhiqiang%Chang%NULL%1,                   Peng%Cao%NULL%1,                   Xinhua%Liu%NULL%1,                   Peng%Zhang%NULL%2,                   Yan%Ling%NULL%1,                   Kaixiong%Tao%NULL%1,                   Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                   Yingying%Hu%NULL%2,                   Yingying%Hu%NULL%0,                   Yuanyuan%Yu%NULL%1,                   Xiaodong%Zhang%NULL%1,                   Bin%Li%NULL%1,                   Jianguo%Wu%NULL%1,                   Junyu%Li%NULL%1,                   Yingping%Wu%NULL%1,                   Xiaoping%Xia%NULL%2,                   Xiaoping%Xia%NULL%0,                   Huina%Tang%NULL%1,                   Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                    H.% Qian%null%1,                    J.% Hang%null%1,                    X.% Chen%null%1,                    L.% Hong%null%1,                    P.% Liang%null%1,                    J.% Li%null%1,                    S.% Xiao%null%1,                    J.% Wei%null%1,                    L.% Liu%null%2,                    M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Jing%Wang%NULL%3,                   Wenbin%Li%NULL%1,                   Zhaoxian%Zhou%NULL%1,                   Siying%Liu%NULL%1,                   Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3135,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3059,7 +3164,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3088,7 +3193,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3117,7 +3222,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3146,7 +3251,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3175,7 +3280,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3204,7 +3309,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3233,7 +3338,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3262,7 +3367,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3291,7 +3396,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3320,7 +3425,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3349,7 +3454,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3378,7 +3483,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3407,7 +3512,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3436,7 +3541,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3465,7 +3570,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3494,7 +3599,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3523,7 +3628,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3581,7 +3686,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3610,7 +3715,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3639,7 +3744,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3668,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3697,7 +3802,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3726,7 +3831,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3755,7 +3860,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3784,7 +3889,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3842,7 +3947,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3871,7 +3976,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3900,7 +4005,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -3929,7 +4034,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -3958,7 +4063,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -3987,7 +4092,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>782</v>
+        <v>817</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4016,7 +4121,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>783</v>
+        <v>818</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -4045,7 +4150,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -4074,7 +4179,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -4103,7 +4208,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="862">
   <si>
     <t>Doi</t>
   </si>
@@ -2725,6 +2725,126 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                   Jing%Wang%NULL%3,                   Wenbin%Li%NULL%1,                   Zhaoxian%Zhou%NULL%1,                   Siying%Liu%NULL%1,                   Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                    Tania%Paredes%NULL%0,                    Tania%Paredes%NULL%0,                    David%Caceres%NULL%0,                    Camille M.%Webb%NULL%0,                    Luis M.%Valdez%NULL%0,                    Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                    Claire M.%Midgley%NULL%1,                    Alissa%Dratch%NULL%1,                    Marty%Fenstersheib%NULL%1,                    Thomas%Haupt%NULL%1,                    Michelle%Holshue%NULL%1,                    Isaac%Ghinai%NULL%1,                    M. Claire%Jarashow%NULL%1,                    Jennifer%Lo%NULL%1,                    Tristan D.%McPherson%NULL%1,                    Sara%Rudman%NULL%1,                    Sarah%Scott%NULL%1,                    Aron J.%Hall%NULL%1,                    Alicia M.%Fry%NULL%1,                    Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                    Wenjie%Sun%NULL%1,                    Jianping%Huang%NULL%1,                    Michelle%Gamber%NULL%1,                    Jing%Wu%NULL%2,                    Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                    Shuofeng%Yuan%NULL%1,                    Kin-Hang%Kok%NULL%1,                    Kelvin Kai-Wang%To%NULL%1,                    Hin%Chu%NULL%1,                    Jin%Yang%NULL%1,                    Fanfan%Xing%NULL%1,                    Jieling%Liu%NULL%1,                    Cyril Chik-Yan%Yip%NULL%2,                    Rosana Wing-Shan%Poon%NULL%2,                    Hoi-Wah%Tsoi%NULL%1,                    Simon Kam-Fai%Lo%NULL%1,                    Kwok-Hung%Chan%NULL%2,                    Vincent Kwok-Man%Poon%NULL%1,                    Wan-Mui%Chan%NULL%2,                    Jonathan Daniel%Ip%NULL%2,                    Jian-Piao%Cai%NULL%2,                    Vincent Chi-Chung%Cheng%NULL%2,                    Honglin%Chen%NULL%2,                    Christopher Kim-Ming%Hui%NULL%1,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                    Juanjuan%Guo%NULL%0,                    Chen%Wang%NULL%0,                    Fan%Luo%NULL%1,                    Xuechen%Yu%NULL%0,                    Wei%Zhang%NULL%0,                    Jiafu%Li%NULL%0,                    Dongchi%Zhao%NULL%1,                    Dan%Xu%NULL%3,                    Qing%Gong%NULL%1,                    Jing%Liao%NULL%1,                    Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                    Wei%Hou%houwei@whu.edu.cn%0,                    Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,            Liangjun%Chen%xref no email%1,            Qiaoling%Deng%xref no email%0,            Guqin%Zhang%xref no email%1,            Kaisong%Wu%xref no email%1,            Lan%Ni%xref no email%1,            Yibin%Yang%xref no email%1,            Bing%Liu%xref no email%1,            Wei%Wang%xref no email%0,            Chaojie%Wei%xref no email%1,            Jiong%Yang%xref no email%1,            Guangming%Ye%xref no email%1,            Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                    Hua%Peng%NULL%1,                    Lin%Wang%NULL%3,                    Yin%Zhao%NULL%1,                    Lingkong%Zeng%NULL%1,                    Hui%Gao%NULL%1,                    Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                    Shu-Wan%Jian%NULL%1,                    Ding-Ping%Liu%NULL%1,                    Ta-Chou%Ng%NULL%1,                    Wan-Ting%Huang%NULL%1,                    Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                    Shuk-Ching%Wong%NULL%1,                    Jonathan H. K.%Chen%NULL%1,                    Cyril C. Y.%Yip%NULL%1,                    Vivien W. M.%Chuang%NULL%1,                    Owen T. Y.%Tsang%NULL%1,                    Siddharth%Sridhar%NULL%1,                    Jasper F. W.%Chan%NULL%1,                    Pak-Leung%Ho%NULL%1,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                    Kristen Kelli%Coleman%NULL%2,                    Kristen Kelli%Coleman%NULL%0,                    Yian Kim%Tan%NULL%2,                    Yian Kim%Tan%NULL%0,                    Sean Wei Xiang%Ong%NULL%1,                    Marcus%Gum%NULL%2,                    Marcus%Gum%NULL%0,                    Sok Kiang%Lau%NULL%1,                    Xiao Fang%Lim%NULL%1,                    Ai Sim%Lim%NULL%1,                    Stephanie%Sutjipto%NULL%1,                    Pei Hua%Lee%NULL%1,                    Than The%Son%NULL%1,                    Barnaby Edward%Young%NULL%1,                    Donald K.%Milton%NULL%1,                    Gregory C.%Gray%NULL%2,                    Gregory C.%Gray%NULL%0,                    Stephan%Schuster%NULL%2,                    Stephan%Schuster%NULL%0,                    Timothy%Barkham%NULL%1,                    Partha Pratim%De%NULL%2,                    Partha Pratim%De%NULL%0,                    Shawn%Vasoo%NULL%1,                    Monica%Chan%NULL%1,                    Brenda Sze Peng%Ang%NULL%1,                    Boon Huan%Tan%NULL%1,                    Yee-Sin%Leo%NULL%1,                    Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                    Michelle Su Yen%Wong%NULL%2,                    Michelle Su Yen%Wong%NULL%0,                    Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                    David Chien%Lye%NULL%2,                    David Chien%Lye%NULL%0,                    Poh Lian%Lim%NULL%1,                    Cheng Chuan%Lee%NULL%1,                    Li Min%Ling%NULL%1,                    Lawrence%Lee%NULL%1,                    Tau Hong%Lee%NULL%1,                    Chen Seong%Wong%NULL%1,                    Sapna%Sadarangani%NULL%1,                    Ray Junhao%Lin%NULL%1,                    Deborah Hee Ling%Ng%NULL%1,                    Mucheli%Sadasiv%NULL%1,                    Tsin Wen%Yeo%NULL%1,                    Chiaw Yee%Choy%NULL%1,                    Glorijoy Shi En%Tan%NULL%1,                    Frederico%Dimatatac%NULL%1,                    Isais Florante%Santos%NULL%1,                    Chi Jong%Go%NULL%1,                    Yu Kit%Chan%NULL%1,                    Jun Yang%Tay%NULL%1,                    Jackie Yu-Ling%Tan%NULL%1,                    Nihar%Pandit%NULL%1,                    Benjamin Choon Heng%Ho%NULL%1,                    Shehara%Mendis%NULL%1,                    Yuan Yi Constance%Chen%NULL%1,                    Mohammad Yazid%Abdad%NULL%1,                    Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                    Julie T S%Chu%NULL%1,                    Mahen R A%Perera%NULL%1,                    Kenrie P Y%Hui%NULL%1,                    Hui-Ling%Yen%NULL%1,                    Michael C W%Chan%NULL%1,                    Malik%Peiris%NULL%1,                    Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                    Daniele%Lapa%NULL%2,                    Fabrizio%Carletti%NULL%2,                    Eleonora%Lalle%NULL%2,                    Licia%Bordi%NULL%2,                    Patrizia%Marsella%NULL%2,                    Emanuele%Nicastri%NULL%2,                    Nazario%Bevilacqua%NULL%2,                    Maria Letizia%Giancola%NULL%2,                    Angela%Corpolongo%NULL%2,                    Giuseppe%Ippolito%NULL%2,                    Maria Rosaria%Capobianchi%NULL%2,                    Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                    Daniele%Lapa%NULL%0,                    Fabrizio%Carletti%NULL%0,                    Eleonora%Lalle%NULL%0,                    Licia%Bordi%NULL%0,                    Patrizia%Marsella%NULL%0,                    Emanuele%Nicastri%NULL%0,                    Nazario%Bevilacqua%NULL%0,                    Maria Letizia%Giancola%NULL%0,                    Angela%Corpolongo%NULL%0,                    Giuseppe%Ippolito%NULL%0,                    Maria Rosaria%Capobianchi%NULL%0,                    Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                     Z.% Chen%null%1,                     T.% Wang%null%2,                     J.% Dai%null%1,                     J.% Zhang%null%1,                     T.% Ding%null%1,                     J.% Jiang%null%1,                     J.% Liu%null%1,                     C.% Zhang%null%1,                     W.% Shan%null%1,                     S.% Wang%null%1,                     Y.% Rong%null%1,                     J.% Chang%null%1,                     X.% Miao%null%1,                     X.% Ma%null%1,                     S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,            Jinhua%Tian%xref no email%0,            Songming%He%xref no email%0,            Chuchao%Zhu%xref no email%0,            Jian%Wang%xref no email%0,            Chen%Liu%xref no email%0,            Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,          Tsung-Hao%Liu%null%1,          Thomas%Yau%null%1,          Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                    Yan%Pan%woshipanyan@126.com%1,                    Qingcui%Wu%NULL%1,                    Shan%Liu%NULL%1,                    Xu%Song%NULL%1,                    Zhongguo%Xie%NULL%1,                    Yang%Liu%NULL%1,                    Liang%Zhao%NULL%1,                    Zhonghong%Wang%NULL%1,                    Yifei%Zhang%NULL%1,                    Zuchuang%Wu%NULL%1,                    Lei%Guan%NULL%1,                    Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                    Sadegh%Niazi%NULL%1,                    Kaveh%Sadeghi%NULL%1,                    Kazem%Naddafi%NULL%1,                    Jila%Yavarian%NULL%1,                    Mansour%Shamsipour%NULL%1,                    Nazanin Zahra Shafiei%Jandaghi%NULL%1,                    Khosro%Sadeghniiat%NULL%1,                    Ramin%Nabizadeh%NULL%1,                    Masud%Yunesian%NULL%1,                    Fatemeh%Momeniha%NULL%1,                    Adel%Mokamel%NULL%1,                    Mohammad Sadegh%Hassanvand%NULL%1,                    Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                    Moon-Woo%Seong%NULL%1,                    Eun Young%Heo%NULL%1,                    Ji Hong%Park%NULL%1,                    Namhee%Kim%NULL%1,                    Sue%Shin%NULL%1,                    Sung Im%Cho%NULL%1,                    Sung Sup%Park%NULL%1,                    Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                    Matthew J.%Stuckey%NULL%1,                    Tara%Scheuer%NULL%1,                    Kerui%Xu%NULL%1,                    Kiran M.%Perkins%NULL%1,                    Heather%Resseger%NULL%1,                    Shelley%Magill%NULL%1,                    Jennifer R.%Verani%NULL%1,                    Seema%Jain%NULL%1,                    Meileen%Acosta%NULL%1,                    Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%3,                    Xiuwen%Zhang%NULL%2,                    Xinyue%Zhang%NULL%2,                    Zhijian%Wei%NULL%2,                    Lingli%Zhang%NULL%2,                    Jingjing%Xu%NULL%2,                    Peipei%Liang%NULL%2,                    Yuanhong%Xu%xyhong1964@163.com%0,                    Chengyuan%Zhang%2396476405@qq.com%2,                    Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                    Xiuwen%Zhang%NULL%0,                    Xinyue%Zhang%NULL%0,                    Zhijian%Wei%NULL%0,                    Lingli%Zhang%NULL%0,                    Jingjing%Xu%NULL%0,                    Peipei%Liang%NULL%0,                    Yuanhong%Xu%xyhong1964@163.com%0,                    Chengyuan%Zhang%2396476405@qq.com%0,                    Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                    Juan%Xia%NULL%1,                    Yuxin%Chen%NULL%1,                    Chun%Shan%NULL%1,                    Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                    Rachael%Overcash%NULL%0,                    Neggin%Mokhtari%NULL%0,                    Haleema%Saeed%NULL%0,                    Stacey%Gold%NULL%0,                    Tamika%Auguste%NULL%0,                    Muhammad-Usman%Mirza%NULL%0,                    Maria-Elena%Ruiz%NULL%0,                    Joeffrey J.%Chahine%NULL%0,                    Joeffrey J.%Chahine%NULL%0,                    Masashi%Waga%NULL%0,                    Masashi%Waga%NULL%0,                    Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                    Mei%Luo%NULL%1,                    Zhen%Zou%NULL%1,                    Xu%Wang%875777340@qq.com%1,                    Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                    Jingfu%Qiu%jfqiu@126.com%2,                    Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                    Xiao-Li%Zhang%NULL%1,                    Xiang-Na%Zhao%NULL%1,                    Cun-Bao%Li%NULL%1,                    Jie%Lei%NULL%2,                    Zeng-Qiang%Kou%NULL%1,                    Wen-Kui%Sun%NULL%1,                    Yang%Hang%NULL%1,                    Feng%Gao%NULL%1,                    Sheng-Xiang%Ji%NULL%1,                    Can-Fang%Lin%NULL%1,                    Bo%Pang%NULL%1,                    Ming-Xiao%Yao%NULL%1,                    Benjamin D%Anderson%NULL%1,                    Guo-Lin%Wang%NULL%1,                    Lin%Yao%NULL%1,                    Li-Jun%Duan%NULL%1,                    Dian-Ming%Kang%dmkang66@163.com%1,                    Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                    Lam V%Nguyen%NULL%1,                    Dien M%Tran%NULL%1,                    Hai T%Do%NULL%1,                    Huong T%Tran%NULL%1,                    Yen T%Le%NULL%1,                    Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                    Jihyang%Lee%NULL%0,                    Jihyang%Lee%NULL%0,                    Eunju%Kim%NULL%0,                    Eunju%Kim%NULL%0,                    Kyeongyoon%Woo%NULL%0,                    Kyeongyoon%Woo%NULL%0,                    Hak Youle%Park%NULL%0,                    Hak Youle%Park%NULL%0,                    Jihyun%An%NULL%0,                    Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                    Fang%Ji%NULL%1,                    Liang%Wang%NULL%1,                    Liping%Wang%NULL%1,                    Jungui%Hao%NULL%1,                    Mingjia%Dai%NULL%1,                    Yan%Liu%NULL%0,                    Xiucheng%Pan%NULL%1,                    Juanjuan%Fu%NULL%1,                    Li%Li%NULL%0,                    Guangde%Yang%NULL%1,                    Jianye%Yang%NULL%1,                    Xuebing%Yan%NULL%1,                    Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                    Meiling%Jin%NULL%1,                    Pengtao%Bao%NULL%1,                    Weiguo%Zhao%NULL%1,                    Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                    Lefei%Han%NULL%2,                    Min%Peng%2658706528@qq.com%2,                    Yuxia%Lv%NULL%2,                    Yin%Ouyang%NULL%2,                    Kui%Liu%NULL%0,                    Linli%Yue%NULL%2,                    Qiannan%Li%NULL%2,                    Guoqiang%Sun%NULL%2,                    Lin%Chen%NULL%2,                    Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                    Bo%Zhang%NULL%2,                    Jianhua%Lu%NULL%1,                    Shihua%Liu%NULL%1,                    Zhiqiang%Chang%NULL%1,                    Peng%Cao%NULL%1,                    Xinhua%Liu%NULL%1,                    Peng%Zhang%NULL%2,                    Yan%Ling%NULL%1,                    Kaixiong%Tao%NULL%1,                    Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                    Yingying%Hu%NULL%2,                    Yingying%Hu%NULL%0,                    Yuanyuan%Yu%NULL%1,                    Xiaodong%Zhang%NULL%1,                    Bin%Li%NULL%1,                    Jianguo%Wu%NULL%1,                    Junyu%Li%NULL%1,                    Yingping%Wu%NULL%1,                    Xiaoping%Xia%NULL%2,                    Xiaoping%Xia%NULL%0,                    Huina%Tang%NULL%1,                    Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                     H.% Qian%null%1,                     J.% Hang%null%1,                     X.% Chen%null%1,                     L.% Hong%null%1,                     P.% Liang%null%1,                     J.% Li%null%1,                     S.% Xiao%null%1,                     J.% Wei%null%1,                     L.% Liu%null%2,                     M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Jing%Wang%NULL%3,                    Wenbin%Li%NULL%1,                    Zhaoxian%Zhou%NULL%1,                    Siying%Liu%NULL%1,                    Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3135,7 +3255,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3147,7 +3267,7 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3">
@@ -3164,7 +3284,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3176,7 +3296,7 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
@@ -3193,7 +3313,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3205,7 +3325,7 @@
         <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5">
@@ -3222,7 +3342,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3234,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6">
@@ -3251,7 +3371,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3263,7 +3383,7 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7">
@@ -3280,7 +3400,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3292,7 +3412,7 @@
         <v>440</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8">
@@ -3309,7 +3429,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>831</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3321,7 +3441,7 @@
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9">
@@ -3338,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>794</v>
+        <v>832</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3350,7 +3470,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10">
@@ -3367,7 +3487,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>795</v>
+        <v>833</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3379,7 +3499,7 @@
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11">
@@ -3396,7 +3516,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>796</v>
+        <v>834</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3408,7 +3528,7 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12">
@@ -3425,7 +3545,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3437,7 +3557,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13">
@@ -3454,7 +3574,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3466,7 +3586,7 @@
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14">
@@ -3483,7 +3603,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3495,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15">
@@ -3512,7 +3632,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3524,7 +3644,7 @@
         <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>308</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16">
@@ -3541,7 +3661,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3553,7 +3673,7 @@
         <v>451</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17">
@@ -3570,7 +3690,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>842</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3582,7 +3702,7 @@
         <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18">
@@ -3599,7 +3719,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3611,7 +3731,7 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19">
@@ -3628,7 +3748,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>804</v>
+        <v>844</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3640,7 +3760,7 @@
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20">
@@ -3686,7 +3806,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3698,7 +3818,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22">
@@ -3715,7 +3835,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3727,7 +3847,7 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23">
@@ -3744,7 +3864,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3756,7 +3876,7 @@
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24">
@@ -3773,7 +3893,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>808</v>
+        <v>848</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3785,7 +3905,7 @@
         <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25">
@@ -3802,7 +3922,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3814,7 +3934,7 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26">
@@ -3831,7 +3951,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3843,7 +3963,7 @@
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27">
@@ -3860,7 +3980,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>811</v>
+        <v>851</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -3872,7 +3992,7 @@
         <v>140</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28">
@@ -3889,7 +4009,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>812</v>
+        <v>852</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -3901,7 +4021,7 @@
         <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29">
@@ -3930,7 +4050,7 @@
         <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30">
@@ -3947,7 +4067,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>813</v>
+        <v>853</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3959,7 +4079,7 @@
         <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31">
@@ -3976,7 +4096,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -3988,7 +4108,7 @@
         <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32">
@@ -4005,7 +4125,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -4017,7 +4137,7 @@
         <v>157</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33">
@@ -4034,7 +4154,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -4046,7 +4166,7 @@
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34">
@@ -4063,7 +4183,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -4075,7 +4195,7 @@
         <v>167</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="35">
@@ -4092,7 +4212,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>817</v>
+        <v>857</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4104,7 +4224,7 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="36">
@@ -4121,7 +4241,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>818</v>
+        <v>858</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -4133,7 +4253,7 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37">
@@ -4150,7 +4270,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>819</v>
+        <v>859</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -4162,7 +4282,7 @@
         <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38">
@@ -4179,7 +4299,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -4191,7 +4311,7 @@
         <v>184</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39">
@@ -4208,7 +4328,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
@@ -4220,7 +4340,7 @@
         <v>189</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40">

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="897">
   <si>
     <t>Doi</t>
   </si>
@@ -2845,6 +2845,111 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                    Jing%Wang%NULL%3,                    Wenbin%Li%NULL%1,                    Zhaoxian%Zhou%NULL%1,                    Siying%Liu%NULL%1,                    Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                     Tania%Paredes%NULL%0,                     Tania%Paredes%NULL%0,                     David%Caceres%NULL%0,                     Camille M.%Webb%NULL%0,                     Luis M.%Valdez%NULL%0,                     Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                     Claire M.%Midgley%NULL%1,                     Alissa%Dratch%NULL%1,                     Marty%Fenstersheib%NULL%1,                     Thomas%Haupt%NULL%1,                     Michelle%Holshue%NULL%1,                     Isaac%Ghinai%NULL%1,                     M. Claire%Jarashow%NULL%1,                     Jennifer%Lo%NULL%1,                     Tristan D.%McPherson%NULL%1,                     Sara%Rudman%NULL%1,                     Sarah%Scott%NULL%1,                     Aron J.%Hall%NULL%1,                     Alicia M.%Fry%NULL%1,                     Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                     Wenjie%Sun%NULL%1,                     Jianping%Huang%NULL%1,                     Michelle%Gamber%NULL%1,                     Jing%Wu%NULL%2,                     Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                     Shuofeng%Yuan%NULL%1,                     Kin-Hang%Kok%NULL%1,                     Kelvin Kai-Wang%To%NULL%1,                     Hin%Chu%NULL%1,                     Jin%Yang%NULL%1,                     Fanfan%Xing%NULL%1,                     Jieling%Liu%NULL%1,                     Cyril Chik-Yan%Yip%NULL%2,                     Rosana Wing-Shan%Poon%NULL%2,                     Hoi-Wah%Tsoi%NULL%1,                     Simon Kam-Fai%Lo%NULL%1,                     Kwok-Hung%Chan%NULL%2,                     Vincent Kwok-Man%Poon%NULL%1,                     Wan-Mui%Chan%NULL%2,                     Jonathan Daniel%Ip%NULL%2,                     Jian-Piao%Cai%NULL%2,                     Vincent Chi-Chung%Cheng%NULL%2,                     Honglin%Chen%NULL%2,                     Christopher Kim-Ming%Hui%NULL%1,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                     Juanjuan%Guo%NULL%0,                     Chen%Wang%NULL%0,                     Fan%Luo%NULL%1,                     Xuechen%Yu%NULL%0,                     Wei%Zhang%NULL%0,                     Jiafu%Li%NULL%0,                     Dongchi%Zhao%NULL%1,                     Dan%Xu%NULL%3,                     Qing%Gong%NULL%1,                     Jing%Liao%NULL%1,                     Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                     Wei%Hou%houwei@whu.edu.cn%0,                     Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%1,             Liangjun%Chen%xref no email%1,             Qiaoling%Deng%xref no email%0,             Guqin%Zhang%xref no email%1,             Kaisong%Wu%xref no email%1,             Lan%Ni%xref no email%1,             Yibin%Yang%xref no email%1,             Bing%Liu%xref no email%1,             Wei%Wang%xref no email%0,             Chaojie%Wei%xref no email%1,             Jiong%Yang%xref no email%1,             Guangming%Ye%xref no email%1,             Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                     Hua%Peng%NULL%1,                     Lin%Wang%NULL%3,                     Yin%Zhao%NULL%1,                     Lingkong%Zeng%NULL%1,                     Hui%Gao%NULL%1,                     Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                     Shu-Wan%Jian%NULL%1,                     Ding-Ping%Liu%NULL%1,                     Ta-Chou%Ng%NULL%1,                     Wan-Ting%Huang%NULL%1,                     Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                     Shuk-Ching%Wong%NULL%1,                     Jonathan H. K.%Chen%NULL%1,                     Cyril C. Y.%Yip%NULL%1,                     Vivien W. M.%Chuang%NULL%1,                     Owen T. Y.%Tsang%NULL%1,                     Siddharth%Sridhar%NULL%1,                     Jasper F. W.%Chan%NULL%1,                     Pak-Leung%Ho%NULL%1,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                     Kristen Kelli%Coleman%NULL%2,                     Kristen Kelli%Coleman%NULL%0,                     Yian Kim%Tan%NULL%2,                     Yian Kim%Tan%NULL%0,                     Sean Wei Xiang%Ong%NULL%1,                     Marcus%Gum%NULL%2,                     Marcus%Gum%NULL%0,                     Sok Kiang%Lau%NULL%1,                     Xiao Fang%Lim%NULL%1,                     Ai Sim%Lim%NULL%1,                     Stephanie%Sutjipto%NULL%1,                     Pei Hua%Lee%NULL%1,                     Than The%Son%NULL%1,                     Barnaby Edward%Young%NULL%1,                     Donald K.%Milton%NULL%1,                     Gregory C.%Gray%NULL%2,                     Gregory C.%Gray%NULL%0,                     Stephan%Schuster%NULL%2,                     Stephan%Schuster%NULL%0,                     Timothy%Barkham%NULL%1,                     Partha Pratim%De%NULL%2,                     Partha Pratim%De%NULL%0,                     Shawn%Vasoo%NULL%1,                     Monica%Chan%NULL%1,                     Brenda Sze Peng%Ang%NULL%1,                     Boon Huan%Tan%NULL%1,                     Yee-Sin%Leo%NULL%1,                     Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                     Michelle Su Yen%Wong%NULL%2,                     Michelle Su Yen%Wong%NULL%0,                     Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                     David Chien%Lye%NULL%2,                     David Chien%Lye%NULL%0,                     Poh Lian%Lim%NULL%1,                     Cheng Chuan%Lee%NULL%1,                     Li Min%Ling%NULL%1,                     Lawrence%Lee%NULL%1,                     Tau Hong%Lee%NULL%1,                     Chen Seong%Wong%NULL%1,                     Sapna%Sadarangani%NULL%1,                     Ray Junhao%Lin%NULL%1,                     Deborah Hee Ling%Ng%NULL%1,                     Mucheli%Sadasiv%NULL%1,                     Tsin Wen%Yeo%NULL%1,                     Chiaw Yee%Choy%NULL%1,                     Glorijoy Shi En%Tan%NULL%1,                     Frederico%Dimatatac%NULL%1,                     Isais Florante%Santos%NULL%1,                     Chi Jong%Go%NULL%1,                     Yu Kit%Chan%NULL%1,                     Jun Yang%Tay%NULL%1,                     Jackie Yu-Ling%Tan%NULL%1,                     Nihar%Pandit%NULL%1,                     Benjamin Choon Heng%Ho%NULL%1,                     Shehara%Mendis%NULL%1,                     Yuan Yi Constance%Chen%NULL%1,                     Mohammad Yazid%Abdad%NULL%1,                     Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                     Julie T S%Chu%NULL%1,                     Mahen R A%Perera%NULL%1,                     Kenrie P Y%Hui%NULL%1,                     Hui-Ling%Yen%NULL%1,                     Michael C W%Chan%NULL%1,                     Malik%Peiris%NULL%1,                     Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                     Daniele%Lapa%NULL%2,                     Fabrizio%Carletti%NULL%2,                     Eleonora%Lalle%NULL%2,                     Licia%Bordi%NULL%2,                     Patrizia%Marsella%NULL%2,                     Emanuele%Nicastri%NULL%2,                     Nazario%Bevilacqua%NULL%2,                     Maria Letizia%Giancola%NULL%2,                     Angela%Corpolongo%NULL%2,                     Giuseppe%Ippolito%NULL%2,                     Maria Rosaria%Capobianchi%NULL%2,                     Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                     Daniele%Lapa%NULL%0,                     Fabrizio%Carletti%NULL%0,                     Eleonora%Lalle%NULL%0,                     Licia%Bordi%NULL%0,                     Patrizia%Marsella%NULL%0,                     Emanuele%Nicastri%NULL%0,                     Nazario%Bevilacqua%NULL%0,                     Maria Letizia%Giancola%NULL%0,                     Angela%Corpolongo%NULL%0,                     Giuseppe%Ippolito%NULL%0,                     Maria Rosaria%Capobianchi%NULL%0,                     Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%2,                      Z.% Chen%null%1,                      T.% Wang%null%2,                      J.% Dai%null%1,                      J.% Zhang%null%1,                      T.% Ding%null%1,                      J.% Jiang%null%1,                      J.% Liu%null%1,                      C.% Zhang%null%1,                      W.% Shan%null%1,                      S.% Wang%null%1,                      Y.% Rong%null%1,                      J.% Chang%null%1,                      X.% Miao%null%1,                      X.% Ma%null%1,                      S. % Wang%null%1,  P.%Cui%null%0,  Z.% Chen%null%1,  T.% Wang%null%2,  J.% Dai%null%1,  J.% Zhang%null%0,  T.% Ding%null%1,  J.% Jiang%null%0,  J.% Liu%null%0,  C.% Zhang%null%1,  W.% Shan%null%1,  S.% Wang%null%1,  Y.% Rong%null%1,  J.% Chang%null%1,  X.% Miao%null%1,  X.% Ma%null%0,  S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Dong%xref no email%0,             Jinhua%Tian%xref no email%0,             Songming%He%xref no email%0,             Chuchao%Zhu%xref no email%0,             Jian%Wang%xref no email%0,             Chen%Liu%xref no email%0,             Jing%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,           Tsung-Hao%Liu%null%1,           Thomas%Yau%null%1,           Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                     Yan%Pan%woshipanyan@126.com%1,                     Qingcui%Wu%NULL%1,                     Shan%Liu%NULL%1,                     Xu%Song%NULL%1,                     Zhongguo%Xie%NULL%1,                     Yang%Liu%NULL%1,                     Liang%Zhao%NULL%1,                     Zhonghong%Wang%NULL%1,                     Yifei%Zhang%NULL%1,                     Zuchuang%Wu%NULL%1,                     Lei%Guan%NULL%1,                     Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                     Sadegh%Niazi%NULL%1,                     Kaveh%Sadeghi%NULL%1,                     Kazem%Naddafi%NULL%1,                     Jila%Yavarian%NULL%1,                     Mansour%Shamsipour%NULL%1,                     Nazanin Zahra Shafiei%Jandaghi%NULL%1,                     Khosro%Sadeghniiat%NULL%1,                     Ramin%Nabizadeh%NULL%1,                     Masud%Yunesian%NULL%1,                     Fatemeh%Momeniha%NULL%1,                     Adel%Mokamel%NULL%1,                     Mohammad Sadegh%Hassanvand%NULL%1,                     Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                     Moon-Woo%Seong%NULL%1,                     Eun Young%Heo%NULL%1,                     Ji Hong%Park%NULL%1,                     Namhee%Kim%NULL%1,                     Sue%Shin%NULL%1,                     Sung Im%Cho%NULL%1,                     Sung Sup%Park%NULL%1,                     Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                     Matthew J.%Stuckey%NULL%1,                     Tara%Scheuer%NULL%1,                     Kerui%Xu%NULL%1,                     Kiran M.%Perkins%NULL%1,                     Heather%Resseger%NULL%1,                     Shelley%Magill%NULL%1,                     Jennifer R.%Verani%NULL%1,                     Seema%Jain%NULL%1,                     Meileen%Acosta%NULL%1,                     Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                     Xiuwen%Zhang%NULL%2,                     Xinyue%Zhang%NULL%2,                     Zhijian%Wei%NULL%2,                     Lingli%Zhang%NULL%2,                     Jingjing%Xu%NULL%2,                     Peipei%Liang%NULL%2,                     Yuanhong%Xu%xyhong1964@163.com%0,                     Chengyuan%Zhang%2396476405@qq.com%2,                     Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                     Xiuwen%Zhang%NULL%0,                     Xinyue%Zhang%NULL%0,                     Zhijian%Wei%NULL%0,                     Lingli%Zhang%NULL%0,                     Jingjing%Xu%NULL%0,                     Peipei%Liang%NULL%0,                     Yuanhong%Xu%xyhong1964@163.com%0,                     Chengyuan%Zhang%2396476405@qq.com%0,                     Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                     Juan%Xia%NULL%1,                     Yuxin%Chen%NULL%1,                     Chun%Shan%NULL%1,                     Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                     Rachael%Overcash%NULL%0,                     Neggin%Mokhtari%NULL%0,                     Haleema%Saeed%NULL%0,                     Stacey%Gold%NULL%0,                     Tamika%Auguste%NULL%0,                     Muhammad-Usman%Mirza%NULL%0,                     Maria-Elena%Ruiz%NULL%0,                     Joeffrey J.%Chahine%NULL%0,                     Joeffrey J.%Chahine%NULL%0,                     Masashi%Waga%NULL%0,                     Masashi%Waga%NULL%0,                     Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                     Mei%Luo%NULL%1,                     Zhen%Zou%NULL%1,                     Xu%Wang%875777340@qq.com%1,                     Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                     Jingfu%Qiu%jfqiu@126.com%2,                     Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                     Xiao-Li%Zhang%NULL%1,                     Xiang-Na%Zhao%NULL%1,                     Cun-Bao%Li%NULL%1,                     Jie%Lei%NULL%2,                     Zeng-Qiang%Kou%NULL%1,                     Wen-Kui%Sun%NULL%1,                     Yang%Hang%NULL%1,                     Feng%Gao%NULL%1,                     Sheng-Xiang%Ji%NULL%1,                     Can-Fang%Lin%NULL%1,                     Bo%Pang%NULL%1,                     Ming-Xiao%Yao%NULL%1,                     Benjamin D%Anderson%NULL%1,                     Guo-Lin%Wang%NULL%1,                     Lin%Yao%NULL%1,                     Li-Jun%Duan%NULL%1,                     Dian-Ming%Kang%dmkang66@163.com%1,                     Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                     Lam V%Nguyen%NULL%1,                     Dien M%Tran%NULL%1,                     Hai T%Do%NULL%1,                     Huong T%Tran%NULL%1,                     Yen T%Le%NULL%1,                     Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                     Jihyang%Lee%NULL%0,                     Jihyang%Lee%NULL%0,                     Eunju%Kim%NULL%0,                     Eunju%Kim%NULL%0,                     Kyeongyoon%Woo%NULL%0,                     Kyeongyoon%Woo%NULL%0,                     Hak Youle%Park%NULL%0,                     Hak Youle%Park%NULL%0,                     Jihyun%An%NULL%0,                     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                     Fang%Ji%NULL%1,                     Liang%Wang%NULL%1,                     Liping%Wang%NULL%1,                     Jungui%Hao%NULL%1,                     Mingjia%Dai%NULL%1,                     Yan%Liu%NULL%0,                     Xiucheng%Pan%NULL%1,                     Juanjuan%Fu%NULL%1,                     Li%Li%NULL%0,                     Guangde%Yang%NULL%1,                     Jianye%Yang%NULL%1,                     Xuebing%Yan%NULL%1,                     Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                     Meiling%Jin%NULL%1,                     Pengtao%Bao%NULL%1,                     Weiguo%Zhao%NULL%1,                     Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                     Lefei%Han%NULL%2,                     Min%Peng%2658706528@qq.com%2,                     Yuxia%Lv%NULL%2,                     Yin%Ouyang%NULL%2,                     Kui%Liu%NULL%0,                     Linli%Yue%NULL%2,                     Qiannan%Li%NULL%2,                     Guoqiang%Sun%NULL%2,                     Lin%Chen%NULL%2,                     Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                     Bo%Zhang%NULL%2,                     Jianhua%Lu%NULL%1,                     Shihua%Liu%NULL%1,                     Zhiqiang%Chang%NULL%1,                     Peng%Cao%NULL%1,                     Xinhua%Liu%NULL%1,                     Peng%Zhang%NULL%2,                     Yan%Ling%NULL%1,                     Kaixiong%Tao%NULL%1,                     Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                     Yingying%Hu%NULL%2,                     Yingying%Hu%NULL%0,                     Yuanyuan%Yu%NULL%1,                     Xiaodong%Zhang%NULL%1,                     Bin%Li%NULL%1,                     Jianguo%Wu%NULL%1,                     Junyu%Li%NULL%1,                     Yingping%Wu%NULL%1,                     Xiaoping%Xia%NULL%2,                     Xiaoping%Xia%NULL%0,                     Huina%Tang%NULL%1,                     Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%2,                      H.% Qian%null%1,                      J.% Hang%null%1,                      X.% Chen%null%1,                      L.% Hong%null%1,                      P.% Liang%null%1,                      J.% Li%null%1,                      S.% Xiao%null%1,                      J.% Wei%null%1,                      L.% Liu%null%2,                      M. % Kang%null%1,  Y.%Li%null%0,  H.% Qian%null%1,  J.% Hang%null%1,  X.% Chen%null%0,  L.% Hong%null%1,  P.% Liang%null%1,  J.% Li%null%0,  S.% Xiao%null%1,  J.% Wei%null%1,  L.% Liu%null%2,  M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Jing%Wang%NULL%3,                     Wenbin%Li%NULL%1,                     Zhaoxian%Zhou%NULL%1,                     Siying%Liu%NULL%1,                     Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3255,7 +3360,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>822</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3284,7 +3389,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3313,7 +3418,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3342,7 +3447,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3371,7 +3476,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>828</v>
+        <v>866</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3400,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>829</v>
+        <v>867</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3429,7 +3534,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3458,7 +3563,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3487,7 +3592,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3516,7 +3621,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3545,7 +3650,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3574,7 +3679,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3603,7 +3708,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3632,7 +3737,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3661,7 +3766,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3690,7 +3795,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3719,7 +3824,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3748,7 +3853,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3806,7 +3911,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>845</v>
+        <v>880</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3835,7 +3940,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>846</v>
+        <v>881</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3864,7 +3969,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3893,7 +3998,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>848</v>
+        <v>883</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3922,7 +4027,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>849</v>
+        <v>884</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -3951,7 +4056,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3980,7 +4085,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -4009,7 +4114,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>852</v>
+        <v>887</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -4067,7 +4172,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -4096,7 +4201,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -4125,7 +4230,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -4154,7 +4259,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>855</v>
+        <v>890</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -4183,7 +4288,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -4212,7 +4317,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4241,7 +4346,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -4270,7 +4375,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -4299,7 +4404,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -4328,7 +4433,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7491" uniqueCount="1068">
   <si>
     <t>Doi</t>
   </si>
@@ -2950,6 +2950,519 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                     Jing%Wang%NULL%3,                     Wenbin%Li%NULL%1,                     Zhaoxian%Zhou%NULL%1,                     Siying%Liu%NULL%1,                     Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                      Tania%Paredes%NULL%0,                      Tania%Paredes%NULL%0,                      David%Caceres%NULL%0,                      Camille M.%Webb%NULL%0,                      Luis M.%Valdez%NULL%0,                      Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                      Claire M.%Midgley%NULL%1,                      Alissa%Dratch%NULL%1,                      Marty%Fenstersheib%NULL%1,                      Thomas%Haupt%NULL%1,                      Michelle%Holshue%NULL%1,                      Isaac%Ghinai%NULL%1,                      M. Claire%Jarashow%NULL%1,                      Jennifer%Lo%NULL%1,                      Tristan D.%McPherson%NULL%1,                      Sara%Rudman%NULL%1,                      Sarah%Scott%NULL%1,                      Aron J.%Hall%NULL%1,                      Alicia M.%Fry%NULL%1,                      Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                      Wenjie%Sun%NULL%1,                      Jianping%Huang%NULL%1,                      Michelle%Gamber%NULL%1,                      Jing%Wu%NULL%2,                      Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                      Shuofeng%Yuan%NULL%1,                      Kin-Hang%Kok%NULL%1,                      Kelvin Kai-Wang%To%NULL%1,                      Hin%Chu%NULL%1,                      Jin%Yang%NULL%1,                      Fanfan%Xing%NULL%1,                      Jieling%Liu%NULL%1,                      Cyril Chik-Yan%Yip%NULL%2,                      Rosana Wing-Shan%Poon%NULL%2,                      Hoi-Wah%Tsoi%NULL%1,                      Simon Kam-Fai%Lo%NULL%1,                      Kwok-Hung%Chan%NULL%2,                      Vincent Kwok-Man%Poon%NULL%1,                      Wan-Mui%Chan%NULL%2,                      Jonathan Daniel%Ip%NULL%2,                      Jian-Piao%Cai%NULL%2,                      Vincent Chi-Chung%Cheng%NULL%2,                      Honglin%Chen%NULL%2,                      Christopher Kim-Ming%Hui%NULL%1,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                      Juanjuan%Guo%NULL%0,                      Chen%Wang%NULL%0,                      Fan%Luo%NULL%1,                      Xuechen%Yu%NULL%0,                      Wei%Zhang%NULL%0,                      Jiafu%Li%NULL%0,                      Dongchi%Zhao%NULL%1,                      Dan%Xu%NULL%3,                      Qing%Gong%NULL%1,                      Jing%Liao%NULL%1,                      Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                      Wei%Hou%houwei@whu.edu.cn%0,                      Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yifei%Chen%xref no email%0, Liangjun%Chen%xref no email%0, Qiaoling%Deng%xref no email%0, Guqin%Zhang%xref no email%0, Kaisong%Wu%xref no email%1, Lan%Ni%xref no email%1, Yibin%Yang%xref no email%1, Bing%Liu%xref no email%1, Wei%Wang%xref no email%0, Chaojie%Wei%xref no email%1, Jiong%Yang%xref no email%1, Guangming%Ye%xref no email%0, Zhenshun%Cheng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                      Hua%Peng%NULL%1,                      Lin%Wang%NULL%3,                      Yin%Zhao%NULL%1,                      Lingkong%Zeng%NULL%1,                      Hui%Gao%NULL%1,                      Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                      Shu-Wan%Jian%NULL%1,                      Ding-Ping%Liu%NULL%1,                      Ta-Chou%Ng%NULL%1,                      Wan-Ting%Huang%NULL%1,                      Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%2,                      Shuk-Ching%Wong%NULL%1,                      Jonathan H. K.%Chen%NULL%1,                      Cyril C. Y.%Yip%NULL%1,                      Vivien W. M.%Chuang%NULL%1,                      Owen T. Y.%Tsang%NULL%1,                      Siddharth%Sridhar%NULL%1,                      Jasper F. W.%Chan%NULL%1,                      Pak-Leung%Ho%NULL%1,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                      Kristen Kelli%Coleman%NULL%2,                      Kristen Kelli%Coleman%NULL%0,                      Yian Kim%Tan%NULL%2,                      Yian Kim%Tan%NULL%0,                      Sean Wei Xiang%Ong%NULL%1,                      Marcus%Gum%NULL%2,                      Marcus%Gum%NULL%0,                      Sok Kiang%Lau%NULL%1,                      Xiao Fang%Lim%NULL%1,                      Ai Sim%Lim%NULL%1,                      Stephanie%Sutjipto%NULL%1,                      Pei Hua%Lee%NULL%1,                      Than The%Son%NULL%1,                      Barnaby Edward%Young%NULL%1,                      Donald K.%Milton%NULL%1,                      Gregory C.%Gray%NULL%2,                      Gregory C.%Gray%NULL%0,                      Stephan%Schuster%NULL%2,                      Stephan%Schuster%NULL%0,                      Timothy%Barkham%NULL%1,                      Partha Pratim%De%NULL%2,                      Partha Pratim%De%NULL%0,                      Shawn%Vasoo%NULL%1,                      Monica%Chan%NULL%1,                      Brenda Sze Peng%Ang%NULL%1,                      Boon Huan%Tan%NULL%1,                      Yee-Sin%Leo%NULL%1,                      Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                      Michelle Su Yen%Wong%NULL%2,                      Michelle Su Yen%Wong%NULL%0,                      Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                      David Chien%Lye%NULL%2,                      David Chien%Lye%NULL%0,                      Poh Lian%Lim%NULL%1,                      Cheng Chuan%Lee%NULL%1,                      Li Min%Ling%NULL%1,                      Lawrence%Lee%NULL%1,                      Tau Hong%Lee%NULL%1,                      Chen Seong%Wong%NULL%1,                      Sapna%Sadarangani%NULL%1,                      Ray Junhao%Lin%NULL%1,                      Deborah Hee Ling%Ng%NULL%1,                      Mucheli%Sadasiv%NULL%1,                      Tsin Wen%Yeo%NULL%1,                      Chiaw Yee%Choy%NULL%1,                      Glorijoy Shi En%Tan%NULL%1,                      Frederico%Dimatatac%NULL%1,                      Isais Florante%Santos%NULL%1,                      Chi Jong%Go%NULL%1,                      Yu Kit%Chan%NULL%1,                      Jun Yang%Tay%NULL%1,                      Jackie Yu-Ling%Tan%NULL%1,                      Nihar%Pandit%NULL%1,                      Benjamin Choon Heng%Ho%NULL%1,                      Shehara%Mendis%NULL%1,                      Yuan Yi Constance%Chen%NULL%1,                      Mohammad Yazid%Abdad%NULL%1,                      Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                      Julie T S%Chu%NULL%1,                      Mahen R A%Perera%NULL%1,                      Kenrie P Y%Hui%NULL%1,                      Hui-Ling%Yen%NULL%1,                      Michael C W%Chan%NULL%1,                      Malik%Peiris%NULL%1,                      Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                      Daniele%Lapa%NULL%2,                      Fabrizio%Carletti%NULL%2,                      Eleonora%Lalle%NULL%2,                      Licia%Bordi%NULL%2,                      Patrizia%Marsella%NULL%2,                      Emanuele%Nicastri%NULL%2,                      Nazario%Bevilacqua%NULL%2,                      Maria Letizia%Giancola%NULL%2,                      Angela%Corpolongo%NULL%2,                      Giuseppe%Ippolito%NULL%2,                      Maria Rosaria%Capobianchi%NULL%2,                      Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                      Daniele%Lapa%NULL%0,                      Fabrizio%Carletti%NULL%0,                      Eleonora%Lalle%NULL%0,                      Licia%Bordi%NULL%0,                      Patrizia%Marsella%NULL%0,                      Emanuele%Nicastri%NULL%0,                      Nazario%Bevilacqua%NULL%0,                      Maria Letizia%Giancola%NULL%0,                      Angela%Corpolongo%NULL%0,                      Giuseppe%Ippolito%NULL%0,                      Maria Rosaria%Capobianchi%NULL%0,                      Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                       Z.% Chen%null%1,                       T.% Wang%null%2,                       J.% Dai%null%1,                       J.% Zhang%null%1,                       T.% Ding%null%1,                       J.% Jiang%null%1,                       J.% Liu%null%1,                       C.% Zhang%null%1,                       W.% Shan%null%1,                       S.% Wang%null%1,                       Y.% Rong%null%1,                       J.% Chang%null%1,                       X.% Miao%null%1,                       X.% Ma%null%1,                       S. % Wang%null%1,   P.%Cui%null%1,   Z.% Chen%null%1,   T.% Wang%null%2,   J.% Dai%null%1,   J.% Zhang%null%0,   T.% Ding%null%1,   J.% Jiang%null%0,   J.% Liu%null%0,   C.% Zhang%null%1,   W.% Shan%null%1,   S.% Wang%null%1,   Y.% Rong%null%1,   J.% Chang%null%1,   X.% Miao%null%1,   X.% Ma%null%0,   S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,            Tsung-Hao%Liu%null%1,            Thomas%Yau%null%1,            Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                      Yan%Pan%woshipanyan@126.com%1,                      Qingcui%Wu%NULL%1,                      Shan%Liu%NULL%1,                      Xu%Song%NULL%1,                      Zhongguo%Xie%NULL%1,                      Yang%Liu%NULL%1,                      Liang%Zhao%NULL%1,                      Zhonghong%Wang%NULL%1,                      Yifei%Zhang%NULL%1,                      Zuchuang%Wu%NULL%1,                      Lei%Guan%NULL%1,                      Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                      Sadegh%Niazi%NULL%1,                      Kaveh%Sadeghi%NULL%1,                      Kazem%Naddafi%NULL%1,                      Jila%Yavarian%NULL%1,                      Mansour%Shamsipour%NULL%1,                      Nazanin Zahra Shafiei%Jandaghi%NULL%1,                      Khosro%Sadeghniiat%NULL%1,                      Ramin%Nabizadeh%NULL%1,                      Masud%Yunesian%NULL%1,                      Fatemeh%Momeniha%NULL%1,                      Adel%Mokamel%NULL%1,                      Mohammad Sadegh%Hassanvand%NULL%1,                      Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                      Moon-Woo%Seong%NULL%1,                      Eun Young%Heo%NULL%1,                      Ji Hong%Park%NULL%1,                      Namhee%Kim%NULL%1,                      Sue%Shin%NULL%1,                      Sung Im%Cho%NULL%1,                      Sung Sup%Park%NULL%1,                      Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                      Matthew J.%Stuckey%NULL%1,                      Tara%Scheuer%NULL%1,                      Kerui%Xu%NULL%1,                      Kiran M.%Perkins%NULL%1,                      Heather%Resseger%NULL%1,                      Shelley%Magill%NULL%1,                      Jennifer R.%Verani%NULL%1,                      Seema%Jain%NULL%1,                      Meileen%Acosta%NULL%1,                      Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                      Xiuwen%Zhang%NULL%2,                      Xinyue%Zhang%NULL%2,                      Zhijian%Wei%NULL%2,                      Lingli%Zhang%NULL%2,                      Jingjing%Xu%NULL%2,                      Peipei%Liang%NULL%2,                      Yuanhong%Xu%xyhong1964@163.com%0,                      Chengyuan%Zhang%2396476405@qq.com%2,                      Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                      Xiuwen%Zhang%NULL%0,                      Xinyue%Zhang%NULL%0,                      Zhijian%Wei%NULL%0,                      Lingli%Zhang%NULL%0,                      Jingjing%Xu%NULL%0,                      Peipei%Liang%NULL%0,                      Yuanhong%Xu%xyhong1964@163.com%0,                      Chengyuan%Zhang%2396476405@qq.com%0,                      Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                      Juan%Xia%NULL%1,                      Yuxin%Chen%NULL%1,                      Chun%Shan%NULL%1,                      Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                      Rachael%Overcash%NULL%0,                      Neggin%Mokhtari%NULL%0,                      Haleema%Saeed%NULL%0,                      Stacey%Gold%NULL%0,                      Tamika%Auguste%NULL%0,                      Muhammad-Usman%Mirza%NULL%0,                      Maria-Elena%Ruiz%NULL%0,                      Joeffrey J.%Chahine%NULL%0,                      Joeffrey J.%Chahine%NULL%0,                      Masashi%Waga%NULL%0,                      Masashi%Waga%NULL%0,                      Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                      Mei%Luo%NULL%1,                      Zhen%Zou%NULL%1,                      Xu%Wang%875777340@qq.com%1,                      Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                      Jingfu%Qiu%jfqiu@126.com%2,                      Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                      Xiao-Li%Zhang%NULL%1,                      Xiang-Na%Zhao%NULL%1,                      Cun-Bao%Li%NULL%1,                      Jie%Lei%NULL%2,                      Zeng-Qiang%Kou%NULL%1,                      Wen-Kui%Sun%NULL%1,                      Yang%Hang%NULL%1,                      Feng%Gao%NULL%1,                      Sheng-Xiang%Ji%NULL%1,                      Can-Fang%Lin%NULL%1,                      Bo%Pang%NULL%1,                      Ming-Xiao%Yao%NULL%1,                      Benjamin D%Anderson%NULL%1,                      Guo-Lin%Wang%NULL%1,                      Lin%Yao%NULL%1,                      Li-Jun%Duan%NULL%1,                      Dian-Ming%Kang%dmkang66@163.com%1,                      Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                      Lam V%Nguyen%NULL%1,                      Dien M%Tran%NULL%1,                      Hai T%Do%NULL%1,                      Huong T%Tran%NULL%1,                      Yen T%Le%NULL%1,                      Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                      Jihyang%Lee%NULL%0,                      Jihyang%Lee%NULL%0,                      Eunju%Kim%NULL%0,                      Eunju%Kim%NULL%0,                      Kyeongyoon%Woo%NULL%0,                      Kyeongyoon%Woo%NULL%0,                      Hak Youle%Park%NULL%0,                      Hak Youle%Park%NULL%0,                      Jihyun%An%NULL%0,                      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                      Fang%Ji%NULL%1,                      Liang%Wang%NULL%1,                      Liping%Wang%NULL%1,                      Jungui%Hao%NULL%1,                      Mingjia%Dai%NULL%1,                      Yan%Liu%NULL%0,                      Xiucheng%Pan%NULL%1,                      Juanjuan%Fu%NULL%1,                      Li%Li%NULL%0,                      Guangde%Yang%NULL%1,                      Jianye%Yang%NULL%1,                      Xuebing%Yan%NULL%1,                      Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                      Meiling%Jin%NULL%1,                      Pengtao%Bao%NULL%1,                      Weiguo%Zhao%NULL%1,                      Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                      Lefei%Han%NULL%2,                      Min%Peng%2658706528@qq.com%2,                      Yuxia%Lv%NULL%2,                      Yin%Ouyang%NULL%2,                      Kui%Liu%NULL%0,                      Linli%Yue%NULL%2,                      Qiannan%Li%NULL%2,                      Guoqiang%Sun%NULL%2,                      Lin%Chen%NULL%2,                      Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                      Bo%Zhang%NULL%2,                      Jianhua%Lu%NULL%1,                      Shihua%Liu%NULL%1,                      Zhiqiang%Chang%NULL%1,                      Peng%Cao%NULL%1,                      Xinhua%Liu%NULL%1,                      Peng%Zhang%NULL%2,                      Yan%Ling%NULL%1,                      Kaixiong%Tao%NULL%1,                      Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                      Yingying%Hu%NULL%2,                      Yingying%Hu%NULL%0,                      Yuanyuan%Yu%NULL%1,                      Xiaodong%Zhang%NULL%1,                      Bin%Li%NULL%1,                      Jianguo%Wu%NULL%1,                      Junyu%Li%NULL%1,                      Yingping%Wu%NULL%1,                      Xiaoping%Xia%NULL%2,                      Xiaoping%Xia%NULL%0,                      Huina%Tang%NULL%1,                      Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                       H.% Qian%null%1,                       J.% Hang%null%1,                       X.% Chen%null%1,                       L.% Hong%null%1,                       P.% Liang%null%1,                       J.% Li%null%1,                       S.% Xiao%null%1,                       J.% Wei%null%1,                       L.% Liu%null%2,                       M. % Kang%null%1,   Y.%Li%null%1,   H.% Qian%null%1,   J.% Hang%null%1,   X.% Chen%null%0,   L.% Hong%null%1,   P.% Liang%null%1,   J.% Li%null%0,   S.% Xiao%null%1,   J.% Wei%null%1,   L.% Liu%null%2,   M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Jing%Wang%NULL%3,                      Wenbin%Li%NULL%1,                      Zhaoxian%Zhou%NULL%1,                      Siying%Liu%NULL%1,                      Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                       Tania%Paredes%NULL%0,                       Tania%Paredes%NULL%0,                       David%Caceres%NULL%0,                       Camille M.%Webb%NULL%0,                       Luis M.%Valdez%NULL%0,                       Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                       Claire M.%Midgley%NULL%1,                       Alissa%Dratch%NULL%1,                       Marty%Fenstersheib%NULL%1,                       Thomas%Haupt%NULL%1,                       Michelle%Holshue%NULL%1,                       Isaac%Ghinai%NULL%1,                       M. Claire%Jarashow%NULL%1,                       Jennifer%Lo%NULL%1,                       Tristan D.%McPherson%NULL%1,                       Sara%Rudman%NULL%1,                       Sarah%Scott%NULL%1,                       Aron J.%Hall%NULL%1,                       Alicia M.%Fry%NULL%1,                       Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                       Wenjie%Sun%NULL%1,                       Jianping%Huang%NULL%1,                       Michelle%Gamber%NULL%1,                       Jing%Wu%NULL%2,                       Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                       Shuofeng%Yuan%NULL%1,                       Kin-Hang%Kok%NULL%1,                       Kelvin Kai-Wang%To%NULL%1,                       Hin%Chu%NULL%1,                       Jin%Yang%NULL%1,                       Fanfan%Xing%NULL%1,                       Jieling%Liu%NULL%1,                       Cyril Chik-Yan%Yip%NULL%2,                       Rosana Wing-Shan%Poon%NULL%2,                       Hoi-Wah%Tsoi%NULL%1,                       Simon Kam-Fai%Lo%NULL%1,                       Kwok-Hung%Chan%NULL%2,                       Vincent Kwok-Man%Poon%NULL%1,                       Wan-Mui%Chan%NULL%2,                       Jonathan Daniel%Ip%NULL%2,                       Jian-Piao%Cai%NULL%2,                       Vincent Chi-Chung%Cheng%NULL%2,                       Honglin%Chen%NULL%2,                       Christopher Kim-Ming%Hui%NULL%1,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                       Juanjuan%Guo%NULL%0,                       Chen%Wang%NULL%0,                       Fan%Luo%NULL%1,                       Xuechen%Yu%NULL%0,                       Wei%Zhang%NULL%0,                       Jiafu%Li%NULL%0,                       Dongchi%Zhao%NULL%1,                       Dan%Xu%NULL%3,                       Qing%Gong%NULL%1,                       Jing%Liao%NULL%1,                       Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                       Wei%Hou%houwei@whu.edu.cn%0,                       Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                       Hua%Peng%NULL%1,                       Lin%Wang%NULL%3,                       Yin%Zhao%NULL%1,                       Lingkong%Zeng%NULL%1,                       Hui%Gao%NULL%1,                       Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                       Shu-Wan%Jian%NULL%1,                       Ding-Ping%Liu%NULL%1,                       Ta-Chou%Ng%NULL%1,                       Wan-Ting%Huang%NULL%1,                       Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                       Shuk-Ching%Wong%NULL%1,                       Jonathan H. K.%Chen%NULL%1,                       Cyril C. Y.%Yip%NULL%1,                       Vivien W. M.%Chuang%NULL%1,                       Owen T. Y.%Tsang%NULL%1,                       Siddharth%Sridhar%NULL%1,                       Jasper F. W.%Chan%NULL%1,                       Pak-Leung%Ho%NULL%1,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                       Kristen Kelli%Coleman%NULL%2,                       Kristen Kelli%Coleman%NULL%0,                       Yian Kim%Tan%NULL%2,                       Yian Kim%Tan%NULL%0,                       Sean Wei Xiang%Ong%NULL%1,                       Marcus%Gum%NULL%2,                       Marcus%Gum%NULL%0,                       Sok Kiang%Lau%NULL%1,                       Xiao Fang%Lim%NULL%1,                       Ai Sim%Lim%NULL%1,                       Stephanie%Sutjipto%NULL%1,                       Pei Hua%Lee%NULL%1,                       Than The%Son%NULL%1,                       Barnaby Edward%Young%NULL%1,                       Donald K.%Milton%NULL%1,                       Gregory C.%Gray%NULL%2,                       Gregory C.%Gray%NULL%0,                       Stephan%Schuster%NULL%2,                       Stephan%Schuster%NULL%0,                       Timothy%Barkham%NULL%1,                       Partha Pratim%De%NULL%2,                       Partha Pratim%De%NULL%0,                       Shawn%Vasoo%NULL%1,                       Monica%Chan%NULL%1,                       Brenda Sze Peng%Ang%NULL%1,                       Boon Huan%Tan%NULL%1,                       Yee-Sin%Leo%NULL%1,                       Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                       Michelle Su Yen%Wong%NULL%2,                       Michelle Su Yen%Wong%NULL%0,                       Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                       David Chien%Lye%NULL%2,                       David Chien%Lye%NULL%0,                       Poh Lian%Lim%NULL%1,                       Cheng Chuan%Lee%NULL%1,                       Li Min%Ling%NULL%1,                       Lawrence%Lee%NULL%1,                       Tau Hong%Lee%NULL%1,                       Chen Seong%Wong%NULL%1,                       Sapna%Sadarangani%NULL%1,                       Ray Junhao%Lin%NULL%1,                       Deborah Hee Ling%Ng%NULL%1,                       Mucheli%Sadasiv%NULL%1,                       Tsin Wen%Yeo%NULL%1,                       Chiaw Yee%Choy%NULL%1,                       Glorijoy Shi En%Tan%NULL%1,                       Frederico%Dimatatac%NULL%1,                       Isais Florante%Santos%NULL%1,                       Chi Jong%Go%NULL%1,                       Yu Kit%Chan%NULL%1,                       Jun Yang%Tay%NULL%1,                       Jackie Yu-Ling%Tan%NULL%1,                       Nihar%Pandit%NULL%1,                       Benjamin Choon Heng%Ho%NULL%1,                       Shehara%Mendis%NULL%1,                       Yuan Yi Constance%Chen%NULL%1,                       Mohammad Yazid%Abdad%NULL%1,                       Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                       Julie T S%Chu%NULL%1,                       Mahen R A%Perera%NULL%1,                       Kenrie P Y%Hui%NULL%1,                       Hui-Ling%Yen%NULL%1,                       Michael C W%Chan%NULL%1,                       Malik%Peiris%NULL%1,                       Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                       Daniele%Lapa%NULL%2,                       Fabrizio%Carletti%NULL%2,                       Eleonora%Lalle%NULL%2,                       Licia%Bordi%NULL%2,                       Patrizia%Marsella%NULL%2,                       Emanuele%Nicastri%NULL%2,                       Nazario%Bevilacqua%NULL%2,                       Maria Letizia%Giancola%NULL%2,                       Angela%Corpolongo%NULL%2,                       Giuseppe%Ippolito%NULL%2,                       Maria Rosaria%Capobianchi%NULL%2,                       Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                       Daniele%Lapa%NULL%0,                       Fabrizio%Carletti%NULL%0,                       Eleonora%Lalle%NULL%0,                       Licia%Bordi%NULL%0,                       Patrizia%Marsella%NULL%0,                       Emanuele%Nicastri%NULL%0,                       Nazario%Bevilacqua%NULL%0,                       Maria Letizia%Giancola%NULL%0,                       Angela%Corpolongo%NULL%0,                       Giuseppe%Ippolito%NULL%0,                       Maria Rosaria%Capobianchi%NULL%0,                       Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                        Z.% Chen%null%1,                        T.% Wang%null%2,                        J.% Dai%null%1,                        J.% Zhang%null%1,                        T.% Ding%null%1,                        J.% Jiang%null%1,                        J.% Liu%null%1,                        C.% Zhang%null%1,                        W.% Shan%null%1,                        S.% Wang%null%1,                        Y.% Rong%null%1,                        J.% Chang%null%1,                        X.% Miao%null%1,                        X.% Ma%null%1,                        S. % Wang%null%1,    P.%Cui%null%1,    Z.% Chen%null%1,    T.% Wang%null%2,    J.% Dai%null%1,    J.% Zhang%null%0,    T.% Ding%null%1,    J.% Jiang%null%0,    J.% Liu%null%0,    C.% Zhang%null%1,    W.% Shan%null%1,    S.% Wang%null%1,    Y.% Rong%null%1,    J.% Chang%null%1,    X.% Miao%null%1,    X.% Ma%null%0,    S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,             Tsung-Hao%Liu%null%1,             Thomas%Yau%null%1,             Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                       Yan%Pan%woshipanyan@126.com%1,                       Qingcui%Wu%NULL%1,                       Shan%Liu%NULL%1,                       Xu%Song%NULL%1,                       Zhongguo%Xie%NULL%1,                       Yang%Liu%NULL%1,                       Liang%Zhao%NULL%1,                       Zhonghong%Wang%NULL%1,                       Yifei%Zhang%NULL%1,                       Zuchuang%Wu%NULL%1,                       Lei%Guan%NULL%1,                       Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                       Sadegh%Niazi%NULL%1,                       Kaveh%Sadeghi%NULL%1,                       Kazem%Naddafi%NULL%1,                       Jila%Yavarian%NULL%1,                       Mansour%Shamsipour%NULL%1,                       Nazanin Zahra Shafiei%Jandaghi%NULL%1,                       Khosro%Sadeghniiat%NULL%1,                       Ramin%Nabizadeh%NULL%1,                       Masud%Yunesian%NULL%1,                       Fatemeh%Momeniha%NULL%1,                       Adel%Mokamel%NULL%1,                       Mohammad Sadegh%Hassanvand%NULL%1,                       Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                       Moon-Woo%Seong%NULL%1,                       Eun Young%Heo%NULL%1,                       Ji Hong%Park%NULL%1,                       Namhee%Kim%NULL%1,                       Sue%Shin%NULL%1,                       Sung Im%Cho%NULL%1,                       Sung Sup%Park%NULL%1,                       Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                       Matthew J.%Stuckey%NULL%1,                       Tara%Scheuer%NULL%1,                       Kerui%Xu%NULL%1,                       Kiran M.%Perkins%NULL%1,                       Heather%Resseger%NULL%1,                       Shelley%Magill%NULL%1,                       Jennifer R.%Verani%NULL%1,                       Seema%Jain%NULL%1,                       Meileen%Acosta%NULL%1,                       Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                       Xiuwen%Zhang%NULL%2,                       Xinyue%Zhang%NULL%2,                       Zhijian%Wei%NULL%2,                       Lingli%Zhang%NULL%2,                       Jingjing%Xu%NULL%2,                       Peipei%Liang%NULL%2,                       Yuanhong%Xu%xyhong1964@163.com%0,                       Chengyuan%Zhang%2396476405@qq.com%2,                       Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                       Xiuwen%Zhang%NULL%0,                       Xinyue%Zhang%NULL%0,                       Zhijian%Wei%NULL%0,                       Lingli%Zhang%NULL%0,                       Jingjing%Xu%NULL%0,                       Peipei%Liang%NULL%0,                       Yuanhong%Xu%xyhong1964@163.com%0,                       Chengyuan%Zhang%2396476405@qq.com%0,                       Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                       Juan%Xia%NULL%1,                       Yuxin%Chen%NULL%1,                       Chun%Shan%NULL%1,                       Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                       Rachael%Overcash%NULL%0,                       Neggin%Mokhtari%NULL%0,                       Haleema%Saeed%NULL%0,                       Stacey%Gold%NULL%0,                       Tamika%Auguste%NULL%0,                       Muhammad-Usman%Mirza%NULL%0,                       Maria-Elena%Ruiz%NULL%0,                       Joeffrey J.%Chahine%NULL%0,                       Joeffrey J.%Chahine%NULL%0,                       Masashi%Waga%NULL%0,                       Masashi%Waga%NULL%0,                       Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                       Mei%Luo%NULL%1,                       Zhen%Zou%NULL%1,                       Xu%Wang%875777340@qq.com%1,                       Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                       Jingfu%Qiu%jfqiu@126.com%2,                       Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                       Xiao-Li%Zhang%NULL%1,                       Xiang-Na%Zhao%NULL%1,                       Cun-Bao%Li%NULL%1,                       Jie%Lei%NULL%2,                       Zeng-Qiang%Kou%NULL%1,                       Wen-Kui%Sun%NULL%1,                       Yang%Hang%NULL%1,                       Feng%Gao%NULL%1,                       Sheng-Xiang%Ji%NULL%1,                       Can-Fang%Lin%NULL%1,                       Bo%Pang%NULL%1,                       Ming-Xiao%Yao%NULL%1,                       Benjamin D%Anderson%NULL%1,                       Guo-Lin%Wang%NULL%1,                       Lin%Yao%NULL%1,                       Li-Jun%Duan%NULL%1,                       Dian-Ming%Kang%dmkang66@163.com%1,                       Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                       Lam V%Nguyen%NULL%1,                       Dien M%Tran%NULL%1,                       Hai T%Do%NULL%1,                       Huong T%Tran%NULL%1,                       Yen T%Le%NULL%1,                       Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                       Jihyang%Lee%NULL%0,                       Jihyang%Lee%NULL%0,                       Eunju%Kim%NULL%0,                       Eunju%Kim%NULL%0,                       Kyeongyoon%Woo%NULL%0,                       Kyeongyoon%Woo%NULL%0,                       Hak Youle%Park%NULL%0,                       Hak Youle%Park%NULL%0,                       Jihyun%An%NULL%0,                       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                       Fang%Ji%NULL%1,                       Liang%Wang%NULL%1,                       Liping%Wang%NULL%1,                       Jungui%Hao%NULL%1,                       Mingjia%Dai%NULL%1,                       Yan%Liu%NULL%0,                       Xiucheng%Pan%NULL%1,                       Juanjuan%Fu%NULL%1,                       Li%Li%NULL%0,                       Guangde%Yang%NULL%1,                       Jianye%Yang%NULL%1,                       Xuebing%Yan%NULL%1,                       Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                       Meiling%Jin%NULL%1,                       Pengtao%Bao%NULL%1,                       Weiguo%Zhao%NULL%1,                       Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                       Lefei%Han%NULL%2,                       Min%Peng%2658706528@qq.com%2,                       Yuxia%Lv%NULL%2,                       Yin%Ouyang%NULL%2,                       Kui%Liu%NULL%0,                       Linli%Yue%NULL%2,                       Qiannan%Li%NULL%2,                       Guoqiang%Sun%NULL%2,                       Lin%Chen%NULL%2,                       Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                       Bo%Zhang%NULL%2,                       Jianhua%Lu%NULL%1,                       Shihua%Liu%NULL%1,                       Zhiqiang%Chang%NULL%1,                       Peng%Cao%NULL%1,                       Xinhua%Liu%NULL%1,                       Peng%Zhang%NULL%2,                       Yan%Ling%NULL%1,                       Kaixiong%Tao%NULL%1,                       Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                       Yingying%Hu%NULL%2,                       Yingying%Hu%NULL%0,                       Yuanyuan%Yu%NULL%1,                       Xiaodong%Zhang%NULL%1,                       Bin%Li%NULL%1,                       Jianguo%Wu%NULL%1,                       Junyu%Li%NULL%1,                       Yingping%Wu%NULL%1,                       Xiaoping%Xia%NULL%2,                       Xiaoping%Xia%NULL%0,                       Huina%Tang%NULL%1,                       Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                        H.% Qian%null%1,                        J.% Hang%null%1,                        X.% Chen%null%1,                        L.% Hong%null%1,                        P.% Liang%null%1,                        J.% Li%null%1,                        S.% Xiao%null%1,                        J.% Wei%null%1,                        L.% Liu%null%2,                        M. % Kang%null%1,    Y.%Li%null%1,    H.% Qian%null%1,    J.% Hang%null%1,    X.% Chen%null%0,    L.% Hong%null%1,    P.% Liang%null%1,    J.% Li%null%0,    S.% Xiao%null%1,    J.% Wei%null%1,    L.% Liu%null%2,    M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Jing%Wang%NULL%3,                       Wenbin%Li%NULL%1,                       Zhaoxian%Zhou%NULL%1,                       Siying%Liu%NULL%1,                       Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                        Tania%Paredes%NULL%0,                        Tania%Paredes%NULL%0,                        David%Caceres%NULL%0,                        Camille M.%Webb%NULL%0,                        Luis M.%Valdez%NULL%0,                        Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                        Claire M.%Midgley%NULL%1,                        Alissa%Dratch%NULL%1,                        Marty%Fenstersheib%NULL%1,                        Thomas%Haupt%NULL%1,                        Michelle%Holshue%NULL%1,                        Isaac%Ghinai%NULL%1,                        M. Claire%Jarashow%NULL%1,                        Jennifer%Lo%NULL%1,                        Tristan D.%McPherson%NULL%1,                        Sara%Rudman%NULL%1,                        Sarah%Scott%NULL%1,                        Aron J.%Hall%NULL%1,                        Alicia M.%Fry%NULL%1,                        Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                        Wenjie%Sun%NULL%1,                        Jianping%Huang%NULL%1,                        Michelle%Gamber%NULL%1,                        Jing%Wu%NULL%2,                        Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                        Shuofeng%Yuan%NULL%1,                        Kin-Hang%Kok%NULL%1,                        Kelvin Kai-Wang%To%NULL%1,                        Hin%Chu%NULL%1,                        Jin%Yang%NULL%1,                        Fanfan%Xing%NULL%1,                        Jieling%Liu%NULL%1,                        Cyril Chik-Yan%Yip%NULL%2,                        Rosana Wing-Shan%Poon%NULL%2,                        Hoi-Wah%Tsoi%NULL%1,                        Simon Kam-Fai%Lo%NULL%1,                        Kwok-Hung%Chan%NULL%2,                        Vincent Kwok-Man%Poon%NULL%1,                        Wan-Mui%Chan%NULL%2,                        Jonathan Daniel%Ip%NULL%2,                        Jian-Piao%Cai%NULL%2,                        Vincent Chi-Chung%Cheng%NULL%2,                        Honglin%Chen%NULL%2,                        Christopher Kim-Ming%Hui%NULL%1,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                        Juanjuan%Guo%NULL%0,                        Chen%Wang%NULL%0,                        Fan%Luo%NULL%1,                        Xuechen%Yu%NULL%0,                        Wei%Zhang%NULL%0,                        Jiafu%Li%NULL%0,                        Dongchi%Zhao%NULL%1,                        Dan%Xu%NULL%3,                        Qing%Gong%NULL%1,                        Jing%Liao%NULL%1,                        Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                        Wei%Hou%houwei@whu.edu.cn%0,                        Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                        Hua%Peng%NULL%1,                        Lin%Wang%NULL%3,                        Yin%Zhao%NULL%1,                        Lingkong%Zeng%NULL%1,                        Hui%Gao%NULL%1,                        Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                        Shu-Wan%Jian%NULL%1,                        Ding-Ping%Liu%NULL%1,                        Ta-Chou%Ng%NULL%1,                        Wan-Ting%Huang%NULL%1,                        Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                        Shuk-Ching%Wong%NULL%1,                        Jonathan H. K.%Chen%NULL%1,                        Cyril C. Y.%Yip%NULL%1,                        Vivien W. M.%Chuang%NULL%1,                        Owen T. Y.%Tsang%NULL%1,                        Siddharth%Sridhar%NULL%1,                        Jasper F. W.%Chan%NULL%1,                        Pak-Leung%Ho%NULL%1,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                        Kristen Kelli%Coleman%NULL%2,                        Kristen Kelli%Coleman%NULL%0,                        Yian Kim%Tan%NULL%2,                        Yian Kim%Tan%NULL%0,                        Sean Wei Xiang%Ong%NULL%1,                        Marcus%Gum%NULL%2,                        Marcus%Gum%NULL%0,                        Sok Kiang%Lau%NULL%1,                        Xiao Fang%Lim%NULL%1,                        Ai Sim%Lim%NULL%1,                        Stephanie%Sutjipto%NULL%1,                        Pei Hua%Lee%NULL%1,                        Than The%Son%NULL%1,                        Barnaby Edward%Young%NULL%1,                        Donald K.%Milton%NULL%1,                        Gregory C.%Gray%NULL%2,                        Gregory C.%Gray%NULL%0,                        Stephan%Schuster%NULL%2,                        Stephan%Schuster%NULL%0,                        Timothy%Barkham%NULL%1,                        Partha Pratim%De%NULL%2,                        Partha Pratim%De%NULL%0,                        Shawn%Vasoo%NULL%1,                        Monica%Chan%NULL%1,                        Brenda Sze Peng%Ang%NULL%1,                        Boon Huan%Tan%NULL%1,                        Yee-Sin%Leo%NULL%1,                        Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                        Michelle Su Yen%Wong%NULL%2,                        Michelle Su Yen%Wong%NULL%0,                        Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                        David Chien%Lye%NULL%2,                        David Chien%Lye%NULL%0,                        Poh Lian%Lim%NULL%1,                        Cheng Chuan%Lee%NULL%1,                        Li Min%Ling%NULL%1,                        Lawrence%Lee%NULL%1,                        Tau Hong%Lee%NULL%1,                        Chen Seong%Wong%NULL%1,                        Sapna%Sadarangani%NULL%1,                        Ray Junhao%Lin%NULL%1,                        Deborah Hee Ling%Ng%NULL%1,                        Mucheli%Sadasiv%NULL%1,                        Tsin Wen%Yeo%NULL%1,                        Chiaw Yee%Choy%NULL%1,                        Glorijoy Shi En%Tan%NULL%1,                        Frederico%Dimatatac%NULL%1,                        Isais Florante%Santos%NULL%1,                        Chi Jong%Go%NULL%1,                        Yu Kit%Chan%NULL%1,                        Jun Yang%Tay%NULL%1,                        Jackie Yu-Ling%Tan%NULL%1,                        Nihar%Pandit%NULL%1,                        Benjamin Choon Heng%Ho%NULL%1,                        Shehara%Mendis%NULL%1,                        Yuan Yi Constance%Chen%NULL%1,                        Mohammad Yazid%Abdad%NULL%1,                        Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                        Julie T S%Chu%NULL%1,                        Mahen R A%Perera%NULL%1,                        Kenrie P Y%Hui%NULL%1,                        Hui-Ling%Yen%NULL%1,                        Michael C W%Chan%NULL%1,                        Malik%Peiris%NULL%1,                        Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                        Daniele%Lapa%NULL%2,                        Fabrizio%Carletti%NULL%2,                        Eleonora%Lalle%NULL%2,                        Licia%Bordi%NULL%2,                        Patrizia%Marsella%NULL%2,                        Emanuele%Nicastri%NULL%2,                        Nazario%Bevilacqua%NULL%2,                        Maria Letizia%Giancola%NULL%2,                        Angela%Corpolongo%NULL%2,                        Giuseppe%Ippolito%NULL%2,                        Maria Rosaria%Capobianchi%NULL%2,                        Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                        Daniele%Lapa%NULL%0,                        Fabrizio%Carletti%NULL%0,                        Eleonora%Lalle%NULL%0,                        Licia%Bordi%NULL%0,                        Patrizia%Marsella%NULL%0,                        Emanuele%Nicastri%NULL%0,                        Nazario%Bevilacqua%NULL%0,                        Maria Letizia%Giancola%NULL%0,                        Angela%Corpolongo%NULL%0,                        Giuseppe%Ippolito%NULL%0,                        Maria Rosaria%Capobianchi%NULL%0,                        Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                         Z.% Chen%null%1,                         T.% Wang%null%2,                         J.% Dai%null%1,                         J.% Zhang%null%1,                         T.% Ding%null%1,                         J.% Jiang%null%1,                         J.% Liu%null%1,                         C.% Zhang%null%1,                         W.% Shan%null%1,                         S.% Wang%null%1,                         Y.% Rong%null%1,                         J.% Chang%null%1,                         X.% Miao%null%1,                         X.% Ma%null%1,                         S. % Wang%null%1,     P.%Cui%null%1,     Z.% Chen%null%1,     T.% Wang%null%2,     J.% Dai%null%1,     J.% Zhang%null%0,     T.% Ding%null%1,     J.% Jiang%null%0,     J.% Liu%null%0,     C.% Zhang%null%1,     W.% Shan%null%1,     S.% Wang%null%1,     Y.% Rong%null%1,     J.% Chang%null%1,     X.% Miao%null%1,     X.% Ma%null%0,     S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,              Tsung-Hao%Liu%null%1,              Thomas%Yau%null%1,              Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                        Yan%Pan%woshipanyan@126.com%1,                        Qingcui%Wu%NULL%1,                        Shan%Liu%NULL%1,                        Xu%Song%NULL%1,                        Zhongguo%Xie%NULL%1,                        Yang%Liu%NULL%1,                        Liang%Zhao%NULL%1,                        Zhonghong%Wang%NULL%1,                        Yifei%Zhang%NULL%1,                        Zuchuang%Wu%NULL%1,                        Lei%Guan%NULL%1,                        Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                        Sadegh%Niazi%NULL%1,                        Kaveh%Sadeghi%NULL%1,                        Kazem%Naddafi%NULL%1,                        Jila%Yavarian%NULL%1,                        Mansour%Shamsipour%NULL%1,                        Nazanin Zahra Shafiei%Jandaghi%NULL%1,                        Khosro%Sadeghniiat%NULL%1,                        Ramin%Nabizadeh%NULL%1,                        Masud%Yunesian%NULL%1,                        Fatemeh%Momeniha%NULL%1,                        Adel%Mokamel%NULL%1,                        Mohammad Sadegh%Hassanvand%NULL%1,                        Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                        Moon-Woo%Seong%NULL%1,                        Eun Young%Heo%NULL%1,                        Ji Hong%Park%NULL%1,                        Namhee%Kim%NULL%1,                        Sue%Shin%NULL%1,                        Sung Im%Cho%NULL%1,                        Sung Sup%Park%NULL%1,                        Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                        Matthew J.%Stuckey%NULL%1,                        Tara%Scheuer%NULL%1,                        Kerui%Xu%NULL%1,                        Kiran M.%Perkins%NULL%1,                        Heather%Resseger%NULL%1,                        Shelley%Magill%NULL%1,                        Jennifer R.%Verani%NULL%1,                        Seema%Jain%NULL%1,                        Meileen%Acosta%NULL%1,                        Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                        Xiuwen%Zhang%NULL%2,                        Xinyue%Zhang%NULL%2,                        Zhijian%Wei%NULL%2,                        Lingli%Zhang%NULL%2,                        Jingjing%Xu%NULL%2,                        Peipei%Liang%NULL%2,                        Yuanhong%Xu%xyhong1964@163.com%0,                        Chengyuan%Zhang%2396476405@qq.com%2,                        Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                        Xiuwen%Zhang%NULL%0,                        Xinyue%Zhang%NULL%0,                        Zhijian%Wei%NULL%0,                        Lingli%Zhang%NULL%0,                        Jingjing%Xu%NULL%0,                        Peipei%Liang%NULL%0,                        Yuanhong%Xu%xyhong1964@163.com%0,                        Chengyuan%Zhang%2396476405@qq.com%0,                        Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                        Juan%Xia%NULL%1,                        Yuxin%Chen%NULL%1,                        Chun%Shan%NULL%1,                        Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                        Rachael%Overcash%NULL%0,                        Neggin%Mokhtari%NULL%0,                        Haleema%Saeed%NULL%0,                        Stacey%Gold%NULL%0,                        Tamika%Auguste%NULL%0,                        Muhammad-Usman%Mirza%NULL%0,                        Maria-Elena%Ruiz%NULL%0,                        Joeffrey J.%Chahine%NULL%0,                        Joeffrey J.%Chahine%NULL%0,                        Masashi%Waga%NULL%0,                        Masashi%Waga%NULL%0,                        Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                        Mei%Luo%NULL%1,                        Zhen%Zou%NULL%1,                        Xu%Wang%875777340@qq.com%1,                        Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                        Jingfu%Qiu%jfqiu@126.com%2,                        Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                        Xiao-Li%Zhang%NULL%1,                        Xiang-Na%Zhao%NULL%1,                        Cun-Bao%Li%NULL%1,                        Jie%Lei%NULL%2,                        Zeng-Qiang%Kou%NULL%1,                        Wen-Kui%Sun%NULL%1,                        Yang%Hang%NULL%1,                        Feng%Gao%NULL%1,                        Sheng-Xiang%Ji%NULL%1,                        Can-Fang%Lin%NULL%1,                        Bo%Pang%NULL%1,                        Ming-Xiao%Yao%NULL%1,                        Benjamin D%Anderson%NULL%1,                        Guo-Lin%Wang%NULL%1,                        Lin%Yao%NULL%1,                        Li-Jun%Duan%NULL%1,                        Dian-Ming%Kang%dmkang66@163.com%1,                        Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                        Lam V%Nguyen%NULL%1,                        Dien M%Tran%NULL%1,                        Hai T%Do%NULL%1,                        Huong T%Tran%NULL%1,                        Yen T%Le%NULL%1,                        Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                        Jihyang%Lee%NULL%0,                        Jihyang%Lee%NULL%0,                        Eunju%Kim%NULL%0,                        Eunju%Kim%NULL%0,                        Kyeongyoon%Woo%NULL%0,                        Kyeongyoon%Woo%NULL%0,                        Hak Youle%Park%NULL%0,                        Hak Youle%Park%NULL%0,                        Jihyun%An%NULL%0,                        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                        Fang%Ji%NULL%1,                        Liang%Wang%NULL%1,                        Liping%Wang%NULL%1,                        Jungui%Hao%NULL%1,                        Mingjia%Dai%NULL%1,                        Yan%Liu%NULL%0,                        Xiucheng%Pan%NULL%1,                        Juanjuan%Fu%NULL%1,                        Li%Li%NULL%0,                        Guangde%Yang%NULL%1,                        Jianye%Yang%NULL%1,                        Xuebing%Yan%NULL%1,                        Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                        Meiling%Jin%NULL%1,                        Pengtao%Bao%NULL%1,                        Weiguo%Zhao%NULL%1,                        Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                        Lefei%Han%NULL%2,                        Min%Peng%2658706528@qq.com%2,                        Yuxia%Lv%NULL%2,                        Yin%Ouyang%NULL%2,                        Kui%Liu%NULL%0,                        Linli%Yue%NULL%2,                        Qiannan%Li%NULL%2,                        Guoqiang%Sun%NULL%2,                        Lin%Chen%NULL%2,                        Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                        Bo%Zhang%NULL%2,                        Jianhua%Lu%NULL%1,                        Shihua%Liu%NULL%1,                        Zhiqiang%Chang%NULL%1,                        Peng%Cao%NULL%1,                        Xinhua%Liu%NULL%1,                        Peng%Zhang%NULL%2,                        Yan%Ling%NULL%1,                        Kaixiong%Tao%NULL%1,                        Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                        Yingying%Hu%NULL%2,                        Yingying%Hu%NULL%0,                        Yuanyuan%Yu%NULL%1,                        Xiaodong%Zhang%NULL%1,                        Bin%Li%NULL%1,                        Jianguo%Wu%NULL%1,                        Junyu%Li%NULL%1,                        Yingping%Wu%NULL%1,                        Xiaoping%Xia%NULL%2,                        Xiaoping%Xia%NULL%0,                        Huina%Tang%NULL%1,                        Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                         H.% Qian%null%1,                         J.% Hang%null%1,                         X.% Chen%null%1,                         L.% Hong%null%1,                         P.% Liang%null%1,                         J.% Li%null%1,                         S.% Xiao%null%1,                         J.% Wei%null%1,                         L.% Liu%null%2,                         M. % Kang%null%1,     Y.%Li%null%1,     H.% Qian%null%1,     J.% Hang%null%1,     X.% Chen%null%0,     L.% Hong%null%1,     P.% Liang%null%1,     J.% Li%null%0,     S.% Xiao%null%1,     J.% Wei%null%1,     L.% Liu%null%2,     M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Jing%Wang%NULL%3,                        Wenbin%Li%NULL%1,                        Zhaoxian%Zhou%NULL%1,                        Siying%Liu%NULL%1,                        Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                         Tania%Paredes%NULL%0,                         Tania%Paredes%NULL%0,                         David%Caceres%NULL%0,                         Camille M.%Webb%NULL%0,                         Luis M.%Valdez%NULL%0,                         Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                         Claire M.%Midgley%NULL%1,                         Alissa%Dratch%NULL%1,                         Marty%Fenstersheib%NULL%1,                         Thomas%Haupt%NULL%1,                         Michelle%Holshue%NULL%1,                         Isaac%Ghinai%NULL%1,                         M. Claire%Jarashow%NULL%1,                         Jennifer%Lo%NULL%1,                         Tristan D.%McPherson%NULL%1,                         Sara%Rudman%NULL%1,                         Sarah%Scott%NULL%1,                         Aron J.%Hall%NULL%1,                         Alicia M.%Fry%NULL%1,                         Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                         Wenjie%Sun%NULL%1,                         Jianping%Huang%NULL%1,                         Michelle%Gamber%NULL%1,                         Jing%Wu%NULL%2,                         Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                         Shuofeng%Yuan%NULL%1,                         Kin-Hang%Kok%NULL%1,                         Kelvin Kai-Wang%To%NULL%1,                         Hin%Chu%NULL%1,                         Jin%Yang%NULL%1,                         Fanfan%Xing%NULL%1,                         Jieling%Liu%NULL%1,                         Cyril Chik-Yan%Yip%NULL%2,                         Rosana Wing-Shan%Poon%NULL%2,                         Hoi-Wah%Tsoi%NULL%1,                         Simon Kam-Fai%Lo%NULL%1,                         Kwok-Hung%Chan%NULL%2,                         Vincent Kwok-Man%Poon%NULL%1,                         Wan-Mui%Chan%NULL%2,                         Jonathan Daniel%Ip%NULL%2,                         Jian-Piao%Cai%NULL%2,                         Vincent Chi-Chung%Cheng%NULL%2,                         Honglin%Chen%NULL%2,                         Christopher Kim-Ming%Hui%NULL%1,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                         Juanjuan%Guo%NULL%0,                         Chen%Wang%NULL%0,                         Fan%Luo%NULL%1,                         Xuechen%Yu%NULL%0,                         Wei%Zhang%NULL%0,                         Jiafu%Li%NULL%0,                         Dongchi%Zhao%NULL%1,                         Dan%Xu%NULL%3,                         Qing%Gong%NULL%1,                         Jing%Liao%NULL%1,                         Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                         Wei%Hou%houwei@whu.edu.cn%0,                         Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                         Hua%Peng%NULL%1,                         Lin%Wang%NULL%3,                         Yin%Zhao%NULL%1,                         Lingkong%Zeng%NULL%1,                         Hui%Gao%NULL%1,                         Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                         Shu-Wan%Jian%NULL%1,                         Ding-Ping%Liu%NULL%1,                         Ta-Chou%Ng%NULL%1,                         Wan-Ting%Huang%NULL%1,                         Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                         Shuk-Ching%Wong%NULL%1,                         Jonathan H. K.%Chen%NULL%1,                         Cyril C. Y.%Yip%NULL%1,                         Vivien W. M.%Chuang%NULL%1,                         Owen T. Y.%Tsang%NULL%1,                         Siddharth%Sridhar%NULL%1,                         Jasper F. W.%Chan%NULL%1,                         Pak-Leung%Ho%NULL%1,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                         Kristen Kelli%Coleman%NULL%2,                         Kristen Kelli%Coleman%NULL%0,                         Yian Kim%Tan%NULL%2,                         Yian Kim%Tan%NULL%0,                         Sean Wei Xiang%Ong%NULL%1,                         Marcus%Gum%NULL%2,                         Marcus%Gum%NULL%0,                         Sok Kiang%Lau%NULL%1,                         Xiao Fang%Lim%NULL%1,                         Ai Sim%Lim%NULL%1,                         Stephanie%Sutjipto%NULL%1,                         Pei Hua%Lee%NULL%1,                         Than The%Son%NULL%1,                         Barnaby Edward%Young%NULL%1,                         Donald K.%Milton%NULL%1,                         Gregory C.%Gray%NULL%2,                         Gregory C.%Gray%NULL%0,                         Stephan%Schuster%NULL%2,                         Stephan%Schuster%NULL%0,                         Timothy%Barkham%NULL%1,                         Partha Pratim%De%NULL%2,                         Partha Pratim%De%NULL%0,                         Shawn%Vasoo%NULL%1,                         Monica%Chan%NULL%1,                         Brenda Sze Peng%Ang%NULL%1,                         Boon Huan%Tan%NULL%1,                         Yee-Sin%Leo%NULL%1,                         Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                         Michelle Su Yen%Wong%NULL%2,                         Michelle Su Yen%Wong%NULL%0,                         Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                         David Chien%Lye%NULL%2,                         David Chien%Lye%NULL%0,                         Poh Lian%Lim%NULL%1,                         Cheng Chuan%Lee%NULL%1,                         Li Min%Ling%NULL%1,                         Lawrence%Lee%NULL%1,                         Tau Hong%Lee%NULL%1,                         Chen Seong%Wong%NULL%1,                         Sapna%Sadarangani%NULL%1,                         Ray Junhao%Lin%NULL%1,                         Deborah Hee Ling%Ng%NULL%1,                         Mucheli%Sadasiv%NULL%1,                         Tsin Wen%Yeo%NULL%1,                         Chiaw Yee%Choy%NULL%1,                         Glorijoy Shi En%Tan%NULL%1,                         Frederico%Dimatatac%NULL%1,                         Isais Florante%Santos%NULL%1,                         Chi Jong%Go%NULL%1,                         Yu Kit%Chan%NULL%1,                         Jun Yang%Tay%NULL%1,                         Jackie Yu-Ling%Tan%NULL%1,                         Nihar%Pandit%NULL%1,                         Benjamin Choon Heng%Ho%NULL%1,                         Shehara%Mendis%NULL%1,                         Yuan Yi Constance%Chen%NULL%1,                         Mohammad Yazid%Abdad%NULL%1,                         Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                         Julie T S%Chu%NULL%1,                         Mahen R A%Perera%NULL%1,                         Kenrie P Y%Hui%NULL%1,                         Hui-Ling%Yen%NULL%1,                         Michael C W%Chan%NULL%1,                         Malik%Peiris%NULL%1,                         Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                         Daniele%Lapa%NULL%2,                         Fabrizio%Carletti%NULL%2,                         Eleonora%Lalle%NULL%2,                         Licia%Bordi%NULL%2,                         Patrizia%Marsella%NULL%2,                         Emanuele%Nicastri%NULL%2,                         Nazario%Bevilacqua%NULL%2,                         Maria Letizia%Giancola%NULL%2,                         Angela%Corpolongo%NULL%2,                         Giuseppe%Ippolito%NULL%2,                         Maria Rosaria%Capobianchi%NULL%2,                         Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                         Daniele%Lapa%NULL%0,                         Fabrizio%Carletti%NULL%0,                         Eleonora%Lalle%NULL%0,                         Licia%Bordi%NULL%0,                         Patrizia%Marsella%NULL%0,                         Emanuele%Nicastri%NULL%0,                         Nazario%Bevilacqua%NULL%0,                         Maria Letizia%Giancola%NULL%0,                         Angela%Corpolongo%NULL%0,                         Giuseppe%Ippolito%NULL%0,                         Maria Rosaria%Capobianchi%NULL%0,                         Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                          Z.% Chen%null%1,                          T.% Wang%null%2,                          J.% Dai%null%1,                          J.% Zhang%null%1,                          T.% Ding%null%1,                          J.% Jiang%null%1,                          J.% Liu%null%1,                          C.% Zhang%null%1,                          W.% Shan%null%1,                          S.% Wang%null%1,                          Y.% Rong%null%1,                          J.% Chang%null%1,                          X.% Miao%null%1,                          X.% Ma%null%1,                          S. % Wang%null%1,      P.%Cui%null%1,      Z.% Chen%null%1,      T.% Wang%null%2,      J.% Dai%null%1,      J.% Zhang%null%0,      T.% Ding%null%1,      J.% Jiang%null%0,      J.% Liu%null%0,      C.% Zhang%null%1,      W.% Shan%null%1,      S.% Wang%null%1,      Y.% Rong%null%1,      J.% Chang%null%1,      X.% Miao%null%1,      X.% Ma%null%0,      S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,               Tsung-Hao%Liu%null%1,               Thomas%Yau%null%1,               Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                         Yan%Pan%woshipanyan@126.com%1,                         Qingcui%Wu%NULL%1,                         Shan%Liu%NULL%1,                         Xu%Song%NULL%1,                         Zhongguo%Xie%NULL%1,                         Yang%Liu%NULL%1,                         Liang%Zhao%NULL%1,                         Zhonghong%Wang%NULL%1,                         Yifei%Zhang%NULL%1,                         Zuchuang%Wu%NULL%1,                         Lei%Guan%NULL%1,                         Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                         Sadegh%Niazi%NULL%1,                         Kaveh%Sadeghi%NULL%1,                         Kazem%Naddafi%NULL%1,                         Jila%Yavarian%NULL%1,                         Mansour%Shamsipour%NULL%1,                         Nazanin Zahra Shafiei%Jandaghi%NULL%1,                         Khosro%Sadeghniiat%NULL%1,                         Ramin%Nabizadeh%NULL%1,                         Masud%Yunesian%NULL%1,                         Fatemeh%Momeniha%NULL%1,                         Adel%Mokamel%NULL%1,                         Mohammad Sadegh%Hassanvand%NULL%1,                         Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                         Moon-Woo%Seong%NULL%1,                         Eun Young%Heo%NULL%1,                         Ji Hong%Park%NULL%1,                         Namhee%Kim%NULL%1,                         Sue%Shin%NULL%1,                         Sung Im%Cho%NULL%1,                         Sung Sup%Park%NULL%1,                         Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                         Matthew J.%Stuckey%NULL%1,                         Tara%Scheuer%NULL%1,                         Kerui%Xu%NULL%1,                         Kiran M.%Perkins%NULL%1,                         Heather%Resseger%NULL%1,                         Shelley%Magill%NULL%1,                         Jennifer R.%Verani%NULL%1,                         Seema%Jain%NULL%1,                         Meileen%Acosta%NULL%1,                         Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                         Xiuwen%Zhang%NULL%2,                         Xinyue%Zhang%NULL%2,                         Zhijian%Wei%NULL%2,                         Lingli%Zhang%NULL%2,                         Jingjing%Xu%NULL%2,                         Peipei%Liang%NULL%2,                         Yuanhong%Xu%xyhong1964@163.com%0,                         Chengyuan%Zhang%2396476405@qq.com%2,                         Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                         Xiuwen%Zhang%NULL%0,                         Xinyue%Zhang%NULL%0,                         Zhijian%Wei%NULL%0,                         Lingli%Zhang%NULL%0,                         Jingjing%Xu%NULL%0,                         Peipei%Liang%NULL%0,                         Yuanhong%Xu%xyhong1964@163.com%0,                         Chengyuan%Zhang%2396476405@qq.com%0,                         Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                         Juan%Xia%NULL%1,                         Yuxin%Chen%NULL%1,                         Chun%Shan%NULL%1,                         Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                         Rachael%Overcash%NULL%0,                         Neggin%Mokhtari%NULL%0,                         Haleema%Saeed%NULL%0,                         Stacey%Gold%NULL%0,                         Tamika%Auguste%NULL%0,                         Muhammad-Usman%Mirza%NULL%0,                         Maria-Elena%Ruiz%NULL%0,                         Joeffrey J.%Chahine%NULL%0,                         Joeffrey J.%Chahine%NULL%0,                         Masashi%Waga%NULL%0,                         Masashi%Waga%NULL%0,                         Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                         Mei%Luo%NULL%1,                         Zhen%Zou%NULL%1,                         Xu%Wang%875777340@qq.com%1,                         Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                         Jingfu%Qiu%jfqiu@126.com%2,                         Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                         Xiao-Li%Zhang%NULL%1,                         Xiang-Na%Zhao%NULL%1,                         Cun-Bao%Li%NULL%1,                         Jie%Lei%NULL%2,                         Zeng-Qiang%Kou%NULL%1,                         Wen-Kui%Sun%NULL%1,                         Yang%Hang%NULL%1,                         Feng%Gao%NULL%1,                         Sheng-Xiang%Ji%NULL%1,                         Can-Fang%Lin%NULL%1,                         Bo%Pang%NULL%1,                         Ming-Xiao%Yao%NULL%1,                         Benjamin D%Anderson%NULL%1,                         Guo-Lin%Wang%NULL%1,                         Lin%Yao%NULL%1,                         Li-Jun%Duan%NULL%1,                         Dian-Ming%Kang%dmkang66@163.com%1,                         Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                         Lam V%Nguyen%NULL%1,                         Dien M%Tran%NULL%1,                         Hai T%Do%NULL%1,                         Huong T%Tran%NULL%1,                         Yen T%Le%NULL%1,                         Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                         Jihyang%Lee%NULL%0,                         Jihyang%Lee%NULL%0,                         Eunju%Kim%NULL%0,                         Eunju%Kim%NULL%0,                         Kyeongyoon%Woo%NULL%0,                         Kyeongyoon%Woo%NULL%0,                         Hak Youle%Park%NULL%0,                         Hak Youle%Park%NULL%0,                         Jihyun%An%NULL%0,                         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                         Fang%Ji%NULL%1,                         Liang%Wang%NULL%1,                         Liping%Wang%NULL%1,                         Jungui%Hao%NULL%1,                         Mingjia%Dai%NULL%1,                         Yan%Liu%NULL%0,                         Xiucheng%Pan%NULL%1,                         Juanjuan%Fu%NULL%1,                         Li%Li%NULL%0,                         Guangde%Yang%NULL%1,                         Jianye%Yang%NULL%1,                         Xuebing%Yan%NULL%1,                         Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                         Meiling%Jin%NULL%1,                         Pengtao%Bao%NULL%1,                         Weiguo%Zhao%NULL%1,                         Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                         Lefei%Han%NULL%2,                         Min%Peng%2658706528@qq.com%2,                         Yuxia%Lv%NULL%2,                         Yin%Ouyang%NULL%2,                         Kui%Liu%NULL%0,                         Linli%Yue%NULL%2,                         Qiannan%Li%NULL%2,                         Guoqiang%Sun%NULL%2,                         Lin%Chen%NULL%2,                         Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                         Bo%Zhang%NULL%2,                         Jianhua%Lu%NULL%1,                         Shihua%Liu%NULL%1,                         Zhiqiang%Chang%NULL%1,                         Peng%Cao%NULL%1,                         Xinhua%Liu%NULL%1,                         Peng%Zhang%NULL%2,                         Yan%Ling%NULL%1,                         Kaixiong%Tao%NULL%1,                         Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                         Yingying%Hu%NULL%2,                         Yingying%Hu%NULL%0,                         Yuanyuan%Yu%NULL%1,                         Xiaodong%Zhang%NULL%1,                         Bin%Li%NULL%1,                         Jianguo%Wu%NULL%1,                         Junyu%Li%NULL%1,                         Yingping%Wu%NULL%1,                         Xiaoping%Xia%NULL%2,                         Xiaoping%Xia%NULL%0,                         Huina%Tang%NULL%1,                         Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                          H.% Qian%null%1,                          J.% Hang%null%1,                          X.% Chen%null%1,                          L.% Hong%null%1,                          P.% Liang%null%1,                          J.% Li%null%1,                          S.% Xiao%null%1,                          J.% Wei%null%1,                          L.% Liu%null%2,                          M. % Kang%null%1,      Y.%Li%null%1,      H.% Qian%null%1,      J.% Hang%null%1,      X.% Chen%null%0,      L.% Hong%null%1,      P.% Liang%null%1,      J.% Li%null%0,      S.% Xiao%null%1,      J.% Wei%null%1,      L.% Liu%null%2,      M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Jing%Wang%NULL%3,                         Wenbin%Li%NULL%1,                         Zhaoxian%Zhou%NULL%1,                         Siying%Liu%NULL%1,                         Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                          Tania%Paredes%NULL%0,                          Tania%Paredes%NULL%0,                          David%Caceres%NULL%0,                          Camille M.%Webb%NULL%0,                          Luis M.%Valdez%NULL%0,                          Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                          Claire M.%Midgley%NULL%1,                          Alissa%Dratch%NULL%1,                          Marty%Fenstersheib%NULL%1,                          Thomas%Haupt%NULL%1,                          Michelle%Holshue%NULL%1,                          Isaac%Ghinai%NULL%1,                          M. Claire%Jarashow%NULL%1,                          Jennifer%Lo%NULL%1,                          Tristan D.%McPherson%NULL%1,                          Sara%Rudman%NULL%1,                          Sarah%Scott%NULL%1,                          Aron J.%Hall%NULL%1,                          Alicia M.%Fry%NULL%1,                          Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                          Wenjie%Sun%NULL%1,                          Jianping%Huang%NULL%1,                          Michelle%Gamber%NULL%1,                          Jing%Wu%NULL%2,                          Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                          Shuofeng%Yuan%NULL%1,                          Kin-Hang%Kok%NULL%1,                          Kelvin Kai-Wang%To%NULL%1,                          Hin%Chu%NULL%1,                          Jin%Yang%NULL%1,                          Fanfan%Xing%NULL%1,                          Jieling%Liu%NULL%1,                          Cyril Chik-Yan%Yip%NULL%2,                          Rosana Wing-Shan%Poon%NULL%2,                          Hoi-Wah%Tsoi%NULL%1,                          Simon Kam-Fai%Lo%NULL%1,                          Kwok-Hung%Chan%NULL%2,                          Vincent Kwok-Man%Poon%NULL%1,                          Wan-Mui%Chan%NULL%2,                          Jonathan Daniel%Ip%NULL%2,                          Jian-Piao%Cai%NULL%2,                          Vincent Chi-Chung%Cheng%NULL%2,                          Honglin%Chen%NULL%2,                          Christopher Kim-Ming%Hui%NULL%1,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                          Juanjuan%Guo%NULL%0,                          Chen%Wang%NULL%0,                          Fan%Luo%NULL%1,                          Xuechen%Yu%NULL%0,                          Wei%Zhang%NULL%0,                          Jiafu%Li%NULL%0,                          Dongchi%Zhao%NULL%1,                          Dan%Xu%NULL%3,                          Qing%Gong%NULL%1,                          Jing%Liao%NULL%1,                          Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                          Wei%Hou%houwei@whu.edu.cn%0,                          Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                          Hua%Peng%NULL%1,                          Lin%Wang%NULL%3,                          Yin%Zhao%NULL%1,                          Lingkong%Zeng%NULL%1,                          Hui%Gao%NULL%1,                          Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                          Shu-Wan%Jian%NULL%1,                          Ding-Ping%Liu%NULL%1,                          Ta-Chou%Ng%NULL%1,                          Wan-Ting%Huang%NULL%1,                          Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                          Shuk-Ching%Wong%NULL%1,                          Jonathan H. K.%Chen%NULL%1,                          Cyril C. Y.%Yip%NULL%1,                          Vivien W. M.%Chuang%NULL%1,                          Owen T. Y.%Tsang%NULL%1,                          Siddharth%Sridhar%NULL%1,                          Jasper F. W.%Chan%NULL%1,                          Pak-Leung%Ho%NULL%1,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                          Kristen Kelli%Coleman%NULL%2,                          Kristen Kelli%Coleman%NULL%0,                          Yian Kim%Tan%NULL%2,                          Yian Kim%Tan%NULL%0,                          Sean Wei Xiang%Ong%NULL%1,                          Marcus%Gum%NULL%2,                          Marcus%Gum%NULL%0,                          Sok Kiang%Lau%NULL%1,                          Xiao Fang%Lim%NULL%1,                          Ai Sim%Lim%NULL%1,                          Stephanie%Sutjipto%NULL%1,                          Pei Hua%Lee%NULL%1,                          Than The%Son%NULL%1,                          Barnaby Edward%Young%NULL%1,                          Donald K.%Milton%NULL%1,                          Gregory C.%Gray%NULL%2,                          Gregory C.%Gray%NULL%0,                          Stephan%Schuster%NULL%2,                          Stephan%Schuster%NULL%0,                          Timothy%Barkham%NULL%1,                          Partha Pratim%De%NULL%2,                          Partha Pratim%De%NULL%0,                          Shawn%Vasoo%NULL%1,                          Monica%Chan%NULL%1,                          Brenda Sze Peng%Ang%NULL%1,                          Boon Huan%Tan%NULL%1,                          Yee-Sin%Leo%NULL%1,                          Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                          Michelle Su Yen%Wong%NULL%2,                          Michelle Su Yen%Wong%NULL%0,                          Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                          David Chien%Lye%NULL%2,                          David Chien%Lye%NULL%0,                          Poh Lian%Lim%NULL%1,                          Cheng Chuan%Lee%NULL%1,                          Li Min%Ling%NULL%1,                          Lawrence%Lee%NULL%1,                          Tau Hong%Lee%NULL%1,                          Chen Seong%Wong%NULL%1,                          Sapna%Sadarangani%NULL%1,                          Ray Junhao%Lin%NULL%1,                          Deborah Hee Ling%Ng%NULL%1,                          Mucheli%Sadasiv%NULL%1,                          Tsin Wen%Yeo%NULL%1,                          Chiaw Yee%Choy%NULL%1,                          Glorijoy Shi En%Tan%NULL%1,                          Frederico%Dimatatac%NULL%1,                          Isais Florante%Santos%NULL%1,                          Chi Jong%Go%NULL%1,                          Yu Kit%Chan%NULL%1,                          Jun Yang%Tay%NULL%1,                          Jackie Yu-Ling%Tan%NULL%1,                          Nihar%Pandit%NULL%1,                          Benjamin Choon Heng%Ho%NULL%1,                          Shehara%Mendis%NULL%1,                          Yuan Yi Constance%Chen%NULL%1,                          Mohammad Yazid%Abdad%NULL%1,                          Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                          Julie T S%Chu%NULL%1,                          Mahen R A%Perera%NULL%1,                          Kenrie P Y%Hui%NULL%1,                          Hui-Ling%Yen%NULL%1,                          Michael C W%Chan%NULL%1,                          Malik%Peiris%NULL%1,                          Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                          Daniele%Lapa%NULL%2,                          Fabrizio%Carletti%NULL%2,                          Eleonora%Lalle%NULL%2,                          Licia%Bordi%NULL%2,                          Patrizia%Marsella%NULL%2,                          Emanuele%Nicastri%NULL%2,                          Nazario%Bevilacqua%NULL%2,                          Maria Letizia%Giancola%NULL%2,                          Angela%Corpolongo%NULL%2,                          Giuseppe%Ippolito%NULL%2,                          Maria Rosaria%Capobianchi%NULL%2,                          Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                          Daniele%Lapa%NULL%0,                          Fabrizio%Carletti%NULL%0,                          Eleonora%Lalle%NULL%0,                          Licia%Bordi%NULL%0,                          Patrizia%Marsella%NULL%0,                          Emanuele%Nicastri%NULL%0,                          Nazario%Bevilacqua%NULL%0,                          Maria Letizia%Giancola%NULL%0,                          Angela%Corpolongo%NULL%0,                          Giuseppe%Ippolito%NULL%0,                          Maria Rosaria%Capobianchi%NULL%0,                          Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                           Z.% Chen%null%1,                           T.% Wang%null%2,                           J.% Dai%null%1,                           J.% Zhang%null%1,                           T.% Ding%null%1,                           J.% Jiang%null%1,                           J.% Liu%null%1,                           C.% Zhang%null%1,                           W.% Shan%null%1,                           S.% Wang%null%1,                           Y.% Rong%null%1,                           J.% Chang%null%1,                           X.% Miao%null%1,                           X.% Ma%null%1,                           S. % Wang%null%1,       P.%Cui%null%1,       Z.% Chen%null%1,       T.% Wang%null%2,       J.% Dai%null%1,       J.% Zhang%null%0,       T.% Ding%null%1,       J.% Jiang%null%0,       J.% Liu%null%0,       C.% Zhang%null%1,       W.% Shan%null%1,       S.% Wang%null%1,       Y.% Rong%null%1,       J.% Chang%null%1,       X.% Miao%null%1,       X.% Ma%null%0,       S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,                Tsung-Hao%Liu%null%1,                Thomas%Yau%null%1,                Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                          Yan%Pan%woshipanyan@126.com%1,                          Qingcui%Wu%NULL%1,                          Shan%Liu%NULL%1,                          Xu%Song%NULL%1,                          Zhongguo%Xie%NULL%1,                          Yang%Liu%NULL%1,                          Liang%Zhao%NULL%1,                          Zhonghong%Wang%NULL%1,                          Yifei%Zhang%NULL%1,                          Zuchuang%Wu%NULL%1,                          Lei%Guan%NULL%1,                          Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                          Sadegh%Niazi%NULL%1,                          Kaveh%Sadeghi%NULL%1,                          Kazem%Naddafi%NULL%1,                          Jila%Yavarian%NULL%1,                          Mansour%Shamsipour%NULL%1,                          Nazanin Zahra Shafiei%Jandaghi%NULL%1,                          Khosro%Sadeghniiat%NULL%1,                          Ramin%Nabizadeh%NULL%1,                          Masud%Yunesian%NULL%1,                          Fatemeh%Momeniha%NULL%1,                          Adel%Mokamel%NULL%1,                          Mohammad Sadegh%Hassanvand%NULL%1,                          Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                          Moon-Woo%Seong%NULL%1,                          Eun Young%Heo%NULL%1,                          Ji Hong%Park%NULL%1,                          Namhee%Kim%NULL%1,                          Sue%Shin%NULL%1,                          Sung Im%Cho%NULL%1,                          Sung Sup%Park%NULL%1,                          Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                          Matthew J.%Stuckey%NULL%1,                          Tara%Scheuer%NULL%1,                          Kerui%Xu%NULL%1,                          Kiran M.%Perkins%NULL%1,                          Heather%Resseger%NULL%1,                          Shelley%Magill%NULL%1,                          Jennifer R.%Verani%NULL%1,                          Seema%Jain%NULL%1,                          Meileen%Acosta%NULL%1,                          Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                          Xiuwen%Zhang%NULL%2,                          Xinyue%Zhang%NULL%2,                          Zhijian%Wei%NULL%2,                          Lingli%Zhang%NULL%2,                          Jingjing%Xu%NULL%2,                          Peipei%Liang%NULL%2,                          Yuanhong%Xu%xyhong1964@163.com%0,                          Chengyuan%Zhang%2396476405@qq.com%2,                          Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                          Xiuwen%Zhang%NULL%0,                          Xinyue%Zhang%NULL%0,                          Zhijian%Wei%NULL%0,                          Lingli%Zhang%NULL%0,                          Jingjing%Xu%NULL%0,                          Peipei%Liang%NULL%0,                          Yuanhong%Xu%xyhong1964@163.com%0,                          Chengyuan%Zhang%2396476405@qq.com%0,                          Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                          Juan%Xia%NULL%1,                          Yuxin%Chen%NULL%1,                          Chun%Shan%NULL%1,                          Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                          Rachael%Overcash%NULL%0,                          Neggin%Mokhtari%NULL%0,                          Haleema%Saeed%NULL%0,                          Stacey%Gold%NULL%0,                          Tamika%Auguste%NULL%0,                          Muhammad-Usman%Mirza%NULL%0,                          Maria-Elena%Ruiz%NULL%0,                          Joeffrey J.%Chahine%NULL%0,                          Joeffrey J.%Chahine%NULL%0,                          Masashi%Waga%NULL%0,                          Masashi%Waga%NULL%0,                          Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                          Mei%Luo%NULL%1,                          Zhen%Zou%NULL%1,                          Xu%Wang%875777340@qq.com%1,                          Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                          Jingfu%Qiu%jfqiu@126.com%2,                          Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                          Xiao-Li%Zhang%NULL%1,                          Xiang-Na%Zhao%NULL%1,                          Cun-Bao%Li%NULL%1,                          Jie%Lei%NULL%2,                          Zeng-Qiang%Kou%NULL%1,                          Wen-Kui%Sun%NULL%1,                          Yang%Hang%NULL%1,                          Feng%Gao%NULL%1,                          Sheng-Xiang%Ji%NULL%1,                          Can-Fang%Lin%NULL%1,                          Bo%Pang%NULL%1,                          Ming-Xiao%Yao%NULL%1,                          Benjamin D%Anderson%NULL%1,                          Guo-Lin%Wang%NULL%1,                          Lin%Yao%NULL%1,                          Li-Jun%Duan%NULL%1,                          Dian-Ming%Kang%dmkang66@163.com%1,                          Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                          Lam V%Nguyen%NULL%1,                          Dien M%Tran%NULL%1,                          Hai T%Do%NULL%1,                          Huong T%Tran%NULL%1,                          Yen T%Le%NULL%1,                          Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                          Jihyang%Lee%NULL%0,                          Jihyang%Lee%NULL%0,                          Eunju%Kim%NULL%0,                          Eunju%Kim%NULL%0,                          Kyeongyoon%Woo%NULL%0,                          Kyeongyoon%Woo%NULL%0,                          Hak Youle%Park%NULL%0,                          Hak Youle%Park%NULL%0,                          Jihyun%An%NULL%0,                          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                          Fang%Ji%NULL%1,                          Liang%Wang%NULL%1,                          Liping%Wang%NULL%1,                          Jungui%Hao%NULL%1,                          Mingjia%Dai%NULL%1,                          Yan%Liu%NULL%0,                          Xiucheng%Pan%NULL%1,                          Juanjuan%Fu%NULL%1,                          Li%Li%NULL%0,                          Guangde%Yang%NULL%1,                          Jianye%Yang%NULL%1,                          Xuebing%Yan%NULL%1,                          Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                          Meiling%Jin%NULL%1,                          Pengtao%Bao%NULL%1,                          Weiguo%Zhao%NULL%1,                          Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                          Lefei%Han%NULL%2,                          Min%Peng%2658706528@qq.com%2,                          Yuxia%Lv%NULL%2,                          Yin%Ouyang%NULL%2,                          Kui%Liu%NULL%0,                          Linli%Yue%NULL%2,                          Qiannan%Li%NULL%2,                          Guoqiang%Sun%NULL%2,                          Lin%Chen%NULL%2,                          Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                          Bo%Zhang%NULL%2,                          Jianhua%Lu%NULL%1,                          Shihua%Liu%NULL%1,                          Zhiqiang%Chang%NULL%1,                          Peng%Cao%NULL%1,                          Xinhua%Liu%NULL%1,                          Peng%Zhang%NULL%2,                          Yan%Ling%NULL%1,                          Kaixiong%Tao%NULL%1,                          Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                          Yingying%Hu%NULL%2,                          Yingying%Hu%NULL%0,                          Yuanyuan%Yu%NULL%1,                          Xiaodong%Zhang%NULL%1,                          Bin%Li%NULL%1,                          Jianguo%Wu%NULL%1,                          Junyu%Li%NULL%1,                          Yingping%Wu%NULL%1,                          Xiaoping%Xia%NULL%2,                          Xiaoping%Xia%NULL%0,                          Huina%Tang%NULL%1,                          Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                           H.% Qian%null%1,                           J.% Hang%null%1,                           X.% Chen%null%1,                           L.% Hong%null%1,                           P.% Liang%null%1,                           J.% Li%null%1,                           S.% Xiao%null%1,                           J.% Wei%null%1,                           L.% Liu%null%2,                           M. % Kang%null%1,       Y.%Li%null%1,       H.% Qian%null%1,       J.% Hang%null%1,       X.% Chen%null%0,       L.% Hong%null%1,       P.% Liang%null%1,       J.% Li%null%0,       S.% Xiao%null%1,       J.% Wei%null%1,       L.% Liu%null%2,       M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Jing%Wang%NULL%3,                          Wenbin%Li%NULL%1,                          Zhaoxian%Zhou%NULL%1,                          Siying%Liu%NULL%1,                          Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3345,6 +3858,9 @@
       <c r="I1" t="s">
         <v>291</v>
       </c>
+      <c r="J1" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3360,7 +3876,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>1035</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3373,6 +3889,9 @@
       </c>
       <c r="I2" t="s">
         <v>823</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -3389,7 +3908,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>863</v>
+        <v>1036</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3402,6 +3921,9 @@
       </c>
       <c r="I3" t="s">
         <v>823</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -3418,7 +3940,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>864</v>
+        <v>1037</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3431,6 +3953,9 @@
       </c>
       <c r="I4" t="s">
         <v>823</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -3447,7 +3972,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>865</v>
+        <v>1038</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3460,6 +3985,9 @@
       </c>
       <c r="I5" t="s">
         <v>827</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -3476,7 +4004,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>866</v>
+        <v>1039</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -3489,6 +4017,9 @@
       </c>
       <c r="I6" t="s">
         <v>827</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -3505,7 +4036,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>867</v>
+        <v>583</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3514,10 +4045,13 @@
         <v>439</v>
       </c>
       <c r="H7" t="s">
-        <v>440</v>
+        <v>904</v>
       </c>
       <c r="I7" t="s">
-        <v>830</v>
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="8">
@@ -3534,7 +4068,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>868</v>
+        <v>1040</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -3547,6 +4081,9 @@
       </c>
       <c r="I8" t="s">
         <v>823</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -3563,7 +4100,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>869</v>
+        <v>1041</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3576,6 +4113,9 @@
       </c>
       <c r="I9" t="s">
         <v>823</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3592,7 +4132,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>870</v>
+        <v>1042</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3605,6 +4145,9 @@
       </c>
       <c r="I10" t="s">
         <v>823</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -3621,7 +4164,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>871</v>
+        <v>1043</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3634,6 +4177,9 @@
       </c>
       <c r="I11" t="s">
         <v>835</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -3650,7 +4196,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>872</v>
+        <v>1044</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3663,6 +4209,9 @@
       </c>
       <c r="I12" t="s">
         <v>827</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -3679,7 +4228,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>873</v>
+        <v>1045</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3692,6 +4241,9 @@
       </c>
       <c r="I13" t="s">
         <v>823</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -3708,7 +4260,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>874</v>
+        <v>1046</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -3721,6 +4273,9 @@
       </c>
       <c r="I14" t="s">
         <v>823</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -3737,7 +4292,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>875</v>
+        <v>1047</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3750,6 +4305,9 @@
       </c>
       <c r="I15" t="s">
         <v>840</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -3766,7 +4324,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>876</v>
+        <v>593</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3775,10 +4333,13 @@
         <v>439</v>
       </c>
       <c r="H16" t="s">
-        <v>451</v>
+        <v>914</v>
       </c>
       <c r="I16" t="s">
-        <v>830</v>
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="17">
@@ -3795,7 +4356,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>877</v>
+        <v>1048</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3808,6 +4369,9 @@
       </c>
       <c r="I17" t="s">
         <v>830</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -3824,7 +4388,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>878</v>
+        <v>1049</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -3837,6 +4401,9 @@
       </c>
       <c r="I18" t="s">
         <v>823</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -3853,7 +4420,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>879</v>
+        <v>1050</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3866,6 +4433,9 @@
       </c>
       <c r="I19" t="s">
         <v>827</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -3896,6 +4466,9 @@
       <c r="I20" t="s">
         <v>57</v>
       </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
@@ -3911,7 +4484,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>880</v>
+        <v>1051</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -3924,6 +4497,9 @@
       </c>
       <c r="I21" t="s">
         <v>823</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -3940,7 +4516,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>881</v>
+        <v>1052</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3953,6 +4529,9 @@
       </c>
       <c r="I22" t="s">
         <v>823</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -3969,7 +4548,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>882</v>
+        <v>1053</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -3982,6 +4561,9 @@
       </c>
       <c r="I23" t="s">
         <v>827</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -3998,7 +4580,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>883</v>
+        <v>1054</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -4011,6 +4593,9 @@
       </c>
       <c r="I24" t="s">
         <v>827</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -4027,7 +4612,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>884</v>
+        <v>1055</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -4040,6 +4625,9 @@
       </c>
       <c r="I25" t="s">
         <v>827</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -4056,7 +4644,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>885</v>
+        <v>1056</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -4069,6 +4657,9 @@
       </c>
       <c r="I26" t="s">
         <v>823</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -4085,7 +4676,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>886</v>
+        <v>1057</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -4098,6 +4689,9 @@
       </c>
       <c r="I27" t="s">
         <v>823</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -4114,7 +4708,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>887</v>
+        <v>1058</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -4127,6 +4721,9 @@
       </c>
       <c r="I28" t="s">
         <v>823</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -4157,6 +4754,9 @@
       <c r="I29" t="s">
         <v>823</v>
       </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
@@ -4172,7 +4772,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>888</v>
+        <v>1059</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -4185,6 +4785,9 @@
       </c>
       <c r="I30" t="s">
         <v>827</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -4201,7 +4804,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>889</v>
+        <v>1060</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -4214,6 +4817,9 @@
       </c>
       <c r="I31" t="s">
         <v>823</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -4230,7 +4836,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>889</v>
+        <v>1060</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -4243,6 +4849,9 @@
       </c>
       <c r="I32" t="s">
         <v>823</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33">
@@ -4259,7 +4868,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>890</v>
+        <v>1061</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -4272,6 +4881,9 @@
       </c>
       <c r="I33" t="s">
         <v>823</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
@@ -4288,7 +4900,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>891</v>
+        <v>1062</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -4301,6 +4913,9 @@
       </c>
       <c r="I34" t="s">
         <v>823</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -4317,7 +4932,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>892</v>
+        <v>1063</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4330,6 +4945,9 @@
       </c>
       <c r="I35" t="s">
         <v>823</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36">
@@ -4346,7 +4964,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>893</v>
+        <v>1064</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -4359,6 +4977,9 @@
       </c>
       <c r="I36" t="s">
         <v>823</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -4375,7 +4996,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>894</v>
+        <v>1065</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -4388,6 +5009,9 @@
       </c>
       <c r="I37" t="s">
         <v>823</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -4404,7 +5028,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>895</v>
+        <v>1066</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -4417,6 +5041,9 @@
       </c>
       <c r="I38" t="s">
         <v>840</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39">
@@ -4433,7 +5060,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>896</v>
+        <v>1067</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
@@ -4446,6 +5073,9 @@
       </c>
       <c r="I39" t="s">
         <v>835</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40">

--- a/Covid_19_Dataset_and_References/References/70.xlsx
+++ b/Covid_19_Dataset_and_References/References/70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7491" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="1141">
   <si>
     <t>Doi</t>
   </si>
@@ -3463,6 +3463,240 @@
   </si>
   <si>
     <t>[Wei%Liu%NULL%0,                          Jing%Wang%NULL%3,                          Wenbin%Li%NULL%1,                          Zhaoxian%Zhou%NULL%1,                          Siying%Liu%NULL%1,                          Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                           Tania%Paredes%NULL%0,                           Tania%Paredes%NULL%0,                           David%Caceres%NULL%0,                           Camille M.%Webb%NULL%0,                           Luis M.%Valdez%NULL%0,                           Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                           Claire M.%Midgley%NULL%1,                           Alissa%Dratch%NULL%1,                           Marty%Fenstersheib%NULL%1,                           Thomas%Haupt%NULL%1,                           Michelle%Holshue%NULL%1,                           Isaac%Ghinai%NULL%1,                           M. Claire%Jarashow%NULL%1,                           Jennifer%Lo%NULL%1,                           Tristan D.%McPherson%NULL%1,                           Sara%Rudman%NULL%1,                           Sarah%Scott%NULL%1,                           Aron J.%Hall%NULL%1,                           Alicia M.%Fry%NULL%1,                           Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                           Wenjie%Sun%NULL%1,                           Jianping%Huang%NULL%1,                           Michelle%Gamber%NULL%1,                           Jing%Wu%NULL%2,                           Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                           Shuofeng%Yuan%NULL%1,                           Kin-Hang%Kok%NULL%1,                           Kelvin Kai-Wang%To%NULL%1,                           Hin%Chu%NULL%1,                           Jin%Yang%NULL%1,                           Fanfan%Xing%NULL%1,                           Jieling%Liu%NULL%1,                           Cyril Chik-Yan%Yip%NULL%2,                           Rosana Wing-Shan%Poon%NULL%2,                           Hoi-Wah%Tsoi%NULL%1,                           Simon Kam-Fai%Lo%NULL%1,                           Kwok-Hung%Chan%NULL%2,                           Vincent Kwok-Man%Poon%NULL%1,                           Wan-Mui%Chan%NULL%2,                           Jonathan Daniel%Ip%NULL%2,                           Jian-Piao%Cai%NULL%2,                           Vincent Chi-Chung%Cheng%NULL%2,                           Honglin%Chen%NULL%2,                           Christopher Kim-Ming%Hui%NULL%1,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                           Juanjuan%Guo%NULL%0,                           Chen%Wang%NULL%0,                           Fan%Luo%NULL%1,                           Xuechen%Yu%NULL%0,                           Wei%Zhang%NULL%0,                           Jiafu%Li%NULL%0,                           Dongchi%Zhao%NULL%1,                           Dan%Xu%NULL%3,                           Qing%Gong%NULL%1,                           Jing%Liao%NULL%1,                           Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                           Wei%Hou%houwei@whu.edu.cn%0,                           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                           Hua%Peng%NULL%1,                           Lin%Wang%NULL%3,                           Yin%Zhao%NULL%1,                           Lingkong%Zeng%NULL%1,                           Hui%Gao%NULL%1,                           Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                           Shu-Wan%Jian%NULL%1,                           Ding-Ping%Liu%NULL%1,                           Ta-Chou%Ng%NULL%1,                           Wan-Ting%Huang%NULL%1,                           Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                           Shuk-Ching%Wong%NULL%1,                           Jonathan H. K.%Chen%NULL%1,                           Cyril C. Y.%Yip%NULL%1,                           Vivien W. M.%Chuang%NULL%1,                           Owen T. Y.%Tsang%NULL%1,                           Siddharth%Sridhar%NULL%1,                           Jasper F. W.%Chan%NULL%1,                           Pak-Leung%Ho%NULL%1,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                           Kristen Kelli%Coleman%NULL%2,                           Kristen Kelli%Coleman%NULL%0,                           Yian Kim%Tan%NULL%2,                           Yian Kim%Tan%NULL%0,                           Sean Wei Xiang%Ong%NULL%1,                           Marcus%Gum%NULL%2,                           Marcus%Gum%NULL%0,                           Sok Kiang%Lau%NULL%1,                           Xiao Fang%Lim%NULL%1,                           Ai Sim%Lim%NULL%1,                           Stephanie%Sutjipto%NULL%1,                           Pei Hua%Lee%NULL%1,                           Than The%Son%NULL%1,                           Barnaby Edward%Young%NULL%1,                           Donald K.%Milton%NULL%1,                           Gregory C.%Gray%NULL%2,                           Gregory C.%Gray%NULL%0,                           Stephan%Schuster%NULL%2,                           Stephan%Schuster%NULL%0,                           Timothy%Barkham%NULL%1,                           Partha Pratim%De%NULL%2,                           Partha Pratim%De%NULL%0,                           Shawn%Vasoo%NULL%1,                           Monica%Chan%NULL%1,                           Brenda Sze Peng%Ang%NULL%1,                           Boon Huan%Tan%NULL%1,                           Yee-Sin%Leo%NULL%1,                           Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                           Michelle Su Yen%Wong%NULL%2,                           Michelle Su Yen%Wong%NULL%0,                           Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                           David Chien%Lye%NULL%2,                           David Chien%Lye%NULL%0,                           Poh Lian%Lim%NULL%1,                           Cheng Chuan%Lee%NULL%1,                           Li Min%Ling%NULL%1,                           Lawrence%Lee%NULL%1,                           Tau Hong%Lee%NULL%1,                           Chen Seong%Wong%NULL%1,                           Sapna%Sadarangani%NULL%1,                           Ray Junhao%Lin%NULL%1,                           Deborah Hee Ling%Ng%NULL%1,                           Mucheli%Sadasiv%NULL%1,                           Tsin Wen%Yeo%NULL%1,                           Chiaw Yee%Choy%NULL%1,                           Glorijoy Shi En%Tan%NULL%1,                           Frederico%Dimatatac%NULL%1,                           Isais Florante%Santos%NULL%1,                           Chi Jong%Go%NULL%1,                           Yu Kit%Chan%NULL%1,                           Jun Yang%Tay%NULL%1,                           Jackie Yu-Ling%Tan%NULL%1,                           Nihar%Pandit%NULL%1,                           Benjamin Choon Heng%Ho%NULL%1,                           Shehara%Mendis%NULL%1,                           Yuan Yi Constance%Chen%NULL%1,                           Mohammad Yazid%Abdad%NULL%1,                           Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                           Julie T S%Chu%NULL%1,                           Mahen R A%Perera%NULL%1,                           Kenrie P Y%Hui%NULL%1,                           Hui-Ling%Yen%NULL%1,                           Michael C W%Chan%NULL%1,                           Malik%Peiris%NULL%1,                           Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                           Daniele%Lapa%NULL%2,                           Fabrizio%Carletti%NULL%2,                           Eleonora%Lalle%NULL%2,                           Licia%Bordi%NULL%2,                           Patrizia%Marsella%NULL%2,                           Emanuele%Nicastri%NULL%2,                           Nazario%Bevilacqua%NULL%2,                           Maria Letizia%Giancola%NULL%2,                           Angela%Corpolongo%NULL%2,                           Giuseppe%Ippolito%NULL%2,                           Maria Rosaria%Capobianchi%NULL%2,                           Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                           Daniele%Lapa%NULL%0,                           Fabrizio%Carletti%NULL%0,                           Eleonora%Lalle%NULL%0,                           Licia%Bordi%NULL%0,                           Patrizia%Marsella%NULL%0,                           Emanuele%Nicastri%NULL%0,                           Nazario%Bevilacqua%NULL%0,                           Maria Letizia%Giancola%NULL%0,                           Angela%Corpolongo%NULL%0,                           Giuseppe%Ippolito%NULL%0,                           Maria Rosaria%Capobianchi%NULL%0,                           Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                            Z.% Chen%null%1,                            T.% Wang%null%2,                            J.% Dai%null%1,                            J.% Zhang%null%1,                            T.% Ding%null%1,                            J.% Jiang%null%1,                            J.% Liu%null%1,                            C.% Zhang%null%1,                            W.% Shan%null%1,                            S.% Wang%null%1,                            Y.% Rong%null%1,                            J.% Chang%null%1,                            X.% Miao%null%1,                            X.% Ma%null%1,                            S. % Wang%null%1,        P.%Cui%null%1,        Z.% Chen%null%1,        T.% Wang%null%2,        J.% Dai%null%1,        J.% Zhang%null%0,        T.% Ding%null%1,        J.% Jiang%null%0,        J.% Liu%null%0,        C.% Zhang%null%1,        W.% Shan%null%1,        S.% Wang%null%1,        Y.% Rong%null%1,        J.% Chang%null%1,        X.% Miao%null%1,        X.% Ma%null%0,        S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,                 Tsung-Hao%Liu%null%1,                 Thomas%Yau%null%1,                 Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                           Yan%Pan%woshipanyan@126.com%1,                           Qingcui%Wu%NULL%1,                           Shan%Liu%NULL%1,                           Xu%Song%NULL%1,                           Zhongguo%Xie%NULL%1,                           Yang%Liu%NULL%1,                           Liang%Zhao%NULL%1,                           Zhonghong%Wang%NULL%1,                           Yifei%Zhang%NULL%1,                           Zuchuang%Wu%NULL%1,                           Lei%Guan%NULL%1,                           Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                           Sadegh%Niazi%NULL%1,                           Kaveh%Sadeghi%NULL%1,                           Kazem%Naddafi%NULL%1,                           Jila%Yavarian%NULL%1,                           Mansour%Shamsipour%NULL%1,                           Nazanin Zahra Shafiei%Jandaghi%NULL%1,                           Khosro%Sadeghniiat%NULL%1,                           Ramin%Nabizadeh%NULL%1,                           Masud%Yunesian%NULL%1,                           Fatemeh%Momeniha%NULL%1,                           Adel%Mokamel%NULL%1,                           Mohammad Sadegh%Hassanvand%NULL%1,                           Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Epidemiological analysis on 1 052 cases of COVID-19 in epidemic clusters].</t>
+  </si>
+  <si>
+    <t>Objective: To understand the epidemiological characteristics of the cases of COVID-19 epidemic clusters, and explore the influence of family factors and social factors such as group activities on the spread of the disease. Methods: The data of cases of COVID-19 epidemic clusters from 19 January, 2020 to 25 February, 2020 were collected from the official platforms of 36 cities in 6 provinces in China. Descriptive statistical methods, χ(2) test and curve fitting were used to analyze the epidemiological characteristics of the clustered cases. Results: By 25 February, 2020, the data of 1 052 cases in 366 epidemic clusters were collected. In these clustered cases, 86.9%(914/1 050) occurred in families. Among the 1 046 cases with gender information, 513 were males (49.0%) and 533 were females (51.0%). The cases were mainly young adults between 18 and 59 years old, accounting for 68.5% (711/1 038). In the 366 epidemic clusters , the clusters in which the first confirmed cases with the history of sojourn in Wuhan or Hubei accounted for 47.0%(172/366). From 19 January to 3 February, 2020, the first confirmed cases with Wuhan or Hubei sojourn history accounted for 66.5%. From 4 to 25 February, the first confirmed cases who had Wuhan or Hubei sojourn history accounted for only 18.2%. The median of interval between the first generation case onset and the second generation case onset was 5 (2-8) days. The median of onset- diagnosis interval of the initial cases was 6 (3-9) days, and the median of onset-diagnosis interval of the secondary cases was 5 (3-8) days. Conclusions: Epidemic clusters of COVID-19 were common in many cities outside Wuhan and Hubei. Close contact in family was one of the main causes for the spread of household transmission of the virus. After 4 February, the epidemic clusters were mainly caused by the first generation or second generation cases in local areas, and the time for diagnosis became shorter.</t>
+  </si>
+  <si>
+    <t>[ H%Gan%elasticNoEmail%1,  Y% Zhang%elasticNoEmail%1,  M% Yuan%elasticNoEmail%1,  X Y% Wu%elasticNoEmail%1,  Z R% Liu%elasticNoEmail%1,  M% Liu%elasticNoEmail%1,  J B% Wu%elasticNoEmail%1,  S J% Xu%elasticNoEmail%1,  L% Gong%elasticNoEmail%1,  H L% Xu%elasticNoEmail%1,  F B% Tao%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                           Moon-Woo%Seong%NULL%1,                           Eun Young%Heo%NULL%1,                           Ji Hong%Park%NULL%1,                           Namhee%Kim%NULL%1,                           Sue%Shin%NULL%1,                           Sung Im%Cho%NULL%1,                           Sung Sup%Park%NULL%1,                           Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                           Matthew J.%Stuckey%NULL%1,                           Tara%Scheuer%NULL%1,                           Kerui%Xu%NULL%1,                           Kiran M.%Perkins%NULL%1,                           Heather%Resseger%NULL%1,                           Shelley%Magill%NULL%1,                           Jennifer R.%Verani%NULL%1,                           Seema%Jain%NULL%1,                           Meileen%Acosta%NULL%1,                           Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                           Xiuwen%Zhang%NULL%2,                           Xinyue%Zhang%NULL%2,                           Zhijian%Wei%NULL%2,                           Lingli%Zhang%NULL%2,                           Jingjing%Xu%NULL%2,                           Peipei%Liang%NULL%2,                           Yuanhong%Xu%xyhong1964@163.com%0,                           Chengyuan%Zhang%2396476405@qq.com%2,                           Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                           Xiuwen%Zhang%NULL%0,                           Xinyue%Zhang%NULL%0,                           Zhijian%Wei%NULL%0,                           Lingli%Zhang%NULL%0,                           Jingjing%Xu%NULL%0,                           Peipei%Liang%NULL%0,                           Yuanhong%Xu%xyhong1964@163.com%0,                           Chengyuan%Zhang%2396476405@qq.com%0,                           Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                           Juan%Xia%NULL%1,                           Yuxin%Chen%NULL%1,                           Chun%Shan%NULL%1,                           Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                           Rachael%Overcash%NULL%0,                           Neggin%Mokhtari%NULL%0,                           Haleema%Saeed%NULL%0,                           Stacey%Gold%NULL%0,                           Tamika%Auguste%NULL%0,                           Muhammad-Usman%Mirza%NULL%0,                           Maria-Elena%Ruiz%NULL%0,                           Joeffrey J.%Chahine%NULL%0,                           Joeffrey J.%Chahine%NULL%0,                           Masashi%Waga%NULL%0,                           Masashi%Waga%NULL%0,                           Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                           Mei%Luo%NULL%1,                           Zhen%Zou%NULL%1,                           Xu%Wang%875777340@qq.com%1,                           Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                           Jingfu%Qiu%jfqiu@126.com%2,                           Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                           Xiao-Li%Zhang%NULL%1,                           Xiang-Na%Zhao%NULL%1,                           Cun-Bao%Li%NULL%1,                           Jie%Lei%NULL%2,                           Zeng-Qiang%Kou%NULL%1,                           Wen-Kui%Sun%NULL%1,                           Yang%Hang%NULL%1,                           Feng%Gao%NULL%1,                           Sheng-Xiang%Ji%NULL%1,                           Can-Fang%Lin%NULL%1,                           Bo%Pang%NULL%1,                           Ming-Xiao%Yao%NULL%1,                           Benjamin D%Anderson%NULL%1,                           Guo-Lin%Wang%NULL%1,                           Lin%Yao%NULL%1,                           Li-Jun%Duan%NULL%1,                           Dian-Ming%Kang%dmkang66@163.com%1,                           Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                           Lam V%Nguyen%NULL%1,                           Dien M%Tran%NULL%1,                           Hai T%Do%NULL%1,                           Huong T%Tran%NULL%1,                           Yen T%Le%NULL%1,                           Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                           Jihyang%Lee%NULL%0,                           Jihyang%Lee%NULL%0,                           Eunju%Kim%NULL%0,                           Eunju%Kim%NULL%0,                           Kyeongyoon%Woo%NULL%0,                           Kyeongyoon%Woo%NULL%0,                           Hak Youle%Park%NULL%0,                           Hak Youle%Park%NULL%0,                           Jihyun%An%NULL%0,                           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                           Fang%Ji%NULL%1,                           Liang%Wang%NULL%1,                           Liping%Wang%NULL%1,                           Jungui%Hao%NULL%1,                           Mingjia%Dai%NULL%1,                           Yan%Liu%NULL%0,                           Xiucheng%Pan%NULL%1,                           Juanjuan%Fu%NULL%1,                           Li%Li%NULL%0,                           Guangde%Yang%NULL%1,                           Jianye%Yang%NULL%1,                           Xuebing%Yan%NULL%1,                           Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                           Meiling%Jin%NULL%1,                           Pengtao%Bao%NULL%1,                           Weiguo%Zhao%NULL%1,                           Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                           Lefei%Han%NULL%2,                           Min%Peng%2658706528@qq.com%2,                           Yuxia%Lv%NULL%2,                           Yin%Ouyang%NULL%2,                           Kui%Liu%NULL%0,                           Linli%Yue%NULL%2,                           Qiannan%Li%NULL%2,                           Guoqiang%Sun%NULL%2,                           Lin%Chen%NULL%2,                           Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                           Bo%Zhang%NULL%2,                           Jianhua%Lu%NULL%1,                           Shihua%Liu%NULL%1,                           Zhiqiang%Chang%NULL%1,                           Peng%Cao%NULL%1,                           Xinhua%Liu%NULL%1,                           Peng%Zhang%NULL%2,                           Yan%Ling%NULL%1,                           Kaixiong%Tao%NULL%1,                           Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                           Yingying%Hu%NULL%2,                           Yingying%Hu%NULL%0,                           Yuanyuan%Yu%NULL%1,                           Xiaodong%Zhang%NULL%1,                           Bin%Li%NULL%1,                           Jianguo%Wu%NULL%1,                           Junyu%Li%NULL%1,                           Yingping%Wu%NULL%1,                           Xiaoping%Xia%NULL%2,                           Xiaoping%Xia%NULL%0,                           Huina%Tang%NULL%1,                           Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                            H.% Qian%null%1,                            J.% Hang%null%1,                            X.% Chen%null%1,                            L.% Hong%null%1,                            P.% Liang%null%1,                            J.% Li%null%1,                            S.% Xiao%null%1,                            J.% Wei%null%1,                            L.% Liu%null%2,                            M. % Kang%null%1,        Y.%Li%null%1,        H.% Qian%null%1,        J.% Hang%null%1,        X.% Chen%null%0,        L.% Hong%null%1,        P.% Liang%null%1,        J.% Li%null%0,        S.% Xiao%null%1,        J.% Wei%null%1,        L.% Liu%null%2,        M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Jing%Wang%NULL%3,                           Wenbin%Li%NULL%1,                           Zhaoxian%Zhou%NULL%1,                           Siying%Liu%NULL%1,                           Zhihui%Rong%rongzhihui53@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0,                            Tania%Paredes%NULL%0,                            Tania%Paredes%NULL%0,                            David%Caceres%NULL%0,                            Camille M.%Webb%NULL%0,                            Luis M.%Valdez%NULL%0,                            Mauricio%La Rosa%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rachel M.%Burke%NULL%1,                            Claire M.%Midgley%NULL%1,                            Alissa%Dratch%NULL%1,                            Marty%Fenstersheib%NULL%1,                            Thomas%Haupt%NULL%1,                            Michelle%Holshue%NULL%1,                            Isaac%Ghinai%NULL%1,                            M. Claire%Jarashow%NULL%1,                            Jennifer%Lo%NULL%1,                            Tristan D.%McPherson%NULL%1,                            Sara%Rudman%NULL%1,                            Sarah%Scott%NULL%1,                            Aron J.%Hall%NULL%1,                            Alicia M.%Fry%NULL%1,                            Melissa A.%Rolfes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Cai%NULL%1,                            Wenjie%Sun%NULL%1,                            Jianping%Huang%NULL%1,                            Michelle%Gamber%NULL%1,                            Jing%Wu%NULL%2,                            Guiqing%He%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0,                            Shuofeng%Yuan%NULL%1,                            Kin-Hang%Kok%NULL%1,                            Kelvin Kai-Wang%To%NULL%1,                            Hin%Chu%NULL%1,                            Jin%Yang%NULL%1,                            Fanfan%Xing%NULL%1,                            Jieling%Liu%NULL%1,                            Cyril Chik-Yan%Yip%NULL%2,                            Rosana Wing-Shan%Poon%NULL%2,                            Hoi-Wah%Tsoi%NULL%1,                            Simon Kam-Fai%Lo%NULL%1,                            Kwok-Hung%Chan%NULL%2,                            Vincent Kwok-Man%Poon%NULL%1,                            Wan-Mui%Chan%NULL%2,                            Jonathan Daniel%Ip%NULL%2,                            Jian-Piao%Cai%NULL%2,                            Vincent Chi-Chung%Cheng%NULL%2,                            Honglin%Chen%NULL%2,                            Christopher Kim-Ming%Hui%NULL%1,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0,                            Juanjuan%Guo%NULL%0,                            Chen%Wang%NULL%0,                            Fan%Luo%NULL%1,                            Xuechen%Yu%NULL%0,                            Wei%Zhang%NULL%0,                            Jiafu%Li%NULL%0,                            Dongchi%Zhao%NULL%1,                            Dan%Xu%NULL%3,                            Qing%Gong%NULL%1,                            Jing%Liao%NULL%1,                            Huixia%Yang%yanghuixia@bjmu.edu.cn%0,                            Wei%Hou%houwei@whu.edu.cn%0,                            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Chen%NULL%2,                            Hua%Peng%NULL%1,                            Lin%Wang%NULL%3,                            Yin%Zhao%NULL%1,                            Lingkong%Zeng%NULL%1,                            Hui%Gao%NULL%1,                            Yalan%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao-Yuan%Cheng%NULL%1,                            Shu-Wan%Jian%NULL%1,                            Ding-Ping%Liu%NULL%1,                            Ta-Chou%Ng%NULL%1,                            Wan-Ting%Huang%NULL%1,                            Hsien-Ho%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent C. C.%Cheng%NULL%1,                            Shuk-Ching%Wong%NULL%1,                            Jonathan H. K.%Chen%NULL%1,                            Cyril C. Y.%Yip%NULL%1,                            Vivien W. M.%Chuang%NULL%1,                            Owen T. Y.%Tsang%NULL%1,                            Siddharth%Sridhar%NULL%1,                            Jasper F. W.%Chan%NULL%1,                            Pak-Leung%Ho%NULL%1,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po Ying%Chia%NULL%1,                            Kristen Kelli%Coleman%NULL%2,                            Kristen Kelli%Coleman%NULL%0,                            Yian Kim%Tan%NULL%2,                            Yian Kim%Tan%NULL%0,                            Sean Wei Xiang%Ong%NULL%1,                            Marcus%Gum%NULL%2,                            Marcus%Gum%NULL%0,                            Sok Kiang%Lau%NULL%1,                            Xiao Fang%Lim%NULL%1,                            Ai Sim%Lim%NULL%1,                            Stephanie%Sutjipto%NULL%1,                            Pei Hua%Lee%NULL%1,                            Than The%Son%NULL%1,                            Barnaby Edward%Young%NULL%1,                            Donald K.%Milton%NULL%1,                            Gregory C.%Gray%NULL%2,                            Gregory C.%Gray%NULL%0,                            Stephan%Schuster%NULL%2,                            Stephan%Schuster%NULL%0,                            Timothy%Barkham%NULL%1,                            Partha Pratim%De%NULL%2,                            Partha Pratim%De%NULL%0,                            Shawn%Vasoo%NULL%1,                            Monica%Chan%NULL%1,                            Brenda Sze Peng%Ang%NULL%1,                            Boon Huan%Tan%NULL%1,                            Yee-Sin%Leo%NULL%1,                            Oon-Tek%Ng%Oon_Tek_Ng@ncid.sg%1,                            Michelle Su Yen%Wong%NULL%2,                            Michelle Su Yen%Wong%NULL%0,                            Kalisvar%Marimuthu%kalisvar_marimuthu@ncid.sg%1,                            David Chien%Lye%NULL%2,                            David Chien%Lye%NULL%0,                            Poh Lian%Lim%NULL%1,                            Cheng Chuan%Lee%NULL%1,                            Li Min%Ling%NULL%1,                            Lawrence%Lee%NULL%1,                            Tau Hong%Lee%NULL%1,                            Chen Seong%Wong%NULL%1,                            Sapna%Sadarangani%NULL%1,                            Ray Junhao%Lin%NULL%1,                            Deborah Hee Ling%Ng%NULL%1,                            Mucheli%Sadasiv%NULL%1,                            Tsin Wen%Yeo%NULL%1,                            Chiaw Yee%Choy%NULL%1,                            Glorijoy Shi En%Tan%NULL%1,                            Frederico%Dimatatac%NULL%1,                            Isais Florante%Santos%NULL%1,                            Chi Jong%Go%NULL%1,                            Yu Kit%Chan%NULL%1,                            Jun Yang%Tay%NULL%1,                            Jackie Yu-Ling%Tan%NULL%1,                            Nihar%Pandit%NULL%1,                            Benjamin Choon Heng%Ho%NULL%1,                            Shehara%Mendis%NULL%1,                            Yuan Yi Constance%Chen%NULL%1,                            Mohammad Yazid%Abdad%NULL%1,                            Daniela%Moses%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alex W H%Chin%NULL%1,                            Julie T S%Chu%NULL%1,                            Mahen R A%Perera%NULL%1,                            Kenrie P Y%Hui%NULL%1,                            Hui-Ling%Yen%NULL%1,                            Michael C W%Chan%NULL%1,                            Malik%Peiris%NULL%1,                            Leo L M%Poon%llmpoon@hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%2,                            Daniele%Lapa%NULL%2,                            Fabrizio%Carletti%NULL%2,                            Eleonora%Lalle%NULL%2,                            Licia%Bordi%NULL%2,                            Patrizia%Marsella%NULL%2,                            Emanuele%Nicastri%NULL%2,                            Nazario%Bevilacqua%NULL%2,                            Maria Letizia%Giancola%NULL%2,                            Angela%Corpolongo%NULL%2,                            Giuseppe%Ippolito%NULL%2,                            Maria Rosaria%Capobianchi%NULL%2,                            Concetta%Castilletti%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Francesca%Colavita%NULL%0,                            Daniele%Lapa%NULL%0,                            Fabrizio%Carletti%NULL%0,                            Eleonora%Lalle%NULL%0,                            Licia%Bordi%NULL%0,                            Patrizia%Marsella%NULL%0,                            Emanuele%Nicastri%NULL%0,                            Nazario%Bevilacqua%NULL%0,                            Maria Letizia%Giancola%NULL%0,                            Angela%Corpolongo%NULL%0,                            Giuseppe%Ippolito%NULL%0,                            Maria Rosaria%Capobianchi%NULL%0,                            Concetta%Castilletti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ P.%Cui%null%1,                             Z.% Chen%null%1,                             T.% Wang%null%2,                             J.% Dai%null%1,                             J.% Zhang%null%1,                             T.% Ding%null%1,                             J.% Jiang%null%1,                             J.% Liu%null%1,                             C.% Zhang%null%1,                             W.% Shan%null%1,                             S.% Wang%null%1,                             Y.% Rong%null%1,                             J.% Chang%null%1,                             X.% Miao%null%1,                             X.% Ma%null%1,                             S. % Wang%null%1,         P.%Cui%null%1,         Z.% Chen%null%1,         T.% Wang%null%2,         J.% Dai%null%1,         J.% Zhang%null%0,         T.% Ding%null%1,         J.% Jiang%null%0,         J.% Liu%null%0,         C.% Zhang%null%1,         W.% Shan%null%1,         S.% Wang%null%1,         Y.% Rong%null%1,         J.% Chang%null%1,         X.% Miao%null%1,         X.% Ma%null%0,         S. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yawen%Dong%null%1,                  Tsung-Hao%Liu%null%1,                  Thomas%Yau%null%1,                  Chiun%Hsu%null%1]</t>
+  </si>
+  <si>
+    <t>[Qihong%Fan%NULL%1,                            Yan%Pan%woshipanyan@126.com%1,                            Qingcui%Wu%NULL%1,                            Shan%Liu%NULL%1,                            Xu%Song%NULL%1,                            Zhongguo%Xie%NULL%1,                            Yang%Liu%NULL%1,                            Liang%Zhao%NULL%1,                            Zhonghong%Wang%NULL%1,                            Yifei%Zhang%NULL%1,                            Zuchuang%Wu%NULL%1,                            Lei%Guan%NULL%1,                            Xiaolong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sasan%Faridi%NULL%1,                            Sadegh%Niazi%NULL%1,                            Kaveh%Sadeghi%NULL%1,                            Kazem%Naddafi%NULL%1,                            Jila%Yavarian%NULL%1,                            Mansour%Shamsipour%NULL%1,                            Nazanin Zahra Shafiei%Jandaghi%NULL%1,                            Khosro%Sadeghniiat%NULL%1,                            Ramin%Nabizadeh%NULL%1,                            Masud%Yunesian%NULL%1,                            Fatemeh%Momeniha%NULL%1,                            Adel%Mokamel%NULL%1,                            Mohammad Sadegh%Hassanvand%NULL%1,                            Talat%MokhtariAzad%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To understand the epidemiological characteristics of the cases of COVID-19 epidemic clusters, and explore the influence of family factors and social factors such as group activities on the spread of the disease.
+ Methods: The data of cases of COVID-19 epidemic clusters from 19 January, 2020 to 25 February, 2020 were collected from the official platforms of 36 cities in 6 provinces in China.
+ Descriptive statistical methods, χ(2) test and curve fitting were used to analyze the epidemiological characteristics of the clustered cases.
+ Results: By 25 February, 2020, the data of 1 052 cases in 366 epidemic clusters were collected.
+ In these clustered cases, 86.9%(914/1 050) occurred in families.
+ Among the 1 046 cases with gender information, 513 were males (49.0%) and 533 were females (51.0%).
+ The cases were mainly young adults between 18 and 59 years old, accounting for 68.5% (711/1 038).
+ In the 366 epidemic clusters , the clusters in which the first confirmed cases with the history of sojourn in Wuhan or Hubei accounted for 47.0%(172/366).
+ From 19 January to 3 February, 2020, the first confirmed cases with Wuhan or Hubei sojourn history accounted for 66.5%.
+ From 4 to 25 February, the first confirmed cases who had Wuhan or Hubei sojourn history accounted for only 18.2%.
+ The median of interval between the first generation case onset and the second generation case onset was 5 (2-8) days.
+ The median of onset- diagnosis interval of the initial cases was 6 (3-9) days, and the median of onset-diagnosis interval of the secondary cases was 5 (3-8) days.
+ Conclusions: Epidemic clusters of COVID-19 were common in many cities outside Wuhan and Hubei.
+ Close contact in family was one of the main causes for the spread of household transmission of the virus.
+ After 4 February, the epidemic clusters were mainly caused by the first generation or second generation cases in local areas, and the time for diagnosis became shorter.
+</t>
+  </si>
+  <si>
+    <t>[ H%Gan%elasticNoEmail%1,   Y% Zhang%elasticNoEmail%1,   M% Yuan%elasticNoEmail%1,   X Y% Wu%elasticNoEmail%1,   Z R% Liu%elasticNoEmail%1,   M% Liu%elasticNoEmail%1,   J B% Wu%elasticNoEmail%1,   S J% Xu%elasticNoEmail%1,   L% Gong%elasticNoEmail%1,   H L% Xu%elasticNoEmail%1,   F B% Tao%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Mi Seon%Han%NULL%1,                            Moon-Woo%Seong%NULL%1,                            Eun Young%Heo%NULL%1,                            Ji Hong%Park%NULL%1,                            Namhee%Kim%NULL%1,                            Sue%Shin%NULL%1,                            Sung Im%Cho%NULL%1,                            Sung Sup%Park%NULL%1,                            Eun Hwa%Choi%eunchoi@snu.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Heinzerling%NULL%1,                            Matthew J.%Stuckey%NULL%1,                            Tara%Scheuer%NULL%1,                            Kerui%Xu%NULL%1,                            Kiran M.%Perkins%NULL%1,                            Heather%Resseger%NULL%1,                            Shelley%Magill%NULL%1,                            Jennifer R.%Verani%NULL%1,                            Seema%Jain%NULL%1,                            Meileen%Acosta%NULL%1,                            Erin%Epson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%2,                            Xiuwen%Zhang%NULL%2,                            Xinyue%Zhang%NULL%2,                            Zhijian%Wei%NULL%2,                            Lingli%Zhang%NULL%2,                            Jingjing%Xu%NULL%2,                            Peipei%Liang%NULL%2,                            Yuanhong%Xu%xyhong1964@163.com%0,                            Chengyuan%Zhang%2396476405@qq.com%2,                            Aman%Xu%amanxu@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Lei%Huang%huangleizhenting@126.com%0,                            Xiuwen%Zhang%NULL%0,                            Xinyue%Zhang%NULL%0,                            Zhijian%Wei%NULL%0,                            Lingli%Zhang%NULL%0,                            Jingjing%Xu%NULL%0,                            Peipei%Liang%NULL%0,                            Yuanhong%Xu%xyhong1964@163.com%0,                            Chengyuan%Zhang%2396476405@qq.com%0,                            Aman%Xu%amanxu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Huang%NULL%0,                            Juan%Xia%NULL%1,                            Yuxin%Chen%NULL%1,                            Chun%Shan%NULL%1,                            Chao%Wu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0,                            Rachael%Overcash%NULL%0,                            Neggin%Mokhtari%NULL%0,                            Haleema%Saeed%NULL%0,                            Stacey%Gold%NULL%0,                            Tamika%Auguste%NULL%0,                            Muhammad-Usman%Mirza%NULL%0,                            Maria-Elena%Ruiz%NULL%0,                            Joeffrey J.%Chahine%NULL%0,                            Joeffrey J.%Chahine%NULL%0,                            Masashi%Waga%NULL%0,                            Masashi%Waga%NULL%0,                            Glenn%Wortmann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xuejun%Jiang%NULL%1,                            Mei%Luo%NULL%1,                            Zhen%Zou%NULL%1,                            Xu%Wang%875777340@qq.com%1,                            Chengzhi%Chen%chengzhichen@cqmu.edu.cn%1,                            Jingfu%Qiu%jfqiu@126.com%2,                            Jingfu%Qiu%jfqiu@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Lin%Jiang%NULL%1,                            Xiao-Li%Zhang%NULL%1,                            Xiang-Na%Zhao%NULL%1,                            Cun-Bao%Li%NULL%1,                            Jie%Lei%NULL%2,                            Zeng-Qiang%Kou%NULL%1,                            Wen-Kui%Sun%NULL%1,                            Yang%Hang%NULL%1,                            Feng%Gao%NULL%1,                            Sheng-Xiang%Ji%NULL%1,                            Can-Fang%Lin%NULL%1,                            Bo%Pang%NULL%1,                            Ming-Xiao%Yao%NULL%1,                            Benjamin D%Anderson%NULL%1,                            Guo-Lin%Wang%NULL%1,                            Lin%Yao%NULL%1,                            Li-Jun%Duan%NULL%1,                            Dian-Ming%Kang%dmkang66@163.com%1,                            Mai-Juan%Ma%mjma@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hai T%Le%NULL%1,                            Lam V%Nguyen%NULL%1,                            Dien M%Tran%NULL%1,                            Hai T%Do%NULL%1,                            Huong T%Tran%NULL%1,                            Yen T%Le%NULL%1,                            Phuc H%Phan%phuc.h.phan@nhp.org.vn%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0,                            Jihyang%Lee%NULL%0,                            Jihyang%Lee%NULL%0,                            Eunju%Kim%NULL%0,                            Eunju%Kim%NULL%0,                            Kyeongyoon%Woo%NULL%0,                            Kyeongyoon%Woo%NULL%0,                            Hak Youle%Park%NULL%0,                            Hak Youle%Park%NULL%0,                            Jihyun%An%NULL%0,                            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chunyang%Li%NULL%1,                            Fang%Ji%NULL%1,                            Liang%Wang%NULL%1,                            Liping%Wang%NULL%1,                            Jungui%Hao%NULL%1,                            Mingjia%Dai%NULL%1,                            Yan%Liu%NULL%0,                            Xiucheng%Pan%NULL%1,                            Juanjuan%Fu%NULL%1,                            Li%Li%NULL%0,                            Guangde%Yang%NULL%1,                            Jianye%Yang%NULL%1,                            Xuebing%Yan%NULL%1,                            Bing%Gu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diangeng%Li%NULL%1,                            Meiling%Jin%NULL%1,                            Pengtao%Bao%NULL%1,                            Weiguo%Zhao%NULL%1,                            Shixi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                            Lefei%Han%NULL%2,                            Min%Peng%2658706528@qq.com%2,                            Yuxia%Lv%NULL%2,                            Yin%Ouyang%NULL%2,                            Kui%Liu%NULL%0,                            Linli%Yue%NULL%2,                            Qiannan%Li%NULL%2,                            Guoqiang%Sun%NULL%2,                            Lin%Chen%NULL%2,                            Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Li%NULL%1,                            Bo%Zhang%NULL%2,                            Jianhua%Lu%NULL%1,                            Shihua%Liu%NULL%1,                            Zhiqiang%Chang%NULL%1,                            Peng%Cao%NULL%1,                            Xinhua%Liu%NULL%1,                            Peng%Zhang%NULL%2,                            Yan%Ling%NULL%1,                            Kaixiong%Tao%NULL%1,                            Jianying%Chen%Bobytail@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0,                            Yingying%Hu%NULL%2,                            Yingying%Hu%NULL%0,                            Yuanyuan%Yu%NULL%1,                            Xiaodong%Zhang%NULL%1,                            Bin%Li%NULL%1,                            Jianguo%Wu%NULL%1,                            Junyu%Li%NULL%1,                            Yingping%Wu%NULL%1,                            Xiaoping%Xia%NULL%2,                            Xiaoping%Xia%NULL%0,                            Huina%Tang%NULL%1,                            Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[ Y.%Li%null%1,                             H.% Qian%null%1,                             J.% Hang%null%1,                             X.% Chen%null%1,                             L.% Hong%null%1,                             P.% Liang%null%1,                             J.% Li%null%1,                             S.% Xiao%null%1,                             J.% Wei%null%1,                             L.% Liu%null%2,                             M. % Kang%null%1,         Y.%Li%null%1,         H.% Qian%null%1,         J.% Hang%null%1,         X.% Chen%null%0,         L.% Hong%null%1,         P.% Liang%null%1,         J.% Li%null%0,         S.% Xiao%null%1,         J.% Wei%null%1,         L.% Liu%null%2,         M. % Kang%null%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Jing%Wang%NULL%3,                            Wenbin%Li%NULL%1,                            Zhaoxian%Zhou%NULL%1,                            Siying%Liu%NULL%1,                            Zhihui%Rong%rongzhihui53@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3876,7 +4110,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>1035</v>
+        <v>1106</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3908,7 +4142,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>1036</v>
+        <v>1107</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3940,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>1037</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3972,7 +4206,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>1038</v>
+        <v>1109</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4004,7 +4238,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>1039</v>
+        <v>1110</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -4036,7 +4270,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -4068,7 +4302,7 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>1040</v>
+        <v>1111</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -4100,7 +4334,7 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>1041</v>
+        <v>1112</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -4132,7 +4366,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>1042</v>
+        <v>1113</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -4164,7 +4398,7 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>1043</v>
+        <v>1114</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -4196,7 +4430,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>1044</v>
+        <v>1115</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -4228,7 +4462,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>1045</v>
+        <v>1116</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4260,7 +4494,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>1046</v>
+        <v>1117</v>
       </c>
       <c r="F14" t="s">
         <v>98</v>
@@ -4292,7 +4526,7 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>1047</v>
+        <v>1118</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -4324,7 +4558,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -4356,7 +4590,7 @@
         <v>557</v>
       </c>
       <c r="E17" t="s">
-        <v>1048</v>
+        <v>1119</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4388,7 +4622,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>1049</v>
+        <v>1120</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -4420,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>1050</v>
+        <v>1121</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -4446,22 +4680,22 @@
         <v>44022.0</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>1084</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>1122</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>1123</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>1087</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>1088</v>
       </c>
       <c r="I20" t="s">
         <v>57</v>
@@ -4484,7 +4718,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>1051</v>
+        <v>1124</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -4516,7 +4750,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>1052</v>
+        <v>1125</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4548,7 +4782,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>1053</v>
+        <v>1126</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -4580,7 +4814,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>1054</v>
+        <v>1127</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -4612,7 +4846,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>1055</v>
+        <v>1128</v>
       </c>
       <c r="F25" t="s">
         <v>133</v>
@@ -4644,7 +4878,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>1056</v>
+        <v>1129</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -4676,7 +4910,7 @@
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>1057</v>
+        <v>1130</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
@@ -4708,7 +4942,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>1058</v>
+        <v>1131</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -4772,7 +5006,7 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>1059</v>
+        <v>1132</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -4804,7 +5038,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>1060</v>
+        <v>1133</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -4836,7 +5070,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>1060</v>
+        <v>1133</v>
       </c>
       <c r="F32" t="s">
         <v>156</v>
@@ -4868,7 +5102,7 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>1061</v>
+        <v>1134</v>
       </c>
       <c r="F33" t="s">
         <v>162</v>
@@ -4900,7 +5134,7 @@
         <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>1062</v>
+        <v>1135</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -4932,7 +5166,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1063</v>
+        <v>1136</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4964,7 +5198,7 @@
         <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="F36" t="s">
         <v>175</v>
@@ -4996,7 +5230,7 @@
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>1065</v>
+        <v>1138</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -5028,7 +5262,7 @@
         <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>1066</v>
+        <v>1139</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5060,7 +5294,7 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>1067</v>
+        <v>1140</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
